--- a/.private/房子.xlsx
+++ b/.private/房子.xlsx
@@ -10,20 +10,18 @@
     <sheet name="买房" sheetId="1" r:id="rId1"/>
     <sheet name="装修-绿通及齐家" sheetId="4" r:id="rId2"/>
     <sheet name="装修-自购" sheetId="5" r:id="rId3"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId4"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId5"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">买房!$A$1:$C$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'装修-绿通及齐家'!$A$1:$H$1</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'装修-自购'!$A$1:$H$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'装修-自购'!$A$1:$G$1</definedName>
   </definedNames>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="78">
   <si>
     <t>付定金４万，张浦发银行转帐。</t>
   </si>
@@ -37,10 +35,6 @@
   </si>
   <si>
     <t>尾款</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>绿通装修公司定金100，现金</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -242,10 +236,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>凤铝铝合金窗定金100，现金：</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>橱柜定金200，现金：
 左下柜750/m,右下柜850/m,上柜350/m,洗手间750；卫生间450</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -272,18 +262,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>弱电线</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>30米有线电视线+30米电话线+50米网线 464，支付宝</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>弱电箱，支付宝</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>总款26200，分阶段分别付清20%，40%，20%，押齐家20%</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -305,10 +283,6 @@
   </si>
   <si>
     <t>墙面漆</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>防盗门</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -366,39 +340,6 @@
   </si>
   <si>
     <t>地板</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>厨卫</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>+</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>客餐厅</t>
-    </r>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -549,12 +490,296 @@
     </r>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
+  <si>
+    <t>整体</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>断路器</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>起凡</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>C16两个（灯回路）10
+C20四个（插座：2个房间+卫生间+厨房间+客餐厅）10*4
+C25两个（2个房间空调）12*2
+C32一个（客厅空调）12*2
+总开关一个 30</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>有线电视线</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>电话线</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>网线</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>支付宝</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>2012-12-24</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>支付</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>200</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>定金，现金</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>防盗门-星月神</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>强电箱-欧贝尔</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>卧室</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>客餐厅</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>总款</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>燃气管</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>厨房</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>丽居园建材市场</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>第一家</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>电线pvc穿线管</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>整体</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2012-11-17：凤铝铝合金窗定金100，现金
+2012-11-25：窗户测量，总款5500，未支付</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>骏仕陶瓷</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>-862</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>骏仕陶瓷</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>简典</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>030</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，交定金</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>50</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>联系人</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>王新星：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>13817967481</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>；</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+60470690</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="7">
+  <fonts count="11">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -606,6 +831,33 @@
       <family val="3"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10.5"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -650,7 +902,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -681,9 +933,6 @@
     <xf numFmtId="9" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="14" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -695,6 +944,30 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1071,14 +1344,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:28" ht="18.75">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="C1" s="14" t="s">
-        <v>14</v>
+      <c r="C1" s="13" t="s">
+        <v>13</v>
       </c>
       <c r="D1" s="2"/>
       <c r="E1" s="2"/>
@@ -1150,7 +1423,7 @@
         <v>13000</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
@@ -1186,7 +1459,7 @@
         <v>350000</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
@@ -1222,7 +1495,7 @@
         <v>1600</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
@@ -1258,7 +1531,7 @@
         <v>13000</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
@@ -1359,7 +1632,7 @@
       <c r="AB8" s="2"/>
     </row>
     <row r="9" spans="1:28">
-      <c r="A9" s="11"/>
+      <c r="A9" s="10"/>
       <c r="B9" s="7"/>
       <c r="C9" s="6" t="s">
         <v>1</v>
@@ -6805,8 +7078,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AE183"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="H29" sqref="H29"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H34" sqref="H34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -6816,34 +7089,34 @@
     <col min="3" max="3" width="10.125" customWidth="1"/>
     <col min="4" max="4" width="14.25" customWidth="1"/>
     <col min="5" max="5" width="8.625" customWidth="1"/>
-    <col min="6" max="6" width="7" customWidth="1"/>
+    <col min="6" max="6" width="8" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="55" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:31" ht="18.75">
       <c r="A1" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="F1" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="C1" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="D1" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="E1" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="F1" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="G1" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="14" t="s">
-        <v>14</v>
+      <c r="H1" s="13" t="s">
+        <v>13</v>
       </c>
       <c r="I1" s="2"/>
       <c r="J1" s="2"/>
@@ -6870,28 +7143,30 @@
       <c r="AE1" s="2"/>
     </row>
     <row r="2" spans="1:31">
-      <c r="A2" s="3"/>
-      <c r="B2" s="12" t="s">
+      <c r="A2" s="3">
+        <v>41231</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="C2" s="12" t="s">
+      <c r="D2" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="D2" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="E2" s="12">
+      <c r="E2" s="11">
         <v>26200</v>
       </c>
-      <c r="F2" s="12">
+      <c r="F2" s="11">
         <v>1</v>
       </c>
-      <c r="G2" s="13">
-        <f t="shared" ref="G2:G3" si="0">E2*F2</f>
+      <c r="G2" s="12">
+        <f t="shared" ref="G2" si="0">E2*F2</f>
         <v>26200</v>
       </c>
-      <c r="H2" s="12" t="s">
-        <v>36</v>
+      <c r="H2" s="11" t="s">
+        <v>31</v>
       </c>
       <c r="I2" s="2"/>
       <c r="J2" s="2"/>
@@ -6917,18 +7192,18 @@
       <c r="AD2" s="2"/>
       <c r="AE2" s="2"/>
     </row>
-    <row r="3" spans="1:31">
+    <row r="3" spans="1:31" ht="27">
       <c r="A3" s="3">
         <v>41231</v>
       </c>
       <c r="B3" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="D3" s="4" t="s">
         <v>20</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>21</v>
       </c>
       <c r="E3" s="4">
         <v>100</v>
@@ -6941,7 +7216,7 @@
         <v>100</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>4</v>
+        <v>26</v>
       </c>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
@@ -6969,16 +7244,16 @@
     </row>
     <row r="4" spans="1:31">
       <c r="A4" s="3">
-        <v>41237</v>
+        <v>41232</v>
       </c>
       <c r="B4" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C4" s="4" t="s">
-        <v>20</v>
-      </c>
       <c r="D4" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E4" s="4">
         <v>26200</v>
@@ -6991,7 +7266,7 @@
         <v>5240</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="I4" s="2"/>
       <c r="J4" s="2"/>
@@ -7018,15 +7293,17 @@
       <c r="AE4" s="2"/>
     </row>
     <row r="5" spans="1:31">
-      <c r="A5" s="3"/>
+      <c r="A5" s="3">
+        <v>41233</v>
+      </c>
       <c r="B5" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C5" s="4" t="s">
-        <v>20</v>
-      </c>
       <c r="D5" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E5" s="4">
         <v>100</v>
@@ -7039,7 +7316,7 @@
         <v>100</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="I5" s="2"/>
       <c r="J5" s="2"/>
@@ -7071,7 +7348,9 @@
       <c r="C6" s="4"/>
       <c r="D6" s="4"/>
       <c r="E6" s="4"/>
-      <c r="F6" s="4"/>
+      <c r="F6" s="4" t="s">
+        <v>66</v>
+      </c>
       <c r="G6" s="1"/>
       <c r="H6" s="4"/>
       <c r="I6" s="2"/>
@@ -7998,8 +8277,13 @@
       <c r="C34" s="2"/>
       <c r="D34" s="2"/>
       <c r="E34" s="2"/>
-      <c r="F34" s="2"/>
-      <c r="G34" s="2"/>
+      <c r="F34" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="G34" s="16">
+        <f>SUM(G29+'装修-自购'!F42)</f>
+        <v>19279</v>
+      </c>
       <c r="H34" s="2"/>
       <c r="I34" s="2"/>
       <c r="J34" s="2"/>
@@ -12955,51 +13239,54 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AE191"/>
+  <dimension ref="A1:AE196"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B26" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="F42" sqref="F42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="10.25" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.125" customWidth="1"/>
-    <col min="3" max="3" width="11.625" customWidth="1"/>
-    <col min="4" max="4" width="14.25" customWidth="1"/>
-    <col min="5" max="5" width="8.625" customWidth="1"/>
-    <col min="6" max="6" width="7" customWidth="1"/>
-    <col min="8" max="8" width="55" customWidth="1"/>
-    <col min="9" max="9" width="11.625" customWidth="1"/>
+    <col min="1" max="1" width="8.125" customWidth="1"/>
+    <col min="2" max="2" width="11.625" customWidth="1"/>
+    <col min="3" max="3" width="14.25" customWidth="1"/>
+    <col min="4" max="4" width="8.625" customWidth="1"/>
+    <col min="5" max="5" width="7" customWidth="1"/>
+    <col min="7" max="7" width="22.375" customWidth="1"/>
+    <col min="8" max="8" width="14.5" customWidth="1"/>
+    <col min="9" max="9" width="10.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:31" ht="18.75">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="C1" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="D1" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="E1" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="F1" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="G1" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="I1" s="14" t="s">
-        <v>5</v>
+      <c r="G1" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="H1" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="I1" s="8" t="s">
+        <v>4</v>
       </c>
       <c r="J1" s="2"/>
       <c r="K1" s="2"/>
@@ -13024,9 +13311,9 @@
       <c r="AD1" s="2"/>
       <c r="AE1" s="2"/>
     </row>
-    <row r="2" spans="1:31" ht="42.75">
-      <c r="A2" s="3">
-        <v>41173</v>
+    <row r="2" spans="1:31" ht="57">
+      <c r="A2" s="4" t="s">
+        <v>10</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>11</v>
@@ -13034,24 +13321,22 @@
       <c r="C2" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="4" t="s">
-        <v>13</v>
+      <c r="D2" s="4">
+        <v>8350</v>
       </c>
       <c r="E2" s="4">
+        <v>1</v>
+      </c>
+      <c r="F2" s="1">
+        <f>D2*E2</f>
         <v>8350</v>
       </c>
-      <c r="F2" s="4">
-        <v>1</v>
-      </c>
-      <c r="G2" s="1">
-        <f>E2*F2</f>
-        <v>8350</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="I2" s="10">
-        <v>41174</v>
+      <c r="G2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H2" s="1"/>
+      <c r="I2" s="3">
+        <v>41173</v>
       </c>
       <c r="J2" s="2"/>
       <c r="K2" s="2"/>
@@ -13076,34 +13361,32 @@
       <c r="AD2" s="2"/>
       <c r="AE2" s="2"/>
     </row>
-    <row r="3" spans="1:31" ht="27">
-      <c r="A3" s="3">
+    <row r="3" spans="1:31" ht="54">
+      <c r="A3" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" s="4">
+        <v>200</v>
+      </c>
+      <c r="E3" s="4">
+        <v>1</v>
+      </c>
+      <c r="F3" s="1">
+        <f>D3*E3</f>
+        <v>200</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="H3" s="4"/>
+      <c r="I3" s="3">
         <v>41216</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="E3" s="4">
-        <v>200</v>
-      </c>
-      <c r="F3" s="4">
-        <v>1</v>
-      </c>
-      <c r="G3" s="1">
-        <f t="shared" ref="G3:G36" si="0">E3*F3</f>
-        <v>200</v>
-      </c>
-      <c r="H3" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="I3" s="10">
-        <v>41202</v>
       </c>
       <c r="J3" s="2"/>
       <c r="K3" s="2"/>
@@ -13128,34 +13411,32 @@
       <c r="AD3" s="2"/>
       <c r="AE3" s="2"/>
     </row>
-    <row r="4" spans="1:31">
-      <c r="A4" s="3">
+    <row r="4" spans="1:31" ht="54">
+      <c r="A4" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" s="4">
+        <v>100</v>
+      </c>
+      <c r="E4" s="4">
+        <v>1</v>
+      </c>
+      <c r="F4" s="1">
+        <f t="shared" ref="F4:F41" si="0">D4*E4</f>
+        <v>100</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="H4" s="4"/>
+      <c r="I4" s="3">
         <v>41230</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="E4" s="4">
-        <v>100</v>
-      </c>
-      <c r="F4" s="4">
-        <v>1</v>
-      </c>
-      <c r="G4" s="1">
-        <f t="shared" si="0"/>
-        <v>100</v>
-      </c>
-      <c r="H4" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="I4" s="10">
-        <v>41202</v>
       </c>
       <c r="J4" s="2"/>
       <c r="K4" s="2"/>
@@ -13180,34 +13461,32 @@
       <c r="AD4" s="2"/>
       <c r="AE4" s="2"/>
     </row>
-    <row r="5" spans="1:31" ht="27">
-      <c r="A5" s="3">
-        <v>41231</v>
+    <row r="5" spans="1:31">
+      <c r="A5" s="4" t="s">
+        <v>30</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>19</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="D5" s="4" t="s">
         <v>21</v>
       </c>
+      <c r="D5" s="4">
+        <v>249</v>
+      </c>
       <c r="E5" s="4">
-        <v>100</v>
-      </c>
-      <c r="F5" s="4">
         <v>1</v>
       </c>
-      <c r="G5" s="1">
-        <f t="shared" si="0"/>
-        <v>100</v>
-      </c>
-      <c r="H5" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="I5" s="10">
-        <v>41203</v>
+      <c r="F5" s="1">
+        <f>D5*E5</f>
+        <v>249</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="H5" s="4"/>
+      <c r="I5" s="3">
+        <v>41231</v>
       </c>
       <c r="J5" s="2"/>
       <c r="K5" s="2"/>
@@ -13232,35 +13511,31 @@
       <c r="AD5" s="2"/>
       <c r="AE5" s="2"/>
     </row>
-    <row r="6" spans="1:31">
-      <c r="A6" s="3">
-        <v>41231</v>
+    <row r="6" spans="1:31" ht="27">
+      <c r="A6" s="4" t="s">
+        <v>57</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
+      </c>
+      <c r="D6" s="4">
+        <v>2.2999999999999998</v>
       </c>
       <c r="E6" s="4">
-        <v>249</v>
-      </c>
-      <c r="F6" s="4">
-        <v>1</v>
-      </c>
-      <c r="G6" s="1">
-        <f t="shared" si="0"/>
-        <v>249</v>
-      </c>
-      <c r="H6" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="I6" s="10">
-        <v>41205</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="F6" s="1">
+        <f>D6*E6</f>
+        <v>69</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="H6" s="4"/>
+      <c r="I6" s="3"/>
       <c r="J6" s="2"/>
       <c r="K6" s="2"/>
       <c r="L6" s="2"/>
@@ -13285,32 +13560,30 @@
       <c r="AE6" s="2"/>
     </row>
     <row r="7" spans="1:31">
-      <c r="A7" s="3"/>
+      <c r="A7" s="4" t="s">
+        <v>58</v>
+      </c>
       <c r="B7" s="4" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
+      </c>
+      <c r="D7" s="4">
+        <v>1</v>
       </c>
       <c r="E7" s="4">
-        <v>215</v>
-      </c>
-      <c r="F7" s="4">
-        <v>1</v>
-      </c>
-      <c r="G7" s="1">
-        <f t="shared" si="0"/>
-        <v>215</v>
-      </c>
-      <c r="H7" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="I7" s="10">
-        <v>41205</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="F7" s="1">
+        <f t="shared" ref="F7:F8" si="1">D7*E7</f>
+        <v>30</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="H7" s="4"/>
+      <c r="I7" s="3"/>
       <c r="J7" s="2"/>
       <c r="K7" s="2"/>
       <c r="L7" s="2"/>
@@ -13335,24 +13608,30 @@
       <c r="AE7" s="2"/>
     </row>
     <row r="8" spans="1:31">
-      <c r="A8" s="3">
-        <v>41237</v>
+      <c r="A8" s="4" t="s">
+        <v>59</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="9"/>
-      <c r="G8" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <v>21</v>
+      </c>
+      <c r="D8" s="4">
+        <v>3</v>
+      </c>
+      <c r="E8" s="4">
+        <v>50</v>
+      </c>
+      <c r="F8" s="1">
+        <f t="shared" si="1"/>
+        <v>150</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>60</v>
       </c>
       <c r="H8" s="4"/>
-      <c r="I8" s="4"/>
+      <c r="I8" s="3"/>
       <c r="J8" s="2"/>
       <c r="K8" s="2"/>
       <c r="L8" s="2"/>
@@ -13376,23 +13655,33 @@
       <c r="AD8" s="2"/>
       <c r="AE8" s="2"/>
     </row>
-    <row r="9" spans="1:31">
-      <c r="A9" s="3"/>
+    <row r="9" spans="1:31" ht="27">
+      <c r="A9" s="4" t="s">
+        <v>62</v>
+      </c>
       <c r="B9" s="4" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
-      <c r="G9" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H9" s="4"/>
-      <c r="I9" s="4"/>
+        <v>15</v>
+      </c>
+      <c r="D9" s="14">
+        <v>1280</v>
+      </c>
+      <c r="E9" s="14">
+        <v>1</v>
+      </c>
+      <c r="F9" s="14">
+        <f>D9*E9</f>
+        <v>1280</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="H9" s="1"/>
+      <c r="I9" s="3">
+        <v>41237</v>
+      </c>
       <c r="J9" s="2"/>
       <c r="K9" s="2"/>
       <c r="L9" s="2"/>
@@ -13416,23 +13705,35 @@
       <c r="AD9" s="2"/>
       <c r="AE9" s="2"/>
     </row>
-    <row r="10" spans="1:31">
-      <c r="A10" s="3"/>
-      <c r="B10" s="4" t="s">
-        <v>31</v>
+    <row r="10" spans="1:31" ht="56.25">
+      <c r="A10" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4"/>
-      <c r="F10" s="4"/>
-      <c r="G10" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H10" s="4"/>
-      <c r="I10" s="4"/>
+        <v>15</v>
+      </c>
+      <c r="D10" s="1">
+        <v>4.5</v>
+      </c>
+      <c r="E10" s="1">
+        <v>280</v>
+      </c>
+      <c r="F10" s="1">
+        <f>D10*E10</f>
+        <v>1260</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="I10" s="3">
+        <v>41238</v>
+      </c>
       <c r="J10" s="2"/>
       <c r="K10" s="2"/>
       <c r="L10" s="2"/>
@@ -13457,24 +13758,32 @@
       <c r="AE10" s="2"/>
     </row>
     <row r="11" spans="1:31">
-      <c r="A11" s="3"/>
-      <c r="B11" s="4" t="s">
-        <v>39</v>
+      <c r="A11" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="E11" s="4"/>
-      <c r="F11" s="4"/>
-      <c r="G11" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H11" s="4"/>
-      <c r="I11" s="4"/>
+        <v>15</v>
+      </c>
+      <c r="D11" s="1">
+        <v>4.2</v>
+      </c>
+      <c r="E11" s="1">
+        <v>165</v>
+      </c>
+      <c r="F11" s="1">
+        <f>D11*E11</f>
+        <v>693</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="H11" s="1"/>
+      <c r="I11" s="3">
+        <v>41238</v>
+      </c>
       <c r="J11" s="2"/>
       <c r="K11" s="2"/>
       <c r="L11" s="2"/>
@@ -13498,25 +13807,29 @@
       <c r="AD11" s="2"/>
       <c r="AE11" s="2"/>
     </row>
-    <row r="12" spans="1:31">
-      <c r="A12" s="3"/>
+    <row r="12" spans="1:31" ht="27">
+      <c r="A12" s="4" t="s">
+        <v>63</v>
+      </c>
       <c r="B12" s="4" t="s">
-        <v>40</v>
+        <v>53</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="E12" s="4"/>
-      <c r="F12" s="4"/>
-      <c r="G12" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="D12" s="4">
+        <v>50</v>
+      </c>
+      <c r="E12" s="4">
+        <v>1</v>
+      </c>
+      <c r="F12" s="1">
+        <f t="shared" ref="F12:F13" si="2">D12*E12</f>
+        <v>50</v>
+      </c>
+      <c r="G12" s="4"/>
       <c r="H12" s="4"/>
-      <c r="I12" s="4"/>
+      <c r="I12" s="3"/>
       <c r="J12" s="2"/>
       <c r="K12" s="2"/>
       <c r="L12" s="2"/>
@@ -13540,25 +13853,31 @@
       <c r="AD12" s="2"/>
       <c r="AE12" s="2"/>
     </row>
-    <row r="13" spans="1:31">
-      <c r="A13" s="5"/>
+    <row r="13" spans="1:31" ht="81">
+      <c r="A13" s="4" t="s">
+        <v>54</v>
+      </c>
       <c r="B13" s="4" t="s">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="D13" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
-      <c r="G13" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H13" s="1"/>
-      <c r="I13" s="4"/>
+        <v>15</v>
+      </c>
+      <c r="D13" s="4">
+        <v>128</v>
+      </c>
+      <c r="E13" s="4">
+        <v>1</v>
+      </c>
+      <c r="F13" s="1">
+        <f t="shared" si="2"/>
+        <v>128</v>
+      </c>
+      <c r="G13" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="H13" s="4"/>
+      <c r="I13" s="3"/>
       <c r="J13" s="2"/>
       <c r="K13" s="2"/>
       <c r="L13" s="2"/>
@@ -13583,24 +13902,30 @@
       <c r="AE13" s="2"/>
     </row>
     <row r="14" spans="1:31">
-      <c r="A14" s="5"/>
+      <c r="A14" s="4" t="s">
+        <v>27</v>
+      </c>
       <c r="B14" s="4" t="s">
-        <v>42</v>
+        <v>19</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="D14" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
-      <c r="G14" s="1">
+        <v>15</v>
+      </c>
+      <c r="D14" s="4">
+        <v>85</v>
+      </c>
+      <c r="E14" s="4">
+        <v>4</v>
+      </c>
+      <c r="F14" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H14" s="1"/>
-      <c r="I14" s="4"/>
+        <v>340</v>
+      </c>
+      <c r="G14" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="H14" s="4"/>
+      <c r="I14" s="3"/>
       <c r="J14" s="2"/>
       <c r="K14" s="2"/>
       <c r="L14" s="2"/>
@@ -13625,26 +13950,30 @@
       <c r="AE14" s="2"/>
     </row>
     <row r="15" spans="1:31">
-      <c r="A15" s="5"/>
+      <c r="A15" s="4" t="s">
+        <v>28</v>
+      </c>
       <c r="B15" s="4" t="s">
-        <v>44</v>
+        <v>19</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="D15" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="E15" s="1"/>
-      <c r="F15" s="1"/>
-      <c r="G15" s="1">
+        <v>15</v>
+      </c>
+      <c r="D15" s="4">
+        <v>140</v>
+      </c>
+      <c r="E15" s="4">
+        <v>6</v>
+      </c>
+      <c r="F15" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H15" s="1"/>
-      <c r="I15" s="4"/>
+        <v>840</v>
+      </c>
+      <c r="G15" s="4"/>
+      <c r="H15" s="4"/>
+      <c r="I15" s="3"/>
       <c r="J15" s="2"/>
-      <c r="K15" s="2"/>
+      <c r="K15" s="3"/>
       <c r="L15" s="2"/>
       <c r="M15" s="2"/>
       <c r="N15" s="2"/>
@@ -13667,24 +13996,28 @@
       <c r="AE15" s="2"/>
     </row>
     <row r="16" spans="1:31">
-      <c r="A16" s="5"/>
+      <c r="A16" s="4" t="s">
+        <v>29</v>
+      </c>
       <c r="B16" s="4" t="s">
-        <v>51</v>
+        <v>19</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
+        <v>15</v>
+      </c>
+      <c r="D16" s="4">
+        <v>2.5</v>
+      </c>
+      <c r="E16" s="4">
+        <v>40</v>
+      </c>
       <c r="F16" s="1">
-        <v>1</v>
-      </c>
-      <c r="G16" s="1">
-        <f>E16*F16</f>
-        <v>0</v>
-      </c>
-      <c r="H16" s="1"/>
-      <c r="I16" s="4"/>
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+      <c r="G16" s="4"/>
+      <c r="H16" s="4"/>
+      <c r="I16" s="3"/>
       <c r="J16" s="2"/>
       <c r="K16" s="2"/>
       <c r="L16" s="2"/>
@@ -13708,67 +14041,73 @@
       <c r="AD16" s="2"/>
       <c r="AE16" s="2"/>
     </row>
-    <row r="17" spans="1:31">
-      <c r="A17" s="5"/>
-      <c r="B17" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="C17" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="D17" s="1"/>
-      <c r="E17" s="1"/>
-      <c r="F17" s="1">
-        <v>2</v>
-      </c>
-      <c r="G17" s="1">
-        <f>E17*F17</f>
+    <row r="17" spans="1:31" s="21" customFormat="1">
+      <c r="A17" s="17" t="s">
+        <v>67</v>
+      </c>
+      <c r="B17" s="17" t="s">
+        <v>68</v>
+      </c>
+      <c r="C17" s="17" t="s">
+        <v>69</v>
+      </c>
+      <c r="D17" s="17">
+        <v>25</v>
+      </c>
+      <c r="E17" s="17"/>
+      <c r="F17" s="18">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H17" s="1"/>
-      <c r="I17" s="4"/>
-      <c r="J17" s="2"/>
-      <c r="K17" s="2"/>
-      <c r="L17" s="2"/>
-      <c r="M17" s="2"/>
-      <c r="N17" s="2"/>
-      <c r="O17" s="2"/>
-      <c r="P17" s="2"/>
-      <c r="Q17" s="2"/>
-      <c r="R17" s="2"/>
-      <c r="S17" s="2"/>
-      <c r="T17" s="2"/>
-      <c r="U17" s="2"/>
-      <c r="V17" s="2"/>
-      <c r="W17" s="2"/>
-      <c r="X17" s="2"/>
-      <c r="Y17" s="2"/>
-      <c r="Z17" s="2"/>
-      <c r="AA17" s="2"/>
-      <c r="AB17" s="2"/>
-      <c r="AC17" s="2"/>
-      <c r="AD17" s="2"/>
-      <c r="AE17" s="2"/>
+      <c r="G17" s="17" t="s">
+        <v>70</v>
+      </c>
+      <c r="H17" s="17"/>
+      <c r="I17" s="19"/>
+      <c r="J17" s="20"/>
+      <c r="K17" s="20"/>
+      <c r="L17" s="20"/>
+      <c r="M17" s="20"/>
+      <c r="N17" s="20"/>
+      <c r="O17" s="20"/>
+      <c r="P17" s="20"/>
+      <c r="Q17" s="20"/>
+      <c r="R17" s="20"/>
+      <c r="S17" s="20"/>
+      <c r="T17" s="20"/>
+      <c r="U17" s="20"/>
+      <c r="V17" s="20"/>
+      <c r="W17" s="20"/>
+      <c r="X17" s="20"/>
+      <c r="Y17" s="20"/>
+      <c r="Z17" s="20"/>
+      <c r="AA17" s="20"/>
+      <c r="AB17" s="20"/>
+      <c r="AC17" s="20"/>
+      <c r="AD17" s="20"/>
+      <c r="AE17" s="20"/>
     </row>
     <row r="18" spans="1:31">
-      <c r="A18" s="5"/>
+      <c r="A18" s="4" t="s">
+        <v>34</v>
+      </c>
       <c r="B18" s="4" t="s">
-        <v>53</v>
+        <v>19</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D18" s="1"/>
-      <c r="E18" s="1"/>
+        <v>15</v>
+      </c>
+      <c r="D18" s="4">
+        <v>6.8</v>
+      </c>
+      <c r="E18" s="4"/>
       <c r="F18" s="1">
-        <v>1</v>
-      </c>
-      <c r="G18" s="1">
-        <f t="shared" ref="G18:G21" si="1">E18*F18</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H18" s="1"/>
-      <c r="I18" s="4"/>
+      <c r="G18" s="4"/>
+      <c r="H18" s="4"/>
+      <c r="I18" s="3"/>
       <c r="J18" s="2"/>
       <c r="K18" s="2"/>
       <c r="L18" s="2"/>
@@ -13792,25 +14131,27 @@
       <c r="AD18" s="2"/>
       <c r="AE18" s="2"/>
     </row>
-    <row r="19" spans="1:31">
-      <c r="A19" s="5"/>
+    <row r="19" spans="1:31" ht="27">
+      <c r="A19" s="4" t="s">
+        <v>71</v>
+      </c>
       <c r="B19" s="4" t="s">
-        <v>53</v>
+        <v>72</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="D19" s="1"/>
-      <c r="E19" s="1"/>
+        <v>15</v>
+      </c>
+      <c r="D19" s="4">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="E19" s="4"/>
       <c r="F19" s="1">
-        <v>1</v>
-      </c>
-      <c r="G19" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H19" s="1"/>
-      <c r="I19" s="4"/>
+      <c r="G19" s="4"/>
+      <c r="H19" s="4"/>
+      <c r="I19" s="3"/>
       <c r="J19" s="2"/>
       <c r="K19" s="2"/>
       <c r="L19" s="2"/>
@@ -13835,24 +14176,23 @@
       <c r="AE19" s="2"/>
     </row>
     <row r="20" spans="1:31">
-      <c r="A20" s="5"/>
+      <c r="A20" s="4" t="s">
+        <v>35</v>
+      </c>
       <c r="B20" s="4" t="s">
-        <v>53</v>
+        <v>19</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="D20" s="1"/>
-      <c r="E20" s="1"/>
+        <v>15</v>
+      </c>
+      <c r="E20" s="4"/>
       <c r="F20" s="1">
-        <v>2</v>
-      </c>
-      <c r="G20" s="1">
-        <f t="shared" si="1"/>
+        <f>D18*E20</f>
         <v>0</v>
       </c>
-      <c r="H20" s="1"/>
-      <c r="I20" s="4"/>
+      <c r="G20" s="4"/>
+      <c r="H20" s="4"/>
+      <c r="I20" s="3"/>
       <c r="J20" s="2"/>
       <c r="K20" s="2"/>
       <c r="L20" s="2"/>
@@ -13877,22 +14217,24 @@
       <c r="AE20" s="2"/>
     </row>
     <row r="21" spans="1:31">
-      <c r="A21" s="5"/>
+      <c r="A21" s="4" t="s">
+        <v>36</v>
+      </c>
       <c r="B21" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="C21" s="4"/>
+        <v>19</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>15</v>
+      </c>
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
       <c r="F21" s="1">
-        <v>20</v>
-      </c>
-      <c r="G21" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
+      <c r="G21" s="1"/>
       <c r="H21" s="1"/>
-      <c r="I21" s="4"/>
+      <c r="I21" s="3"/>
       <c r="J21" s="2"/>
       <c r="K21" s="2"/>
       <c r="L21" s="2"/>
@@ -13917,24 +14259,22 @@
       <c r="AE21" s="2"/>
     </row>
     <row r="22" spans="1:31">
-      <c r="A22" s="5"/>
+      <c r="A22" s="4" t="s">
+        <v>38</v>
+      </c>
       <c r="B22" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="D22" s="4" t="s">
-        <v>16</v>
-      </c>
+        <v>41</v>
+      </c>
+      <c r="C22" s="4"/>
+      <c r="D22" s="1"/>
       <c r="E22" s="1"/>
-      <c r="F22" s="1"/>
-      <c r="G22" s="1">
+      <c r="F22" s="1">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
+      <c r="G22" s="1"/>
       <c r="H22" s="1"/>
-      <c r="I22" s="1"/>
+      <c r="I22" s="3"/>
       <c r="J22" s="2"/>
       <c r="K22" s="2"/>
       <c r="L22" s="2"/>
@@ -13959,24 +14299,24 @@
       <c r="AE22" s="2"/>
     </row>
     <row r="23" spans="1:31">
-      <c r="A23" s="5"/>
+      <c r="A23" s="4" t="s">
+        <v>44</v>
+      </c>
       <c r="B23" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="D23" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="E23" s="1"/>
-      <c r="F23" s="1"/>
-      <c r="G23" s="1">
-        <f t="shared" si="0"/>
+        <v>45</v>
+      </c>
+      <c r="C23" s="1"/>
+      <c r="D23" s="1"/>
+      <c r="E23" s="1">
+        <v>1</v>
+      </c>
+      <c r="F23" s="1">
+        <f>D23*E23</f>
         <v>0</v>
       </c>
+      <c r="G23" s="1"/>
       <c r="H23" s="1"/>
-      <c r="I23" s="1"/>
+      <c r="I23" s="3"/>
       <c r="J23" s="2"/>
       <c r="K23" s="2"/>
       <c r="L23" s="2"/>
@@ -14001,24 +14341,24 @@
       <c r="AE23" s="2"/>
     </row>
     <row r="24" spans="1:31">
-      <c r="A24" s="5"/>
+      <c r="A24" s="4" t="s">
+        <v>46</v>
+      </c>
       <c r="B24" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="D24" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="E24" s="1"/>
-      <c r="F24" s="1"/>
-      <c r="G24" s="1">
-        <f t="shared" si="0"/>
+        <v>41</v>
+      </c>
+      <c r="C24" s="1"/>
+      <c r="D24" s="1"/>
+      <c r="E24" s="1">
+        <v>2</v>
+      </c>
+      <c r="F24" s="1">
+        <f>D24*E24</f>
         <v>0</v>
       </c>
+      <c r="G24" s="1"/>
       <c r="H24" s="1"/>
-      <c r="I24" s="1"/>
+      <c r="I24" s="3"/>
       <c r="J24" s="2"/>
       <c r="K24" s="2"/>
       <c r="L24" s="2"/>
@@ -14043,18 +14383,24 @@
       <c r="AE24" s="2"/>
     </row>
     <row r="25" spans="1:31">
-      <c r="A25" s="5"/>
-      <c r="B25" s="1"/>
+      <c r="A25" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>17</v>
+      </c>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
-      <c r="E25" s="1"/>
-      <c r="F25" s="1"/>
-      <c r="G25" s="1">
-        <f t="shared" si="0"/>
+      <c r="E25" s="1">
+        <v>1</v>
+      </c>
+      <c r="F25" s="1">
+        <f t="shared" ref="F25:F28" si="3">D25*E25</f>
         <v>0</v>
       </c>
+      <c r="G25" s="1"/>
       <c r="H25" s="1"/>
-      <c r="I25" s="1"/>
+      <c r="I25" s="3"/>
       <c r="J25" s="2"/>
       <c r="K25" s="2"/>
       <c r="L25" s="2"/>
@@ -14079,18 +14425,24 @@
       <c r="AE25" s="2"/>
     </row>
     <row r="26" spans="1:31">
-      <c r="A26" s="5"/>
-      <c r="B26" s="1"/>
+      <c r="A26" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>45</v>
+      </c>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
-      <c r="E26" s="1"/>
-      <c r="F26" s="1"/>
-      <c r="G26" s="1">
-        <f t="shared" si="0"/>
+      <c r="E26" s="1">
+        <v>1</v>
+      </c>
+      <c r="F26" s="1">
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
+      <c r="G26" s="1"/>
       <c r="H26" s="1"/>
-      <c r="I26" s="1"/>
+      <c r="I26" s="3"/>
       <c r="J26" s="2"/>
       <c r="K26" s="2"/>
       <c r="L26" s="2"/>
@@ -14115,18 +14467,24 @@
       <c r="AE26" s="2"/>
     </row>
     <row r="27" spans="1:31">
-      <c r="A27" s="5"/>
-      <c r="B27" s="1"/>
+      <c r="A27" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>47</v>
+      </c>
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
-      <c r="E27" s="1"/>
-      <c r="F27" s="1"/>
-      <c r="G27" s="1">
-        <f t="shared" si="0"/>
+      <c r="E27" s="1">
+        <v>2</v>
+      </c>
+      <c r="F27" s="1">
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
+      <c r="G27" s="1"/>
       <c r="H27" s="1"/>
-      <c r="I27" s="1"/>
+      <c r="I27" s="3"/>
       <c r="J27" s="2"/>
       <c r="K27" s="2"/>
       <c r="L27" s="2"/>
@@ -14151,18 +14509,22 @@
       <c r="AE27" s="2"/>
     </row>
     <row r="28" spans="1:31">
-      <c r="A28" s="5"/>
-      <c r="B28" s="1"/>
+      <c r="A28" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="B28" s="4"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
-      <c r="E28" s="1"/>
-      <c r="F28" s="1"/>
-      <c r="G28" s="1">
-        <f t="shared" si="0"/>
+      <c r="E28" s="1">
+        <v>20</v>
+      </c>
+      <c r="F28" s="1">
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
+      <c r="G28" s="1"/>
       <c r="H28" s="1"/>
-      <c r="I28" s="1"/>
+      <c r="I28" s="3"/>
       <c r="J28" s="2"/>
       <c r="K28" s="2"/>
       <c r="L28" s="2"/>
@@ -14187,18 +14549,22 @@
       <c r="AE28" s="2"/>
     </row>
     <row r="29" spans="1:31">
-      <c r="A29" s="5"/>
-      <c r="B29" s="1"/>
-      <c r="C29" s="1"/>
+      <c r="A29" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C29" s="4"/>
       <c r="D29" s="1"/>
       <c r="E29" s="1"/>
-      <c r="F29" s="1"/>
-      <c r="G29" s="1">
+      <c r="F29" s="1">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
+      <c r="G29" s="1"/>
       <c r="H29" s="1"/>
-      <c r="I29" s="1"/>
+      <c r="I29" s="3"/>
       <c r="J29" s="2"/>
       <c r="K29" s="2"/>
       <c r="L29" s="2"/>
@@ -14223,18 +14589,18 @@
       <c r="AE29" s="2"/>
     </row>
     <row r="30" spans="1:31">
-      <c r="A30" s="5"/>
+      <c r="A30" s="1"/>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
       <c r="E30" s="1"/>
-      <c r="F30" s="1"/>
-      <c r="G30" s="1">
+      <c r="F30" s="1">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
+      <c r="G30" s="1"/>
       <c r="H30" s="1"/>
-      <c r="I30" s="1"/>
+      <c r="I30" s="5"/>
       <c r="J30" s="2"/>
       <c r="K30" s="2"/>
       <c r="L30" s="2"/>
@@ -14259,18 +14625,18 @@
       <c r="AE30" s="2"/>
     </row>
     <row r="31" spans="1:31">
-      <c r="A31" s="5"/>
+      <c r="A31" s="1"/>
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
       <c r="E31" s="1"/>
-      <c r="F31" s="1"/>
-      <c r="G31" s="1">
+      <c r="F31" s="1">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
+      <c r="G31" s="1"/>
       <c r="H31" s="1"/>
-      <c r="I31" s="1"/>
+      <c r="I31" s="5"/>
       <c r="J31" s="2"/>
       <c r="K31" s="2"/>
       <c r="L31" s="2"/>
@@ -14295,18 +14661,18 @@
       <c r="AE31" s="2"/>
     </row>
     <row r="32" spans="1:31">
-      <c r="A32" s="5"/>
+      <c r="A32" s="1"/>
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
       <c r="E32" s="1"/>
-      <c r="F32" s="1"/>
-      <c r="G32" s="1">
+      <c r="F32" s="1">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
+      <c r="G32" s="1"/>
       <c r="H32" s="1"/>
-      <c r="I32" s="1"/>
+      <c r="I32" s="5"/>
       <c r="J32" s="2"/>
       <c r="K32" s="2"/>
       <c r="L32" s="2"/>
@@ -14331,18 +14697,18 @@
       <c r="AE32" s="2"/>
     </row>
     <row r="33" spans="1:31">
-      <c r="A33" s="5"/>
+      <c r="A33" s="1"/>
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
       <c r="D33" s="1"/>
       <c r="E33" s="1"/>
-      <c r="F33" s="1"/>
-      <c r="G33" s="1">
+      <c r="F33" s="1">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
+      <c r="G33" s="1"/>
       <c r="H33" s="1"/>
-      <c r="I33" s="1"/>
+      <c r="I33" s="5"/>
       <c r="J33" s="2"/>
       <c r="K33" s="2"/>
       <c r="L33" s="2"/>
@@ -14367,18 +14733,18 @@
       <c r="AE33" s="2"/>
     </row>
     <row r="34" spans="1:31">
-      <c r="A34" s="5"/>
+      <c r="A34" s="1"/>
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
       <c r="D34" s="1"/>
       <c r="E34" s="1"/>
-      <c r="F34" s="1"/>
-      <c r="G34" s="1">
+      <c r="F34" s="1">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
+      <c r="G34" s="1"/>
       <c r="H34" s="1"/>
-      <c r="I34" s="1"/>
+      <c r="I34" s="5"/>
       <c r="J34" s="2"/>
       <c r="K34" s="2"/>
       <c r="L34" s="2"/>
@@ -14403,18 +14769,18 @@
       <c r="AE34" s="2"/>
     </row>
     <row r="35" spans="1:31">
-      <c r="A35" s="5"/>
+      <c r="A35" s="1"/>
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
       <c r="D35" s="1"/>
       <c r="E35" s="1"/>
-      <c r="F35" s="1"/>
-      <c r="G35" s="1">
+      <c r="F35" s="1">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
+      <c r="G35" s="1"/>
       <c r="H35" s="1"/>
-      <c r="I35" s="1"/>
+      <c r="I35" s="5"/>
       <c r="J35" s="2"/>
       <c r="K35" s="2"/>
       <c r="L35" s="2"/>
@@ -14439,18 +14805,18 @@
       <c r="AE35" s="2"/>
     </row>
     <row r="36" spans="1:31">
-      <c r="A36" s="5"/>
+      <c r="A36" s="1"/>
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
       <c r="D36" s="1"/>
       <c r="E36" s="1"/>
-      <c r="F36" s="1"/>
-      <c r="G36" s="1">
+      <c r="F36" s="1">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
+      <c r="G36" s="1"/>
       <c r="H36" s="1"/>
-      <c r="I36" s="1"/>
+      <c r="I36" s="5"/>
       <c r="J36" s="2"/>
       <c r="K36" s="2"/>
       <c r="L36" s="2"/>
@@ -14480,10 +14846,13 @@
       <c r="C37" s="1"/>
       <c r="D37" s="1"/>
       <c r="E37" s="1"/>
-      <c r="F37" s="1"/>
+      <c r="F37" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="G37" s="1"/>
       <c r="H37" s="1"/>
-      <c r="I37" s="1"/>
+      <c r="I37" s="5"/>
       <c r="J37" s="2"/>
       <c r="K37" s="2"/>
       <c r="L37" s="2"/>
@@ -14508,15 +14877,18 @@
       <c r="AE37" s="2"/>
     </row>
     <row r="38" spans="1:31">
-      <c r="A38" s="2"/>
-      <c r="B38" s="2"/>
-      <c r="C38" s="2"/>
-      <c r="D38" s="2"/>
-      <c r="E38" s="2"/>
-      <c r="F38" s="2"/>
-      <c r="G38" s="2"/>
-      <c r="H38" s="2"/>
-      <c r="I38" s="2"/>
+      <c r="A38" s="1"/>
+      <c r="B38" s="1"/>
+      <c r="C38" s="1"/>
+      <c r="D38" s="1"/>
+      <c r="E38" s="1"/>
+      <c r="F38" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G38" s="1"/>
+      <c r="H38" s="1"/>
+      <c r="I38" s="5"/>
       <c r="J38" s="2"/>
       <c r="K38" s="2"/>
       <c r="L38" s="2"/>
@@ -14541,15 +14913,18 @@
       <c r="AE38" s="2"/>
     </row>
     <row r="39" spans="1:31">
-      <c r="A39" s="2"/>
-      <c r="B39" s="2"/>
-      <c r="C39" s="2"/>
-      <c r="D39" s="2"/>
-      <c r="E39" s="2"/>
-      <c r="F39" s="2"/>
-      <c r="G39" s="2"/>
-      <c r="H39" s="2"/>
-      <c r="I39" s="2"/>
+      <c r="A39" s="1"/>
+      <c r="B39" s="1"/>
+      <c r="C39" s="1"/>
+      <c r="D39" s="1"/>
+      <c r="E39" s="1"/>
+      <c r="F39" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G39" s="1"/>
+      <c r="H39" s="1"/>
+      <c r="I39" s="5"/>
       <c r="J39" s="2"/>
       <c r="K39" s="2"/>
       <c r="L39" s="2"/>
@@ -14574,15 +14949,18 @@
       <c r="AE39" s="2"/>
     </row>
     <row r="40" spans="1:31">
-      <c r="A40" s="2"/>
-      <c r="B40" s="2"/>
-      <c r="C40" s="2"/>
-      <c r="D40" s="2"/>
-      <c r="E40" s="2"/>
-      <c r="F40" s="2"/>
-      <c r="G40" s="2"/>
-      <c r="H40" s="2"/>
-      <c r="I40" s="2"/>
+      <c r="A40" s="1"/>
+      <c r="B40" s="1"/>
+      <c r="C40" s="1"/>
+      <c r="D40" s="1"/>
+      <c r="E40" s="1"/>
+      <c r="F40" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G40" s="1"/>
+      <c r="H40" s="1"/>
+      <c r="I40" s="5"/>
       <c r="J40" s="2"/>
       <c r="K40" s="2"/>
       <c r="L40" s="2"/>
@@ -14607,15 +14985,18 @@
       <c r="AE40" s="2"/>
     </row>
     <row r="41" spans="1:31">
-      <c r="A41" s="2"/>
-      <c r="B41" s="2"/>
-      <c r="C41" s="2"/>
-      <c r="D41" s="2"/>
-      <c r="E41" s="2"/>
-      <c r="F41" s="2"/>
-      <c r="G41" s="2"/>
-      <c r="H41" s="2"/>
-      <c r="I41" s="2"/>
+      <c r="A41" s="1"/>
+      <c r="B41" s="1"/>
+      <c r="C41" s="1"/>
+      <c r="D41" s="1"/>
+      <c r="E41" s="1"/>
+      <c r="F41" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G41" s="1"/>
+      <c r="H41" s="1"/>
+      <c r="I41" s="5"/>
       <c r="J41" s="2"/>
       <c r="K41" s="2"/>
       <c r="L41" s="2"/>
@@ -14640,15 +15021,18 @@
       <c r="AE41" s="2"/>
     </row>
     <row r="42" spans="1:31">
-      <c r="A42" s="2"/>
-      <c r="B42" s="2"/>
-      <c r="C42" s="2"/>
-      <c r="D42" s="2"/>
-      <c r="E42" s="2"/>
-      <c r="F42" s="2"/>
-      <c r="G42" s="2"/>
-      <c r="H42" s="2"/>
-      <c r="I42" s="2"/>
+      <c r="A42" s="1"/>
+      <c r="B42" s="1"/>
+      <c r="C42" s="1"/>
+      <c r="D42" s="1"/>
+      <c r="E42" s="1"/>
+      <c r="F42" s="1">
+        <f>SUM(F2:F41)</f>
+        <v>13839</v>
+      </c>
+      <c r="G42" s="1"/>
+      <c r="H42" s="1"/>
+      <c r="I42" s="1"/>
       <c r="J42" s="2"/>
       <c r="K42" s="2"/>
       <c r="L42" s="2"/>
@@ -19589,39 +19973,178 @@
       <c r="AD191" s="2"/>
       <c r="AE191" s="2"/>
     </row>
+    <row r="192" spans="1:31">
+      <c r="A192" s="2"/>
+      <c r="B192" s="2"/>
+      <c r="C192" s="2"/>
+      <c r="D192" s="2"/>
+      <c r="E192" s="2"/>
+      <c r="F192" s="2"/>
+      <c r="G192" s="2"/>
+      <c r="H192" s="2"/>
+      <c r="I192" s="2"/>
+      <c r="J192" s="2"/>
+      <c r="K192" s="2"/>
+      <c r="L192" s="2"/>
+      <c r="M192" s="2"/>
+      <c r="N192" s="2"/>
+      <c r="O192" s="2"/>
+      <c r="P192" s="2"/>
+      <c r="Q192" s="2"/>
+      <c r="R192" s="2"/>
+      <c r="S192" s="2"/>
+      <c r="T192" s="2"/>
+      <c r="U192" s="2"/>
+      <c r="V192" s="2"/>
+      <c r="W192" s="2"/>
+      <c r="X192" s="2"/>
+      <c r="Y192" s="2"/>
+      <c r="Z192" s="2"/>
+      <c r="AA192" s="2"/>
+      <c r="AB192" s="2"/>
+      <c r="AC192" s="2"/>
+      <c r="AD192" s="2"/>
+      <c r="AE192" s="2"/>
+    </row>
+    <row r="193" spans="1:31">
+      <c r="A193" s="2"/>
+      <c r="B193" s="2"/>
+      <c r="C193" s="2"/>
+      <c r="D193" s="2"/>
+      <c r="E193" s="2"/>
+      <c r="F193" s="2"/>
+      <c r="G193" s="2"/>
+      <c r="H193" s="2"/>
+      <c r="I193" s="2"/>
+      <c r="J193" s="2"/>
+      <c r="K193" s="2"/>
+      <c r="L193" s="2"/>
+      <c r="M193" s="2"/>
+      <c r="N193" s="2"/>
+      <c r="O193" s="2"/>
+      <c r="P193" s="2"/>
+      <c r="Q193" s="2"/>
+      <c r="R193" s="2"/>
+      <c r="S193" s="2"/>
+      <c r="T193" s="2"/>
+      <c r="U193" s="2"/>
+      <c r="V193" s="2"/>
+      <c r="W193" s="2"/>
+      <c r="X193" s="2"/>
+      <c r="Y193" s="2"/>
+      <c r="Z193" s="2"/>
+      <c r="AA193" s="2"/>
+      <c r="AB193" s="2"/>
+      <c r="AC193" s="2"/>
+      <c r="AD193" s="2"/>
+      <c r="AE193" s="2"/>
+    </row>
+    <row r="194" spans="1:31">
+      <c r="A194" s="2"/>
+      <c r="B194" s="2"/>
+      <c r="C194" s="2"/>
+      <c r="D194" s="2"/>
+      <c r="E194" s="2"/>
+      <c r="F194" s="2"/>
+      <c r="G194" s="2"/>
+      <c r="H194" s="2"/>
+      <c r="I194" s="2"/>
+      <c r="J194" s="2"/>
+      <c r="K194" s="2"/>
+      <c r="L194" s="2"/>
+      <c r="M194" s="2"/>
+      <c r="N194" s="2"/>
+      <c r="O194" s="2"/>
+      <c r="P194" s="2"/>
+      <c r="Q194" s="2"/>
+      <c r="R194" s="2"/>
+      <c r="S194" s="2"/>
+      <c r="T194" s="2"/>
+      <c r="U194" s="2"/>
+      <c r="V194" s="2"/>
+      <c r="W194" s="2"/>
+      <c r="X194" s="2"/>
+      <c r="Y194" s="2"/>
+      <c r="Z194" s="2"/>
+      <c r="AA194" s="2"/>
+      <c r="AB194" s="2"/>
+      <c r="AC194" s="2"/>
+      <c r="AD194" s="2"/>
+      <c r="AE194" s="2"/>
+    </row>
+    <row r="195" spans="1:31">
+      <c r="A195" s="2"/>
+      <c r="B195" s="2"/>
+      <c r="C195" s="2"/>
+      <c r="D195" s="2"/>
+      <c r="E195" s="2"/>
+      <c r="F195" s="2"/>
+      <c r="G195" s="2"/>
+      <c r="H195" s="2"/>
+      <c r="I195" s="2"/>
+      <c r="J195" s="2"/>
+      <c r="K195" s="2"/>
+      <c r="L195" s="2"/>
+      <c r="M195" s="2"/>
+      <c r="N195" s="2"/>
+      <c r="O195" s="2"/>
+      <c r="P195" s="2"/>
+      <c r="Q195" s="2"/>
+      <c r="R195" s="2"/>
+      <c r="S195" s="2"/>
+      <c r="T195" s="2"/>
+      <c r="U195" s="2"/>
+      <c r="V195" s="2"/>
+      <c r="W195" s="2"/>
+      <c r="X195" s="2"/>
+      <c r="Y195" s="2"/>
+      <c r="Z195" s="2"/>
+      <c r="AA195" s="2"/>
+      <c r="AB195" s="2"/>
+      <c r="AC195" s="2"/>
+      <c r="AD195" s="2"/>
+      <c r="AE195" s="2"/>
+    </row>
+    <row r="196" spans="1:31">
+      <c r="A196" s="2"/>
+      <c r="B196" s="2"/>
+      <c r="C196" s="2"/>
+      <c r="D196" s="2"/>
+      <c r="E196" s="2"/>
+      <c r="F196" s="2"/>
+      <c r="G196" s="2"/>
+      <c r="H196" s="2"/>
+      <c r="I196" s="2"/>
+      <c r="J196" s="2"/>
+      <c r="K196" s="2"/>
+      <c r="L196" s="2"/>
+      <c r="M196" s="2"/>
+      <c r="N196" s="2"/>
+      <c r="O196" s="2"/>
+      <c r="P196" s="2"/>
+      <c r="Q196" s="2"/>
+      <c r="R196" s="2"/>
+      <c r="S196" s="2"/>
+      <c r="T196" s="2"/>
+      <c r="U196" s="2"/>
+      <c r="V196" s="2"/>
+      <c r="W196" s="2"/>
+      <c r="X196" s="2"/>
+      <c r="Y196" s="2"/>
+      <c r="Z196" s="2"/>
+      <c r="AA196" s="2"/>
+      <c r="AB196" s="2"/>
+      <c r="AC196" s="2"/>
+      <c r="AD196" s="2"/>
+      <c r="AE196" s="2"/>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:H1">
+  <autoFilter ref="A1:G1">
+    <filterColumn colId="3"/>
     <filterColumn colId="4"/>
-    <filterColumn colId="5"/>
   </autoFilter>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
-  <sheetData/>
-  <phoneticPr fontId="3" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
-  <sheetData/>
-  <phoneticPr fontId="3" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/.private/房子.xlsx
+++ b/.private/房子.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="94">
   <si>
     <t>付定金４万，张浦发银行转帐。</t>
   </si>
@@ -503,14 +503,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>C16两个（灯回路）10
-C20四个（插座：2个房间+卫生间+厨房间+客餐厅）10*4
-C25两个（2个房间空调）12*2
-C32一个（客厅空调）12*2
-总开关一个 30</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>有线电视线</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -608,23 +600,7 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve"> </t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>燃气管</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>厨房</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>丽居园建材市场</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>第一家</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -774,12 +750,101 @@
     </r>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
+  <si>
+    <t>水管配件</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>网线</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>整体</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>C16两个（灯回路）10
+C20四个（插座：2个房间+卫生间+厨房间+客餐厅）10*4
+C25两个（2个房间空调）12*2
+C32一个（客厅空调）12
+总开关一个 30</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>恒鑫开关五金店：优惠</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>恒鑫开关五金店
+薛世恒</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>小杨五金卫浴：杨坤-</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>套管</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>90度弯头</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>45度弯头</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>三通</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>内丝弯头-25*1/2</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>内丝接头-25*1/2</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>内丝接头-25*3/4</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>内丝三通-25*1/2</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>管堵-25</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>管卡-25</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>生料带</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>减少</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>增加</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>水电阶段验收</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="11">
+  <fonts count="12">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -846,14 +911,18 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <sz val="10.5"/>
-      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
@@ -902,7 +971,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -954,20 +1023,23 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -7079,7 +7151,7 @@
   <dimension ref="A1:AE183"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H34" sqref="H34"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -7342,17 +7414,31 @@
       <c r="AD5" s="2"/>
       <c r="AE5" s="2"/>
     </row>
-    <row r="6" spans="1:31">
-      <c r="A6" s="3"/>
-      <c r="B6" s="4"/>
-      <c r="C6" s="4"/>
+    <row r="6" spans="1:31" ht="27">
+      <c r="A6" s="3">
+        <v>41250</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>93</v>
+      </c>
       <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="G6" s="1"/>
-      <c r="H6" s="4"/>
+      <c r="E6" s="4">
+        <f>-260</f>
+        <v>-260</v>
+      </c>
+      <c r="F6" s="4">
+        <v>1</v>
+      </c>
+      <c r="G6" s="1">
+        <f t="shared" ref="G6:G17" si="1">E6*F6</f>
+        <v>-260</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>91</v>
+      </c>
       <c r="I6" s="2"/>
       <c r="J6" s="2"/>
       <c r="K6" s="2"/>
@@ -7377,15 +7463,31 @@
       <c r="AD6" s="2"/>
       <c r="AE6" s="2"/>
     </row>
-    <row r="7" spans="1:31">
-      <c r="A7" s="3"/>
-      <c r="B7" s="4"/>
-      <c r="C7" s="4"/>
+    <row r="7" spans="1:31" ht="27">
+      <c r="A7" s="3">
+        <v>41250</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>93</v>
+      </c>
       <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
-      <c r="G7" s="1"/>
-      <c r="H7" s="4"/>
+      <c r="E7" s="4">
+        <f>-90</f>
+        <v>-90</v>
+      </c>
+      <c r="F7" s="4">
+        <v>1</v>
+      </c>
+      <c r="G7" s="1">
+        <f t="shared" si="1"/>
+        <v>-90</v>
+      </c>
+      <c r="H7" s="4" t="s">
+        <v>91</v>
+      </c>
       <c r="I7" s="2"/>
       <c r="J7" s="2"/>
       <c r="K7" s="2"/>
@@ -7410,15 +7512,30 @@
       <c r="AD7" s="2"/>
       <c r="AE7" s="2"/>
     </row>
-    <row r="8" spans="1:31">
-      <c r="A8" s="3"/>
-      <c r="B8" s="4"/>
-      <c r="C8" s="4"/>
+    <row r="8" spans="1:31" ht="27">
+      <c r="A8" s="3">
+        <v>41250</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>93</v>
+      </c>
       <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
-      <c r="G8" s="1"/>
-      <c r="H8" s="4"/>
+      <c r="E8" s="4">
+        <v>3.8</v>
+      </c>
+      <c r="F8" s="4">
+        <v>100</v>
+      </c>
+      <c r="G8" s="1">
+        <f t="shared" si="1"/>
+        <v>380</v>
+      </c>
+      <c r="H8" s="4" t="s">
+        <v>92</v>
+      </c>
       <c r="I8" s="2"/>
       <c r="J8" s="2"/>
       <c r="K8" s="2"/>
@@ -7450,7 +7567,10 @@
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
+      <c r="G9" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="H9" s="1"/>
       <c r="I9" s="2"/>
       <c r="J9" s="2"/>
@@ -7483,7 +7603,10 @@
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
+      <c r="G10" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="H10" s="1"/>
       <c r="I10" s="2"/>
       <c r="J10" s="2"/>
@@ -7516,7 +7639,10 @@
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
-      <c r="G11" s="1"/>
+      <c r="G11" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="H11" s="1"/>
       <c r="I11" s="2"/>
       <c r="J11" s="2"/>
@@ -7549,7 +7675,10 @@
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
-      <c r="G12" s="1"/>
+      <c r="G12" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="H12" s="1"/>
       <c r="I12" s="2"/>
       <c r="J12" s="2"/>
@@ -7582,7 +7711,10 @@
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
-      <c r="G13" s="1"/>
+      <c r="G13" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="H13" s="1"/>
       <c r="I13" s="2"/>
       <c r="J13" s="2"/>
@@ -7615,7 +7747,10 @@
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
-      <c r="G14" s="1"/>
+      <c r="G14" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="H14" s="1"/>
       <c r="I14" s="2"/>
       <c r="J14" s="2"/>
@@ -7648,7 +7783,10 @@
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
-      <c r="G15" s="1"/>
+      <c r="G15" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="H15" s="1"/>
       <c r="I15" s="2"/>
       <c r="J15" s="2"/>
@@ -7681,7 +7819,10 @@
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
-      <c r="G16" s="1"/>
+      <c r="G16" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="H16" s="1"/>
       <c r="I16" s="2"/>
       <c r="J16" s="2"/>
@@ -7714,7 +7855,10 @@
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
-      <c r="G17" s="1"/>
+      <c r="G17" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="H17" s="1"/>
       <c r="I17" s="2"/>
       <c r="J17" s="2"/>
@@ -8112,7 +8256,7 @@
       <c r="F29" s="1"/>
       <c r="G29" s="1">
         <f>SUM(G3:G28)</f>
-        <v>5440</v>
+        <v>5470</v>
       </c>
       <c r="H29" s="1"/>
       <c r="I29" s="2"/>
@@ -8278,11 +8422,11 @@
       <c r="D34" s="2"/>
       <c r="E34" s="2"/>
       <c r="F34" s="15" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G34" s="16">
-        <f>SUM(G29+'装修-自购'!F42)</f>
-        <v>19279</v>
+        <f>SUM(G29+'装修-自购'!F57)</f>
+        <v>21169.454000000002</v>
       </c>
       <c r="H34" s="2"/>
       <c r="I34" s="2"/>
@@ -13239,13 +13383,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AE196"/>
+  <dimension ref="A1:AE211"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B26" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F42" sqref="F42"/>
+      <selection pane="bottomRight" activeCell="F57" sqref="F57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -13283,7 +13427,7 @@
         <v>13</v>
       </c>
       <c r="H1" s="13" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="I1" s="8" t="s">
         <v>4</v>
@@ -13311,7 +13455,7 @@
       <c r="AD1" s="2"/>
       <c r="AE1" s="2"/>
     </row>
-    <row r="2" spans="1:31" ht="57">
+    <row r="2" spans="1:31" ht="85.5">
       <c r="A2" s="4" t="s">
         <v>10</v>
       </c>
@@ -13428,11 +13572,11 @@
         <v>1</v>
       </c>
       <c r="F4" s="1">
-        <f t="shared" ref="F4:F41" si="0">D4*E4</f>
+        <f t="shared" ref="F4:F56" si="0">D4*E4</f>
         <v>100</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="H4" s="4"/>
       <c r="I4" s="3">
@@ -13482,7 +13626,7 @@
         <v>249</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H5" s="4"/>
       <c r="I5" s="3">
@@ -13513,7 +13657,7 @@
     </row>
     <row r="6" spans="1:31" ht="27">
       <c r="A6" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B6" s="4" t="s">
         <v>19</v>
@@ -13532,7 +13676,7 @@
         <v>69</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H6" s="4"/>
       <c r="I6" s="3"/>
@@ -13561,7 +13705,7 @@
     </row>
     <row r="7" spans="1:31">
       <c r="A7" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B7" s="4" t="s">
         <v>19</v>
@@ -13580,7 +13724,7 @@
         <v>30</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H7" s="4"/>
       <c r="I7" s="3"/>
@@ -13609,7 +13753,7 @@
     </row>
     <row r="8" spans="1:31">
       <c r="A8" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B8" s="4" t="s">
         <v>19</v>
@@ -13628,7 +13772,7 @@
         <v>150</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H8" s="4"/>
       <c r="I8" s="3"/>
@@ -13655,9 +13799,9 @@
       <c r="AD8" s="2"/>
       <c r="AE8" s="2"/>
     </row>
-    <row r="9" spans="1:31" ht="27">
+    <row r="9" spans="1:31" ht="27.75">
       <c r="A9" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B9" s="4" t="s">
         <v>37</v>
@@ -13676,7 +13820,7 @@
         <v>1280</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H9" s="1"/>
       <c r="I9" s="3">
@@ -13705,7 +13849,7 @@
       <c r="AD9" s="2"/>
       <c r="AE9" s="2"/>
     </row>
-    <row r="10" spans="1:31" ht="56.25">
+    <row r="10" spans="1:31" ht="42">
       <c r="A10" s="4" t="s">
         <v>39</v>
       </c>
@@ -13726,10 +13870,10 @@
         <v>1260</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="I10" s="3">
         <v>41238</v>
@@ -13778,7 +13922,7 @@
         <v>693</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="H11" s="1"/>
       <c r="I11" s="3">
@@ -13807,28 +13951,15 @@
       <c r="AD11" s="2"/>
       <c r="AE11" s="2"/>
     </row>
-    <row r="12" spans="1:31" ht="27">
-      <c r="A12" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D12" s="4">
-        <v>50</v>
-      </c>
-      <c r="E12" s="4">
-        <v>1</v>
-      </c>
-      <c r="F12" s="1">
-        <f t="shared" ref="F12:F13" si="2">D12*E12</f>
-        <v>50</v>
-      </c>
-      <c r="G12" s="4"/>
-      <c r="H12" s="4"/>
+    <row r="12" spans="1:31">
+      <c r="A12" s="4"/>
+      <c r="B12" s="1"/>
+      <c r="C12" s="4"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
       <c r="I12" s="3"/>
       <c r="J12" s="2"/>
       <c r="K12" s="2"/>
@@ -13853,9 +13984,9 @@
       <c r="AD12" s="2"/>
       <c r="AE12" s="2"/>
     </row>
-    <row r="13" spans="1:31" ht="81">
+    <row r="13" spans="1:31" ht="27">
       <c r="A13" s="4" t="s">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="B13" s="4" t="s">
         <v>53</v>
@@ -13864,18 +13995,16 @@
         <v>15</v>
       </c>
       <c r="D13" s="4">
-        <v>128</v>
+        <v>50</v>
       </c>
       <c r="E13" s="4">
         <v>1</v>
       </c>
       <c r="F13" s="1">
-        <f t="shared" si="2"/>
-        <v>128</v>
-      </c>
-      <c r="G13" s="4" t="s">
-        <v>56</v>
-      </c>
+        <f t="shared" ref="F13:F14" si="2">D13*E13</f>
+        <v>50</v>
+      </c>
+      <c r="G13" s="4"/>
       <c r="H13" s="4"/>
       <c r="I13" s="3"/>
       <c r="J13" s="2"/>
@@ -13901,9 +14030,9 @@
       <c r="AD13" s="2"/>
       <c r="AE13" s="2"/>
     </row>
-    <row r="14" spans="1:31">
+    <row r="14" spans="1:31" ht="108">
       <c r="A14" s="4" t="s">
-        <v>27</v>
+        <v>54</v>
       </c>
       <c r="B14" s="4" t="s">
         <v>19</v>
@@ -13912,19 +14041,21 @@
         <v>15</v>
       </c>
       <c r="D14" s="4">
-        <v>85</v>
+        <v>116</v>
       </c>
       <c r="E14" s="4">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F14" s="1">
-        <f t="shared" si="0"/>
-        <v>340</v>
+        <f t="shared" si="2"/>
+        <v>116</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="H14" s="4"/>
+        <v>76</v>
+      </c>
+      <c r="H14" s="4" t="s">
+        <v>78</v>
+      </c>
       <c r="I14" s="3"/>
       <c r="J14" s="2"/>
       <c r="K14" s="2"/>
@@ -13949,9 +14080,9 @@
       <c r="AD14" s="2"/>
       <c r="AE14" s="2"/>
     </row>
-    <row r="15" spans="1:31">
+    <row r="15" spans="1:31" ht="27">
       <c r="A15" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B15" s="4" t="s">
         <v>19</v>
@@ -13960,20 +14091,24 @@
         <v>15</v>
       </c>
       <c r="D15" s="4">
-        <v>140</v>
+        <v>85</v>
       </c>
       <c r="E15" s="4">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F15" s="1">
         <f t="shared" si="0"/>
-        <v>840</v>
-      </c>
-      <c r="G15" s="4"/>
-      <c r="H15" s="4"/>
+        <v>340</v>
+      </c>
+      <c r="G15" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="H15" s="4" t="s">
+        <v>78</v>
+      </c>
       <c r="I15" s="3"/>
       <c r="J15" s="2"/>
-      <c r="K15" s="3"/>
+      <c r="K15" s="2"/>
       <c r="L15" s="2"/>
       <c r="M15" s="2"/>
       <c r="N15" s="2"/>
@@ -13995,9 +14130,9 @@
       <c r="AD15" s="2"/>
       <c r="AE15" s="2"/>
     </row>
-    <row r="16" spans="1:31">
+    <row r="16" spans="1:31" ht="27">
       <c r="A16" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B16" s="4" t="s">
         <v>19</v>
@@ -14006,20 +14141,22 @@
         <v>15</v>
       </c>
       <c r="D16" s="4">
-        <v>2.5</v>
+        <v>140</v>
       </c>
       <c r="E16" s="4">
-        <v>40</v>
+        <v>6</v>
       </c>
       <c r="F16" s="1">
         <f t="shared" si="0"/>
-        <v>100</v>
+        <v>840</v>
       </c>
       <c r="G16" s="4"/>
-      <c r="H16" s="4"/>
+      <c r="H16" s="4" t="s">
+        <v>78</v>
+      </c>
       <c r="I16" s="3"/>
       <c r="J16" s="2"/>
-      <c r="K16" s="2"/>
+      <c r="K16" s="3"/>
       <c r="L16" s="2"/>
       <c r="M16" s="2"/>
       <c r="N16" s="2"/>
@@ -14041,72 +14178,78 @@
       <c r="AD16" s="2"/>
       <c r="AE16" s="2"/>
     </row>
-    <row r="17" spans="1:31" s="21" customFormat="1">
-      <c r="A17" s="17" t="s">
-        <v>67</v>
-      </c>
-      <c r="B17" s="17" t="s">
-        <v>68</v>
-      </c>
-      <c r="C17" s="17" t="s">
-        <v>69</v>
-      </c>
-      <c r="D17" s="17">
-        <v>25</v>
-      </c>
-      <c r="E17" s="17"/>
-      <c r="F17" s="18">
+    <row r="17" spans="1:31" ht="27">
+      <c r="A17" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D17" s="4">
+        <v>2.5</v>
+      </c>
+      <c r="E17" s="4">
+        <v>50</v>
+      </c>
+      <c r="F17" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G17" s="17" t="s">
-        <v>70</v>
-      </c>
-      <c r="H17" s="17"/>
-      <c r="I17" s="19"/>
-      <c r="J17" s="20"/>
-      <c r="K17" s="20"/>
-      <c r="L17" s="20"/>
-      <c r="M17" s="20"/>
-      <c r="N17" s="20"/>
-      <c r="O17" s="20"/>
-      <c r="P17" s="20"/>
-      <c r="Q17" s="20"/>
-      <c r="R17" s="20"/>
-      <c r="S17" s="20"/>
-      <c r="T17" s="20"/>
-      <c r="U17" s="20"/>
-      <c r="V17" s="20"/>
-      <c r="W17" s="20"/>
-      <c r="X17" s="20"/>
-      <c r="Y17" s="20"/>
-      <c r="Z17" s="20"/>
-      <c r="AA17" s="20"/>
-      <c r="AB17" s="20"/>
-      <c r="AC17" s="20"/>
-      <c r="AD17" s="20"/>
-      <c r="AE17" s="20"/>
-    </row>
-    <row r="18" spans="1:31">
+        <v>125</v>
+      </c>
+      <c r="G17" s="4"/>
+      <c r="H17" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="I17" s="3"/>
+      <c r="J17" s="2"/>
+      <c r="K17" s="2"/>
+      <c r="L17" s="2"/>
+      <c r="M17" s="2"/>
+      <c r="N17" s="2"/>
+      <c r="O17" s="2"/>
+      <c r="P17" s="2"/>
+      <c r="Q17" s="2"/>
+      <c r="R17" s="2"/>
+      <c r="S17" s="2"/>
+      <c r="T17" s="2"/>
+      <c r="U17" s="2"/>
+      <c r="V17" s="2"/>
+      <c r="W17" s="2"/>
+      <c r="X17" s="2"/>
+      <c r="Y17" s="2"/>
+      <c r="Z17" s="2"/>
+      <c r="AA17" s="2"/>
+      <c r="AB17" s="2"/>
+      <c r="AC17" s="2"/>
+      <c r="AD17" s="2"/>
+      <c r="AE17" s="2"/>
+    </row>
+    <row r="18" spans="1:31" ht="27">
       <c r="A18" s="4" t="s">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>19</v>
+        <v>75</v>
       </c>
       <c r="C18" s="4" t="s">
         <v>15</v>
       </c>
       <c r="D18" s="4">
-        <v>6.8</v>
-      </c>
-      <c r="E18" s="4"/>
+        <v>2.5</v>
+      </c>
+      <c r="E18" s="4">
+        <v>100</v>
+      </c>
       <c r="F18" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>250</v>
       </c>
       <c r="G18" s="4"/>
-      <c r="H18" s="4"/>
+      <c r="H18" s="4" t="s">
+        <v>78</v>
+      </c>
       <c r="I18" s="3"/>
       <c r="J18" s="2"/>
       <c r="K18" s="2"/>
@@ -14132,25 +14275,20 @@
       <c r="AE18" s="2"/>
     </row>
     <row r="19" spans="1:31" ht="27">
-      <c r="A19" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="B19" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="C19" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D19" s="4">
-        <v>1.1000000000000001</v>
-      </c>
+      <c r="A19" s="4"/>
+      <c r="B19" s="4"/>
+      <c r="C19" s="4"/>
+      <c r="D19" s="4"/>
       <c r="E19" s="4"/>
       <c r="F19" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G19" s="4"/>
-      <c r="H19" s="4"/>
+        <v>-21</v>
+      </c>
+      <c r="G19" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="H19" s="4" t="s">
+        <v>78</v>
+      </c>
       <c r="I19" s="3"/>
       <c r="J19" s="2"/>
       <c r="K19" s="2"/>
@@ -14175,50 +14313,57 @@
       <c r="AD19" s="2"/>
       <c r="AE19" s="2"/>
     </row>
-    <row r="20" spans="1:31">
-      <c r="A20" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="B20" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="C20" s="4" t="s">
+    <row r="20" spans="1:31" s="18" customFormat="1" ht="27">
+      <c r="A20" s="19" t="s">
+        <v>65</v>
+      </c>
+      <c r="B20" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="C20" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="E20" s="4"/>
-      <c r="F20" s="1">
-        <f>D18*E20</f>
-        <v>0</v>
-      </c>
-      <c r="G20" s="4"/>
-      <c r="H20" s="4"/>
-      <c r="I20" s="3"/>
-      <c r="J20" s="2"/>
-      <c r="K20" s="2"/>
-      <c r="L20" s="2"/>
-      <c r="M20" s="2"/>
-      <c r="N20" s="2"/>
-      <c r="O20" s="2"/>
-      <c r="P20" s="2"/>
-      <c r="Q20" s="2"/>
-      <c r="R20" s="2"/>
-      <c r="S20" s="2"/>
-      <c r="T20" s="2"/>
-      <c r="U20" s="2"/>
-      <c r="V20" s="2"/>
-      <c r="W20" s="2"/>
-      <c r="X20" s="2"/>
-      <c r="Y20" s="2"/>
-      <c r="Z20" s="2"/>
-      <c r="AA20" s="2"/>
-      <c r="AB20" s="2"/>
-      <c r="AC20" s="2"/>
-      <c r="AD20" s="2"/>
-      <c r="AE20" s="2"/>
+      <c r="D20" s="22">
+        <v>230</v>
+      </c>
+      <c r="E20" s="19">
+        <v>1</v>
+      </c>
+      <c r="F20" s="20">
+        <f t="shared" si="0"/>
+        <v>230</v>
+      </c>
+      <c r="G20" s="19"/>
+      <c r="H20" s="19" t="s">
+        <v>79</v>
+      </c>
+      <c r="I20" s="21"/>
+      <c r="J20" s="17"/>
+      <c r="K20" s="17"/>
+      <c r="L20" s="17"/>
+      <c r="M20" s="17"/>
+      <c r="N20" s="17"/>
+      <c r="O20" s="17"/>
+      <c r="P20" s="17"/>
+      <c r="Q20" s="17"/>
+      <c r="R20" s="17"/>
+      <c r="S20" s="17"/>
+      <c r="T20" s="17"/>
+      <c r="U20" s="17"/>
+      <c r="V20" s="17"/>
+      <c r="W20" s="17"/>
+      <c r="X20" s="17"/>
+      <c r="Y20" s="17"/>
+      <c r="Z20" s="17"/>
+      <c r="AA20" s="17"/>
+      <c r="AB20" s="17"/>
+      <c r="AC20" s="17"/>
+      <c r="AD20" s="17"/>
+      <c r="AE20" s="17"/>
     </row>
     <row r="21" spans="1:31">
       <c r="A21" s="4" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B21" s="4" t="s">
         <v>19</v>
@@ -14226,14 +14371,18 @@
       <c r="C21" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="D21" s="1"/>
-      <c r="E21" s="1"/>
+      <c r="D21" s="4">
+        <v>6.8</v>
+      </c>
+      <c r="E21" s="4">
+        <v>42</v>
+      </c>
       <c r="F21" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G21" s="1"/>
-      <c r="H21" s="1"/>
+        <f>D21*E21</f>
+        <v>285.59999999999997</v>
+      </c>
+      <c r="G21" s="4"/>
+      <c r="H21" s="4"/>
       <c r="I21" s="3"/>
       <c r="J21" s="2"/>
       <c r="K21" s="2"/>
@@ -14258,22 +14407,31 @@
       <c r="AD21" s="2"/>
       <c r="AE21" s="2"/>
     </row>
-    <row r="22" spans="1:31">
+    <row r="22" spans="1:31" ht="27">
       <c r="A22" s="4" t="s">
-        <v>38</v>
+        <v>73</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="C22" s="4"/>
-      <c r="D22" s="1"/>
-      <c r="E22" s="1"/>
+        <v>19</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D22" s="4">
+        <f>5.98*0.68</f>
+        <v>4.0664000000000007</v>
+      </c>
+      <c r="E22" s="4">
+        <v>3</v>
+      </c>
       <c r="F22" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G22" s="1"/>
-      <c r="H22" s="1"/>
+        <f>D22*E22</f>
+        <v>12.199200000000001</v>
+      </c>
+      <c r="G22" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="H22" s="4"/>
       <c r="I22" s="3"/>
       <c r="J22" s="2"/>
       <c r="K22" s="2"/>
@@ -14300,22 +14458,29 @@
     </row>
     <row r="23" spans="1:31">
       <c r="A23" s="4" t="s">
-        <v>44</v>
+        <v>73</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="C23" s="1"/>
-      <c r="D23" s="1"/>
-      <c r="E23" s="1">
-        <v>1</v>
+        <v>19</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D23" s="4">
+        <f>8.25*0.68</f>
+        <v>5.61</v>
+      </c>
+      <c r="E23" s="4">
+        <v>30</v>
       </c>
       <c r="F23" s="1">
-        <f>D23*E23</f>
-        <v>0</v>
-      </c>
-      <c r="G23" s="1"/>
-      <c r="H23" s="1"/>
+        <f t="shared" ref="F23:F33" si="3">D23*E23</f>
+        <v>168.3</v>
+      </c>
+      <c r="G23" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="H23" s="4"/>
       <c r="I23" s="3"/>
       <c r="J23" s="2"/>
       <c r="K23" s="2"/>
@@ -14342,22 +14507,29 @@
     </row>
     <row r="24" spans="1:31">
       <c r="A24" s="4" t="s">
-        <v>46</v>
+        <v>73</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="C24" s="1"/>
-      <c r="D24" s="1"/>
-      <c r="E24" s="1">
-        <v>2</v>
+        <v>19</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D24" s="4">
+        <f>7.62*0.68</f>
+        <v>5.1816000000000004</v>
+      </c>
+      <c r="E24" s="4">
+        <v>10</v>
       </c>
       <c r="F24" s="1">
-        <f>D24*E24</f>
-        <v>0</v>
-      </c>
-      <c r="G24" s="1"/>
-      <c r="H24" s="1"/>
+        <f t="shared" si="3"/>
+        <v>51.816000000000003</v>
+      </c>
+      <c r="G24" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="H24" s="4"/>
       <c r="I24" s="3"/>
       <c r="J24" s="2"/>
       <c r="K24" s="2"/>
@@ -14384,22 +14556,29 @@
     </row>
     <row r="25" spans="1:31">
       <c r="A25" s="4" t="s">
-        <v>46</v>
+        <v>73</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="C25" s="1"/>
-      <c r="D25" s="1"/>
-      <c r="E25" s="1">
-        <v>1</v>
+        <v>19</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D25" s="4">
+        <f>10.87*0.68</f>
+        <v>7.3916000000000004</v>
+      </c>
+      <c r="E25" s="4">
+        <v>7</v>
       </c>
       <c r="F25" s="1">
-        <f t="shared" ref="F25:F28" si="3">D25*E25</f>
-        <v>0</v>
-      </c>
-      <c r="G25" s="1"/>
-      <c r="H25" s="1"/>
+        <f t="shared" si="3"/>
+        <v>51.741200000000006</v>
+      </c>
+      <c r="G25" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="H25" s="4"/>
       <c r="I25" s="3"/>
       <c r="J25" s="2"/>
       <c r="K25" s="2"/>
@@ -14426,22 +14605,29 @@
     </row>
     <row r="26" spans="1:31">
       <c r="A26" s="4" t="s">
-        <v>46</v>
+        <v>73</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="C26" s="1"/>
-      <c r="D26" s="1"/>
-      <c r="E26" s="1">
-        <v>1</v>
+        <v>19</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D26" s="4">
+        <f>40.97*0.68</f>
+        <v>27.8596</v>
+      </c>
+      <c r="E26" s="4">
+        <v>8</v>
       </c>
       <c r="F26" s="1">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="G26" s="1"/>
-      <c r="H26" s="1"/>
+        <v>222.8768</v>
+      </c>
+      <c r="G26" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="H26" s="4"/>
       <c r="I26" s="3"/>
       <c r="J26" s="2"/>
       <c r="K26" s="2"/>
@@ -14468,22 +14654,29 @@
     </row>
     <row r="27" spans="1:31">
       <c r="A27" s="4" t="s">
-        <v>46</v>
+        <v>73</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="C27" s="1"/>
-      <c r="D27" s="1"/>
-      <c r="E27" s="1">
+        <v>19</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D27" s="4">
+        <f>33.8*0.68</f>
+        <v>22.983999999999998</v>
+      </c>
+      <c r="E27" s="4">
         <v>2</v>
       </c>
       <c r="F27" s="1">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="G27" s="1"/>
-      <c r="H27" s="1"/>
+        <v>45.967999999999996</v>
+      </c>
+      <c r="G27" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="H27" s="4"/>
       <c r="I27" s="3"/>
       <c r="J27" s="2"/>
       <c r="K27" s="2"/>
@@ -14510,20 +14703,29 @@
     </row>
     <row r="28" spans="1:31">
       <c r="A28" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="B28" s="4"/>
-      <c r="C28" s="1"/>
-      <c r="D28" s="1"/>
-      <c r="E28" s="1">
-        <v>20</v>
+        <v>73</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D28" s="4">
+        <f>38.95*0.68</f>
+        <v>26.486000000000004</v>
+      </c>
+      <c r="E28" s="4">
+        <v>1</v>
       </c>
       <c r="F28" s="1">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="G28" s="1"/>
-      <c r="H28" s="1"/>
+        <v>26.486000000000004</v>
+      </c>
+      <c r="G28" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="H28" s="4"/>
       <c r="I28" s="3"/>
       <c r="J28" s="2"/>
       <c r="K28" s="2"/>
@@ -14548,22 +14750,31 @@
       <c r="AD28" s="2"/>
       <c r="AE28" s="2"/>
     </row>
-    <row r="29" spans="1:31">
+    <row r="29" spans="1:31" ht="15" customHeight="1">
       <c r="A29" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="C29" s="4"/>
-      <c r="D29" s="1"/>
-      <c r="E29" s="1"/>
+        <v>73</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D29" s="4">
+        <f>44.71*0.68</f>
+        <v>30.402800000000003</v>
+      </c>
+      <c r="E29" s="4">
+        <v>1</v>
+      </c>
       <c r="F29" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G29" s="1"/>
-      <c r="H29" s="1"/>
+        <f t="shared" si="3"/>
+        <v>30.402800000000003</v>
+      </c>
+      <c r="G29" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="H29" s="4"/>
       <c r="I29" s="3"/>
       <c r="J29" s="2"/>
       <c r="K29" s="2"/>
@@ -14589,18 +14800,31 @@
       <c r="AE29" s="2"/>
     </row>
     <row r="30" spans="1:31">
-      <c r="A30" s="1"/>
-      <c r="B30" s="1"/>
-      <c r="C30" s="1"/>
-      <c r="D30" s="1"/>
-      <c r="E30" s="1"/>
+      <c r="A30" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D30" s="4">
+        <f>2.93*0.68</f>
+        <v>1.9924000000000002</v>
+      </c>
+      <c r="E30" s="4">
+        <v>10</v>
+      </c>
       <c r="F30" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G30" s="1"/>
-      <c r="H30" s="1"/>
-      <c r="I30" s="5"/>
+        <f t="shared" si="3"/>
+        <v>19.924000000000003</v>
+      </c>
+      <c r="G30" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="H30" s="4"/>
+      <c r="I30" s="3"/>
       <c r="J30" s="2"/>
       <c r="K30" s="2"/>
       <c r="L30" s="2"/>
@@ -14625,18 +14849,31 @@
       <c r="AE30" s="2"/>
     </row>
     <row r="31" spans="1:31">
-      <c r="A31" s="1"/>
-      <c r="B31" s="1"/>
-      <c r="C31" s="1"/>
-      <c r="D31" s="1"/>
-      <c r="E31" s="1"/>
+      <c r="A31" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D31" s="4">
+        <f>8.7*0.68</f>
+        <v>5.9160000000000004</v>
+      </c>
+      <c r="E31" s="4">
+        <v>40</v>
+      </c>
       <c r="F31" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G31" s="1"/>
-      <c r="H31" s="1"/>
-      <c r="I31" s="5"/>
+        <f t="shared" si="3"/>
+        <v>236.64000000000001</v>
+      </c>
+      <c r="G31" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="H31" s="4"/>
+      <c r="I31" s="3"/>
       <c r="J31" s="2"/>
       <c r="K31" s="2"/>
       <c r="L31" s="2"/>
@@ -14661,18 +14898,31 @@
       <c r="AE31" s="2"/>
     </row>
     <row r="32" spans="1:31">
-      <c r="A32" s="1"/>
-      <c r="B32" s="1"/>
-      <c r="C32" s="1"/>
-      <c r="D32" s="1"/>
-      <c r="E32" s="1"/>
+      <c r="A32" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C32" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D32" s="4">
+        <f>0*0.68</f>
+        <v>0</v>
+      </c>
+      <c r="E32" s="4">
+        <v>3</v>
+      </c>
       <c r="F32" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G32" s="1"/>
-      <c r="H32" s="1"/>
-      <c r="I32" s="5"/>
+      <c r="G32" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="H32" s="4"/>
+      <c r="I32" s="3"/>
       <c r="J32" s="2"/>
       <c r="K32" s="2"/>
       <c r="L32" s="2"/>
@@ -14697,18 +14947,24 @@
       <c r="AE32" s="2"/>
     </row>
     <row r="33" spans="1:31">
-      <c r="A33" s="1"/>
-      <c r="B33" s="1"/>
-      <c r="C33" s="1"/>
-      <c r="D33" s="1"/>
-      <c r="E33" s="1"/>
+      <c r="A33" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C33" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D33" s="4"/>
+      <c r="E33" s="4"/>
       <c r="F33" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G33" s="1"/>
-      <c r="H33" s="1"/>
-      <c r="I33" s="5"/>
+      <c r="G33" s="4"/>
+      <c r="H33" s="4"/>
+      <c r="I33" s="3"/>
       <c r="J33" s="2"/>
       <c r="K33" s="2"/>
       <c r="L33" s="2"/>
@@ -14732,19 +14988,29 @@
       <c r="AD33" s="2"/>
       <c r="AE33" s="2"/>
     </row>
-    <row r="34" spans="1:31">
-      <c r="A34" s="1"/>
-      <c r="B34" s="1"/>
-      <c r="C34" s="1"/>
-      <c r="D34" s="1"/>
-      <c r="E34" s="1"/>
+    <row r="34" spans="1:31" ht="27">
+      <c r="A34" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="C34" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D34" s="4">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="E34" s="4">
+        <v>215</v>
+      </c>
       <c r="F34" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G34" s="1"/>
-      <c r="H34" s="1"/>
-      <c r="I34" s="5"/>
+        <v>236.50000000000003</v>
+      </c>
+      <c r="G34" s="4"/>
+      <c r="H34" s="4"/>
+      <c r="I34" s="3"/>
       <c r="J34" s="2"/>
       <c r="K34" s="2"/>
       <c r="L34" s="2"/>
@@ -14769,18 +15035,23 @@
       <c r="AE34" s="2"/>
     </row>
     <row r="35" spans="1:31">
-      <c r="A35" s="1"/>
-      <c r="B35" s="1"/>
-      <c r="C35" s="1"/>
-      <c r="D35" s="1"/>
-      <c r="E35" s="1"/>
+      <c r="A35" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B35" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C35" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E35" s="4"/>
       <c r="F35" s="1">
-        <f t="shared" si="0"/>
+        <f>D21*E35</f>
         <v>0</v>
       </c>
-      <c r="G35" s="1"/>
-      <c r="H35" s="1"/>
-      <c r="I35" s="5"/>
+      <c r="G35" s="4"/>
+      <c r="H35" s="4"/>
+      <c r="I35" s="3"/>
       <c r="J35" s="2"/>
       <c r="K35" s="2"/>
       <c r="L35" s="2"/>
@@ -14805,9 +15076,15 @@
       <c r="AE35" s="2"/>
     </row>
     <row r="36" spans="1:31">
-      <c r="A36" s="1"/>
-      <c r="B36" s="1"/>
-      <c r="C36" s="1"/>
+      <c r="A36" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B36" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C36" s="4" t="s">
+        <v>15</v>
+      </c>
       <c r="D36" s="1"/>
       <c r="E36" s="1"/>
       <c r="F36" s="1">
@@ -14816,7 +15093,7 @@
       </c>
       <c r="G36" s="1"/>
       <c r="H36" s="1"/>
-      <c r="I36" s="5"/>
+      <c r="I36" s="3"/>
       <c r="J36" s="2"/>
       <c r="K36" s="2"/>
       <c r="L36" s="2"/>
@@ -14841,9 +15118,13 @@
       <c r="AE36" s="2"/>
     </row>
     <row r="37" spans="1:31">
-      <c r="A37" s="1"/>
-      <c r="B37" s="1"/>
-      <c r="C37" s="1"/>
+      <c r="A37" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B37" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C37" s="4"/>
       <c r="D37" s="1"/>
       <c r="E37" s="1"/>
       <c r="F37" s="1">
@@ -14852,7 +15133,7 @@
       </c>
       <c r="G37" s="1"/>
       <c r="H37" s="1"/>
-      <c r="I37" s="5"/>
+      <c r="I37" s="3"/>
       <c r="J37" s="2"/>
       <c r="K37" s="2"/>
       <c r="L37" s="2"/>
@@ -14877,18 +15158,24 @@
       <c r="AE37" s="2"/>
     </row>
     <row r="38" spans="1:31">
-      <c r="A38" s="1"/>
-      <c r="B38" s="1"/>
+      <c r="A38" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="B38" s="4" t="s">
+        <v>45</v>
+      </c>
       <c r="C38" s="1"/>
       <c r="D38" s="1"/>
-      <c r="E38" s="1"/>
+      <c r="E38" s="1">
+        <v>1</v>
+      </c>
       <c r="F38" s="1">
-        <f t="shared" si="0"/>
+        <f>D38*E38</f>
         <v>0</v>
       </c>
       <c r="G38" s="1"/>
       <c r="H38" s="1"/>
-      <c r="I38" s="5"/>
+      <c r="I38" s="3"/>
       <c r="J38" s="2"/>
       <c r="K38" s="2"/>
       <c r="L38" s="2"/>
@@ -14913,18 +15200,24 @@
       <c r="AE38" s="2"/>
     </row>
     <row r="39" spans="1:31">
-      <c r="A39" s="1"/>
-      <c r="B39" s="1"/>
+      <c r="A39" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="B39" s="4" t="s">
+        <v>41</v>
+      </c>
       <c r="C39" s="1"/>
       <c r="D39" s="1"/>
-      <c r="E39" s="1"/>
+      <c r="E39" s="1">
+        <v>2</v>
+      </c>
       <c r="F39" s="1">
-        <f t="shared" si="0"/>
+        <f>D39*E39</f>
         <v>0</v>
       </c>
       <c r="G39" s="1"/>
       <c r="H39" s="1"/>
-      <c r="I39" s="5"/>
+      <c r="I39" s="3"/>
       <c r="J39" s="2"/>
       <c r="K39" s="2"/>
       <c r="L39" s="2"/>
@@ -14949,18 +15242,24 @@
       <c r="AE39" s="2"/>
     </row>
     <row r="40" spans="1:31">
-      <c r="A40" s="1"/>
-      <c r="B40" s="1"/>
+      <c r="A40" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="B40" s="4" t="s">
+        <v>17</v>
+      </c>
       <c r="C40" s="1"/>
       <c r="D40" s="1"/>
-      <c r="E40" s="1"/>
+      <c r="E40" s="1">
+        <v>1</v>
+      </c>
       <c r="F40" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="F40:F43" si="4">D40*E40</f>
         <v>0</v>
       </c>
       <c r="G40" s="1"/>
       <c r="H40" s="1"/>
-      <c r="I40" s="5"/>
+      <c r="I40" s="3"/>
       <c r="J40" s="2"/>
       <c r="K40" s="2"/>
       <c r="L40" s="2"/>
@@ -14985,18 +15284,24 @@
       <c r="AE40" s="2"/>
     </row>
     <row r="41" spans="1:31">
-      <c r="A41" s="1"/>
-      <c r="B41" s="1"/>
+      <c r="A41" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="B41" s="4" t="s">
+        <v>45</v>
+      </c>
       <c r="C41" s="1"/>
       <c r="D41" s="1"/>
-      <c r="E41" s="1"/>
+      <c r="E41" s="1">
+        <v>1</v>
+      </c>
       <c r="F41" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="G41" s="1"/>
       <c r="H41" s="1"/>
-      <c r="I41" s="5"/>
+      <c r="I41" s="3"/>
       <c r="J41" s="2"/>
       <c r="K41" s="2"/>
       <c r="L41" s="2"/>
@@ -15021,18 +15326,24 @@
       <c r="AE41" s="2"/>
     </row>
     <row r="42" spans="1:31">
-      <c r="A42" s="1"/>
-      <c r="B42" s="1"/>
+      <c r="A42" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="B42" s="4" t="s">
+        <v>47</v>
+      </c>
       <c r="C42" s="1"/>
       <c r="D42" s="1"/>
-      <c r="E42" s="1"/>
+      <c r="E42" s="1">
+        <v>2</v>
+      </c>
       <c r="F42" s="1">
-        <f>SUM(F2:F41)</f>
-        <v>13839</v>
+        <f t="shared" si="4"/>
+        <v>0</v>
       </c>
       <c r="G42" s="1"/>
       <c r="H42" s="1"/>
-      <c r="I42" s="1"/>
+      <c r="I42" s="3"/>
       <c r="J42" s="2"/>
       <c r="K42" s="2"/>
       <c r="L42" s="2"/>
@@ -15057,15 +15368,22 @@
       <c r="AE42" s="2"/>
     </row>
     <row r="43" spans="1:31">
-      <c r="A43" s="2"/>
-      <c r="B43" s="2"/>
-      <c r="C43" s="2"/>
-      <c r="D43" s="2"/>
-      <c r="E43" s="2"/>
-      <c r="F43" s="2"/>
-      <c r="G43" s="2"/>
-      <c r="H43" s="2"/>
-      <c r="I43" s="2"/>
+      <c r="A43" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="B43" s="4"/>
+      <c r="C43" s="1"/>
+      <c r="D43" s="1"/>
+      <c r="E43" s="1">
+        <v>20</v>
+      </c>
+      <c r="F43" s="1">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G43" s="1"/>
+      <c r="H43" s="1"/>
+      <c r="I43" s="3"/>
       <c r="J43" s="2"/>
       <c r="K43" s="2"/>
       <c r="L43" s="2"/>
@@ -15090,15 +15408,22 @@
       <c r="AE43" s="2"/>
     </row>
     <row r="44" spans="1:31">
-      <c r="A44" s="2"/>
-      <c r="B44" s="2"/>
-      <c r="C44" s="2"/>
-      <c r="D44" s="2"/>
-      <c r="E44" s="2"/>
-      <c r="F44" s="2"/>
-      <c r="G44" s="2"/>
-      <c r="H44" s="2"/>
-      <c r="I44" s="2"/>
+      <c r="A44" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C44" s="4"/>
+      <c r="D44" s="1"/>
+      <c r="E44" s="1"/>
+      <c r="F44" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G44" s="1"/>
+      <c r="H44" s="1"/>
+      <c r="I44" s="3"/>
       <c r="J44" s="2"/>
       <c r="K44" s="2"/>
       <c r="L44" s="2"/>
@@ -15123,15 +15448,18 @@
       <c r="AE44" s="2"/>
     </row>
     <row r="45" spans="1:31">
-      <c r="A45" s="2"/>
-      <c r="B45" s="2"/>
-      <c r="C45" s="2"/>
-      <c r="D45" s="2"/>
-      <c r="E45" s="2"/>
-      <c r="F45" s="2"/>
-      <c r="G45" s="2"/>
-      <c r="H45" s="2"/>
-      <c r="I45" s="2"/>
+      <c r="A45" s="1"/>
+      <c r="B45" s="1"/>
+      <c r="C45" s="1"/>
+      <c r="D45" s="1"/>
+      <c r="E45" s="1"/>
+      <c r="F45" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G45" s="1"/>
+      <c r="H45" s="1"/>
+      <c r="I45" s="5"/>
       <c r="J45" s="2"/>
       <c r="K45" s="2"/>
       <c r="L45" s="2"/>
@@ -15156,15 +15484,18 @@
       <c r="AE45" s="2"/>
     </row>
     <row r="46" spans="1:31">
-      <c r="A46" s="2"/>
-      <c r="B46" s="2"/>
-      <c r="C46" s="2"/>
-      <c r="D46" s="2"/>
-      <c r="E46" s="2"/>
-      <c r="F46" s="2"/>
-      <c r="G46" s="2"/>
-      <c r="H46" s="2"/>
-      <c r="I46" s="2"/>
+      <c r="A46" s="1"/>
+      <c r="B46" s="1"/>
+      <c r="C46" s="1"/>
+      <c r="D46" s="1"/>
+      <c r="E46" s="1"/>
+      <c r="F46" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G46" s="1"/>
+      <c r="H46" s="1"/>
+      <c r="I46" s="5"/>
       <c r="J46" s="2"/>
       <c r="K46" s="2"/>
       <c r="L46" s="2"/>
@@ -15189,15 +15520,18 @@
       <c r="AE46" s="2"/>
     </row>
     <row r="47" spans="1:31">
-      <c r="A47" s="2"/>
-      <c r="B47" s="2"/>
-      <c r="C47" s="2"/>
-      <c r="D47" s="2"/>
-      <c r="E47" s="2"/>
-      <c r="F47" s="2"/>
-      <c r="G47" s="2"/>
-      <c r="H47" s="2"/>
-      <c r="I47" s="2"/>
+      <c r="A47" s="1"/>
+      <c r="B47" s="1"/>
+      <c r="C47" s="1"/>
+      <c r="D47" s="1"/>
+      <c r="E47" s="1"/>
+      <c r="F47" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G47" s="1"/>
+      <c r="H47" s="1"/>
+      <c r="I47" s="5"/>
       <c r="J47" s="2"/>
       <c r="K47" s="2"/>
       <c r="L47" s="2"/>
@@ -15222,15 +15556,18 @@
       <c r="AE47" s="2"/>
     </row>
     <row r="48" spans="1:31">
-      <c r="A48" s="2"/>
-      <c r="B48" s="2"/>
-      <c r="C48" s="2"/>
-      <c r="D48" s="2"/>
-      <c r="E48" s="2"/>
-      <c r="F48" s="2"/>
-      <c r="G48" s="2"/>
-      <c r="H48" s="2"/>
-      <c r="I48" s="2"/>
+      <c r="A48" s="1"/>
+      <c r="B48" s="1"/>
+      <c r="C48" s="1"/>
+      <c r="D48" s="1"/>
+      <c r="E48" s="1"/>
+      <c r="F48" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G48" s="1"/>
+      <c r="H48" s="1"/>
+      <c r="I48" s="5"/>
       <c r="J48" s="2"/>
       <c r="K48" s="2"/>
       <c r="L48" s="2"/>
@@ -15255,15 +15592,18 @@
       <c r="AE48" s="2"/>
     </row>
     <row r="49" spans="1:31">
-      <c r="A49" s="2"/>
-      <c r="B49" s="2"/>
-      <c r="C49" s="2"/>
-      <c r="D49" s="2"/>
-      <c r="E49" s="2"/>
-      <c r="F49" s="2"/>
-      <c r="G49" s="2"/>
-      <c r="H49" s="2"/>
-      <c r="I49" s="2"/>
+      <c r="A49" s="1"/>
+      <c r="B49" s="1"/>
+      <c r="C49" s="1"/>
+      <c r="D49" s="1"/>
+      <c r="E49" s="1"/>
+      <c r="F49" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G49" s="1"/>
+      <c r="H49" s="1"/>
+      <c r="I49" s="5"/>
       <c r="J49" s="2"/>
       <c r="K49" s="2"/>
       <c r="L49" s="2"/>
@@ -15288,15 +15628,18 @@
       <c r="AE49" s="2"/>
     </row>
     <row r="50" spans="1:31">
-      <c r="A50" s="2"/>
-      <c r="B50" s="2"/>
-      <c r="C50" s="2"/>
-      <c r="D50" s="2"/>
-      <c r="E50" s="2"/>
-      <c r="F50" s="2"/>
-      <c r="G50" s="2"/>
-      <c r="H50" s="2"/>
-      <c r="I50" s="2"/>
+      <c r="A50" s="1"/>
+      <c r="B50" s="1"/>
+      <c r="C50" s="1"/>
+      <c r="D50" s="1"/>
+      <c r="E50" s="1"/>
+      <c r="F50" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G50" s="1"/>
+      <c r="H50" s="1"/>
+      <c r="I50" s="5"/>
       <c r="J50" s="2"/>
       <c r="K50" s="2"/>
       <c r="L50" s="2"/>
@@ -15321,15 +15664,18 @@
       <c r="AE50" s="2"/>
     </row>
     <row r="51" spans="1:31">
-      <c r="A51" s="2"/>
-      <c r="B51" s="2"/>
-      <c r="C51" s="2"/>
-      <c r="D51" s="2"/>
-      <c r="E51" s="2"/>
-      <c r="F51" s="2"/>
-      <c r="G51" s="2"/>
-      <c r="H51" s="2"/>
-      <c r="I51" s="2"/>
+      <c r="A51" s="1"/>
+      <c r="B51" s="1"/>
+      <c r="C51" s="1"/>
+      <c r="D51" s="1"/>
+      <c r="E51" s="1"/>
+      <c r="F51" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G51" s="1"/>
+      <c r="H51" s="1"/>
+      <c r="I51" s="5"/>
       <c r="J51" s="2"/>
       <c r="K51" s="2"/>
       <c r="L51" s="2"/>
@@ -15354,15 +15700,18 @@
       <c r="AE51" s="2"/>
     </row>
     <row r="52" spans="1:31">
-      <c r="A52" s="2"/>
-      <c r="B52" s="2"/>
-      <c r="C52" s="2"/>
-      <c r="D52" s="2"/>
-      <c r="E52" s="2"/>
-      <c r="F52" s="2"/>
-      <c r="G52" s="2"/>
-      <c r="H52" s="2"/>
-      <c r="I52" s="2"/>
+      <c r="A52" s="1"/>
+      <c r="B52" s="1"/>
+      <c r="C52" s="1"/>
+      <c r="D52" s="1"/>
+      <c r="E52" s="1"/>
+      <c r="F52" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G52" s="1"/>
+      <c r="H52" s="1"/>
+      <c r="I52" s="5"/>
       <c r="J52" s="2"/>
       <c r="K52" s="2"/>
       <c r="L52" s="2"/>
@@ -15387,15 +15736,18 @@
       <c r="AE52" s="2"/>
     </row>
     <row r="53" spans="1:31">
-      <c r="A53" s="2"/>
-      <c r="B53" s="2"/>
-      <c r="C53" s="2"/>
-      <c r="D53" s="2"/>
-      <c r="E53" s="2"/>
-      <c r="F53" s="2"/>
-      <c r="G53" s="2"/>
-      <c r="H53" s="2"/>
-      <c r="I53" s="2"/>
+      <c r="A53" s="1"/>
+      <c r="B53" s="1"/>
+      <c r="C53" s="1"/>
+      <c r="D53" s="1"/>
+      <c r="E53" s="1"/>
+      <c r="F53" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G53" s="1"/>
+      <c r="H53" s="1"/>
+      <c r="I53" s="5"/>
       <c r="J53" s="2"/>
       <c r="K53" s="2"/>
       <c r="L53" s="2"/>
@@ -15420,15 +15772,18 @@
       <c r="AE53" s="2"/>
     </row>
     <row r="54" spans="1:31">
-      <c r="A54" s="2"/>
-      <c r="B54" s="2"/>
-      <c r="C54" s="2"/>
-      <c r="D54" s="2"/>
-      <c r="E54" s="2"/>
-      <c r="F54" s="2"/>
-      <c r="G54" s="2"/>
-      <c r="H54" s="2"/>
-      <c r="I54" s="2"/>
+      <c r="A54" s="1"/>
+      <c r="B54" s="1"/>
+      <c r="C54" s="1"/>
+      <c r="D54" s="1"/>
+      <c r="E54" s="1"/>
+      <c r="F54" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G54" s="1"/>
+      <c r="H54" s="1"/>
+      <c r="I54" s="5"/>
       <c r="J54" s="2"/>
       <c r="K54" s="2"/>
       <c r="L54" s="2"/>
@@ -15453,15 +15808,18 @@
       <c r="AE54" s="2"/>
     </row>
     <row r="55" spans="1:31">
-      <c r="A55" s="2"/>
-      <c r="B55" s="2"/>
-      <c r="C55" s="2"/>
-      <c r="D55" s="2"/>
-      <c r="E55" s="2"/>
-      <c r="F55" s="2"/>
-      <c r="G55" s="2"/>
-      <c r="H55" s="2"/>
-      <c r="I55" s="2"/>
+      <c r="A55" s="1"/>
+      <c r="B55" s="1"/>
+      <c r="C55" s="1"/>
+      <c r="D55" s="1"/>
+      <c r="E55" s="1"/>
+      <c r="F55" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G55" s="1"/>
+      <c r="H55" s="1"/>
+      <c r="I55" s="5"/>
       <c r="J55" s="2"/>
       <c r="K55" s="2"/>
       <c r="L55" s="2"/>
@@ -15486,15 +15844,18 @@
       <c r="AE55" s="2"/>
     </row>
     <row r="56" spans="1:31">
-      <c r="A56" s="2"/>
-      <c r="B56" s="2"/>
-      <c r="C56" s="2"/>
-      <c r="D56" s="2"/>
-      <c r="E56" s="2"/>
-      <c r="F56" s="2"/>
-      <c r="G56" s="2"/>
-      <c r="H56" s="2"/>
-      <c r="I56" s="2"/>
+      <c r="A56" s="1"/>
+      <c r="B56" s="1"/>
+      <c r="C56" s="1"/>
+      <c r="D56" s="1"/>
+      <c r="E56" s="1"/>
+      <c r="F56" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G56" s="1"/>
+      <c r="H56" s="1"/>
+      <c r="I56" s="5"/>
       <c r="J56" s="2"/>
       <c r="K56" s="2"/>
       <c r="L56" s="2"/>
@@ -15519,15 +15880,18 @@
       <c r="AE56" s="2"/>
     </row>
     <row r="57" spans="1:31">
-      <c r="A57" s="2"/>
-      <c r="B57" s="2"/>
-      <c r="C57" s="2"/>
-      <c r="D57" s="2"/>
-      <c r="E57" s="2"/>
-      <c r="F57" s="2"/>
-      <c r="G57" s="2"/>
-      <c r="H57" s="2"/>
-      <c r="I57" s="2"/>
+      <c r="A57" s="1"/>
+      <c r="B57" s="1"/>
+      <c r="C57" s="1"/>
+      <c r="D57" s="1"/>
+      <c r="E57" s="1"/>
+      <c r="F57" s="1">
+        <f>SUM(F2:F56)</f>
+        <v>15699.454000000002</v>
+      </c>
+      <c r="G57" s="1"/>
+      <c r="H57" s="1"/>
+      <c r="I57" s="1"/>
       <c r="J57" s="2"/>
       <c r="K57" s="2"/>
       <c r="L57" s="2"/>
@@ -20138,6 +20502,501 @@
       <c r="AD196" s="2"/>
       <c r="AE196" s="2"/>
     </row>
+    <row r="197" spans="1:31">
+      <c r="A197" s="2"/>
+      <c r="B197" s="2"/>
+      <c r="C197" s="2"/>
+      <c r="D197" s="2"/>
+      <c r="E197" s="2"/>
+      <c r="F197" s="2"/>
+      <c r="G197" s="2"/>
+      <c r="H197" s="2"/>
+      <c r="I197" s="2"/>
+      <c r="J197" s="2"/>
+      <c r="K197" s="2"/>
+      <c r="L197" s="2"/>
+      <c r="M197" s="2"/>
+      <c r="N197" s="2"/>
+      <c r="O197" s="2"/>
+      <c r="P197" s="2"/>
+      <c r="Q197" s="2"/>
+      <c r="R197" s="2"/>
+      <c r="S197" s="2"/>
+      <c r="T197" s="2"/>
+      <c r="U197" s="2"/>
+      <c r="V197" s="2"/>
+      <c r="W197" s="2"/>
+      <c r="X197" s="2"/>
+      <c r="Y197" s="2"/>
+      <c r="Z197" s="2"/>
+      <c r="AA197" s="2"/>
+      <c r="AB197" s="2"/>
+      <c r="AC197" s="2"/>
+      <c r="AD197" s="2"/>
+      <c r="AE197" s="2"/>
+    </row>
+    <row r="198" spans="1:31">
+      <c r="A198" s="2"/>
+      <c r="B198" s="2"/>
+      <c r="C198" s="2"/>
+      <c r="D198" s="2"/>
+      <c r="E198" s="2"/>
+      <c r="F198" s="2"/>
+      <c r="G198" s="2"/>
+      <c r="H198" s="2"/>
+      <c r="I198" s="2"/>
+      <c r="J198" s="2"/>
+      <c r="K198" s="2"/>
+      <c r="L198" s="2"/>
+      <c r="M198" s="2"/>
+      <c r="N198" s="2"/>
+      <c r="O198" s="2"/>
+      <c r="P198" s="2"/>
+      <c r="Q198" s="2"/>
+      <c r="R198" s="2"/>
+      <c r="S198" s="2"/>
+      <c r="T198" s="2"/>
+      <c r="U198" s="2"/>
+      <c r="V198" s="2"/>
+      <c r="W198" s="2"/>
+      <c r="X198" s="2"/>
+      <c r="Y198" s="2"/>
+      <c r="Z198" s="2"/>
+      <c r="AA198" s="2"/>
+      <c r="AB198" s="2"/>
+      <c r="AC198" s="2"/>
+      <c r="AD198" s="2"/>
+      <c r="AE198" s="2"/>
+    </row>
+    <row r="199" spans="1:31">
+      <c r="A199" s="2"/>
+      <c r="B199" s="2"/>
+      <c r="C199" s="2"/>
+      <c r="D199" s="2"/>
+      <c r="E199" s="2"/>
+      <c r="F199" s="2"/>
+      <c r="G199" s="2"/>
+      <c r="H199" s="2"/>
+      <c r="I199" s="2"/>
+      <c r="J199" s="2"/>
+      <c r="K199" s="2"/>
+      <c r="L199" s="2"/>
+      <c r="M199" s="2"/>
+      <c r="N199" s="2"/>
+      <c r="O199" s="2"/>
+      <c r="P199" s="2"/>
+      <c r="Q199" s="2"/>
+      <c r="R199" s="2"/>
+      <c r="S199" s="2"/>
+      <c r="T199" s="2"/>
+      <c r="U199" s="2"/>
+      <c r="V199" s="2"/>
+      <c r="W199" s="2"/>
+      <c r="X199" s="2"/>
+      <c r="Y199" s="2"/>
+      <c r="Z199" s="2"/>
+      <c r="AA199" s="2"/>
+      <c r="AB199" s="2"/>
+      <c r="AC199" s="2"/>
+      <c r="AD199" s="2"/>
+      <c r="AE199" s="2"/>
+    </row>
+    <row r="200" spans="1:31">
+      <c r="A200" s="2"/>
+      <c r="B200" s="2"/>
+      <c r="C200" s="2"/>
+      <c r="D200" s="2"/>
+      <c r="E200" s="2"/>
+      <c r="F200" s="2"/>
+      <c r="G200" s="2"/>
+      <c r="H200" s="2"/>
+      <c r="I200" s="2"/>
+      <c r="J200" s="2"/>
+      <c r="K200" s="2"/>
+      <c r="L200" s="2"/>
+      <c r="M200" s="2"/>
+      <c r="N200" s="2"/>
+      <c r="O200" s="2"/>
+      <c r="P200" s="2"/>
+      <c r="Q200" s="2"/>
+      <c r="R200" s="2"/>
+      <c r="S200" s="2"/>
+      <c r="T200" s="2"/>
+      <c r="U200" s="2"/>
+      <c r="V200" s="2"/>
+      <c r="W200" s="2"/>
+      <c r="X200" s="2"/>
+      <c r="Y200" s="2"/>
+      <c r="Z200" s="2"/>
+      <c r="AA200" s="2"/>
+      <c r="AB200" s="2"/>
+      <c r="AC200" s="2"/>
+      <c r="AD200" s="2"/>
+      <c r="AE200" s="2"/>
+    </row>
+    <row r="201" spans="1:31">
+      <c r="A201" s="2"/>
+      <c r="B201" s="2"/>
+      <c r="C201" s="2"/>
+      <c r="D201" s="2"/>
+      <c r="E201" s="2"/>
+      <c r="F201" s="2"/>
+      <c r="G201" s="2"/>
+      <c r="H201" s="2"/>
+      <c r="I201" s="2"/>
+      <c r="J201" s="2"/>
+      <c r="K201" s="2"/>
+      <c r="L201" s="2"/>
+      <c r="M201" s="2"/>
+      <c r="N201" s="2"/>
+      <c r="O201" s="2"/>
+      <c r="P201" s="2"/>
+      <c r="Q201" s="2"/>
+      <c r="R201" s="2"/>
+      <c r="S201" s="2"/>
+      <c r="T201" s="2"/>
+      <c r="U201" s="2"/>
+      <c r="V201" s="2"/>
+      <c r="W201" s="2"/>
+      <c r="X201" s="2"/>
+      <c r="Y201" s="2"/>
+      <c r="Z201" s="2"/>
+      <c r="AA201" s="2"/>
+      <c r="AB201" s="2"/>
+      <c r="AC201" s="2"/>
+      <c r="AD201" s="2"/>
+      <c r="AE201" s="2"/>
+    </row>
+    <row r="202" spans="1:31">
+      <c r="A202" s="2"/>
+      <c r="B202" s="2"/>
+      <c r="C202" s="2"/>
+      <c r="D202" s="2"/>
+      <c r="E202" s="2"/>
+      <c r="F202" s="2"/>
+      <c r="G202" s="2"/>
+      <c r="H202" s="2"/>
+      <c r="I202" s="2"/>
+      <c r="J202" s="2"/>
+      <c r="K202" s="2"/>
+      <c r="L202" s="2"/>
+      <c r="M202" s="2"/>
+      <c r="N202" s="2"/>
+      <c r="O202" s="2"/>
+      <c r="P202" s="2"/>
+      <c r="Q202" s="2"/>
+      <c r="R202" s="2"/>
+      <c r="S202" s="2"/>
+      <c r="T202" s="2"/>
+      <c r="U202" s="2"/>
+      <c r="V202" s="2"/>
+      <c r="W202" s="2"/>
+      <c r="X202" s="2"/>
+      <c r="Y202" s="2"/>
+      <c r="Z202" s="2"/>
+      <c r="AA202" s="2"/>
+      <c r="AB202" s="2"/>
+      <c r="AC202" s="2"/>
+      <c r="AD202" s="2"/>
+      <c r="AE202" s="2"/>
+    </row>
+    <row r="203" spans="1:31">
+      <c r="A203" s="2"/>
+      <c r="B203" s="2"/>
+      <c r="C203" s="2"/>
+      <c r="D203" s="2"/>
+      <c r="E203" s="2"/>
+      <c r="F203" s="2"/>
+      <c r="G203" s="2"/>
+      <c r="H203" s="2"/>
+      <c r="I203" s="2"/>
+      <c r="J203" s="2"/>
+      <c r="K203" s="2"/>
+      <c r="L203" s="2"/>
+      <c r="M203" s="2"/>
+      <c r="N203" s="2"/>
+      <c r="O203" s="2"/>
+      <c r="P203" s="2"/>
+      <c r="Q203" s="2"/>
+      <c r="R203" s="2"/>
+      <c r="S203" s="2"/>
+      <c r="T203" s="2"/>
+      <c r="U203" s="2"/>
+      <c r="V203" s="2"/>
+      <c r="W203" s="2"/>
+      <c r="X203" s="2"/>
+      <c r="Y203" s="2"/>
+      <c r="Z203" s="2"/>
+      <c r="AA203" s="2"/>
+      <c r="AB203" s="2"/>
+      <c r="AC203" s="2"/>
+      <c r="AD203" s="2"/>
+      <c r="AE203" s="2"/>
+    </row>
+    <row r="204" spans="1:31">
+      <c r="A204" s="2"/>
+      <c r="B204" s="2"/>
+      <c r="C204" s="2"/>
+      <c r="D204" s="2"/>
+      <c r="E204" s="2"/>
+      <c r="F204" s="2"/>
+      <c r="G204" s="2"/>
+      <c r="H204" s="2"/>
+      <c r="I204" s="2"/>
+      <c r="J204" s="2"/>
+      <c r="K204" s="2"/>
+      <c r="L204" s="2"/>
+      <c r="M204" s="2"/>
+      <c r="N204" s="2"/>
+      <c r="O204" s="2"/>
+      <c r="P204" s="2"/>
+      <c r="Q204" s="2"/>
+      <c r="R204" s="2"/>
+      <c r="S204" s="2"/>
+      <c r="T204" s="2"/>
+      <c r="U204" s="2"/>
+      <c r="V204" s="2"/>
+      <c r="W204" s="2"/>
+      <c r="X204" s="2"/>
+      <c r="Y204" s="2"/>
+      <c r="Z204" s="2"/>
+      <c r="AA204" s="2"/>
+      <c r="AB204" s="2"/>
+      <c r="AC204" s="2"/>
+      <c r="AD204" s="2"/>
+      <c r="AE204" s="2"/>
+    </row>
+    <row r="205" spans="1:31">
+      <c r="A205" s="2"/>
+      <c r="B205" s="2"/>
+      <c r="C205" s="2"/>
+      <c r="D205" s="2"/>
+      <c r="E205" s="2"/>
+      <c r="F205" s="2"/>
+      <c r="G205" s="2"/>
+      <c r="H205" s="2"/>
+      <c r="I205" s="2"/>
+      <c r="J205" s="2"/>
+      <c r="K205" s="2"/>
+      <c r="L205" s="2"/>
+      <c r="M205" s="2"/>
+      <c r="N205" s="2"/>
+      <c r="O205" s="2"/>
+      <c r="P205" s="2"/>
+      <c r="Q205" s="2"/>
+      <c r="R205" s="2"/>
+      <c r="S205" s="2"/>
+      <c r="T205" s="2"/>
+      <c r="U205" s="2"/>
+      <c r="V205" s="2"/>
+      <c r="W205" s="2"/>
+      <c r="X205" s="2"/>
+      <c r="Y205" s="2"/>
+      <c r="Z205" s="2"/>
+      <c r="AA205" s="2"/>
+      <c r="AB205" s="2"/>
+      <c r="AC205" s="2"/>
+      <c r="AD205" s="2"/>
+      <c r="AE205" s="2"/>
+    </row>
+    <row r="206" spans="1:31">
+      <c r="A206" s="2"/>
+      <c r="B206" s="2"/>
+      <c r="C206" s="2"/>
+      <c r="D206" s="2"/>
+      <c r="E206" s="2"/>
+      <c r="F206" s="2"/>
+      <c r="G206" s="2"/>
+      <c r="H206" s="2"/>
+      <c r="I206" s="2"/>
+      <c r="J206" s="2"/>
+      <c r="K206" s="2"/>
+      <c r="L206" s="2"/>
+      <c r="M206" s="2"/>
+      <c r="N206" s="2"/>
+      <c r="O206" s="2"/>
+      <c r="P206" s="2"/>
+      <c r="Q206" s="2"/>
+      <c r="R206" s="2"/>
+      <c r="S206" s="2"/>
+      <c r="T206" s="2"/>
+      <c r="U206" s="2"/>
+      <c r="V206" s="2"/>
+      <c r="W206" s="2"/>
+      <c r="X206" s="2"/>
+      <c r="Y206" s="2"/>
+      <c r="Z206" s="2"/>
+      <c r="AA206" s="2"/>
+      <c r="AB206" s="2"/>
+      <c r="AC206" s="2"/>
+      <c r="AD206" s="2"/>
+      <c r="AE206" s="2"/>
+    </row>
+    <row r="207" spans="1:31">
+      <c r="A207" s="2"/>
+      <c r="B207" s="2"/>
+      <c r="C207" s="2"/>
+      <c r="D207" s="2"/>
+      <c r="E207" s="2"/>
+      <c r="F207" s="2"/>
+      <c r="G207" s="2"/>
+      <c r="H207" s="2"/>
+      <c r="I207" s="2"/>
+      <c r="J207" s="2"/>
+      <c r="K207" s="2"/>
+      <c r="L207" s="2"/>
+      <c r="M207" s="2"/>
+      <c r="N207" s="2"/>
+      <c r="O207" s="2"/>
+      <c r="P207" s="2"/>
+      <c r="Q207" s="2"/>
+      <c r="R207" s="2"/>
+      <c r="S207" s="2"/>
+      <c r="T207" s="2"/>
+      <c r="U207" s="2"/>
+      <c r="V207" s="2"/>
+      <c r="W207" s="2"/>
+      <c r="X207" s="2"/>
+      <c r="Y207" s="2"/>
+      <c r="Z207" s="2"/>
+      <c r="AA207" s="2"/>
+      <c r="AB207" s="2"/>
+      <c r="AC207" s="2"/>
+      <c r="AD207" s="2"/>
+      <c r="AE207" s="2"/>
+    </row>
+    <row r="208" spans="1:31">
+      <c r="A208" s="2"/>
+      <c r="B208" s="2"/>
+      <c r="C208" s="2"/>
+      <c r="D208" s="2"/>
+      <c r="E208" s="2"/>
+      <c r="F208" s="2"/>
+      <c r="G208" s="2"/>
+      <c r="H208" s="2"/>
+      <c r="I208" s="2"/>
+      <c r="J208" s="2"/>
+      <c r="K208" s="2"/>
+      <c r="L208" s="2"/>
+      <c r="M208" s="2"/>
+      <c r="N208" s="2"/>
+      <c r="O208" s="2"/>
+      <c r="P208" s="2"/>
+      <c r="Q208" s="2"/>
+      <c r="R208" s="2"/>
+      <c r="S208" s="2"/>
+      <c r="T208" s="2"/>
+      <c r="U208" s="2"/>
+      <c r="V208" s="2"/>
+      <c r="W208" s="2"/>
+      <c r="X208" s="2"/>
+      <c r="Y208" s="2"/>
+      <c r="Z208" s="2"/>
+      <c r="AA208" s="2"/>
+      <c r="AB208" s="2"/>
+      <c r="AC208" s="2"/>
+      <c r="AD208" s="2"/>
+      <c r="AE208" s="2"/>
+    </row>
+    <row r="209" spans="1:31">
+      <c r="A209" s="2"/>
+      <c r="B209" s="2"/>
+      <c r="C209" s="2"/>
+      <c r="D209" s="2"/>
+      <c r="E209" s="2"/>
+      <c r="F209" s="2"/>
+      <c r="G209" s="2"/>
+      <c r="H209" s="2"/>
+      <c r="I209" s="2"/>
+      <c r="J209" s="2"/>
+      <c r="K209" s="2"/>
+      <c r="L209" s="2"/>
+      <c r="M209" s="2"/>
+      <c r="N209" s="2"/>
+      <c r="O209" s="2"/>
+      <c r="P209" s="2"/>
+      <c r="Q209" s="2"/>
+      <c r="R209" s="2"/>
+      <c r="S209" s="2"/>
+      <c r="T209" s="2"/>
+      <c r="U209" s="2"/>
+      <c r="V209" s="2"/>
+      <c r="W209" s="2"/>
+      <c r="X209" s="2"/>
+      <c r="Y209" s="2"/>
+      <c r="Z209" s="2"/>
+      <c r="AA209" s="2"/>
+      <c r="AB209" s="2"/>
+      <c r="AC209" s="2"/>
+      <c r="AD209" s="2"/>
+      <c r="AE209" s="2"/>
+    </row>
+    <row r="210" spans="1:31">
+      <c r="A210" s="2"/>
+      <c r="B210" s="2"/>
+      <c r="C210" s="2"/>
+      <c r="D210" s="2"/>
+      <c r="E210" s="2"/>
+      <c r="F210" s="2"/>
+      <c r="G210" s="2"/>
+      <c r="H210" s="2"/>
+      <c r="I210" s="2"/>
+      <c r="J210" s="2"/>
+      <c r="K210" s="2"/>
+      <c r="L210" s="2"/>
+      <c r="M210" s="2"/>
+      <c r="N210" s="2"/>
+      <c r="O210" s="2"/>
+      <c r="P210" s="2"/>
+      <c r="Q210" s="2"/>
+      <c r="R210" s="2"/>
+      <c r="S210" s="2"/>
+      <c r="T210" s="2"/>
+      <c r="U210" s="2"/>
+      <c r="V210" s="2"/>
+      <c r="W210" s="2"/>
+      <c r="X210" s="2"/>
+      <c r="Y210" s="2"/>
+      <c r="Z210" s="2"/>
+      <c r="AA210" s="2"/>
+      <c r="AB210" s="2"/>
+      <c r="AC210" s="2"/>
+      <c r="AD210" s="2"/>
+      <c r="AE210" s="2"/>
+    </row>
+    <row r="211" spans="1:31">
+      <c r="A211" s="2"/>
+      <c r="B211" s="2"/>
+      <c r="C211" s="2"/>
+      <c r="D211" s="2"/>
+      <c r="E211" s="2"/>
+      <c r="F211" s="2"/>
+      <c r="G211" s="2"/>
+      <c r="H211" s="2"/>
+      <c r="I211" s="2"/>
+      <c r="J211" s="2"/>
+      <c r="K211" s="2"/>
+      <c r="L211" s="2"/>
+      <c r="M211" s="2"/>
+      <c r="N211" s="2"/>
+      <c r="O211" s="2"/>
+      <c r="P211" s="2"/>
+      <c r="Q211" s="2"/>
+      <c r="R211" s="2"/>
+      <c r="S211" s="2"/>
+      <c r="T211" s="2"/>
+      <c r="U211" s="2"/>
+      <c r="V211" s="2"/>
+      <c r="W211" s="2"/>
+      <c r="X211" s="2"/>
+      <c r="Y211" s="2"/>
+      <c r="Z211" s="2"/>
+      <c r="AA211" s="2"/>
+      <c r="AB211" s="2"/>
+      <c r="AC211" s="2"/>
+      <c r="AD211" s="2"/>
+      <c r="AE211" s="2"/>
+    </row>
   </sheetData>
   <autoFilter ref="A1:G1">
     <filterColumn colId="3"/>

--- a/.private/房子.xlsx
+++ b/.private/房子.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="30" windowWidth="18180" windowHeight="11730" activeTab="1"/>
+    <workbookView xWindow="480" yWindow="30" windowWidth="18180" windowHeight="11730" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="买房" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="96">
   <si>
     <t>付定金４万，张浦发银行转帐。</t>
   </si>
@@ -275,10 +275,6 @@
   </si>
   <si>
     <t>水管</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>配件</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -617,137 +613,7 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>骏仕陶瓷</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>-862</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>骏仕陶瓷</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>简典</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>030</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>，交定金</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>50</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>联系人</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>王新星：</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>13817967481</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>；</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">
-60470690</t>
-    </r>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -837,6 +703,42 @@
   </si>
   <si>
     <t>水电阶段验收</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>水管安装费</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>整体</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>水管优惠</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>12-8</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>号送货</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>开关、插座</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>窗户</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -971,7 +873,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1038,7 +940,10 @@
     <xf numFmtId="14" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1405,8 +1310,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AB189"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="B37" sqref="B37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -1495,7 +1400,7 @@
         <v>13000</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
@@ -1531,7 +1436,7 @@
         <v>350000</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
@@ -1567,7 +1472,7 @@
         <v>1600</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
@@ -1603,7 +1508,7 @@
         <v>13000</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
@@ -7150,8 +7055,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AE183"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -7422,7 +7327,7 @@
         <v>18</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="D6" s="4"/>
       <c r="E6" s="4">
@@ -7437,7 +7342,7 @@
         <v>-260</v>
       </c>
       <c r="H6" s="4" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="I6" s="2"/>
       <c r="J6" s="2"/>
@@ -7471,7 +7376,7 @@
         <v>18</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="D7" s="4"/>
       <c r="E7" s="4">
@@ -7486,7 +7391,7 @@
         <v>-90</v>
       </c>
       <c r="H7" s="4" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="I7" s="2"/>
       <c r="J7" s="2"/>
@@ -7520,7 +7425,7 @@
         <v>18</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="D8" s="4"/>
       <c r="E8" s="4">
@@ -7534,7 +7439,7 @@
         <v>380</v>
       </c>
       <c r="H8" s="4" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="I8" s="2"/>
       <c r="J8" s="2"/>
@@ -8422,11 +8327,11 @@
       <c r="D34" s="2"/>
       <c r="E34" s="2"/>
       <c r="F34" s="15" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G34" s="16">
-        <f>SUM(G29+'装修-自购'!F57)</f>
-        <v>21169.454000000002</v>
+        <f>SUM(G29+'装修-自购'!F59)</f>
+        <v>26623.200000000004</v>
       </c>
       <c r="H34" s="2"/>
       <c r="I34" s="2"/>
@@ -13383,13 +13288,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AE211"/>
+  <dimension ref="A1:AE213"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B26" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B29" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F57" sqref="F57"/>
+      <selection pane="bottomRight" activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -13427,7 +13332,7 @@
         <v>13</v>
       </c>
       <c r="H1" s="13" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="I1" s="8" t="s">
         <v>4</v>
@@ -13572,11 +13477,11 @@
         <v>1</v>
       </c>
       <c r="F4" s="1">
-        <f t="shared" ref="F4:F56" si="0">D4*E4</f>
+        <f t="shared" ref="F4:F58" si="0">D4*E4</f>
         <v>100</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H4" s="4"/>
       <c r="I4" s="3">
@@ -13626,7 +13531,7 @@
         <v>249</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H5" s="4"/>
       <c r="I5" s="3">
@@ -13657,7 +13562,7 @@
     </row>
     <row r="6" spans="1:31" ht="27">
       <c r="A6" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B6" s="4" t="s">
         <v>19</v>
@@ -13676,7 +13581,7 @@
         <v>69</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H6" s="4"/>
       <c r="I6" s="3"/>
@@ -13705,7 +13610,7 @@
     </row>
     <row r="7" spans="1:31">
       <c r="A7" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B7" s="4" t="s">
         <v>19</v>
@@ -13724,7 +13629,7 @@
         <v>30</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H7" s="4"/>
       <c r="I7" s="3"/>
@@ -13753,7 +13658,7 @@
     </row>
     <row r="8" spans="1:31">
       <c r="A8" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B8" s="4" t="s">
         <v>19</v>
@@ -13772,7 +13677,7 @@
         <v>150</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H8" s="4"/>
       <c r="I8" s="3"/>
@@ -13801,10 +13706,10 @@
     </row>
     <row r="9" spans="1:31" ht="27.75">
       <c r="A9" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>15</v>
@@ -13820,7 +13725,7 @@
         <v>1280</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H9" s="1"/>
       <c r="I9" s="3">
@@ -13849,34 +13754,32 @@
       <c r="AD9" s="2"/>
       <c r="AE9" s="2"/>
     </row>
-    <row r="10" spans="1:31" ht="42">
+    <row r="10" spans="1:31">
       <c r="A10" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>15</v>
       </c>
       <c r="D10" s="1">
-        <v>4.5</v>
+        <v>4.2</v>
       </c>
       <c r="E10" s="1">
-        <v>280</v>
+        <v>176</v>
       </c>
       <c r="F10" s="1">
         <f>D10*E10</f>
-        <v>1260</v>
+        <v>739.2</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="H10" s="1" t="s">
-        <v>72</v>
-      </c>
+        <v>93</v>
+      </c>
+      <c r="H10" s="1"/>
       <c r="I10" s="3">
-        <v>41238</v>
+        <v>41253</v>
       </c>
       <c r="J10" s="2"/>
       <c r="K10" s="2"/>
@@ -13903,30 +13806,30 @@
     </row>
     <row r="11" spans="1:31">
       <c r="A11" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C11" s="4" t="s">
         <v>15</v>
       </c>
       <c r="D11" s="1">
-        <v>4.2</v>
+        <v>4.5</v>
       </c>
       <c r="E11" s="1">
-        <v>165</v>
+        <v>280</v>
       </c>
       <c r="F11" s="1">
         <f>D11*E11</f>
-        <v>693</v>
+        <v>1260</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>69</v>
+        <v>93</v>
       </c>
       <c r="H11" s="1"/>
       <c r="I11" s="3">
-        <v>41238</v>
+        <v>41253</v>
       </c>
       <c r="J11" s="2"/>
       <c r="K11" s="2"/>
@@ -13986,10 +13889,10 @@
     </row>
     <row r="13" spans="1:31" ht="27">
       <c r="A13" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C13" s="4" t="s">
         <v>15</v>
@@ -14032,7 +13935,7 @@
     </row>
     <row r="14" spans="1:31" ht="108">
       <c r="A14" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B14" s="4" t="s">
         <v>19</v>
@@ -14051,10 +13954,10 @@
         <v>116</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="H14" s="4" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="I14" s="3"/>
       <c r="J14" s="2"/>
@@ -14101,10 +14004,10 @@
         <v>340</v>
       </c>
       <c r="G15" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H15" s="4" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="I15" s="3"/>
       <c r="J15" s="2"/>
@@ -14152,7 +14055,7 @@
       </c>
       <c r="G16" s="4"/>
       <c r="H16" s="4" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="I16" s="3"/>
       <c r="J16" s="2"/>
@@ -14200,7 +14103,7 @@
       </c>
       <c r="G17" s="4"/>
       <c r="H17" s="4" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="I17" s="3"/>
       <c r="J17" s="2"/>
@@ -14228,10 +14131,10 @@
     </row>
     <row r="18" spans="1:31" ht="27">
       <c r="A18" s="4" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="C18" s="4" t="s">
         <v>15</v>
@@ -14248,7 +14151,7 @@
       </c>
       <c r="G18" s="4"/>
       <c r="H18" s="4" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="I18" s="3"/>
       <c r="J18" s="2"/>
@@ -14284,10 +14187,10 @@
         <v>-21</v>
       </c>
       <c r="G19" s="4" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="H19" s="4" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="I19" s="3"/>
       <c r="J19" s="2"/>
@@ -14315,7 +14218,7 @@
     </row>
     <row r="20" spans="1:31" s="18" customFormat="1" ht="27">
       <c r="A20" s="19" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B20" s="19" t="s">
         <v>11</v>
@@ -14324,18 +14227,18 @@
         <v>15</v>
       </c>
       <c r="D20" s="22">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="E20" s="19">
         <v>1</v>
       </c>
       <c r="F20" s="20">
         <f t="shared" si="0"/>
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="G20" s="19"/>
       <c r="H20" s="19" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="I20" s="21"/>
       <c r="J20" s="17"/>
@@ -14361,55 +14264,55 @@
       <c r="AD20" s="17"/>
       <c r="AE20" s="17"/>
     </row>
-    <row r="21" spans="1:31">
-      <c r="A21" s="4" t="s">
+    <row r="21" spans="1:31" s="18" customFormat="1" ht="27">
+      <c r="A21" s="19" t="s">
+        <v>90</v>
+      </c>
+      <c r="B21" s="19" t="s">
+        <v>91</v>
+      </c>
+      <c r="C21" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="D21" s="22">
+        <v>180</v>
+      </c>
+      <c r="E21" s="19">
+        <v>1</v>
+      </c>
+      <c r="F21" s="20">
+        <f t="shared" si="0"/>
+        <v>180</v>
+      </c>
+      <c r="G21" s="19"/>
+      <c r="H21" s="19"/>
+      <c r="I21" s="21"/>
+      <c r="J21" s="17"/>
+      <c r="K21" s="17"/>
+      <c r="L21" s="17"/>
+      <c r="M21" s="17"/>
+      <c r="N21" s="17"/>
+      <c r="O21" s="17"/>
+      <c r="P21" s="17"/>
+      <c r="Q21" s="17"/>
+      <c r="R21" s="17"/>
+      <c r="S21" s="17"/>
+      <c r="T21" s="17"/>
+      <c r="U21" s="17"/>
+      <c r="V21" s="17"/>
+      <c r="W21" s="17"/>
+      <c r="X21" s="17"/>
+      <c r="Y21" s="17"/>
+      <c r="Z21" s="17"/>
+      <c r="AA21" s="17"/>
+      <c r="AB21" s="17"/>
+      <c r="AC21" s="17"/>
+      <c r="AD21" s="17"/>
+      <c r="AE21" s="17"/>
+    </row>
+    <row r="22" spans="1:31">
+      <c r="A22" s="4" t="s">
         <v>34</v>
-      </c>
-      <c r="B21" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="C21" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D21" s="4">
-        <v>6.8</v>
-      </c>
-      <c r="E21" s="4">
-        <v>42</v>
-      </c>
-      <c r="F21" s="1">
-        <f>D21*E21</f>
-        <v>285.59999999999997</v>
-      </c>
-      <c r="G21" s="4"/>
-      <c r="H21" s="4"/>
-      <c r="I21" s="3"/>
-      <c r="J21" s="2"/>
-      <c r="K21" s="2"/>
-      <c r="L21" s="2"/>
-      <c r="M21" s="2"/>
-      <c r="N21" s="2"/>
-      <c r="O21" s="2"/>
-      <c r="P21" s="2"/>
-      <c r="Q21" s="2"/>
-      <c r="R21" s="2"/>
-      <c r="S21" s="2"/>
-      <c r="T21" s="2"/>
-      <c r="U21" s="2"/>
-      <c r="V21" s="2"/>
-      <c r="W21" s="2"/>
-      <c r="X21" s="2"/>
-      <c r="Y21" s="2"/>
-      <c r="Z21" s="2"/>
-      <c r="AA21" s="2"/>
-      <c r="AB21" s="2"/>
-      <c r="AC21" s="2"/>
-      <c r="AD21" s="2"/>
-      <c r="AE21" s="2"/>
-    </row>
-    <row r="22" spans="1:31" ht="27">
-      <c r="A22" s="4" t="s">
-        <v>73</v>
       </c>
       <c r="B22" s="4" t="s">
         <v>19</v>
@@ -14418,19 +14321,16 @@
         <v>15</v>
       </c>
       <c r="D22" s="4">
-        <f>5.98*0.68</f>
-        <v>4.0664000000000007</v>
+        <v>6.8</v>
       </c>
       <c r="E22" s="4">
-        <v>3</v>
+        <v>42</v>
       </c>
       <c r="F22" s="1">
         <f>D22*E22</f>
-        <v>12.199200000000001</v>
-      </c>
-      <c r="G22" s="4" t="s">
-        <v>80</v>
-      </c>
+        <v>285.59999999999997</v>
+      </c>
+      <c r="G22" s="4"/>
       <c r="H22" s="4"/>
       <c r="I22" s="3"/>
       <c r="J22" s="2"/>
@@ -14458,7 +14358,7 @@
     </row>
     <row r="23" spans="1:31">
       <c r="A23" s="4" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="B23" s="4" t="s">
         <v>19</v>
@@ -14467,18 +14367,18 @@
         <v>15</v>
       </c>
       <c r="D23" s="4">
-        <f>8.25*0.68</f>
-        <v>5.61</v>
+        <f>5.98*0.68</f>
+        <v>4.0664000000000007</v>
       </c>
       <c r="E23" s="4">
-        <v>30</v>
+        <v>3</v>
       </c>
       <c r="F23" s="1">
-        <f t="shared" ref="F23:F33" si="3">D23*E23</f>
-        <v>168.3</v>
+        <f>D23*E23</f>
+        <v>12.199200000000001</v>
       </c>
       <c r="G23" s="4" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="H23" s="4"/>
       <c r="I23" s="3"/>
@@ -14507,7 +14407,7 @@
     </row>
     <row r="24" spans="1:31">
       <c r="A24" s="4" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="B24" s="4" t="s">
         <v>19</v>
@@ -14516,18 +14416,18 @@
         <v>15</v>
       </c>
       <c r="D24" s="4">
-        <f>7.62*0.68</f>
-        <v>5.1816000000000004</v>
+        <f>8.25*0.68</f>
+        <v>5.61</v>
       </c>
       <c r="E24" s="4">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="F24" s="1">
-        <f t="shared" si="3"/>
-        <v>51.816000000000003</v>
+        <f t="shared" ref="F24:F34" si="3">D24*E24</f>
+        <v>168.3</v>
       </c>
       <c r="G24" s="4" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="H24" s="4"/>
       <c r="I24" s="3"/>
@@ -14556,7 +14456,7 @@
     </row>
     <row r="25" spans="1:31">
       <c r="A25" s="4" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="B25" s="4" t="s">
         <v>19</v>
@@ -14565,18 +14465,18 @@
         <v>15</v>
       </c>
       <c r="D25" s="4">
-        <f>10.87*0.68</f>
-        <v>7.3916000000000004</v>
+        <f>7.62*0.68</f>
+        <v>5.1816000000000004</v>
       </c>
       <c r="E25" s="4">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="F25" s="1">
         <f t="shared" si="3"/>
-        <v>51.741200000000006</v>
+        <v>51.816000000000003</v>
       </c>
       <c r="G25" s="4" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="H25" s="4"/>
       <c r="I25" s="3"/>
@@ -14605,7 +14505,7 @@
     </row>
     <row r="26" spans="1:31">
       <c r="A26" s="4" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="B26" s="4" t="s">
         <v>19</v>
@@ -14614,18 +14514,18 @@
         <v>15</v>
       </c>
       <c r="D26" s="4">
-        <f>40.97*0.68</f>
-        <v>27.8596</v>
+        <f>10.87*0.68</f>
+        <v>7.3916000000000004</v>
       </c>
       <c r="E26" s="4">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F26" s="1">
         <f t="shared" si="3"/>
-        <v>222.8768</v>
+        <v>51.741200000000006</v>
       </c>
       <c r="G26" s="4" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="H26" s="4"/>
       <c r="I26" s="3"/>
@@ -14654,7 +14554,7 @@
     </row>
     <row r="27" spans="1:31">
       <c r="A27" s="4" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="B27" s="4" t="s">
         <v>19</v>
@@ -14663,18 +14563,18 @@
         <v>15</v>
       </c>
       <c r="D27" s="4">
-        <f>33.8*0.68</f>
-        <v>22.983999999999998</v>
+        <f>40.97*0.68</f>
+        <v>27.8596</v>
       </c>
       <c r="E27" s="4">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="F27" s="1">
         <f t="shared" si="3"/>
-        <v>45.967999999999996</v>
+        <v>222.8768</v>
       </c>
       <c r="G27" s="4" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="H27" s="4"/>
       <c r="I27" s="3"/>
@@ -14703,7 +14603,7 @@
     </row>
     <row r="28" spans="1:31">
       <c r="A28" s="4" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="B28" s="4" t="s">
         <v>19</v>
@@ -14712,18 +14612,18 @@
         <v>15</v>
       </c>
       <c r="D28" s="4">
-        <f>38.95*0.68</f>
-        <v>26.486000000000004</v>
+        <f>33.8*0.68</f>
+        <v>22.983999999999998</v>
       </c>
       <c r="E28" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F28" s="1">
         <f t="shared" si="3"/>
-        <v>26.486000000000004</v>
+        <v>45.967999999999996</v>
       </c>
       <c r="G28" s="4" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="H28" s="4"/>
       <c r="I28" s="3"/>
@@ -14750,9 +14650,9 @@
       <c r="AD28" s="2"/>
       <c r="AE28" s="2"/>
     </row>
-    <row r="29" spans="1:31" ht="15" customHeight="1">
+    <row r="29" spans="1:31">
       <c r="A29" s="4" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="B29" s="4" t="s">
         <v>19</v>
@@ -14761,18 +14661,18 @@
         <v>15</v>
       </c>
       <c r="D29" s="4">
-        <f>44.71*0.68</f>
-        <v>30.402800000000003</v>
+        <f>38.95*0.68</f>
+        <v>26.486000000000004</v>
       </c>
       <c r="E29" s="4">
         <v>1</v>
       </c>
       <c r="F29" s="1">
         <f t="shared" si="3"/>
-        <v>30.402800000000003</v>
+        <v>26.486000000000004</v>
       </c>
       <c r="G29" s="4" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="H29" s="4"/>
       <c r="I29" s="3"/>
@@ -14799,9 +14699,9 @@
       <c r="AD29" s="2"/>
       <c r="AE29" s="2"/>
     </row>
-    <row r="30" spans="1:31">
+    <row r="30" spans="1:31" ht="15" customHeight="1">
       <c r="A30" s="4" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="B30" s="4" t="s">
         <v>19</v>
@@ -14810,18 +14710,18 @@
         <v>15</v>
       </c>
       <c r="D30" s="4">
-        <f>2.93*0.68</f>
-        <v>1.9924000000000002</v>
+        <f>44.71*0.68</f>
+        <v>30.402800000000003</v>
       </c>
       <c r="E30" s="4">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="F30" s="1">
         <f t="shared" si="3"/>
-        <v>19.924000000000003</v>
+        <v>30.402800000000003</v>
       </c>
       <c r="G30" s="4" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="H30" s="4"/>
       <c r="I30" s="3"/>
@@ -14850,7 +14750,7 @@
     </row>
     <row r="31" spans="1:31">
       <c r="A31" s="4" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="B31" s="4" t="s">
         <v>19</v>
@@ -14859,18 +14759,18 @@
         <v>15</v>
       </c>
       <c r="D31" s="4">
-        <f>8.7*0.68</f>
-        <v>5.9160000000000004</v>
+        <f>2.93*0.68</f>
+        <v>1.9924000000000002</v>
       </c>
       <c r="E31" s="4">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="F31" s="1">
         <f t="shared" si="3"/>
-        <v>236.64000000000001</v>
+        <v>19.924000000000003</v>
       </c>
       <c r="G31" s="4" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="H31" s="4"/>
       <c r="I31" s="3"/>
@@ -14899,7 +14799,7 @@
     </row>
     <row r="32" spans="1:31">
       <c r="A32" s="4" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="B32" s="4" t="s">
         <v>19</v>
@@ -14908,18 +14808,18 @@
         <v>15</v>
       </c>
       <c r="D32" s="4">
-        <f>0*0.68</f>
-        <v>0</v>
+        <f>8.7*0.68</f>
+        <v>5.9160000000000004</v>
       </c>
       <c r="E32" s="4">
-        <v>3</v>
+        <v>40</v>
       </c>
       <c r="F32" s="1">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>236.64000000000001</v>
       </c>
       <c r="G32" s="4" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="H32" s="4"/>
       <c r="I32" s="3"/>
@@ -14948,7 +14848,7 @@
     </row>
     <row r="33" spans="1:31">
       <c r="A33" s="4" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="B33" s="4" t="s">
         <v>19</v>
@@ -14956,13 +14856,20 @@
       <c r="C33" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="D33" s="4"/>
-      <c r="E33" s="4"/>
+      <c r="D33" s="4">
+        <f>0*0.68</f>
+        <v>0</v>
+      </c>
+      <c r="E33" s="4">
+        <v>3</v>
+      </c>
       <c r="F33" s="1">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G33" s="4"/>
+      <c r="G33" s="4" t="s">
+        <v>86</v>
+      </c>
       <c r="H33" s="4"/>
       <c r="I33" s="3"/>
       <c r="J33" s="2"/>
@@ -14988,25 +14895,21 @@
       <c r="AD33" s="2"/>
       <c r="AE33" s="2"/>
     </row>
-    <row r="34" spans="1:31" ht="27">
+    <row r="34" spans="1:31">
       <c r="A34" s="4" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>67</v>
+        <v>19</v>
       </c>
       <c r="C34" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="D34" s="4">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="E34" s="4">
-        <v>215</v>
-      </c>
+      <c r="D34" s="4"/>
+      <c r="E34" s="4"/>
       <c r="F34" s="1">
-        <f t="shared" si="0"/>
-        <v>236.50000000000003</v>
+        <f t="shared" si="3"/>
+        <v>0</v>
       </c>
       <c r="G34" s="4"/>
       <c r="H34" s="4"/>
@@ -15034,20 +14937,25 @@
       <c r="AD34" s="2"/>
       <c r="AE34" s="2"/>
     </row>
-    <row r="35" spans="1:31">
+    <row r="35" spans="1:31" ht="27">
       <c r="A35" s="4" t="s">
-        <v>35</v>
+        <v>65</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>19</v>
+        <v>66</v>
       </c>
       <c r="C35" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="E35" s="4"/>
+      <c r="D35" s="4">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="E35" s="4">
+        <v>200</v>
+      </c>
       <c r="F35" s="1">
-        <f>D21*E35</f>
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>220.00000000000003</v>
       </c>
       <c r="G35" s="4"/>
       <c r="H35" s="4"/>
@@ -15076,24 +14984,21 @@
       <c r="AE35" s="2"/>
     </row>
     <row r="36" spans="1:31">
-      <c r="A36" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="B36" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="C36" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D36" s="1"/>
-      <c r="E36" s="1"/>
+      <c r="A36" s="4"/>
+      <c r="B36" s="4"/>
+      <c r="C36" s="4"/>
+      <c r="D36" s="23"/>
+      <c r="E36" s="4"/>
       <c r="F36" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G36" s="1"/>
-      <c r="H36" s="1"/>
-      <c r="I36" s="3"/>
+        <v>-151.95400000000001</v>
+      </c>
+      <c r="G36" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="H36" s="4"/>
+      <c r="I36" s="3">
+        <v>41191</v>
+      </c>
       <c r="J36" s="2"/>
       <c r="K36" s="2"/>
       <c r="L36" s="2"/>
@@ -15119,20 +15024,26 @@
     </row>
     <row r="37" spans="1:31">
       <c r="A37" s="4" t="s">
-        <v>38</v>
+        <v>95</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="C37" s="4"/>
-      <c r="D37" s="1"/>
-      <c r="E37" s="1"/>
+        <v>91</v>
+      </c>
+      <c r="C37" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D37">
+        <v>5400</v>
+      </c>
+      <c r="E37" s="4">
+        <v>1</v>
+      </c>
       <c r="F37" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G37" s="1"/>
-      <c r="H37" s="1"/>
+        <v>5400</v>
+      </c>
+      <c r="G37" s="4"/>
+      <c r="H37" s="4"/>
       <c r="I37" s="3"/>
       <c r="J37" s="2"/>
       <c r="K37" s="2"/>
@@ -15159,18 +15070,18 @@
     </row>
     <row r="38" spans="1:31">
       <c r="A38" s="4" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="C38" s="1"/>
+        <v>19</v>
+      </c>
+      <c r="C38" s="4" t="s">
+        <v>15</v>
+      </c>
       <c r="D38" s="1"/>
-      <c r="E38" s="1">
-        <v>1</v>
-      </c>
+      <c r="E38" s="1"/>
       <c r="F38" s="1">
-        <f>D38*E38</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G38" s="1"/>
@@ -15201,18 +15112,16 @@
     </row>
     <row r="39" spans="1:31">
       <c r="A39" s="4" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="C39" s="1"/>
+        <v>40</v>
+      </c>
+      <c r="C39" s="4"/>
       <c r="D39" s="1"/>
-      <c r="E39" s="1">
-        <v>2</v>
-      </c>
+      <c r="E39" s="1"/>
       <c r="F39" s="1">
-        <f>D39*E39</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G39" s="1"/>
@@ -15243,10 +15152,10 @@
     </row>
     <row r="40" spans="1:31">
       <c r="A40" s="4" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>17</v>
+        <v>44</v>
       </c>
       <c r="C40" s="1"/>
       <c r="D40" s="1"/>
@@ -15254,7 +15163,7 @@
         <v>1</v>
       </c>
       <c r="F40" s="1">
-        <f t="shared" ref="F40:F43" si="4">D40*E40</f>
+        <f>D40*E40</f>
         <v>0</v>
       </c>
       <c r="G40" s="1"/>
@@ -15285,18 +15194,18 @@
     </row>
     <row r="41" spans="1:31">
       <c r="A41" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="C41" s="1"/>
       <c r="D41" s="1"/>
       <c r="E41" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F41" s="1">
-        <f t="shared" si="4"/>
+        <f>D41*E41</f>
         <v>0</v>
       </c>
       <c r="G41" s="1"/>
@@ -15327,18 +15236,18 @@
     </row>
     <row r="42" spans="1:31">
       <c r="A42" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>47</v>
+        <v>17</v>
       </c>
       <c r="C42" s="1"/>
       <c r="D42" s="1"/>
       <c r="E42" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F42" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" ref="F42:F45" si="4">D42*E42</f>
         <v>0</v>
       </c>
       <c r="G42" s="1"/>
@@ -15369,13 +15278,15 @@
     </row>
     <row r="43" spans="1:31">
       <c r="A43" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="B43" s="4"/>
+        <v>45</v>
+      </c>
+      <c r="B43" s="4" t="s">
+        <v>44</v>
+      </c>
       <c r="C43" s="1"/>
       <c r="D43" s="1"/>
       <c r="E43" s="1">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="F43" s="1">
         <f t="shared" si="4"/>
@@ -15409,16 +15320,18 @@
     </row>
     <row r="44" spans="1:31">
       <c r="A44" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="B44" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="C44" s="4"/>
+        <v>45</v>
+      </c>
+      <c r="B44" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C44" s="1"/>
       <c r="D44" s="1"/>
-      <c r="E44" s="1"/>
+      <c r="E44" s="1">
+        <v>2</v>
+      </c>
       <c r="F44" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="G44" s="1"/>
@@ -15448,18 +15361,22 @@
       <c r="AE44" s="2"/>
     </row>
     <row r="45" spans="1:31">
-      <c r="A45" s="1"/>
-      <c r="B45" s="1"/>
+      <c r="A45" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="B45" s="4"/>
       <c r="C45" s="1"/>
       <c r="D45" s="1"/>
-      <c r="E45" s="1"/>
+      <c r="E45" s="1">
+        <v>20</v>
+      </c>
       <c r="F45" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="G45" s="1"/>
       <c r="H45" s="1"/>
-      <c r="I45" s="5"/>
+      <c r="I45" s="3"/>
       <c r="J45" s="2"/>
       <c r="K45" s="2"/>
       <c r="L45" s="2"/>
@@ -15484,9 +15401,13 @@
       <c r="AE45" s="2"/>
     </row>
     <row r="46" spans="1:31">
-      <c r="A46" s="1"/>
-      <c r="B46" s="1"/>
-      <c r="C46" s="1"/>
+      <c r="A46" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C46" s="4"/>
       <c r="D46" s="1"/>
       <c r="E46" s="1"/>
       <c r="F46" s="1">
@@ -15495,7 +15416,7 @@
       </c>
       <c r="G46" s="1"/>
       <c r="H46" s="1"/>
-      <c r="I46" s="5"/>
+      <c r="I46" s="3"/>
       <c r="J46" s="2"/>
       <c r="K46" s="2"/>
       <c r="L46" s="2"/>
@@ -15519,8 +15440,10 @@
       <c r="AD46" s="2"/>
       <c r="AE46" s="2"/>
     </row>
-    <row r="47" spans="1:31">
-      <c r="A47" s="1"/>
+    <row r="47" spans="1:31" ht="27">
+      <c r="A47" s="4" t="s">
+        <v>94</v>
+      </c>
       <c r="B47" s="1"/>
       <c r="C47" s="1"/>
       <c r="D47" s="1"/>
@@ -15886,12 +15809,12 @@
       <c r="D57" s="1"/>
       <c r="E57" s="1"/>
       <c r="F57" s="1">
-        <f>SUM(F2:F56)</f>
-        <v>15699.454000000002</v>
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="G57" s="1"/>
       <c r="H57" s="1"/>
-      <c r="I57" s="1"/>
+      <c r="I57" s="5"/>
       <c r="J57" s="2"/>
       <c r="K57" s="2"/>
       <c r="L57" s="2"/>
@@ -15916,15 +15839,18 @@
       <c r="AE57" s="2"/>
     </row>
     <row r="58" spans="1:31">
-      <c r="A58" s="2"/>
-      <c r="B58" s="2"/>
-      <c r="C58" s="2"/>
-      <c r="D58" s="2"/>
-      <c r="E58" s="2"/>
-      <c r="F58" s="2"/>
-      <c r="G58" s="2"/>
-      <c r="H58" s="2"/>
-      <c r="I58" s="2"/>
+      <c r="A58" s="1"/>
+      <c r="B58" s="1"/>
+      <c r="C58" s="1"/>
+      <c r="D58" s="1"/>
+      <c r="E58" s="1"/>
+      <c r="F58" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G58" s="1"/>
+      <c r="H58" s="1"/>
+      <c r="I58" s="5"/>
       <c r="J58" s="2"/>
       <c r="K58" s="2"/>
       <c r="L58" s="2"/>
@@ -15949,15 +15875,18 @@
       <c r="AE58" s="2"/>
     </row>
     <row r="59" spans="1:31">
-      <c r="A59" s="2"/>
-      <c r="B59" s="2"/>
-      <c r="C59" s="2"/>
-      <c r="D59" s="2"/>
-      <c r="E59" s="2"/>
-      <c r="F59" s="2"/>
-      <c r="G59" s="2"/>
-      <c r="H59" s="2"/>
-      <c r="I59" s="2"/>
+      <c r="A59" s="1"/>
+      <c r="B59" s="1"/>
+      <c r="C59" s="1"/>
+      <c r="D59" s="1"/>
+      <c r="E59" s="1"/>
+      <c r="F59" s="1">
+        <f>SUM(F2:F58)</f>
+        <v>21153.200000000004</v>
+      </c>
+      <c r="G59" s="1"/>
+      <c r="H59" s="1"/>
+      <c r="I59" s="1"/>
       <c r="J59" s="2"/>
       <c r="K59" s="2"/>
       <c r="L59" s="2"/>
@@ -20997,6 +20926,72 @@
       <c r="AD211" s="2"/>
       <c r="AE211" s="2"/>
     </row>
+    <row r="212" spans="1:31">
+      <c r="A212" s="2"/>
+      <c r="B212" s="2"/>
+      <c r="C212" s="2"/>
+      <c r="D212" s="2"/>
+      <c r="E212" s="2"/>
+      <c r="F212" s="2"/>
+      <c r="G212" s="2"/>
+      <c r="H212" s="2"/>
+      <c r="I212" s="2"/>
+      <c r="J212" s="2"/>
+      <c r="K212" s="2"/>
+      <c r="L212" s="2"/>
+      <c r="M212" s="2"/>
+      <c r="N212" s="2"/>
+      <c r="O212" s="2"/>
+      <c r="P212" s="2"/>
+      <c r="Q212" s="2"/>
+      <c r="R212" s="2"/>
+      <c r="S212" s="2"/>
+      <c r="T212" s="2"/>
+      <c r="U212" s="2"/>
+      <c r="V212" s="2"/>
+      <c r="W212" s="2"/>
+      <c r="X212" s="2"/>
+      <c r="Y212" s="2"/>
+      <c r="Z212" s="2"/>
+      <c r="AA212" s="2"/>
+      <c r="AB212" s="2"/>
+      <c r="AC212" s="2"/>
+      <c r="AD212" s="2"/>
+      <c r="AE212" s="2"/>
+    </row>
+    <row r="213" spans="1:31">
+      <c r="A213" s="2"/>
+      <c r="B213" s="2"/>
+      <c r="C213" s="2"/>
+      <c r="D213" s="2"/>
+      <c r="E213" s="2"/>
+      <c r="F213" s="2"/>
+      <c r="G213" s="2"/>
+      <c r="H213" s="2"/>
+      <c r="I213" s="2"/>
+      <c r="J213" s="2"/>
+      <c r="K213" s="2"/>
+      <c r="L213" s="2"/>
+      <c r="M213" s="2"/>
+      <c r="N213" s="2"/>
+      <c r="O213" s="2"/>
+      <c r="P213" s="2"/>
+      <c r="Q213" s="2"/>
+      <c r="R213" s="2"/>
+      <c r="S213" s="2"/>
+      <c r="T213" s="2"/>
+      <c r="U213" s="2"/>
+      <c r="V213" s="2"/>
+      <c r="W213" s="2"/>
+      <c r="X213" s="2"/>
+      <c r="Y213" s="2"/>
+      <c r="Z213" s="2"/>
+      <c r="AA213" s="2"/>
+      <c r="AB213" s="2"/>
+      <c r="AC213" s="2"/>
+      <c r="AD213" s="2"/>
+      <c r="AE213" s="2"/>
+    </row>
   </sheetData>
   <autoFilter ref="A1:G1">
     <filterColumn colId="3"/>

--- a/.private/房子.xlsx
+++ b/.private/房子.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="30" windowWidth="18180" windowHeight="11730" activeTab="2"/>
+    <workbookView xWindow="480" yWindow="30" windowWidth="18180" windowHeight="11730" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="买房" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="110">
   <si>
     <t>付定金４万，张浦发银行转帐。</t>
   </si>
@@ -741,6 +741,171 @@
     <t>窗户</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
+  <si>
+    <r>
+      <t>426.5+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>税</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>72.5+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>运费</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>10</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>丽居园建材市场-欧普吊顶</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>淘宝网</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>客餐厅</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>丽居园建材市场</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>雷士照明</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>走廊灯</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>走廊</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>丽居园建材市场-多乐士</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>定金</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>50</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>门锁及合页、门吸</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>整体</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>丽居园建材市场</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>装修</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>水电阶段</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -873,7 +1038,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -945,6 +1110,9 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -7055,8 +7223,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AE183"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -7466,17 +7634,26 @@
       <c r="AE8" s="2"/>
     </row>
     <row r="9" spans="1:31">
-      <c r="A9" s="5"/>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
+      <c r="A9" s="24">
+        <v>41260</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>109</v>
+      </c>
       <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
+      <c r="E9" s="1">
+        <v>5240</v>
+      </c>
+      <c r="F9" s="1">
+        <v>1</v>
+      </c>
       <c r="G9" s="1">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H9" s="1"/>
+        <v>5240</v>
+      </c>
       <c r="I9" s="2"/>
       <c r="J9" s="2"/>
       <c r="K9" s="2"/>
@@ -8161,7 +8338,7 @@
       <c r="F29" s="1"/>
       <c r="G29" s="1">
         <f>SUM(G3:G28)</f>
-        <v>5470</v>
+        <v>10710</v>
       </c>
       <c r="H29" s="1"/>
       <c r="I29" s="2"/>
@@ -8330,8 +8507,8 @@
         <v>63</v>
       </c>
       <c r="G34" s="16">
-        <f>SUM(G29+'装修-自购'!F59)</f>
-        <v>26623.200000000004</v>
+        <f>SUM(G29+'装修-自购'!F60)</f>
+        <v>33414.200000000004</v>
       </c>
       <c r="H34" s="2"/>
       <c r="I34" s="2"/>
@@ -13288,13 +13465,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AE213"/>
+  <dimension ref="A1:AE214"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B29" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G3" sqref="G3"/>
+      <selection pane="bottomRight" activeCell="F46" sqref="F46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -13477,7 +13654,7 @@
         <v>1</v>
       </c>
       <c r="F4" s="1">
-        <f t="shared" ref="F4:F58" si="0">D4*E4</f>
+        <f t="shared" ref="F4:F59" si="0">D4*E4</f>
         <v>100</v>
       </c>
       <c r="G4" s="4" t="s">
@@ -14423,7 +14600,7 @@
         <v>30</v>
       </c>
       <c r="F24" s="1">
-        <f t="shared" ref="F24:F34" si="3">D24*E24</f>
+        <f t="shared" ref="F24:F33" si="3">D24*E24</f>
         <v>168.3</v>
       </c>
       <c r="G24" s="4" t="s">
@@ -14895,21 +15072,25 @@
       <c r="AD33" s="2"/>
       <c r="AE33" s="2"/>
     </row>
-    <row r="34" spans="1:31">
+    <row r="34" spans="1:31" ht="27">
       <c r="A34" s="4" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>19</v>
+        <v>66</v>
       </c>
       <c r="C34" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="D34" s="4"/>
-      <c r="E34" s="4"/>
+      <c r="D34" s="4">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="E34" s="4">
+        <v>200</v>
+      </c>
       <c r="F34" s="1">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>220.00000000000003</v>
       </c>
       <c r="G34" s="4"/>
       <c r="H34" s="4"/>
@@ -14937,29 +15118,22 @@
       <c r="AD34" s="2"/>
       <c r="AE34" s="2"/>
     </row>
-    <row r="35" spans="1:31" ht="27">
-      <c r="A35" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="B35" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="C35" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D35" s="4">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="E35" s="4">
-        <v>200</v>
-      </c>
+    <row r="35" spans="1:31">
+      <c r="A35" s="4"/>
+      <c r="B35" s="4"/>
+      <c r="C35" s="4"/>
+      <c r="D35" s="23"/>
+      <c r="E35" s="4"/>
       <c r="F35" s="1">
-        <f t="shared" si="0"/>
-        <v>220.00000000000003</v>
-      </c>
-      <c r="G35" s="4"/>
+        <v>-151.95400000000001</v>
+      </c>
+      <c r="G35" s="4" t="s">
+        <v>92</v>
+      </c>
       <c r="H35" s="4"/>
-      <c r="I35" s="3"/>
+      <c r="I35" s="3">
+        <v>41191</v>
+      </c>
       <c r="J35" s="2"/>
       <c r="K35" s="2"/>
       <c r="L35" s="2"/>
@@ -14984,21 +15158,28 @@
       <c r="AE35" s="2"/>
     </row>
     <row r="36" spans="1:31">
-      <c r="A36" s="4"/>
-      <c r="B36" s="4"/>
-      <c r="C36" s="4"/>
-      <c r="D36" s="23"/>
-      <c r="E36" s="4"/>
+      <c r="A36" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="B36" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="C36" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D36">
+        <v>5400</v>
+      </c>
+      <c r="E36" s="4">
+        <v>1</v>
+      </c>
       <c r="F36" s="1">
-        <v>-151.95400000000001</v>
-      </c>
-      <c r="G36" s="4" t="s">
-        <v>92</v>
-      </c>
+        <f t="shared" si="0"/>
+        <v>5400</v>
+      </c>
+      <c r="G36" s="4"/>
       <c r="H36" s="4"/>
-      <c r="I36" s="3">
-        <v>41191</v>
-      </c>
+      <c r="I36" s="3"/>
       <c r="J36" s="2"/>
       <c r="K36" s="2"/>
       <c r="L36" s="2"/>
@@ -15022,29 +15203,33 @@
       <c r="AD36" s="2"/>
       <c r="AE36" s="2"/>
     </row>
-    <row r="37" spans="1:31">
+    <row r="37" spans="1:31" ht="27">
       <c r="A37" s="4" t="s">
-        <v>95</v>
+        <v>35</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>91</v>
+        <v>19</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D37">
-        <v>5400</v>
-      </c>
-      <c r="E37" s="4">
+        <v>103</v>
+      </c>
+      <c r="D37" s="1">
+        <v>50</v>
+      </c>
+      <c r="E37" s="1">
         <v>1</v>
       </c>
       <c r="F37" s="1">
         <f t="shared" si="0"/>
-        <v>5400</v>
-      </c>
-      <c r="G37" s="4"/>
-      <c r="H37" s="4"/>
-      <c r="I37" s="3"/>
+        <v>50</v>
+      </c>
+      <c r="G37" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="H37" s="1"/>
+      <c r="I37" s="3">
+        <v>41265</v>
+      </c>
       <c r="J37" s="2"/>
       <c r="K37" s="2"/>
       <c r="L37" s="2"/>
@@ -15070,21 +15255,27 @@
     </row>
     <row r="38" spans="1:31">
       <c r="A38" s="4" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>19</v>
+        <v>44</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D38" s="1"/>
-      <c r="E38" s="1"/>
+        <v>98</v>
+      </c>
+      <c r="D38" s="1">
+        <v>509</v>
+      </c>
+      <c r="E38" s="1">
+        <v>1</v>
+      </c>
       <c r="F38" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G38" s="1"/>
+        <f>D38*E38</f>
+        <v>509</v>
+      </c>
+      <c r="G38" s="1" t="s">
+        <v>96</v>
+      </c>
       <c r="H38" s="1"/>
       <c r="I38" s="3"/>
       <c r="J38" s="2"/>
@@ -15110,14 +15301,16 @@
       <c r="AD38" s="2"/>
       <c r="AE38" s="2"/>
     </row>
-    <row r="39" spans="1:31">
+    <row r="39" spans="1:31" ht="27">
       <c r="A39" s="4" t="s">
         <v>37</v>
       </c>
       <c r="B39" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="C39" s="4"/>
+      <c r="C39" s="4" t="s">
+        <v>97</v>
+      </c>
       <c r="D39" s="1"/>
       <c r="E39" s="1"/>
       <c r="F39" s="1">
@@ -15150,21 +15343,25 @@
       <c r="AD39" s="2"/>
       <c r="AE39" s="2"/>
     </row>
-    <row r="40" spans="1:31">
+    <row r="40" spans="1:31" ht="27">
       <c r="A40" s="4" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="C40" s="1"/>
-      <c r="D40" s="1"/>
+        <v>40</v>
+      </c>
+      <c r="C40" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="D40" s="1">
+        <v>240</v>
+      </c>
       <c r="E40" s="1">
         <v>1</v>
       </c>
       <c r="F40" s="1">
         <f>D40*E40</f>
-        <v>0</v>
+        <v>240</v>
       </c>
       <c r="G40" s="1"/>
       <c r="H40" s="1"/>
@@ -15197,15 +15394,15 @@
         <v>45</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>40</v>
+        <v>17</v>
       </c>
       <c r="C41" s="1"/>
       <c r="D41" s="1"/>
       <c r="E41" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F41" s="1">
-        <f>D41*E41</f>
+        <f t="shared" ref="F41:F46" si="4">D41*E41</f>
         <v>0</v>
       </c>
       <c r="G41" s="1"/>
@@ -15239,7 +15436,7 @@
         <v>45</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>17</v>
+        <v>44</v>
       </c>
       <c r="C42" s="1"/>
       <c r="D42" s="1"/>
@@ -15247,7 +15444,7 @@
         <v>1</v>
       </c>
       <c r="F42" s="1">
-        <f t="shared" ref="F42:F45" si="4">D42*E42</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="G42" s="1"/>
@@ -15281,12 +15478,12 @@
         <v>45</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C43" s="1"/>
       <c r="D43" s="1"/>
       <c r="E43" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F43" s="1">
         <f t="shared" si="4"/>
@@ -15318,21 +15515,25 @@
       <c r="AD43" s="2"/>
       <c r="AE43" s="2"/>
     </row>
-    <row r="44" spans="1:31">
+    <row r="44" spans="1:31" ht="27.75">
       <c r="A44" s="4" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="C44" s="1"/>
-      <c r="D44" s="1"/>
+        <v>99</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="D44" s="1">
+        <v>13</v>
+      </c>
       <c r="E44" s="1">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="F44" s="1">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>182</v>
       </c>
       <c r="G44" s="1"/>
       <c r="H44" s="1"/>
@@ -15360,19 +15561,25 @@
       <c r="AD44" s="2"/>
       <c r="AE44" s="2"/>
     </row>
-    <row r="45" spans="1:31">
+    <row r="45" spans="1:31" ht="27.75">
       <c r="A45" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="B45" s="4"/>
-      <c r="C45" s="1"/>
-      <c r="D45" s="1"/>
+        <v>101</v>
+      </c>
+      <c r="B45" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="D45" s="1">
+        <v>75</v>
+      </c>
       <c r="E45" s="1">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="F45" s="1">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="G45" s="1"/>
       <c r="H45" s="1"/>
@@ -15400,19 +15607,25 @@
       <c r="AD45" s="2"/>
       <c r="AE45" s="2"/>
     </row>
-    <row r="46" spans="1:31">
+    <row r="46" spans="1:31" ht="27.75">
       <c r="A46" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="B46" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="C46" s="4"/>
-      <c r="D46" s="1"/>
-      <c r="E46" s="1"/>
+        <v>105</v>
+      </c>
+      <c r="B46" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="D46" s="1">
+        <v>140</v>
+      </c>
+      <c r="E46" s="1">
+        <v>3</v>
+      </c>
       <c r="F46" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>420</v>
       </c>
       <c r="G46" s="1"/>
       <c r="H46" s="1"/>
@@ -15440,12 +15653,14 @@
       <c r="AD46" s="2"/>
       <c r="AE46" s="2"/>
     </row>
-    <row r="47" spans="1:31" ht="27">
+    <row r="47" spans="1:31">
       <c r="A47" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="B47" s="1"/>
-      <c r="C47" s="1"/>
+        <v>42</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C47" s="4"/>
       <c r="D47" s="1"/>
       <c r="E47" s="1"/>
       <c r="F47" s="1">
@@ -15454,7 +15669,7 @@
       </c>
       <c r="G47" s="1"/>
       <c r="H47" s="1"/>
-      <c r="I47" s="5"/>
+      <c r="I47" s="3"/>
       <c r="J47" s="2"/>
       <c r="K47" s="2"/>
       <c r="L47" s="2"/>
@@ -15478,8 +15693,10 @@
       <c r="AD47" s="2"/>
       <c r="AE47" s="2"/>
     </row>
-    <row r="48" spans="1:31">
-      <c r="A48" s="1"/>
+    <row r="48" spans="1:31" ht="27">
+      <c r="A48" s="4" t="s">
+        <v>94</v>
+      </c>
       <c r="B48" s="1"/>
       <c r="C48" s="1"/>
       <c r="D48" s="1"/>
@@ -15881,12 +16098,12 @@
       <c r="D59" s="1"/>
       <c r="E59" s="1"/>
       <c r="F59" s="1">
-        <f>SUM(F2:F58)</f>
-        <v>21153.200000000004</v>
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="G59" s="1"/>
       <c r="H59" s="1"/>
-      <c r="I59" s="1"/>
+      <c r="I59" s="5"/>
       <c r="J59" s="2"/>
       <c r="K59" s="2"/>
       <c r="L59" s="2"/>
@@ -15911,15 +16128,18 @@
       <c r="AE59" s="2"/>
     </row>
     <row r="60" spans="1:31">
-      <c r="A60" s="2"/>
-      <c r="B60" s="2"/>
-      <c r="C60" s="2"/>
-      <c r="D60" s="2"/>
-      <c r="E60" s="2"/>
-      <c r="F60" s="2"/>
-      <c r="G60" s="2"/>
-      <c r="H60" s="2"/>
-      <c r="I60" s="2"/>
+      <c r="A60" s="1"/>
+      <c r="B60" s="1"/>
+      <c r="C60" s="1"/>
+      <c r="D60" s="1"/>
+      <c r="E60" s="1"/>
+      <c r="F60" s="1">
+        <f>SUM(F2:F59)</f>
+        <v>22704.200000000004</v>
+      </c>
+      <c r="G60" s="1"/>
+      <c r="H60" s="1"/>
+      <c r="I60" s="1"/>
       <c r="J60" s="2"/>
       <c r="K60" s="2"/>
       <c r="L60" s="2"/>
@@ -20992,6 +21212,39 @@
       <c r="AD213" s="2"/>
       <c r="AE213" s="2"/>
     </row>
+    <row r="214" spans="1:31">
+      <c r="A214" s="2"/>
+      <c r="B214" s="2"/>
+      <c r="C214" s="2"/>
+      <c r="D214" s="2"/>
+      <c r="E214" s="2"/>
+      <c r="F214" s="2"/>
+      <c r="G214" s="2"/>
+      <c r="H214" s="2"/>
+      <c r="I214" s="2"/>
+      <c r="J214" s="2"/>
+      <c r="K214" s="2"/>
+      <c r="L214" s="2"/>
+      <c r="M214" s="2"/>
+      <c r="N214" s="2"/>
+      <c r="O214" s="2"/>
+      <c r="P214" s="2"/>
+      <c r="Q214" s="2"/>
+      <c r="R214" s="2"/>
+      <c r="S214" s="2"/>
+      <c r="T214" s="2"/>
+      <c r="U214" s="2"/>
+      <c r="V214" s="2"/>
+      <c r="W214" s="2"/>
+      <c r="X214" s="2"/>
+      <c r="Y214" s="2"/>
+      <c r="Z214" s="2"/>
+      <c r="AA214" s="2"/>
+      <c r="AB214" s="2"/>
+      <c r="AC214" s="2"/>
+      <c r="AD214" s="2"/>
+      <c r="AE214" s="2"/>
+    </row>
   </sheetData>
   <autoFilter ref="A1:G1">
     <filterColumn colId="3"/>

--- a/.private/房子.xlsx
+++ b/.private/房子.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="137">
   <si>
     <t>付定金４万，张浦发银行转帐。</t>
   </si>
@@ -332,10 +332,6 @@
       </rPr>
       <t>阳台</t>
     </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>地板</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -694,14 +690,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>减少</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>增加</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>水电阶段验收</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -904,6 +892,253 @@
   </si>
   <si>
     <t>水电阶段</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>泥瓦木工阶段</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>减少：门窗回收</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>减少：煤气管</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>增加：电线管</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>减少：卧室大理石门槛</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>减少：进户门套</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>减少：门吸铰链3付+返工地砖损耗</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>丽居园建材市场</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>餐厅</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>丽居园建材市场-松伟</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>丽居园建材市场-方饰地板</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>厨卫基本</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>厨卫</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>丽居园建材市场</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>东鹏</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>地板安装</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>辅材</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>安装费：送辅料</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>地板-白橡木仿古</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>地板-龙骨</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>地板-樱桃木踢脚线</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>地板-压条</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>与大理石接触处</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>马桶</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>999</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>、台盆</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>300</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>、台盆高斯水龙头</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>470</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>、汉斯贝利厨盆套装、高斯厨盆龙头、高斯花洒、厨房五金件</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>淋浴房</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>厨房移门</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>卫生间</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>厨房</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>灯带</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>客厅</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>淘宝网</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>泥瓦木工阶段验收</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -1568,7 +1803,7 @@
         <v>13000</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
@@ -1604,7 +1839,7 @@
         <v>350000</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
@@ -1640,7 +1875,7 @@
         <v>1600</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
@@ -1676,7 +1911,7 @@
         <v>13000</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
@@ -7221,15 +7456,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AE183"/>
+  <dimension ref="A1:AE186"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="G32" sqref="G32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="10.25" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8.125" customWidth="1"/>
     <col min="3" max="3" width="10.125" customWidth="1"/>
     <col min="4" max="4" width="14.25" customWidth="1"/>
@@ -7495,7 +7730,7 @@
         <v>18</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="D6" s="4"/>
       <c r="E6" s="4">
@@ -7506,11 +7741,11 @@
         <v>1</v>
       </c>
       <c r="G6" s="1">
-        <f t="shared" ref="G6:G17" si="1">E6*F6</f>
+        <f t="shared" ref="G6:G20" si="1">E6*F6</f>
         <v>-260</v>
       </c>
       <c r="H6" s="4" t="s">
-        <v>87</v>
+        <v>108</v>
       </c>
       <c r="I6" s="2"/>
       <c r="J6" s="2"/>
@@ -7544,7 +7779,7 @@
         <v>18</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="D7" s="4"/>
       <c r="E7" s="4">
@@ -7559,7 +7794,7 @@
         <v>-90</v>
       </c>
       <c r="H7" s="4" t="s">
-        <v>87</v>
+        <v>109</v>
       </c>
       <c r="I7" s="2"/>
       <c r="J7" s="2"/>
@@ -7593,7 +7828,7 @@
         <v>18</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="D8" s="4"/>
       <c r="E8" s="4">
@@ -7607,7 +7842,7 @@
         <v>380</v>
       </c>
       <c r="H8" s="4" t="s">
-        <v>88</v>
+        <v>110</v>
       </c>
       <c r="I8" s="2"/>
       <c r="J8" s="2"/>
@@ -7638,10 +7873,10 @@
         <v>41260</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="D9" s="1"/>
       <c r="E9" s="1">
@@ -7654,6 +7889,7 @@
         <f t="shared" si="1"/>
         <v>5240</v>
       </c>
+      <c r="H9" s="4"/>
       <c r="I9" s="2"/>
       <c r="J9" s="2"/>
       <c r="K9" s="2"/>
@@ -7678,18 +7914,31 @@
       <c r="AD9" s="2"/>
       <c r="AE9" s="2"/>
     </row>
-    <row r="10" spans="1:31">
-      <c r="A10" s="5"/>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
+    <row r="10" spans="1:31" ht="27">
+      <c r="A10" s="5">
+        <v>41268</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>136</v>
+      </c>
       <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
+      <c r="E10" s="1">
+        <f>-450</f>
+        <v>-450</v>
+      </c>
+      <c r="F10" s="1">
+        <v>1</v>
+      </c>
       <c r="G10" s="1">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H10" s="1"/>
+        <v>-450</v>
+      </c>
+      <c r="H10" s="4" t="s">
+        <v>112</v>
+      </c>
       <c r="I10" s="2"/>
       <c r="J10" s="2"/>
       <c r="K10" s="2"/>
@@ -7714,18 +7963,31 @@
       <c r="AD10" s="2"/>
       <c r="AE10" s="2"/>
     </row>
-    <row r="11" spans="1:31">
-      <c r="A11" s="5"/>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
+    <row r="11" spans="1:31" ht="27">
+      <c r="A11" s="5">
+        <v>41268</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>136</v>
+      </c>
       <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
+      <c r="E11" s="1">
+        <f>-108</f>
+        <v>-108</v>
+      </c>
+      <c r="F11" s="1">
+        <v>2</v>
+      </c>
       <c r="G11" s="1">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H11" s="1"/>
+        <v>-216</v>
+      </c>
+      <c r="H11" s="4" t="s">
+        <v>111</v>
+      </c>
       <c r="I11" s="2"/>
       <c r="J11" s="2"/>
       <c r="K11" s="2"/>
@@ -7750,18 +8012,31 @@
       <c r="AD11" s="2"/>
       <c r="AE11" s="2"/>
     </row>
-    <row r="12" spans="1:31">
-      <c r="A12" s="5"/>
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
+    <row r="12" spans="1:31" ht="27">
+      <c r="A12" s="5">
+        <v>41268</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>136</v>
+      </c>
       <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
+      <c r="E12" s="1">
+        <f>-100</f>
+        <v>-100</v>
+      </c>
+      <c r="F12" s="1">
+        <v>1</v>
+      </c>
       <c r="G12" s="1">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H12" s="1"/>
+        <v>-100</v>
+      </c>
+      <c r="H12" s="4" t="s">
+        <v>113</v>
+      </c>
       <c r="I12" s="2"/>
       <c r="J12" s="2"/>
       <c r="K12" s="2"/>
@@ -7786,18 +8061,26 @@
       <c r="AD12" s="2"/>
       <c r="AE12" s="2"/>
     </row>
-    <row r="13" spans="1:31">
+    <row r="13" spans="1:31" ht="27">
       <c r="A13" s="5"/>
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
+      <c r="B13" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>107</v>
+      </c>
       <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
+      <c r="E13" s="1">
+        <v>5240</v>
+      </c>
+      <c r="F13" s="1">
+        <v>2</v>
+      </c>
       <c r="G13" s="1">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H13" s="1"/>
+        <v>10480</v>
+      </c>
+      <c r="H13" s="4"/>
       <c r="I13" s="2"/>
       <c r="J13" s="2"/>
       <c r="K13" s="2"/>
@@ -7824,7 +8107,7 @@
     </row>
     <row r="14" spans="1:31">
       <c r="A14" s="5"/>
-      <c r="B14" s="1"/>
+      <c r="B14" s="4"/>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
@@ -7973,7 +8256,10 @@
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
-      <c r="G18" s="1"/>
+      <c r="G18" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="H18" s="1"/>
       <c r="I18" s="2"/>
       <c r="J18" s="2"/>
@@ -8006,7 +8292,10 @@
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
       <c r="F19" s="1"/>
-      <c r="G19" s="1"/>
+      <c r="G19" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="H19" s="1"/>
       <c r="I19" s="2"/>
       <c r="J19" s="2"/>
@@ -8039,7 +8328,10 @@
       <c r="D20" s="1"/>
       <c r="E20" s="1"/>
       <c r="F20" s="1"/>
-      <c r="G20" s="1"/>
+      <c r="G20" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="H20" s="1"/>
       <c r="I20" s="2"/>
       <c r="J20" s="2"/>
@@ -8330,16 +8622,13 @@
       <c r="AE28" s="2"/>
     </row>
     <row r="29" spans="1:31">
-      <c r="A29" s="1"/>
+      <c r="A29" s="5"/>
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
       <c r="E29" s="1"/>
       <c r="F29" s="1"/>
-      <c r="G29" s="1">
-        <f>SUM(G3:G28)</f>
-        <v>10710</v>
-      </c>
+      <c r="G29" s="1"/>
       <c r="H29" s="1"/>
       <c r="I29" s="2"/>
       <c r="J29" s="2"/>
@@ -8366,14 +8655,14 @@
       <c r="AE29" s="2"/>
     </row>
     <row r="30" spans="1:31">
-      <c r="A30" s="2"/>
-      <c r="B30" s="2"/>
-      <c r="C30" s="2"/>
-      <c r="D30" s="2"/>
-      <c r="E30" s="2"/>
-      <c r="F30" s="2"/>
-      <c r="G30" s="2"/>
-      <c r="H30" s="2"/>
+      <c r="A30" s="5"/>
+      <c r="B30" s="1"/>
+      <c r="C30" s="1"/>
+      <c r="D30" s="1"/>
+      <c r="E30" s="1"/>
+      <c r="F30" s="1"/>
+      <c r="G30" s="1"/>
+      <c r="H30" s="1"/>
       <c r="I30" s="2"/>
       <c r="J30" s="2"/>
       <c r="K30" s="2"/>
@@ -8399,14 +8688,14 @@
       <c r="AE30" s="2"/>
     </row>
     <row r="31" spans="1:31">
-      <c r="A31" s="2"/>
-      <c r="B31" s="2"/>
-      <c r="C31" s="2"/>
-      <c r="D31" s="2"/>
-      <c r="E31" s="2"/>
-      <c r="F31" s="2"/>
-      <c r="G31" s="2"/>
-      <c r="H31" s="2"/>
+      <c r="A31" s="5"/>
+      <c r="B31" s="1"/>
+      <c r="C31" s="1"/>
+      <c r="D31" s="1"/>
+      <c r="E31" s="1"/>
+      <c r="F31" s="1"/>
+      <c r="G31" s="1"/>
+      <c r="H31" s="1"/>
       <c r="I31" s="2"/>
       <c r="J31" s="2"/>
       <c r="K31" s="2"/>
@@ -8432,14 +8721,17 @@
       <c r="AE31" s="2"/>
     </row>
     <row r="32" spans="1:31">
-      <c r="A32" s="2"/>
-      <c r="B32" s="2"/>
-      <c r="C32" s="2"/>
-      <c r="D32" s="2"/>
-      <c r="E32" s="2"/>
-      <c r="F32" s="2"/>
-      <c r="G32" s="2"/>
-      <c r="H32" s="2"/>
+      <c r="A32" s="1"/>
+      <c r="B32" s="1"/>
+      <c r="C32" s="1"/>
+      <c r="D32" s="1"/>
+      <c r="E32" s="1"/>
+      <c r="F32" s="1"/>
+      <c r="G32" s="1">
+        <f>SUM(G3:G31)</f>
+        <v>20424</v>
+      </c>
+      <c r="H32" s="1"/>
       <c r="I32" s="2"/>
       <c r="J32" s="2"/>
       <c r="K32" s="2"/>
@@ -8503,13 +8795,8 @@
       <c r="C34" s="2"/>
       <c r="D34" s="2"/>
       <c r="E34" s="2"/>
-      <c r="F34" s="15" t="s">
-        <v>63</v>
-      </c>
-      <c r="G34" s="16">
-        <f>SUM(G29+'装修-自购'!F60)</f>
-        <v>33414.200000000004</v>
-      </c>
+      <c r="F34" s="2"/>
+      <c r="G34" s="2"/>
       <c r="H34" s="2"/>
       <c r="I34" s="2"/>
       <c r="J34" s="2"/>
@@ -8607,8 +8894,13 @@
       <c r="C37" s="2"/>
       <c r="D37" s="2"/>
       <c r="E37" s="2"/>
-      <c r="F37" s="2"/>
-      <c r="G37" s="2"/>
+      <c r="F37" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="G37" s="16">
+        <f>SUM(G32+'装修-自购'!F62)</f>
+        <v>64003.200000000004</v>
+      </c>
       <c r="H37" s="2"/>
       <c r="I37" s="2"/>
       <c r="J37" s="2"/>
@@ -13452,6 +13744,105 @@
       <c r="AD183" s="2"/>
       <c r="AE183" s="2"/>
     </row>
+    <row r="184" spans="1:31">
+      <c r="A184" s="2"/>
+      <c r="B184" s="2"/>
+      <c r="C184" s="2"/>
+      <c r="D184" s="2"/>
+      <c r="E184" s="2"/>
+      <c r="F184" s="2"/>
+      <c r="G184" s="2"/>
+      <c r="H184" s="2"/>
+      <c r="I184" s="2"/>
+      <c r="J184" s="2"/>
+      <c r="K184" s="2"/>
+      <c r="L184" s="2"/>
+      <c r="M184" s="2"/>
+      <c r="N184" s="2"/>
+      <c r="O184" s="2"/>
+      <c r="P184" s="2"/>
+      <c r="Q184" s="2"/>
+      <c r="R184" s="2"/>
+      <c r="S184" s="2"/>
+      <c r="T184" s="2"/>
+      <c r="U184" s="2"/>
+      <c r="V184" s="2"/>
+      <c r="W184" s="2"/>
+      <c r="X184" s="2"/>
+      <c r="Y184" s="2"/>
+      <c r="Z184" s="2"/>
+      <c r="AA184" s="2"/>
+      <c r="AB184" s="2"/>
+      <c r="AC184" s="2"/>
+      <c r="AD184" s="2"/>
+      <c r="AE184" s="2"/>
+    </row>
+    <row r="185" spans="1:31">
+      <c r="A185" s="2"/>
+      <c r="B185" s="2"/>
+      <c r="C185" s="2"/>
+      <c r="D185" s="2"/>
+      <c r="E185" s="2"/>
+      <c r="F185" s="2"/>
+      <c r="G185" s="2"/>
+      <c r="H185" s="2"/>
+      <c r="I185" s="2"/>
+      <c r="J185" s="2"/>
+      <c r="K185" s="2"/>
+      <c r="L185" s="2"/>
+      <c r="M185" s="2"/>
+      <c r="N185" s="2"/>
+      <c r="O185" s="2"/>
+      <c r="P185" s="2"/>
+      <c r="Q185" s="2"/>
+      <c r="R185" s="2"/>
+      <c r="S185" s="2"/>
+      <c r="T185" s="2"/>
+      <c r="U185" s="2"/>
+      <c r="V185" s="2"/>
+      <c r="W185" s="2"/>
+      <c r="X185" s="2"/>
+      <c r="Y185" s="2"/>
+      <c r="Z185" s="2"/>
+      <c r="AA185" s="2"/>
+      <c r="AB185" s="2"/>
+      <c r="AC185" s="2"/>
+      <c r="AD185" s="2"/>
+      <c r="AE185" s="2"/>
+    </row>
+    <row r="186" spans="1:31">
+      <c r="A186" s="2"/>
+      <c r="B186" s="2"/>
+      <c r="C186" s="2"/>
+      <c r="D186" s="2"/>
+      <c r="E186" s="2"/>
+      <c r="F186" s="2"/>
+      <c r="G186" s="2"/>
+      <c r="H186" s="2"/>
+      <c r="I186" s="2"/>
+      <c r="J186" s="2"/>
+      <c r="K186" s="2"/>
+      <c r="L186" s="2"/>
+      <c r="M186" s="2"/>
+      <c r="N186" s="2"/>
+      <c r="O186" s="2"/>
+      <c r="P186" s="2"/>
+      <c r="Q186" s="2"/>
+      <c r="R186" s="2"/>
+      <c r="S186" s="2"/>
+      <c r="T186" s="2"/>
+      <c r="U186" s="2"/>
+      <c r="V186" s="2"/>
+      <c r="W186" s="2"/>
+      <c r="X186" s="2"/>
+      <c r="Y186" s="2"/>
+      <c r="Z186" s="2"/>
+      <c r="AA186" s="2"/>
+      <c r="AB186" s="2"/>
+      <c r="AC186" s="2"/>
+      <c r="AD186" s="2"/>
+      <c r="AE186" s="2"/>
+    </row>
   </sheetData>
   <autoFilter ref="A1:H1">
     <filterColumn colId="4"/>
@@ -13465,13 +13856,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AE214"/>
+  <dimension ref="A1:AE216"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B29" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B50" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F46" sqref="F46"/>
+      <selection pane="bottomRight" activeCell="E66" sqref="E66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -13509,7 +13900,7 @@
         <v>13</v>
       </c>
       <c r="H1" s="13" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I1" s="8" t="s">
         <v>4</v>
@@ -13654,11 +14045,11 @@
         <v>1</v>
       </c>
       <c r="F4" s="1">
-        <f t="shared" ref="F4:F59" si="0">D4*E4</f>
+        <f t="shared" ref="F4:F61" si="0">D4*E4</f>
         <v>100</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H4" s="4"/>
       <c r="I4" s="3">
@@ -13708,7 +14099,7 @@
         <v>249</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H5" s="4"/>
       <c r="I5" s="3">
@@ -13739,7 +14130,7 @@
     </row>
     <row r="6" spans="1:31" ht="27">
       <c r="A6" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B6" s="4" t="s">
         <v>19</v>
@@ -13758,7 +14149,7 @@
         <v>69</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H6" s="4"/>
       <c r="I6" s="3"/>
@@ -13787,7 +14178,7 @@
     </row>
     <row r="7" spans="1:31">
       <c r="A7" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B7" s="4" t="s">
         <v>19</v>
@@ -13806,7 +14197,7 @@
         <v>30</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H7" s="4"/>
       <c r="I7" s="3"/>
@@ -13835,7 +14226,7 @@
     </row>
     <row r="8" spans="1:31">
       <c r="A8" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B8" s="4" t="s">
         <v>19</v>
@@ -13854,7 +14245,7 @@
         <v>150</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H8" s="4"/>
       <c r="I8" s="3"/>
@@ -13883,7 +14274,7 @@
     </row>
     <row r="9" spans="1:31" ht="27.75">
       <c r="A9" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B9" s="4" t="s">
         <v>36</v>
@@ -13902,7 +14293,7 @@
         <v>1280</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H9" s="1"/>
       <c r="I9" s="3">
@@ -13952,7 +14343,7 @@
         <v>739.2</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="H10" s="1"/>
       <c r="I10" s="3">
@@ -14002,7 +14393,7 @@
         <v>1260</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="H11" s="1"/>
       <c r="I11" s="3">
@@ -14031,15 +14422,28 @@
       <c r="AD11" s="2"/>
       <c r="AE11" s="2"/>
     </row>
-    <row r="12" spans="1:31">
-      <c r="A12" s="4"/>
-      <c r="B12" s="1"/>
-      <c r="C12" s="4"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
-      <c r="G12" s="1"/>
-      <c r="H12" s="1"/>
+    <row r="12" spans="1:31" ht="27">
+      <c r="A12" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D12" s="4">
+        <v>50</v>
+      </c>
+      <c r="E12" s="4">
+        <v>1</v>
+      </c>
+      <c r="F12" s="1">
+        <f t="shared" ref="F12:F13" si="2">D12*E12</f>
+        <v>50</v>
+      </c>
+      <c r="G12" s="4"/>
+      <c r="H12" s="4"/>
       <c r="I12" s="3"/>
       <c r="J12" s="2"/>
       <c r="K12" s="2"/>
@@ -14064,28 +14468,32 @@
       <c r="AD12" s="2"/>
       <c r="AE12" s="2"/>
     </row>
-    <row r="13" spans="1:31" ht="27">
+    <row r="13" spans="1:31" ht="108">
       <c r="A13" s="4" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>52</v>
+        <v>19</v>
       </c>
       <c r="C13" s="4" t="s">
         <v>15</v>
       </c>
       <c r="D13" s="4">
-        <v>50</v>
+        <v>116</v>
       </c>
       <c r="E13" s="4">
         <v>1</v>
       </c>
       <c r="F13" s="1">
-        <f t="shared" ref="F13:F14" si="2">D13*E13</f>
-        <v>50</v>
-      </c>
-      <c r="G13" s="4"/>
-      <c r="H13" s="4"/>
+        <f t="shared" si="2"/>
+        <v>116</v>
+      </c>
+      <c r="G13" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="H13" s="4" t="s">
+        <v>73</v>
+      </c>
       <c r="I13" s="3"/>
       <c r="J13" s="2"/>
       <c r="K13" s="2"/>
@@ -14110,9 +14518,9 @@
       <c r="AD13" s="2"/>
       <c r="AE13" s="2"/>
     </row>
-    <row r="14" spans="1:31" ht="108">
+    <row r="14" spans="1:31" ht="27">
       <c r="A14" s="4" t="s">
-        <v>53</v>
+        <v>27</v>
       </c>
       <c r="B14" s="4" t="s">
         <v>19</v>
@@ -14121,20 +14529,20 @@
         <v>15</v>
       </c>
       <c r="D14" s="4">
-        <v>116</v>
+        <v>85</v>
       </c>
       <c r="E14" s="4">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F14" s="1">
-        <f t="shared" si="2"/>
-        <v>116</v>
+        <f t="shared" si="0"/>
+        <v>340</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>72</v>
+        <v>53</v>
       </c>
       <c r="H14" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I14" s="3"/>
       <c r="J14" s="2"/>
@@ -14162,7 +14570,7 @@
     </row>
     <row r="15" spans="1:31" ht="27">
       <c r="A15" s="4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B15" s="4" t="s">
         <v>19</v>
@@ -14171,24 +14579,22 @@
         <v>15</v>
       </c>
       <c r="D15" s="4">
-        <v>85</v>
+        <v>140</v>
       </c>
       <c r="E15" s="4">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F15" s="1">
         <f t="shared" si="0"/>
-        <v>340</v>
-      </c>
-      <c r="G15" s="4" t="s">
-        <v>54</v>
-      </c>
+        <v>840</v>
+      </c>
+      <c r="G15" s="4"/>
       <c r="H15" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I15" s="3"/>
       <c r="J15" s="2"/>
-      <c r="K15" s="2"/>
+      <c r="K15" s="3"/>
       <c r="L15" s="2"/>
       <c r="M15" s="2"/>
       <c r="N15" s="2"/>
@@ -14212,7 +14618,7 @@
     </row>
     <row r="16" spans="1:31" ht="27">
       <c r="A16" s="4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B16" s="4" t="s">
         <v>19</v>
@@ -14221,22 +14627,22 @@
         <v>15</v>
       </c>
       <c r="D16" s="4">
-        <v>140</v>
+        <v>2.5</v>
       </c>
       <c r="E16" s="4">
-        <v>6</v>
+        <v>50</v>
       </c>
       <c r="F16" s="1">
         <f t="shared" si="0"/>
-        <v>840</v>
+        <v>125</v>
       </c>
       <c r="G16" s="4"/>
       <c r="H16" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I16" s="3"/>
       <c r="J16" s="2"/>
-      <c r="K16" s="3"/>
+      <c r="K16" s="2"/>
       <c r="L16" s="2"/>
       <c r="M16" s="2"/>
       <c r="N16" s="2"/>
@@ -14260,10 +14666,10 @@
     </row>
     <row r="17" spans="1:31" ht="27">
       <c r="A17" s="4" t="s">
-        <v>29</v>
+        <v>69</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>19</v>
+        <v>70</v>
       </c>
       <c r="C17" s="4" t="s">
         <v>15</v>
@@ -14272,15 +14678,15 @@
         <v>2.5</v>
       </c>
       <c r="E17" s="4">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="F17" s="1">
         <f t="shared" si="0"/>
-        <v>125</v>
+        <v>250</v>
       </c>
       <c r="G17" s="4"/>
       <c r="H17" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I17" s="3"/>
       <c r="J17" s="2"/>
@@ -14307,28 +14713,19 @@
       <c r="AE17" s="2"/>
     </row>
     <row r="18" spans="1:31" ht="27">
-      <c r="A18" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="B18" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="C18" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D18" s="4">
-        <v>2.5</v>
-      </c>
-      <c r="E18" s="4">
-        <v>100</v>
-      </c>
+      <c r="A18" s="4"/>
+      <c r="B18" s="4"/>
+      <c r="C18" s="4"/>
+      <c r="D18" s="4"/>
+      <c r="E18" s="4"/>
       <c r="F18" s="1">
-        <f t="shared" si="0"/>
-        <v>250</v>
-      </c>
-      <c r="G18" s="4"/>
+        <v>-21</v>
+      </c>
+      <c r="G18" s="4" t="s">
+        <v>72</v>
+      </c>
       <c r="H18" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I18" s="3"/>
       <c r="J18" s="2"/>
@@ -14354,69 +14751,76 @@
       <c r="AD18" s="2"/>
       <c r="AE18" s="2"/>
     </row>
-    <row r="19" spans="1:31" ht="27">
-      <c r="A19" s="4"/>
-      <c r="B19" s="4"/>
-      <c r="C19" s="4"/>
-      <c r="D19" s="4"/>
-      <c r="E19" s="4"/>
-      <c r="F19" s="1">
-        <v>-21</v>
-      </c>
-      <c r="G19" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="H19" s="4" t="s">
+    <row r="19" spans="1:31" s="18" customFormat="1" ht="27">
+      <c r="A19" s="19" t="s">
+        <v>63</v>
+      </c>
+      <c r="B19" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="C19" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="D19" s="22">
+        <v>226</v>
+      </c>
+      <c r="E19" s="19">
+        <v>1</v>
+      </c>
+      <c r="F19" s="20">
+        <f t="shared" si="0"/>
+        <v>226</v>
+      </c>
+      <c r="G19" s="19"/>
+      <c r="H19" s="19" t="s">
         <v>74</v>
       </c>
-      <c r="I19" s="3"/>
-      <c r="J19" s="2"/>
-      <c r="K19" s="2"/>
-      <c r="L19" s="2"/>
-      <c r="M19" s="2"/>
-      <c r="N19" s="2"/>
-      <c r="O19" s="2"/>
-      <c r="P19" s="2"/>
-      <c r="Q19" s="2"/>
-      <c r="R19" s="2"/>
-      <c r="S19" s="2"/>
-      <c r="T19" s="2"/>
-      <c r="U19" s="2"/>
-      <c r="V19" s="2"/>
-      <c r="W19" s="2"/>
-      <c r="X19" s="2"/>
-      <c r="Y19" s="2"/>
-      <c r="Z19" s="2"/>
-      <c r="AA19" s="2"/>
-      <c r="AB19" s="2"/>
-      <c r="AC19" s="2"/>
-      <c r="AD19" s="2"/>
-      <c r="AE19" s="2"/>
+      <c r="I19" s="21"/>
+      <c r="J19" s="17"/>
+      <c r="K19" s="17"/>
+      <c r="L19" s="17"/>
+      <c r="M19" s="17"/>
+      <c r="N19" s="17"/>
+      <c r="O19" s="17"/>
+      <c r="P19" s="17"/>
+      <c r="Q19" s="17"/>
+      <c r="R19" s="17"/>
+      <c r="S19" s="17"/>
+      <c r="T19" s="17"/>
+      <c r="U19" s="17"/>
+      <c r="V19" s="17"/>
+      <c r="W19" s="17"/>
+      <c r="X19" s="17"/>
+      <c r="Y19" s="17"/>
+      <c r="Z19" s="17"/>
+      <c r="AA19" s="17"/>
+      <c r="AB19" s="17"/>
+      <c r="AC19" s="17"/>
+      <c r="AD19" s="17"/>
+      <c r="AE19" s="17"/>
     </row>
     <row r="20" spans="1:31" s="18" customFormat="1" ht="27">
       <c r="A20" s="19" t="s">
-        <v>64</v>
+        <v>87</v>
       </c>
       <c r="B20" s="19" t="s">
-        <v>11</v>
+        <v>88</v>
       </c>
       <c r="C20" s="19" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="22">
-        <v>226</v>
+        <v>180</v>
       </c>
       <c r="E20" s="19">
         <v>1</v>
       </c>
       <c r="F20" s="20">
         <f t="shared" si="0"/>
-        <v>226</v>
+        <v>180</v>
       </c>
       <c r="G20" s="19"/>
-      <c r="H20" s="19" t="s">
-        <v>75</v>
-      </c>
+      <c r="H20" s="19"/>
       <c r="I20" s="21"/>
       <c r="J20" s="17"/>
       <c r="K20" s="17"/>
@@ -14441,55 +14845,55 @@
       <c r="AD20" s="17"/>
       <c r="AE20" s="17"/>
     </row>
-    <row r="21" spans="1:31" s="18" customFormat="1" ht="27">
-      <c r="A21" s="19" t="s">
-        <v>90</v>
-      </c>
-      <c r="B21" s="19" t="s">
-        <v>91</v>
-      </c>
-      <c r="C21" s="19" t="s">
+    <row r="21" spans="1:31">
+      <c r="A21" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C21" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="D21" s="22">
-        <v>180</v>
-      </c>
-      <c r="E21" s="19">
-        <v>1</v>
-      </c>
-      <c r="F21" s="20">
-        <f t="shared" si="0"/>
-        <v>180</v>
-      </c>
-      <c r="G21" s="19"/>
-      <c r="H21" s="19"/>
-      <c r="I21" s="21"/>
-      <c r="J21" s="17"/>
-      <c r="K21" s="17"/>
-      <c r="L21" s="17"/>
-      <c r="M21" s="17"/>
-      <c r="N21" s="17"/>
-      <c r="O21" s="17"/>
-      <c r="P21" s="17"/>
-      <c r="Q21" s="17"/>
-      <c r="R21" s="17"/>
-      <c r="S21" s="17"/>
-      <c r="T21" s="17"/>
-      <c r="U21" s="17"/>
-      <c r="V21" s="17"/>
-      <c r="W21" s="17"/>
-      <c r="X21" s="17"/>
-      <c r="Y21" s="17"/>
-      <c r="Z21" s="17"/>
-      <c r="AA21" s="17"/>
-      <c r="AB21" s="17"/>
-      <c r="AC21" s="17"/>
-      <c r="AD21" s="17"/>
-      <c r="AE21" s="17"/>
+      <c r="D21" s="4">
+        <v>6.8</v>
+      </c>
+      <c r="E21" s="4">
+        <v>42</v>
+      </c>
+      <c r="F21" s="1">
+        <f>D21*E21</f>
+        <v>285.59999999999997</v>
+      </c>
+      <c r="G21" s="4"/>
+      <c r="H21" s="4"/>
+      <c r="I21" s="3"/>
+      <c r="J21" s="2"/>
+      <c r="K21" s="2"/>
+      <c r="L21" s="2"/>
+      <c r="M21" s="2"/>
+      <c r="N21" s="2"/>
+      <c r="O21" s="2"/>
+      <c r="P21" s="2"/>
+      <c r="Q21" s="2"/>
+      <c r="R21" s="2"/>
+      <c r="S21" s="2"/>
+      <c r="T21" s="2"/>
+      <c r="U21" s="2"/>
+      <c r="V21" s="2"/>
+      <c r="W21" s="2"/>
+      <c r="X21" s="2"/>
+      <c r="Y21" s="2"/>
+      <c r="Z21" s="2"/>
+      <c r="AA21" s="2"/>
+      <c r="AB21" s="2"/>
+      <c r="AC21" s="2"/>
+      <c r="AD21" s="2"/>
+      <c r="AE21" s="2"/>
     </row>
     <row r="22" spans="1:31">
       <c r="A22" s="4" t="s">
-        <v>34</v>
+        <v>68</v>
       </c>
       <c r="B22" s="4" t="s">
         <v>19</v>
@@ -14498,16 +14902,19 @@
         <v>15</v>
       </c>
       <c r="D22" s="4">
-        <v>6.8</v>
+        <f>5.98*0.68</f>
+        <v>4.0664000000000007</v>
       </c>
       <c r="E22" s="4">
-        <v>42</v>
+        <v>3</v>
       </c>
       <c r="F22" s="1">
         <f>D22*E22</f>
-        <v>285.59999999999997</v>
-      </c>
-      <c r="G22" s="4"/>
+        <v>12.199200000000001</v>
+      </c>
+      <c r="G22" s="4" t="s">
+        <v>75</v>
+      </c>
       <c r="H22" s="4"/>
       <c r="I22" s="3"/>
       <c r="J22" s="2"/>
@@ -14535,7 +14942,7 @@
     </row>
     <row r="23" spans="1:31">
       <c r="A23" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B23" s="4" t="s">
         <v>19</v>
@@ -14544,15 +14951,15 @@
         <v>15</v>
       </c>
       <c r="D23" s="4">
-        <f>5.98*0.68</f>
-        <v>4.0664000000000007</v>
+        <f>8.25*0.68</f>
+        <v>5.61</v>
       </c>
       <c r="E23" s="4">
-        <v>3</v>
+        <v>30</v>
       </c>
       <c r="F23" s="1">
-        <f>D23*E23</f>
-        <v>12.199200000000001</v>
+        <f t="shared" ref="F23:F32" si="3">D23*E23</f>
+        <v>168.3</v>
       </c>
       <c r="G23" s="4" t="s">
         <v>76</v>
@@ -14584,7 +14991,7 @@
     </row>
     <row r="24" spans="1:31">
       <c r="A24" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B24" s="4" t="s">
         <v>19</v>
@@ -14593,15 +15000,15 @@
         <v>15</v>
       </c>
       <c r="D24" s="4">
-        <f>8.25*0.68</f>
-        <v>5.61</v>
+        <f>7.62*0.68</f>
+        <v>5.1816000000000004</v>
       </c>
       <c r="E24" s="4">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="F24" s="1">
-        <f t="shared" ref="F24:F33" si="3">D24*E24</f>
-        <v>168.3</v>
+        <f t="shared" si="3"/>
+        <v>51.816000000000003</v>
       </c>
       <c r="G24" s="4" t="s">
         <v>77</v>
@@ -14633,7 +15040,7 @@
     </row>
     <row r="25" spans="1:31">
       <c r="A25" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B25" s="4" t="s">
         <v>19</v>
@@ -14642,15 +15049,15 @@
         <v>15</v>
       </c>
       <c r="D25" s="4">
-        <f>7.62*0.68</f>
-        <v>5.1816000000000004</v>
+        <f>10.87*0.68</f>
+        <v>7.3916000000000004</v>
       </c>
       <c r="E25" s="4">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F25" s="1">
         <f t="shared" si="3"/>
-        <v>51.816000000000003</v>
+        <v>51.741200000000006</v>
       </c>
       <c r="G25" s="4" t="s">
         <v>78</v>
@@ -14682,7 +15089,7 @@
     </row>
     <row r="26" spans="1:31">
       <c r="A26" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B26" s="4" t="s">
         <v>19</v>
@@ -14691,15 +15098,15 @@
         <v>15</v>
       </c>
       <c r="D26" s="4">
-        <f>10.87*0.68</f>
-        <v>7.3916000000000004</v>
+        <f>40.97*0.68</f>
+        <v>27.8596</v>
       </c>
       <c r="E26" s="4">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F26" s="1">
         <f t="shared" si="3"/>
-        <v>51.741200000000006</v>
+        <v>222.8768</v>
       </c>
       <c r="G26" s="4" t="s">
         <v>79</v>
@@ -14731,7 +15138,7 @@
     </row>
     <row r="27" spans="1:31">
       <c r="A27" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B27" s="4" t="s">
         <v>19</v>
@@ -14740,15 +15147,15 @@
         <v>15</v>
       </c>
       <c r="D27" s="4">
-        <f>40.97*0.68</f>
-        <v>27.8596</v>
+        <f>33.8*0.68</f>
+        <v>22.983999999999998</v>
       </c>
       <c r="E27" s="4">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="F27" s="1">
         <f t="shared" si="3"/>
-        <v>222.8768</v>
+        <v>45.967999999999996</v>
       </c>
       <c r="G27" s="4" t="s">
         <v>80</v>
@@ -14780,7 +15187,7 @@
     </row>
     <row r="28" spans="1:31">
       <c r="A28" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B28" s="4" t="s">
         <v>19</v>
@@ -14789,15 +15196,15 @@
         <v>15</v>
       </c>
       <c r="D28" s="4">
-        <f>33.8*0.68</f>
-        <v>22.983999999999998</v>
+        <f>38.95*0.68</f>
+        <v>26.486000000000004</v>
       </c>
       <c r="E28" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F28" s="1">
         <f t="shared" si="3"/>
-        <v>45.967999999999996</v>
+        <v>26.486000000000004</v>
       </c>
       <c r="G28" s="4" t="s">
         <v>81</v>
@@ -14827,9 +15234,9 @@
       <c r="AD28" s="2"/>
       <c r="AE28" s="2"/>
     </row>
-    <row r="29" spans="1:31">
+    <row r="29" spans="1:31" ht="15" customHeight="1">
       <c r="A29" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B29" s="4" t="s">
         <v>19</v>
@@ -14838,15 +15245,15 @@
         <v>15</v>
       </c>
       <c r="D29" s="4">
-        <f>38.95*0.68</f>
-        <v>26.486000000000004</v>
+        <f>44.71*0.68</f>
+        <v>30.402800000000003</v>
       </c>
       <c r="E29" s="4">
         <v>1</v>
       </c>
       <c r="F29" s="1">
         <f t="shared" si="3"/>
-        <v>26.486000000000004</v>
+        <v>30.402800000000003</v>
       </c>
       <c r="G29" s="4" t="s">
         <v>82</v>
@@ -14876,9 +15283,9 @@
       <c r="AD29" s="2"/>
       <c r="AE29" s="2"/>
     </row>
-    <row r="30" spans="1:31" ht="15" customHeight="1">
+    <row r="30" spans="1:31">
       <c r="A30" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B30" s="4" t="s">
         <v>19</v>
@@ -14887,15 +15294,15 @@
         <v>15</v>
       </c>
       <c r="D30" s="4">
-        <f>44.71*0.68</f>
-        <v>30.402800000000003</v>
+        <f>2.93*0.68</f>
+        <v>1.9924000000000002</v>
       </c>
       <c r="E30" s="4">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F30" s="1">
         <f t="shared" si="3"/>
-        <v>30.402800000000003</v>
+        <v>19.924000000000003</v>
       </c>
       <c r="G30" s="4" t="s">
         <v>83</v>
@@ -14927,7 +15334,7 @@
     </row>
     <row r="31" spans="1:31">
       <c r="A31" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B31" s="4" t="s">
         <v>19</v>
@@ -14936,15 +15343,15 @@
         <v>15</v>
       </c>
       <c r="D31" s="4">
-        <f>2.93*0.68</f>
-        <v>1.9924000000000002</v>
+        <f>8.7*0.68</f>
+        <v>5.9160000000000004</v>
       </c>
       <c r="E31" s="4">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="F31" s="1">
         <f t="shared" si="3"/>
-        <v>19.924000000000003</v>
+        <v>236.64000000000001</v>
       </c>
       <c r="G31" s="4" t="s">
         <v>84</v>
@@ -14976,7 +15383,7 @@
     </row>
     <row r="32" spans="1:31">
       <c r="A32" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B32" s="4" t="s">
         <v>19</v>
@@ -14985,15 +15392,15 @@
         <v>15</v>
       </c>
       <c r="D32" s="4">
-        <f>8.7*0.68</f>
-        <v>5.9160000000000004</v>
+        <f>0*0.68</f>
+        <v>0</v>
       </c>
       <c r="E32" s="4">
-        <v>40</v>
+        <v>3</v>
       </c>
       <c r="F32" s="1">
         <f t="shared" si="3"/>
-        <v>236.64000000000001</v>
+        <v>0</v>
       </c>
       <c r="G32" s="4" t="s">
         <v>85</v>
@@ -15023,30 +15430,27 @@
       <c r="AD32" s="2"/>
       <c r="AE32" s="2"/>
     </row>
-    <row r="33" spans="1:31">
+    <row r="33" spans="1:31" ht="27">
       <c r="A33" s="4" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>19</v>
+        <v>65</v>
       </c>
       <c r="C33" s="4" t="s">
         <v>15</v>
       </c>
       <c r="D33" s="4">
-        <f>0*0.68</f>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="E33" s="4">
-        <v>3</v>
+        <v>200</v>
       </c>
       <c r="F33" s="1">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="G33" s="4" t="s">
-        <v>86</v>
-      </c>
+        <f t="shared" si="0"/>
+        <v>220.00000000000003</v>
+      </c>
+      <c r="G33" s="4"/>
       <c r="H33" s="4"/>
       <c r="I33" s="3"/>
       <c r="J33" s="2"/>
@@ -15072,29 +15476,22 @@
       <c r="AD33" s="2"/>
       <c r="AE33" s="2"/>
     </row>
-    <row r="34" spans="1:31" ht="27">
-      <c r="A34" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="B34" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="C34" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D34" s="4">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="E34" s="4">
-        <v>200</v>
-      </c>
+    <row r="34" spans="1:31">
+      <c r="A34" s="4"/>
+      <c r="B34" s="4"/>
+      <c r="C34" s="4"/>
+      <c r="D34" s="23"/>
+      <c r="E34" s="4"/>
       <c r="F34" s="1">
-        <f t="shared" si="0"/>
-        <v>220.00000000000003</v>
-      </c>
-      <c r="G34" s="4"/>
+        <v>-151.95400000000001</v>
+      </c>
+      <c r="G34" s="4" t="s">
+        <v>89</v>
+      </c>
       <c r="H34" s="4"/>
-      <c r="I34" s="3"/>
+      <c r="I34" s="3">
+        <v>41191</v>
+      </c>
       <c r="J34" s="2"/>
       <c r="K34" s="2"/>
       <c r="L34" s="2"/>
@@ -15119,20 +15516,29 @@
       <c r="AE34" s="2"/>
     </row>
     <row r="35" spans="1:31">
-      <c r="A35" s="4"/>
-      <c r="B35" s="4"/>
-      <c r="C35" s="4"/>
-      <c r="D35" s="23"/>
-      <c r="E35" s="4"/>
+      <c r="A35" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="B35" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="C35" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D35">
+        <v>5400</v>
+      </c>
+      <c r="E35" s="4">
+        <v>1</v>
+      </c>
       <c r="F35" s="1">
-        <v>-151.95400000000001</v>
-      </c>
-      <c r="G35" s="4" t="s">
-        <v>92</v>
-      </c>
+        <f t="shared" si="0"/>
+        <v>5400</v>
+      </c>
+      <c r="G35" s="4"/>
       <c r="H35" s="4"/>
       <c r="I35" s="3">
-        <v>41191</v>
+        <v>41276</v>
       </c>
       <c r="J35" s="2"/>
       <c r="K35" s="2"/>
@@ -15157,29 +15563,33 @@
       <c r="AD35" s="2"/>
       <c r="AE35" s="2"/>
     </row>
-    <row r="36" spans="1:31">
+    <row r="36" spans="1:31" ht="27">
       <c r="A36" s="4" t="s">
-        <v>95</v>
+        <v>35</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>91</v>
+        <v>19</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D36">
-        <v>5400</v>
-      </c>
-      <c r="E36" s="4">
+        <v>100</v>
+      </c>
+      <c r="D36" s="1">
+        <v>50</v>
+      </c>
+      <c r="E36" s="1">
         <v>1</v>
       </c>
       <c r="F36" s="1">
         <f t="shared" si="0"/>
-        <v>5400</v>
-      </c>
-      <c r="G36" s="4"/>
-      <c r="H36" s="4"/>
-      <c r="I36" s="3"/>
+        <v>50</v>
+      </c>
+      <c r="G36" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="H36" s="1"/>
+      <c r="I36" s="3">
+        <v>41265</v>
+      </c>
       <c r="J36" s="2"/>
       <c r="K36" s="2"/>
       <c r="L36" s="2"/>
@@ -15203,33 +15613,31 @@
       <c r="AD36" s="2"/>
       <c r="AE36" s="2"/>
     </row>
-    <row r="37" spans="1:31" ht="27">
+    <row r="37" spans="1:31">
       <c r="A37" s="4" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>19</v>
+        <v>43</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="D37" s="1">
-        <v>50</v>
+        <v>509</v>
       </c>
       <c r="E37" s="1">
         <v>1</v>
       </c>
       <c r="F37" s="1">
-        <f t="shared" si="0"/>
-        <v>50</v>
+        <f>D37*E37</f>
+        <v>509</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>104</v>
+        <v>93</v>
       </c>
       <c r="H37" s="1"/>
-      <c r="I37" s="3">
-        <v>41265</v>
-      </c>
+      <c r="I37" s="3"/>
       <c r="J37" s="2"/>
       <c r="K37" s="2"/>
       <c r="L37" s="2"/>
@@ -15253,29 +15661,23 @@
       <c r="AD37" s="2"/>
       <c r="AE37" s="2"/>
     </row>
-    <row r="38" spans="1:31">
+    <row r="38" spans="1:31" ht="27">
       <c r="A38" s="4" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="D38" s="1">
-        <v>509</v>
-      </c>
-      <c r="E38" s="1">
-        <v>1</v>
-      </c>
+        <v>94</v>
+      </c>
+      <c r="D38" s="1"/>
+      <c r="E38" s="1"/>
       <c r="F38" s="1">
-        <f>D38*E38</f>
-        <v>509</v>
-      </c>
-      <c r="G38" s="1" t="s">
-        <v>96</v>
-      </c>
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G38" s="1"/>
       <c r="H38" s="1"/>
       <c r="I38" s="3"/>
       <c r="J38" s="2"/>
@@ -15303,19 +15705,23 @@
     </row>
     <row r="39" spans="1:31" ht="27">
       <c r="A39" s="4" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="B39" s="4" t="s">
         <v>40</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="D39" s="1"/>
-      <c r="E39" s="1"/>
+        <v>94</v>
+      </c>
+      <c r="D39" s="1">
+        <v>240</v>
+      </c>
+      <c r="E39" s="1">
+        <v>1</v>
+      </c>
       <c r="F39" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f>D39*E39</f>
+        <v>240</v>
       </c>
       <c r="G39" s="1"/>
       <c r="H39" s="1"/>
@@ -15343,25 +15749,25 @@
       <c r="AD39" s="2"/>
       <c r="AE39" s="2"/>
     </row>
-    <row r="40" spans="1:31" ht="27">
+    <row r="40" spans="1:31">
       <c r="A40" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>40</v>
+        <v>17</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>97</v>
+        <v>114</v>
       </c>
       <c r="D40" s="1">
-        <v>240</v>
+        <v>600</v>
       </c>
       <c r="E40" s="1">
         <v>1</v>
       </c>
       <c r="F40" s="1">
-        <f>D40*E40</f>
-        <v>240</v>
+        <f t="shared" ref="F40:F46" si="4">D40*E40</f>
+        <v>600</v>
       </c>
       <c r="G40" s="1"/>
       <c r="H40" s="1"/>
@@ -15391,20 +15797,17 @@
     </row>
     <row r="41" spans="1:31">
       <c r="A41" s="4" t="s">
-        <v>45</v>
+        <v>133</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="C41" s="1"/>
+        <v>134</v>
+      </c>
+      <c r="C41" s="4" t="s">
+        <v>135</v>
+      </c>
       <c r="D41" s="1"/>
-      <c r="E41" s="1">
-        <v>1</v>
-      </c>
-      <c r="F41" s="1">
-        <f t="shared" ref="F41:F46" si="4">D41*E41</f>
-        <v>0</v>
-      </c>
+      <c r="E41" s="1"/>
+      <c r="F41" s="1"/>
       <c r="G41" s="1"/>
       <c r="H41" s="1"/>
       <c r="I41" s="3"/>
@@ -15433,19 +15836,23 @@
     </row>
     <row r="42" spans="1:31">
       <c r="A42" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="C42" s="1"/>
-      <c r="D42" s="1"/>
+        <v>115</v>
+      </c>
+      <c r="C42" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="D42" s="1">
+        <v>260</v>
+      </c>
       <c r="E42" s="1">
         <v>1</v>
       </c>
       <c r="F42" s="1">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>260</v>
       </c>
       <c r="G42" s="1"/>
       <c r="H42" s="1"/>
@@ -15473,21 +15880,25 @@
       <c r="AD42" s="2"/>
       <c r="AE42" s="2"/>
     </row>
-    <row r="43" spans="1:31">
+    <row r="43" spans="1:31" ht="27">
       <c r="A43" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="B43" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="B43" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="C43" s="1"/>
-      <c r="D43" s="1"/>
+      <c r="C43" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="D43" s="1">
+        <v>300</v>
+      </c>
       <c r="E43" s="1">
         <v>2</v>
       </c>
       <c r="F43" s="1">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>600</v>
       </c>
       <c r="G43" s="1"/>
       <c r="H43" s="1"/>
@@ -15517,13 +15928,13 @@
     </row>
     <row r="44" spans="1:31" ht="27.75">
       <c r="A44" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="D44" s="1">
         <v>13</v>
@@ -15563,13 +15974,13 @@
     </row>
     <row r="45" spans="1:31" ht="27.75">
       <c r="A45" s="4" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="D45" s="1">
         <v>75</v>
@@ -15609,13 +16020,13 @@
     </row>
     <row r="46" spans="1:31" ht="27.75">
       <c r="A46" s="4" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="D46" s="1">
         <v>140</v>
@@ -15653,23 +16064,27 @@
       <c r="AD46" s="2"/>
       <c r="AE46" s="2"/>
     </row>
-    <row r="47" spans="1:31">
+    <row r="47" spans="1:31" ht="27">
       <c r="A47" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="B47" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="C47" s="4"/>
-      <c r="D47" s="1"/>
-      <c r="E47" s="1"/>
+        <v>91</v>
+      </c>
+      <c r="B47" s="1"/>
+      <c r="C47" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="D47" s="1">
+        <v>750</v>
+      </c>
+      <c r="E47" s="1">
+        <v>1</v>
+      </c>
       <c r="F47" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>750</v>
       </c>
       <c r="G47" s="1"/>
       <c r="H47" s="1"/>
-      <c r="I47" s="3"/>
+      <c r="I47" s="5"/>
       <c r="J47" s="2"/>
       <c r="K47" s="2"/>
       <c r="L47" s="2"/>
@@ -15695,19 +16110,27 @@
     </row>
     <row r="48" spans="1:31" ht="27">
       <c r="A48" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="B48" s="1"/>
-      <c r="C48" s="1"/>
-      <c r="D48" s="1"/>
-      <c r="E48" s="1"/>
+        <v>123</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C48" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="D48" s="1">
+        <v>240</v>
+      </c>
+      <c r="E48" s="1">
+        <v>55</v>
+      </c>
       <c r="F48" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f>D48*E48</f>
+        <v>13200</v>
       </c>
       <c r="G48" s="1"/>
       <c r="H48" s="1"/>
-      <c r="I48" s="5"/>
+      <c r="I48" s="3"/>
       <c r="J48" s="2"/>
       <c r="K48" s="2"/>
       <c r="L48" s="2"/>
@@ -15731,19 +16154,31 @@
       <c r="AD48" s="2"/>
       <c r="AE48" s="2"/>
     </row>
-    <row r="49" spans="1:31">
-      <c r="A49" s="1"/>
-      <c r="B49" s="1"/>
-      <c r="C49" s="1"/>
-      <c r="D49" s="1"/>
-      <c r="E49" s="1"/>
+    <row r="49" spans="1:31" ht="27">
+      <c r="A49" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C49" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="D49" s="1">
+        <v>40</v>
+      </c>
+      <c r="E49" s="1">
+        <v>55</v>
+      </c>
       <c r="F49" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G49" s="1"/>
+        <f>D49*E49</f>
+        <v>2200</v>
+      </c>
+      <c r="G49" s="1" t="s">
+        <v>121</v>
+      </c>
       <c r="H49" s="1"/>
-      <c r="I49" s="5"/>
+      <c r="I49" s="3"/>
       <c r="J49" s="2"/>
       <c r="K49" s="2"/>
       <c r="L49" s="2"/>
@@ -15767,17 +16202,29 @@
       <c r="AD49" s="2"/>
       <c r="AE49" s="2"/>
     </row>
-    <row r="50" spans="1:31">
-      <c r="A50" s="1"/>
-      <c r="B50" s="1"/>
-      <c r="C50" s="1"/>
-      <c r="D50" s="1"/>
-      <c r="E50" s="1"/>
+    <row r="50" spans="1:31" ht="40.5">
+      <c r="A50" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C50" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="D50" s="1">
+        <v>3</v>
+      </c>
+      <c r="E50" s="1">
+        <v>55</v>
+      </c>
       <c r="F50" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G50" s="1"/>
+        <v>165</v>
+      </c>
+      <c r="G50" s="4" t="s">
+        <v>122</v>
+      </c>
       <c r="H50" s="1"/>
       <c r="I50" s="5"/>
       <c r="J50" s="2"/>
@@ -15803,17 +16250,29 @@
       <c r="AD50" s="2"/>
       <c r="AE50" s="2"/>
     </row>
-    <row r="51" spans="1:31">
-      <c r="A51" s="1"/>
-      <c r="B51" s="1"/>
-      <c r="C51" s="1"/>
-      <c r="D51" s="1"/>
-      <c r="E51" s="1"/>
+    <row r="51" spans="1:31" ht="27">
+      <c r="A51" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C51" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="D51" s="1">
+        <v>100</v>
+      </c>
+      <c r="E51" s="1">
+        <v>1</v>
+      </c>
       <c r="F51" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G51" s="1"/>
+        <v>100</v>
+      </c>
+      <c r="G51" s="4" t="s">
+        <v>127</v>
+      </c>
       <c r="H51" s="1"/>
       <c r="I51" s="5"/>
       <c r="J51" s="2"/>
@@ -15839,17 +16298,29 @@
       <c r="AD51" s="2"/>
       <c r="AE51" s="2"/>
     </row>
-    <row r="52" spans="1:31">
-      <c r="A52" s="1"/>
-      <c r="B52" s="1"/>
-      <c r="C52" s="1"/>
-      <c r="D52" s="1"/>
-      <c r="E52" s="1"/>
+    <row r="52" spans="1:31" ht="55.5">
+      <c r="A52" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="B52" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="D52" s="1">
+        <v>3000</v>
+      </c>
+      <c r="E52" s="1">
+        <v>1</v>
+      </c>
       <c r="F52" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G52" s="1"/>
+        <v>3000</v>
+      </c>
+      <c r="G52" s="1" t="s">
+        <v>128</v>
+      </c>
       <c r="H52" s="1"/>
       <c r="I52" s="5"/>
       <c r="J52" s="2"/>
@@ -15876,8 +16347,12 @@
       <c r="AE52" s="2"/>
     </row>
     <row r="53" spans="1:31">
-      <c r="A53" s="1"/>
-      <c r="B53" s="1"/>
+      <c r="A53" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="B53" s="4" t="s">
+        <v>131</v>
+      </c>
       <c r="C53" s="1"/>
       <c r="D53" s="1"/>
       <c r="E53" s="1"/>
@@ -15912,8 +16387,12 @@
       <c r="AE53" s="2"/>
     </row>
     <row r="54" spans="1:31">
-      <c r="A54" s="1"/>
-      <c r="B54" s="1"/>
+      <c r="A54" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="B54" s="4" t="s">
+        <v>132</v>
+      </c>
       <c r="C54" s="1"/>
       <c r="D54" s="1"/>
       <c r="E54" s="1"/>
@@ -16134,12 +16613,12 @@
       <c r="D60" s="1"/>
       <c r="E60" s="1"/>
       <c r="F60" s="1">
-        <f>SUM(F2:F59)</f>
-        <v>22704.200000000004</v>
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="G60" s="1"/>
       <c r="H60" s="1"/>
-      <c r="I60" s="1"/>
+      <c r="I60" s="5"/>
       <c r="J60" s="2"/>
       <c r="K60" s="2"/>
       <c r="L60" s="2"/>
@@ -16164,15 +16643,18 @@
       <c r="AE60" s="2"/>
     </row>
     <row r="61" spans="1:31">
-      <c r="A61" s="2"/>
-      <c r="B61" s="2"/>
-      <c r="C61" s="2"/>
-      <c r="D61" s="2"/>
-      <c r="E61" s="2"/>
-      <c r="F61" s="2"/>
-      <c r="G61" s="2"/>
-      <c r="H61" s="2"/>
-      <c r="I61" s="2"/>
+      <c r="A61" s="1"/>
+      <c r="B61" s="1"/>
+      <c r="C61" s="1"/>
+      <c r="D61" s="1"/>
+      <c r="E61" s="1"/>
+      <c r="F61" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G61" s="1"/>
+      <c r="H61" s="1"/>
+      <c r="I61" s="5"/>
       <c r="J61" s="2"/>
       <c r="K61" s="2"/>
       <c r="L61" s="2"/>
@@ -16197,15 +16679,18 @@
       <c r="AE61" s="2"/>
     </row>
     <row r="62" spans="1:31">
-      <c r="A62" s="2"/>
-      <c r="B62" s="2"/>
-      <c r="C62" s="2"/>
-      <c r="D62" s="2"/>
-      <c r="E62" s="2"/>
-      <c r="F62" s="2"/>
-      <c r="G62" s="2"/>
-      <c r="H62" s="2"/>
-      <c r="I62" s="2"/>
+      <c r="A62" s="1"/>
+      <c r="B62" s="1"/>
+      <c r="C62" s="1"/>
+      <c r="D62" s="1"/>
+      <c r="E62" s="1"/>
+      <c r="F62" s="1">
+        <f>SUM(F2:F61)</f>
+        <v>43579.200000000004</v>
+      </c>
+      <c r="G62" s="1"/>
+      <c r="H62" s="1"/>
+      <c r="I62" s="1"/>
       <c r="J62" s="2"/>
       <c r="K62" s="2"/>
       <c r="L62" s="2"/>
@@ -21245,6 +21730,72 @@
       <c r="AD214" s="2"/>
       <c r="AE214" s="2"/>
     </row>
+    <row r="215" spans="1:31">
+      <c r="A215" s="2"/>
+      <c r="B215" s="2"/>
+      <c r="C215" s="2"/>
+      <c r="D215" s="2"/>
+      <c r="E215" s="2"/>
+      <c r="F215" s="2"/>
+      <c r="G215" s="2"/>
+      <c r="H215" s="2"/>
+      <c r="I215" s="2"/>
+      <c r="J215" s="2"/>
+      <c r="K215" s="2"/>
+      <c r="L215" s="2"/>
+      <c r="M215" s="2"/>
+      <c r="N215" s="2"/>
+      <c r="O215" s="2"/>
+      <c r="P215" s="2"/>
+      <c r="Q215" s="2"/>
+      <c r="R215" s="2"/>
+      <c r="S215" s="2"/>
+      <c r="T215" s="2"/>
+      <c r="U215" s="2"/>
+      <c r="V215" s="2"/>
+      <c r="W215" s="2"/>
+      <c r="X215" s="2"/>
+      <c r="Y215" s="2"/>
+      <c r="Z215" s="2"/>
+      <c r="AA215" s="2"/>
+      <c r="AB215" s="2"/>
+      <c r="AC215" s="2"/>
+      <c r="AD215" s="2"/>
+      <c r="AE215" s="2"/>
+    </row>
+    <row r="216" spans="1:31">
+      <c r="A216" s="2"/>
+      <c r="B216" s="2"/>
+      <c r="C216" s="2"/>
+      <c r="D216" s="2"/>
+      <c r="E216" s="2"/>
+      <c r="F216" s="2"/>
+      <c r="G216" s="2"/>
+      <c r="H216" s="2"/>
+      <c r="I216" s="2"/>
+      <c r="J216" s="2"/>
+      <c r="K216" s="2"/>
+      <c r="L216" s="2"/>
+      <c r="M216" s="2"/>
+      <c r="N216" s="2"/>
+      <c r="O216" s="2"/>
+      <c r="P216" s="2"/>
+      <c r="Q216" s="2"/>
+      <c r="R216" s="2"/>
+      <c r="S216" s="2"/>
+      <c r="T216" s="2"/>
+      <c r="U216" s="2"/>
+      <c r="V216" s="2"/>
+      <c r="W216" s="2"/>
+      <c r="X216" s="2"/>
+      <c r="Y216" s="2"/>
+      <c r="Z216" s="2"/>
+      <c r="AA216" s="2"/>
+      <c r="AB216" s="2"/>
+      <c r="AC216" s="2"/>
+      <c r="AD216" s="2"/>
+      <c r="AE216" s="2"/>
+    </row>
   </sheetData>
   <autoFilter ref="A1:G1">
     <filterColumn colId="3"/>

--- a/.private/房子.xlsx
+++ b/.private/房子.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="30" windowWidth="18180" windowHeight="11730" activeTab="1"/>
+    <workbookView xWindow="480" yWindow="30" windowWidth="18180" windowHeight="11730" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="买房" sheetId="1" r:id="rId1"/>
@@ -7458,7 +7458,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AE186"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G32" sqref="G32"/>
     </sheetView>
   </sheetViews>
@@ -13858,11 +13858,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AE216"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B50" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E66" sqref="E66"/>
+      <selection pane="bottomRight" activeCell="G36" sqref="G36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>

--- a/.private/房子.xlsx
+++ b/.private/房子.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="30" windowWidth="18180" windowHeight="11730" activeTab="2"/>
+    <workbookView xWindow="480" yWindow="30" windowWidth="18180" windowHeight="11730" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="买房" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291" uniqueCount="159">
   <si>
     <t>付定金４万，张浦发银行转帐。</t>
   </si>
@@ -1266,6 +1266,98 @@
 左下柜750/m,右下柜850/m,上柜350/m</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
+  <si>
+    <t>2013-01-25晚</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>2013-01-13</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>1.16*3=3.48m</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>优惠</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>4500-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>合同定金</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>100</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>安装阶段</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>卫生间五金</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>卫生间镜子</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>装修</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>油漆工阶段</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>边角线</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>石膏线条</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>优惠94</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -1405,7 +1497,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1477,9 +1569,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -7351,10 +7440,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AE174"/>
+  <dimension ref="A1:AE176"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H41" sqref="H41"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H24" sqref="H24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -7365,6 +7454,7 @@
     <col min="4" max="4" width="14.25" customWidth="1"/>
     <col min="5" max="5" width="8.625" customWidth="1"/>
     <col min="6" max="6" width="8" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="55" customWidth="1"/>
   </cols>
   <sheetData>
@@ -7617,31 +7707,28 @@
       <c r="AD5" s="2"/>
       <c r="AE5" s="2"/>
     </row>
-    <row r="6" spans="1:31" ht="27">
-      <c r="A6" s="3">
-        <v>41250</v>
+    <row r="6" spans="1:31">
+      <c r="A6" s="5">
+        <v>41260</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>18</v>
+        <v>103</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4">
-        <f>-260</f>
-        <v>-260</v>
-      </c>
-      <c r="F6" s="4">
+        <v>104</v>
+      </c>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1">
+        <v>5240</v>
+      </c>
+      <c r="F6" s="1">
         <v>1</v>
       </c>
       <c r="G6" s="1">
-        <f t="shared" ref="G6:G20" si="1">E6*F6</f>
-        <v>-260</v>
-      </c>
-      <c r="H6" s="4" t="s">
-        <v>106</v>
-      </c>
+        <f t="shared" ref="G6:G22" si="1">E6*F6</f>
+        <v>5240</v>
+      </c>
+      <c r="H6" s="4"/>
       <c r="I6" s="2"/>
       <c r="J6" s="2"/>
       <c r="K6" s="2"/>
@@ -7667,30 +7754,27 @@
       <c r="AE6" s="2"/>
     </row>
     <row r="7" spans="1:31" ht="27">
-      <c r="A7" s="3">
-        <v>41250</v>
+      <c r="A7" s="5">
+        <v>41288</v>
       </c>
       <c r="B7" s="4" t="s">
         <v>18</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4">
-        <f>-90</f>
-        <v>-90</v>
-      </c>
-      <c r="F7" s="4">
-        <v>1</v>
+        <v>105</v>
+      </c>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1">
+        <v>5240</v>
+      </c>
+      <c r="F7" s="1">
+        <v>2</v>
       </c>
       <c r="G7" s="1">
         <f t="shared" si="1"/>
-        <v>-90</v>
-      </c>
-      <c r="H7" s="4" t="s">
-        <v>107</v>
-      </c>
+        <v>10480</v>
+      </c>
+      <c r="H7" s="4"/>
       <c r="I7" s="2"/>
       <c r="J7" s="2"/>
       <c r="K7" s="2"/>
@@ -7715,29 +7799,29 @@
       <c r="AD7" s="2"/>
       <c r="AE7" s="2"/>
     </row>
-    <row r="8" spans="1:31" ht="27">
-      <c r="A8" s="3">
-        <v>41250</v>
+    <row r="8" spans="1:31">
+      <c r="A8" s="5">
+        <v>41287</v>
       </c>
       <c r="B8" s="4" t="s">
         <v>18</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4">
-        <v>3.8</v>
-      </c>
-      <c r="F8" s="4">
-        <v>100</v>
+        <v>133</v>
+      </c>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1">
+        <v>4400</v>
+      </c>
+      <c r="F8" s="1">
+        <v>1</v>
       </c>
       <c r="G8" s="1">
         <f t="shared" si="1"/>
-        <v>380</v>
-      </c>
-      <c r="H8" s="4" t="s">
-        <v>108</v>
+        <v>4400</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>150</v>
       </c>
       <c r="I8" s="2"/>
       <c r="J8" s="2"/>
@@ -7764,26 +7848,13 @@
       <c r="AE8" s="2"/>
     </row>
     <row r="9" spans="1:31">
-      <c r="A9" s="24">
-        <v>41260</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1">
-        <v>5240</v>
-      </c>
-      <c r="F9" s="1">
-        <v>1</v>
-      </c>
-      <c r="G9" s="1">
-        <f t="shared" si="1"/>
-        <v>5240</v>
-      </c>
+      <c r="A9" s="3"/>
+      <c r="B9" s="4"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="1"/>
       <c r="H9" s="4"/>
       <c r="I9" s="2"/>
       <c r="J9" s="2"/>
@@ -7810,29 +7881,28 @@
       <c r="AE9" s="2"/>
     </row>
     <row r="10" spans="1:31" ht="27">
-      <c r="A10" s="5">
-        <v>41268</v>
+      <c r="A10" s="3">
+        <v>41250</v>
       </c>
       <c r="B10" s="4" t="s">
         <v>18</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>132</v>
-      </c>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1">
-        <f>-450</f>
-        <v>-450</v>
-      </c>
-      <c r="F10" s="1">
-        <v>1</v>
+        <v>85</v>
+      </c>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4">
+        <v>3.8</v>
+      </c>
+      <c r="F10" s="4">
+        <v>100</v>
       </c>
       <c r="G10" s="1">
-        <f t="shared" si="1"/>
-        <v>-450</v>
+        <f t="shared" ref="G10" si="2">E10*F10</f>
+        <v>380</v>
       </c>
       <c r="H10" s="4" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="I10" s="2"/>
       <c r="J10" s="2"/>
@@ -7858,30 +7928,29 @@
       <c r="AD10" s="2"/>
       <c r="AE10" s="2"/>
     </row>
-    <row r="11" spans="1:31" ht="27">
+    <row r="11" spans="1:31">
       <c r="A11" s="5">
-        <v>41268</v>
+        <v>41293</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>18</v>
+        <v>154</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>132</v>
+        <v>155</v>
       </c>
       <c r="D11" s="1"/>
       <c r="E11" s="1">
-        <f>-108</f>
-        <v>-108</v>
+        <v>100</v>
       </c>
       <c r="F11" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G11" s="1">
         <f t="shared" si="1"/>
-        <v>-216</v>
+        <v>100</v>
       </c>
       <c r="H11" s="4" t="s">
-        <v>109</v>
+        <v>156</v>
       </c>
       <c r="I11" s="2"/>
       <c r="J11" s="2"/>
@@ -7907,30 +7976,29 @@
       <c r="AD11" s="2"/>
       <c r="AE11" s="2"/>
     </row>
-    <row r="12" spans="1:31" ht="27">
+    <row r="12" spans="1:31">
       <c r="A12" s="5">
-        <v>41268</v>
+        <v>41293</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>18</v>
+        <v>154</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>132</v>
+        <v>155</v>
       </c>
       <c r="D12" s="1"/>
       <c r="E12" s="1">
-        <f>-100</f>
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="F12" s="1">
         <v>1</v>
       </c>
       <c r="G12" s="1">
-        <f t="shared" si="1"/>
-        <v>-100</v>
+        <f t="shared" ref="G12" si="3">E12*F12</f>
+        <v>100</v>
       </c>
       <c r="H12" s="4" t="s">
-        <v>111</v>
+        <v>157</v>
       </c>
       <c r="I12" s="2"/>
       <c r="J12" s="2"/>
@@ -7957,27 +8025,30 @@
       <c r="AE12" s="2"/>
     </row>
     <row r="13" spans="1:31" ht="27">
-      <c r="A13" s="5">
-        <v>41288</v>
+      <c r="A13" s="3">
+        <v>41250</v>
       </c>
       <c r="B13" s="4" t="s">
         <v>18</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1">
-        <v>5240</v>
-      </c>
-      <c r="F13" s="1">
-        <v>2</v>
+        <v>85</v>
+      </c>
+      <c r="D13" s="4"/>
+      <c r="E13" s="4">
+        <f>-260</f>
+        <v>-260</v>
+      </c>
+      <c r="F13" s="4">
+        <v>1</v>
       </c>
       <c r="G13" s="1">
-        <f t="shared" si="1"/>
-        <v>10480</v>
-      </c>
-      <c r="H13" s="4"/>
+        <f>E13*F13</f>
+        <v>-260</v>
+      </c>
+      <c r="H13" s="4" t="s">
+        <v>106</v>
+      </c>
       <c r="I13" s="2"/>
       <c r="J13" s="2"/>
       <c r="K13" s="2"/>
@@ -8002,24 +8073,31 @@
       <c r="AD13" s="2"/>
       <c r="AE13" s="2"/>
     </row>
-    <row r="14" spans="1:31">
-      <c r="A14" s="5">
-        <v>41287</v>
+    <row r="14" spans="1:31" ht="27">
+      <c r="A14" s="3">
+        <v>41250</v>
       </c>
       <c r="B14" s="4" t="s">
         <v>18</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>133</v>
-      </c>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
+        <v>85</v>
+      </c>
+      <c r="D14" s="4"/>
+      <c r="E14" s="4">
+        <f>-90</f>
+        <v>-90</v>
+      </c>
+      <c r="F14" s="4">
+        <v>1</v>
+      </c>
       <c r="G14" s="1">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H14" s="1"/>
+        <f>E14*F14</f>
+        <v>-90</v>
+      </c>
+      <c r="H14" s="4" t="s">
+        <v>107</v>
+      </c>
       <c r="I14" s="2"/>
       <c r="J14" s="2"/>
       <c r="K14" s="2"/>
@@ -8044,18 +8122,31 @@
       <c r="AD14" s="2"/>
       <c r="AE14" s="2"/>
     </row>
-    <row r="15" spans="1:31">
-      <c r="A15" s="5"/>
-      <c r="B15" s="1"/>
-      <c r="C15" s="1"/>
+    <row r="15" spans="1:31" ht="27">
+      <c r="A15" s="5">
+        <v>41268</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>132</v>
+      </c>
       <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
-      <c r="F15" s="1"/>
+      <c r="E15" s="1">
+        <f>-450</f>
+        <v>-450</v>
+      </c>
+      <c r="F15" s="1">
+        <v>1</v>
+      </c>
       <c r="G15" s="1">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H15" s="1"/>
+        <f>E15*F15</f>
+        <v>-450</v>
+      </c>
+      <c r="H15" s="4" t="s">
+        <v>110</v>
+      </c>
       <c r="I15" s="2"/>
       <c r="J15" s="2"/>
       <c r="K15" s="2"/>
@@ -8080,18 +8171,31 @@
       <c r="AD15" s="2"/>
       <c r="AE15" s="2"/>
     </row>
-    <row r="16" spans="1:31">
-      <c r="A16" s="5"/>
-      <c r="B16" s="1"/>
-      <c r="C16" s="1"/>
+    <row r="16" spans="1:31" ht="27">
+      <c r="A16" s="5">
+        <v>41268</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>132</v>
+      </c>
       <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
-      <c r="F16" s="1"/>
+      <c r="E16" s="1">
+        <f>-108</f>
+        <v>-108</v>
+      </c>
+      <c r="F16" s="1">
+        <v>2</v>
+      </c>
       <c r="G16" s="1">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H16" s="1"/>
+        <f>E16*F16</f>
+        <v>-216</v>
+      </c>
+      <c r="H16" s="4" t="s">
+        <v>109</v>
+      </c>
       <c r="I16" s="2"/>
       <c r="J16" s="2"/>
       <c r="K16" s="2"/>
@@ -8116,18 +8220,31 @@
       <c r="AD16" s="2"/>
       <c r="AE16" s="2"/>
     </row>
-    <row r="17" spans="1:31">
-      <c r="A17" s="5"/>
-      <c r="B17" s="1"/>
-      <c r="C17" s="1"/>
+    <row r="17" spans="1:31" ht="27">
+      <c r="A17" s="5">
+        <v>41268</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>132</v>
+      </c>
       <c r="D17" s="1"/>
-      <c r="E17" s="1"/>
-      <c r="F17" s="1"/>
+      <c r="E17" s="1">
+        <f>-100</f>
+        <v>-100</v>
+      </c>
+      <c r="F17" s="1">
+        <v>1</v>
+      </c>
       <c r="G17" s="1">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H17" s="1"/>
+        <f>E17*F17</f>
+        <v>-100</v>
+      </c>
+      <c r="H17" s="4" t="s">
+        <v>111</v>
+      </c>
       <c r="I17" s="2"/>
       <c r="J17" s="2"/>
       <c r="K17" s="2"/>
@@ -8153,17 +8270,29 @@
       <c r="AE17" s="2"/>
     </row>
     <row r="18" spans="1:31">
-      <c r="A18" s="5"/>
-      <c r="B18" s="1"/>
-      <c r="C18" s="1"/>
+      <c r="A18" s="5">
+        <v>41293</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>151</v>
+      </c>
       <c r="D18" s="1"/>
-      <c r="E18" s="1"/>
-      <c r="F18" s="1"/>
+      <c r="E18" s="1">
+        <v>-90</v>
+      </c>
+      <c r="F18" s="1">
+        <v>1</v>
+      </c>
       <c r="G18" s="1">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H18" s="1"/>
+        <v>-90</v>
+      </c>
+      <c r="H18" s="4" t="s">
+        <v>152</v>
+      </c>
       <c r="I18" s="2"/>
       <c r="J18" s="2"/>
       <c r="K18" s="2"/>
@@ -8193,13 +8322,19 @@
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
-      <c r="E19" s="1"/>
-      <c r="F19" s="1"/>
+      <c r="E19" s="1">
+        <v>-20</v>
+      </c>
+      <c r="F19" s="1">
+        <v>1</v>
+      </c>
       <c r="G19" s="1">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H19" s="1"/>
+        <v>-20</v>
+      </c>
+      <c r="H19" s="4" t="s">
+        <v>153</v>
+      </c>
       <c r="I19" s="2"/>
       <c r="J19" s="2"/>
       <c r="K19" s="2"/>
@@ -8229,13 +8364,19 @@
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
-      <c r="E20" s="1"/>
-      <c r="F20" s="1"/>
+      <c r="E20" s="1">
+        <v>-94</v>
+      </c>
+      <c r="F20" s="1">
+        <v>1</v>
+      </c>
       <c r="G20" s="1">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H20" s="1"/>
+        <v>-94</v>
+      </c>
+      <c r="H20" s="4" t="s">
+        <v>158</v>
+      </c>
       <c r="I20" s="2"/>
       <c r="J20" s="2"/>
       <c r="K20" s="2"/>
@@ -8267,7 +8408,10 @@
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
       <c r="F21" s="1"/>
-      <c r="G21" s="1"/>
+      <c r="G21" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="H21" s="1"/>
       <c r="I21" s="2"/>
       <c r="J21" s="2"/>
@@ -8300,7 +8444,10 @@
       <c r="D22" s="1"/>
       <c r="E22" s="1"/>
       <c r="F22" s="1"/>
-      <c r="G22" s="1"/>
+      <c r="G22" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="H22" s="1"/>
       <c r="I22" s="2"/>
       <c r="J22" s="2"/>
@@ -8327,16 +8474,13 @@
       <c r="AE22" s="2"/>
     </row>
     <row r="23" spans="1:31">
-      <c r="A23" s="1"/>
+      <c r="A23" s="5"/>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
       <c r="E23" s="1"/>
       <c r="F23" s="1"/>
-      <c r="G23" s="1">
-        <f>SUM(G3:G22)</f>
-        <v>20424</v>
-      </c>
+      <c r="G23" s="1"/>
       <c r="H23" s="1"/>
       <c r="I23" s="2"/>
       <c r="J23" s="2"/>
@@ -8363,19 +8507,14 @@
       <c r="AE23" s="2"/>
     </row>
     <row r="24" spans="1:31">
-      <c r="A24" s="2"/>
-      <c r="B24" s="2"/>
-      <c r="C24" s="2"/>
-      <c r="D24" s="2"/>
-      <c r="E24" s="2"/>
-      <c r="F24" s="15" t="s">
-        <v>61</v>
-      </c>
-      <c r="G24" s="16">
-        <f>SUM(G22+'装修-自购'!F65)</f>
-        <v>0</v>
-      </c>
-      <c r="H24" s="2"/>
+      <c r="A24" s="5"/>
+      <c r="B24" s="1"/>
+      <c r="C24" s="1"/>
+      <c r="D24" s="1"/>
+      <c r="E24" s="1"/>
+      <c r="F24" s="1"/>
+      <c r="G24" s="1"/>
+      <c r="H24" s="1"/>
       <c r="I24" s="2"/>
       <c r="J24" s="2"/>
       <c r="K24" s="2"/>
@@ -8401,19 +8540,17 @@
       <c r="AE24" s="2"/>
     </row>
     <row r="25" spans="1:31">
-      <c r="A25" s="2"/>
-      <c r="B25" s="2"/>
-      <c r="C25" s="2"/>
-      <c r="D25" s="2"/>
-      <c r="E25" s="2"/>
-      <c r="F25" s="15" t="s">
-        <v>61</v>
-      </c>
-      <c r="G25" s="16">
-        <f>SUM(G23+'装修-自购'!F66)</f>
-        <v>66356.2</v>
-      </c>
-      <c r="H25" s="2"/>
+      <c r="A25" s="1"/>
+      <c r="B25" s="1"/>
+      <c r="C25" s="1"/>
+      <c r="D25" s="1"/>
+      <c r="E25" s="1"/>
+      <c r="F25" s="1"/>
+      <c r="G25" s="1">
+        <f>SUM(G4:G8)</f>
+        <v>25460</v>
+      </c>
+      <c r="H25" s="1"/>
       <c r="I25" s="2"/>
       <c r="J25" s="2"/>
       <c r="K25" s="2"/>
@@ -8444,8 +8581,8 @@
       <c r="C26" s="2"/>
       <c r="D26" s="2"/>
       <c r="E26" s="2"/>
-      <c r="F26" s="2"/>
-      <c r="G26" s="2"/>
+      <c r="F26" s="15"/>
+      <c r="G26" s="16"/>
       <c r="H26" s="2"/>
       <c r="I26" s="2"/>
       <c r="J26" s="2"/>
@@ -8477,8 +8614,13 @@
       <c r="C27" s="2"/>
       <c r="D27" s="2"/>
       <c r="E27" s="2"/>
-      <c r="F27" s="2"/>
-      <c r="G27" s="2"/>
+      <c r="F27" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="G27" s="16">
+        <f>SUM(G25+'装修-自购'!F67)</f>
+        <v>77392.2</v>
+      </c>
       <c r="H27" s="2"/>
       <c r="I27" s="2"/>
       <c r="J27" s="2"/>
@@ -13355,6 +13497,72 @@
       <c r="AD174" s="2"/>
       <c r="AE174" s="2"/>
     </row>
+    <row r="175" spans="1:31">
+      <c r="A175" s="2"/>
+      <c r="B175" s="2"/>
+      <c r="C175" s="2"/>
+      <c r="D175" s="2"/>
+      <c r="E175" s="2"/>
+      <c r="F175" s="2"/>
+      <c r="G175" s="2"/>
+      <c r="H175" s="2"/>
+      <c r="I175" s="2"/>
+      <c r="J175" s="2"/>
+      <c r="K175" s="2"/>
+      <c r="L175" s="2"/>
+      <c r="M175" s="2"/>
+      <c r="N175" s="2"/>
+      <c r="O175" s="2"/>
+      <c r="P175" s="2"/>
+      <c r="Q175" s="2"/>
+      <c r="R175" s="2"/>
+      <c r="S175" s="2"/>
+      <c r="T175" s="2"/>
+      <c r="U175" s="2"/>
+      <c r="V175" s="2"/>
+      <c r="W175" s="2"/>
+      <c r="X175" s="2"/>
+      <c r="Y175" s="2"/>
+      <c r="Z175" s="2"/>
+      <c r="AA175" s="2"/>
+      <c r="AB175" s="2"/>
+      <c r="AC175" s="2"/>
+      <c r="AD175" s="2"/>
+      <c r="AE175" s="2"/>
+    </row>
+    <row r="176" spans="1:31">
+      <c r="A176" s="2"/>
+      <c r="B176" s="2"/>
+      <c r="C176" s="2"/>
+      <c r="D176" s="2"/>
+      <c r="E176" s="2"/>
+      <c r="F176" s="2"/>
+      <c r="G176" s="2"/>
+      <c r="H176" s="2"/>
+      <c r="I176" s="2"/>
+      <c r="J176" s="2"/>
+      <c r="K176" s="2"/>
+      <c r="L176" s="2"/>
+      <c r="M176" s="2"/>
+      <c r="N176" s="2"/>
+      <c r="O176" s="2"/>
+      <c r="P176" s="2"/>
+      <c r="Q176" s="2"/>
+      <c r="R176" s="2"/>
+      <c r="S176" s="2"/>
+      <c r="T176" s="2"/>
+      <c r="U176" s="2"/>
+      <c r="V176" s="2"/>
+      <c r="W176" s="2"/>
+      <c r="X176" s="2"/>
+      <c r="Y176" s="2"/>
+      <c r="Z176" s="2"/>
+      <c r="AA176" s="2"/>
+      <c r="AB176" s="2"/>
+      <c r="AC176" s="2"/>
+      <c r="AD176" s="2"/>
+      <c r="AE176" s="2"/>
+    </row>
   </sheetData>
   <autoFilter ref="A1:H1">
     <filterColumn colId="4"/>
@@ -13368,13 +13576,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AE220"/>
+  <dimension ref="A1:AE221"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B51" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B59" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F66" sqref="F66"/>
+      <selection pane="bottomRight" activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -13552,20 +13760,22 @@
         <v>15</v>
       </c>
       <c r="D4" s="4">
-        <v>200</v>
+        <v>4979</v>
       </c>
       <c r="E4" s="4">
         <v>1</v>
       </c>
       <c r="F4" s="1">
         <f>D4*E4</f>
-        <v>200</v>
+        <v>4979</v>
       </c>
       <c r="G4" s="4" t="s">
         <v>146</v>
       </c>
       <c r="H4" s="4"/>
-      <c r="I4" s="3"/>
+      <c r="I4" s="3" t="s">
+        <v>147</v>
+      </c>
       <c r="J4" s="2"/>
       <c r="K4" s="2"/>
       <c r="L4" s="2"/>
@@ -13603,17 +13813,19 @@
         <v>750</v>
       </c>
       <c r="E5" s="1">
-        <v>1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="F5" s="1">
         <f>D5*E5</f>
-        <v>750</v>
+        <v>825.00000000000011</v>
       </c>
       <c r="G5" s="1" t="s">
         <v>145</v>
       </c>
       <c r="H5" s="1"/>
-      <c r="I5" s="5"/>
+      <c r="I5" s="3" t="s">
+        <v>147</v>
+      </c>
       <c r="J5" s="2"/>
       <c r="K5" s="2"/>
       <c r="L5" s="2"/>
@@ -13661,7 +13873,9 @@
         <v>145</v>
       </c>
       <c r="H6" s="1"/>
-      <c r="I6" s="5"/>
+      <c r="I6" s="3" t="s">
+        <v>147</v>
+      </c>
       <c r="J6" s="2"/>
       <c r="K6" s="2"/>
       <c r="L6" s="2"/>
@@ -13685,7 +13899,7 @@
       <c r="AD6" s="2"/>
       <c r="AE6" s="2"/>
     </row>
-    <row r="7" spans="1:31" ht="27.75">
+    <row r="7" spans="1:31" ht="28.5">
       <c r="A7" s="4" t="s">
         <v>144</v>
       </c>
@@ -13695,14 +13909,23 @@
       <c r="C7" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
+      <c r="D7" s="1">
+        <v>350</v>
+      </c>
+      <c r="E7" s="1">
+        <v>3.48</v>
+      </c>
+      <c r="F7" s="1">
+        <f>D7*E7</f>
+        <v>1218</v>
+      </c>
       <c r="G7" s="1" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="H7" s="1"/>
-      <c r="I7" s="5"/>
+      <c r="I7" s="3" t="s">
+        <v>147</v>
+      </c>
       <c r="J7" s="2"/>
       <c r="K7" s="2"/>
       <c r="L7" s="2"/>
@@ -13726,33 +13949,20 @@
       <c r="AD7" s="2"/>
       <c r="AE7" s="2"/>
     </row>
-    <row r="8" spans="1:31" ht="54">
-      <c r="A8" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D8" s="4">
-        <v>100</v>
-      </c>
-      <c r="E8" s="4">
-        <v>1</v>
-      </c>
+    <row r="8" spans="1:31">
+      <c r="A8" s="4"/>
+      <c r="B8" s="4"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
       <c r="F8" s="1">
-        <f t="shared" ref="F8:F65" si="0">D8*E8</f>
-        <v>100</v>
+        <v>-72</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="H8" s="4"/>
-      <c r="I8" s="3">
-        <v>41230</v>
-      </c>
+        <v>149</v>
+      </c>
+      <c r="H8" s="1"/>
+      <c r="I8" s="3"/>
       <c r="J8" s="2"/>
       <c r="K8" s="2"/>
       <c r="L8" s="2"/>
@@ -13776,32 +13986,32 @@
       <c r="AD8" s="2"/>
       <c r="AE8" s="2"/>
     </row>
-    <row r="9" spans="1:31">
+    <row r="9" spans="1:31" ht="54">
       <c r="A9" s="4" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="B9" s="4" t="s">
         <v>19</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="D9" s="4">
-        <v>249</v>
+        <v>100</v>
       </c>
       <c r="E9" s="4">
         <v>1</v>
       </c>
       <c r="F9" s="1">
-        <f>D9*E9</f>
-        <v>249</v>
+        <f t="shared" ref="F9:F66" si="0">D9*E9</f>
+        <v>100</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>56</v>
+        <v>65</v>
       </c>
       <c r="H9" s="4"/>
       <c r="I9" s="3">
-        <v>41231</v>
+        <v>41230</v>
       </c>
       <c r="J9" s="2"/>
       <c r="K9" s="2"/>
@@ -13826,9 +14036,9 @@
       <c r="AD9" s="2"/>
       <c r="AE9" s="2"/>
     </row>
-    <row r="10" spans="1:31" ht="27">
+    <row r="10" spans="1:31">
       <c r="A10" s="4" t="s">
-        <v>53</v>
+        <v>29</v>
       </c>
       <c r="B10" s="4" t="s">
         <v>19</v>
@@ -13837,20 +14047,22 @@
         <v>21</v>
       </c>
       <c r="D10" s="4">
-        <v>2.2999999999999998</v>
+        <v>249</v>
       </c>
       <c r="E10" s="4">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="F10" s="1">
         <f>D10*E10</f>
-        <v>69</v>
+        <v>249</v>
       </c>
       <c r="G10" s="4" t="s">
         <v>56</v>
       </c>
       <c r="H10" s="4"/>
-      <c r="I10" s="3"/>
+      <c r="I10" s="3">
+        <v>41231</v>
+      </c>
       <c r="J10" s="2"/>
       <c r="K10" s="2"/>
       <c r="L10" s="2"/>
@@ -13874,9 +14086,9 @@
       <c r="AD10" s="2"/>
       <c r="AE10" s="2"/>
     </row>
-    <row r="11" spans="1:31">
+    <row r="11" spans="1:31" ht="27">
       <c r="A11" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B11" s="4" t="s">
         <v>19</v>
@@ -13885,14 +14097,14 @@
         <v>21</v>
       </c>
       <c r="D11" s="4">
-        <v>1</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="E11" s="4">
         <v>30</v>
       </c>
       <c r="F11" s="1">
-        <f t="shared" ref="F11:F12" si="1">D11*E11</f>
-        <v>30</v>
+        <f>D11*E11</f>
+        <v>69</v>
       </c>
       <c r="G11" s="4" t="s">
         <v>56</v>
@@ -13924,7 +14136,7 @@
     </row>
     <row r="12" spans="1:31">
       <c r="A12" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B12" s="4" t="s">
         <v>19</v>
@@ -13933,14 +14145,14 @@
         <v>21</v>
       </c>
       <c r="D12" s="4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E12" s="4">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="F12" s="1">
-        <f t="shared" si="1"/>
-        <v>150</v>
+        <f t="shared" ref="F12:F13" si="1">D12*E12</f>
+        <v>30</v>
       </c>
       <c r="G12" s="4" t="s">
         <v>56</v>
@@ -13970,33 +14182,31 @@
       <c r="AD12" s="2"/>
       <c r="AE12" s="2"/>
     </row>
-    <row r="13" spans="1:31" ht="27.75">
+    <row r="13" spans="1:31">
       <c r="A13" s="4" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D13" s="14">
-        <v>1280</v>
-      </c>
-      <c r="E13" s="14">
-        <v>1</v>
-      </c>
-      <c r="F13" s="14">
-        <f>D13*E13</f>
-        <v>1280</v>
-      </c>
-      <c r="G13" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="H13" s="1"/>
-      <c r="I13" s="3">
-        <v>41237</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="D13" s="4">
+        <v>3</v>
+      </c>
+      <c r="E13" s="4">
+        <v>50</v>
+      </c>
+      <c r="F13" s="1">
+        <f t="shared" si="1"/>
+        <v>150</v>
+      </c>
+      <c r="G13" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="H13" s="4"/>
+      <c r="I13" s="3"/>
       <c r="J13" s="2"/>
       <c r="K13" s="2"/>
       <c r="L13" s="2"/>
@@ -14020,32 +14230,32 @@
       <c r="AD13" s="2"/>
       <c r="AE13" s="2"/>
     </row>
-    <row r="14" spans="1:31">
+    <row r="14" spans="1:31" ht="27.75">
       <c r="A14" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>40</v>
+        <v>58</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>35</v>
       </c>
       <c r="C14" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="D14" s="1">
-        <v>4.2</v>
-      </c>
-      <c r="E14" s="1">
-        <v>176</v>
-      </c>
-      <c r="F14" s="1">
+      <c r="D14" s="14">
+        <v>1280</v>
+      </c>
+      <c r="E14" s="14">
+        <v>1</v>
+      </c>
+      <c r="F14" s="14">
         <f>D14*E14</f>
-        <v>739.2</v>
+        <v>1280</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>89</v>
+        <v>57</v>
       </c>
       <c r="H14" s="1"/>
       <c r="I14" s="3">
-        <v>41253</v>
+        <v>41237</v>
       </c>
       <c r="J14" s="2"/>
       <c r="K14" s="2"/>
@@ -14072,7 +14282,7 @@
     </row>
     <row r="15" spans="1:31">
       <c r="A15" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>40</v>
@@ -14081,14 +14291,14 @@
         <v>15</v>
       </c>
       <c r="D15" s="1">
-        <v>4.5</v>
+        <v>4.2</v>
       </c>
       <c r="E15" s="1">
-        <v>280</v>
+        <v>176</v>
       </c>
       <c r="F15" s="1">
         <f>D15*E15</f>
-        <v>1260</v>
+        <v>739.2</v>
       </c>
       <c r="G15" s="1" t="s">
         <v>89</v>
@@ -14120,29 +14330,33 @@
       <c r="AD15" s="2"/>
       <c r="AE15" s="2"/>
     </row>
-    <row r="16" spans="1:31" ht="27">
+    <row r="16" spans="1:31">
       <c r="A16" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="B16" s="4" t="s">
-        <v>50</v>
+        <v>38</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>40</v>
       </c>
       <c r="C16" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="D16" s="4">
-        <v>50</v>
-      </c>
-      <c r="E16" s="4">
-        <v>1</v>
+      <c r="D16" s="1">
+        <v>4.5</v>
+      </c>
+      <c r="E16" s="1">
+        <v>280</v>
       </c>
       <c r="F16" s="1">
-        <f t="shared" ref="F16:F17" si="2">D16*E16</f>
-        <v>50</v>
-      </c>
-      <c r="G16" s="4"/>
-      <c r="H16" s="4"/>
-      <c r="I16" s="3"/>
+        <f>D16*E16</f>
+        <v>1260</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="H16" s="1"/>
+      <c r="I16" s="3">
+        <v>41253</v>
+      </c>
       <c r="J16" s="2"/>
       <c r="K16" s="2"/>
       <c r="L16" s="2"/>
@@ -14166,32 +14380,28 @@
       <c r="AD16" s="2"/>
       <c r="AE16" s="2"/>
     </row>
-    <row r="17" spans="1:31" ht="108">
+    <row r="17" spans="1:31" ht="27">
       <c r="A17" s="4" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>19</v>
+        <v>50</v>
       </c>
       <c r="C17" s="4" t="s">
         <v>15</v>
       </c>
       <c r="D17" s="4">
-        <v>116</v>
+        <v>50</v>
       </c>
       <c r="E17" s="4">
         <v>1</v>
       </c>
       <c r="F17" s="1">
-        <f t="shared" si="2"/>
-        <v>116</v>
-      </c>
-      <c r="G17" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="H17" s="4" t="s">
-        <v>72</v>
-      </c>
+        <f t="shared" ref="F17:F18" si="2">D17*E17</f>
+        <v>50</v>
+      </c>
+      <c r="G17" s="4"/>
+      <c r="H17" s="4"/>
       <c r="I17" s="3"/>
       <c r="J17" s="2"/>
       <c r="K17" s="2"/>
@@ -14216,9 +14426,9 @@
       <c r="AD17" s="2"/>
       <c r="AE17" s="2"/>
     </row>
-    <row r="18" spans="1:31" ht="27">
+    <row r="18" spans="1:31" ht="108">
       <c r="A18" s="4" t="s">
-        <v>26</v>
+        <v>51</v>
       </c>
       <c r="B18" s="4" t="s">
         <v>19</v>
@@ -14227,17 +14437,17 @@
         <v>15</v>
       </c>
       <c r="D18" s="4">
-        <v>85</v>
+        <v>116</v>
       </c>
       <c r="E18" s="4">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F18" s="1">
-        <f t="shared" si="0"/>
-        <v>340</v>
+        <f t="shared" si="2"/>
+        <v>116</v>
       </c>
       <c r="G18" s="4" t="s">
-        <v>52</v>
+        <v>70</v>
       </c>
       <c r="H18" s="4" t="s">
         <v>72</v>
@@ -14268,7 +14478,7 @@
     </row>
     <row r="19" spans="1:31" ht="27">
       <c r="A19" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B19" s="4" t="s">
         <v>19</v>
@@ -14277,22 +14487,24 @@
         <v>15</v>
       </c>
       <c r="D19" s="4">
-        <v>140</v>
+        <v>85</v>
       </c>
       <c r="E19" s="4">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F19" s="1">
         <f t="shared" si="0"/>
-        <v>840</v>
-      </c>
-      <c r="G19" s="4"/>
+        <v>340</v>
+      </c>
+      <c r="G19" s="4" t="s">
+        <v>52</v>
+      </c>
       <c r="H19" s="4" t="s">
         <v>72</v>
       </c>
       <c r="I19" s="3"/>
       <c r="J19" s="2"/>
-      <c r="K19" s="3"/>
+      <c r="K19" s="2"/>
       <c r="L19" s="2"/>
       <c r="M19" s="2"/>
       <c r="N19" s="2"/>
@@ -14316,7 +14528,7 @@
     </row>
     <row r="20" spans="1:31" ht="27">
       <c r="A20" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B20" s="4" t="s">
         <v>19</v>
@@ -14325,14 +14537,14 @@
         <v>15</v>
       </c>
       <c r="D20" s="4">
-        <v>2.5</v>
+        <v>140</v>
       </c>
       <c r="E20" s="4">
-        <v>50</v>
+        <v>6</v>
       </c>
       <c r="F20" s="1">
         <f t="shared" si="0"/>
-        <v>125</v>
+        <v>840</v>
       </c>
       <c r="G20" s="4"/>
       <c r="H20" s="4" t="s">
@@ -14340,7 +14552,7 @@
       </c>
       <c r="I20" s="3"/>
       <c r="J20" s="2"/>
-      <c r="K20" s="2"/>
+      <c r="K20" s="3"/>
       <c r="L20" s="2"/>
       <c r="M20" s="2"/>
       <c r="N20" s="2"/>
@@ -14364,10 +14576,10 @@
     </row>
     <row r="21" spans="1:31" ht="27">
       <c r="A21" s="4" t="s">
-        <v>68</v>
+        <v>28</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>69</v>
+        <v>19</v>
       </c>
       <c r="C21" s="4" t="s">
         <v>15</v>
@@ -14376,11 +14588,11 @@
         <v>2.5</v>
       </c>
       <c r="E21" s="4">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="F21" s="1">
         <f t="shared" si="0"/>
-        <v>250</v>
+        <v>125</v>
       </c>
       <c r="G21" s="4"/>
       <c r="H21" s="4" t="s">
@@ -14411,17 +14623,26 @@
       <c r="AE21" s="2"/>
     </row>
     <row r="22" spans="1:31" ht="27">
-      <c r="A22" s="4"/>
-      <c r="B22" s="4"/>
-      <c r="C22" s="4"/>
-      <c r="D22" s="4"/>
-      <c r="E22" s="4"/>
+      <c r="A22" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D22" s="4">
+        <v>2.5</v>
+      </c>
+      <c r="E22" s="4">
+        <v>100</v>
+      </c>
       <c r="F22" s="1">
-        <v>-21</v>
-      </c>
-      <c r="G22" s="4" t="s">
-        <v>71</v>
-      </c>
+        <f t="shared" si="0"/>
+        <v>250</v>
+      </c>
+      <c r="G22" s="4"/>
       <c r="H22" s="4" t="s">
         <v>72</v>
       </c>
@@ -14449,76 +14670,69 @@
       <c r="AD22" s="2"/>
       <c r="AE22" s="2"/>
     </row>
-    <row r="23" spans="1:31" s="18" customFormat="1" ht="27">
-      <c r="A23" s="19" t="s">
+    <row r="23" spans="1:31" ht="27">
+      <c r="A23" s="4"/>
+      <c r="B23" s="4"/>
+      <c r="C23" s="4"/>
+      <c r="D23" s="4"/>
+      <c r="E23" s="4"/>
+      <c r="F23" s="1">
+        <v>-21</v>
+      </c>
+      <c r="G23" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="H23" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="I23" s="3"/>
+      <c r="J23" s="2"/>
+      <c r="K23" s="2"/>
+      <c r="L23" s="2"/>
+      <c r="M23" s="2"/>
+      <c r="N23" s="2"/>
+      <c r="O23" s="2"/>
+      <c r="P23" s="2"/>
+      <c r="Q23" s="2"/>
+      <c r="R23" s="2"/>
+      <c r="S23" s="2"/>
+      <c r="T23" s="2"/>
+      <c r="U23" s="2"/>
+      <c r="V23" s="2"/>
+      <c r="W23" s="2"/>
+      <c r="X23" s="2"/>
+      <c r="Y23" s="2"/>
+      <c r="Z23" s="2"/>
+      <c r="AA23" s="2"/>
+      <c r="AB23" s="2"/>
+      <c r="AC23" s="2"/>
+      <c r="AD23" s="2"/>
+      <c r="AE23" s="2"/>
+    </row>
+    <row r="24" spans="1:31" s="18" customFormat="1" ht="27">
+      <c r="A24" s="19" t="s">
         <v>62</v>
       </c>
-      <c r="B23" s="19" t="s">
+      <c r="B24" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="C23" s="19" t="s">
+      <c r="C24" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="D23" s="22">
+      <c r="D24" s="22">
         <v>226</v>
       </c>
-      <c r="E23" s="19">
+      <c r="E24" s="19">
         <v>1</v>
       </c>
-      <c r="F23" s="20">
+      <c r="F24" s="20">
         <f t="shared" si="0"/>
         <v>226</v>
       </c>
-      <c r="G23" s="19"/>
-      <c r="H23" s="19" t="s">
+      <c r="G24" s="19"/>
+      <c r="H24" s="19" t="s">
         <v>73</v>
       </c>
-      <c r="I23" s="21"/>
-      <c r="J23" s="17"/>
-      <c r="K23" s="17"/>
-      <c r="L23" s="17"/>
-      <c r="M23" s="17"/>
-      <c r="N23" s="17"/>
-      <c r="O23" s="17"/>
-      <c r="P23" s="17"/>
-      <c r="Q23" s="17"/>
-      <c r="R23" s="17"/>
-      <c r="S23" s="17"/>
-      <c r="T23" s="17"/>
-      <c r="U23" s="17"/>
-      <c r="V23" s="17"/>
-      <c r="W23" s="17"/>
-      <c r="X23" s="17"/>
-      <c r="Y23" s="17"/>
-      <c r="Z23" s="17"/>
-      <c r="AA23" s="17"/>
-      <c r="AB23" s="17"/>
-      <c r="AC23" s="17"/>
-      <c r="AD23" s="17"/>
-      <c r="AE23" s="17"/>
-    </row>
-    <row r="24" spans="1:31" s="18" customFormat="1" ht="27">
-      <c r="A24" s="19" t="s">
-        <v>86</v>
-      </c>
-      <c r="B24" s="19" t="s">
-        <v>87</v>
-      </c>
-      <c r="C24" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="D24" s="22">
-        <v>180</v>
-      </c>
-      <c r="E24" s="19">
-        <v>1</v>
-      </c>
-      <c r="F24" s="20">
-        <f t="shared" si="0"/>
-        <v>180</v>
-      </c>
-      <c r="G24" s="19"/>
-      <c r="H24" s="19"/>
       <c r="I24" s="21"/>
       <c r="J24" s="17"/>
       <c r="K24" s="17"/>
@@ -14543,55 +14757,55 @@
       <c r="AD24" s="17"/>
       <c r="AE24" s="17"/>
     </row>
-    <row r="25" spans="1:31">
-      <c r="A25" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="B25" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="C25" s="4" t="s">
+    <row r="25" spans="1:31" s="18" customFormat="1" ht="27">
+      <c r="A25" s="19" t="s">
+        <v>86</v>
+      </c>
+      <c r="B25" s="19" t="s">
+        <v>87</v>
+      </c>
+      <c r="C25" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="D25" s="4">
-        <v>6.8</v>
-      </c>
-      <c r="E25" s="4">
-        <v>42</v>
-      </c>
-      <c r="F25" s="1">
-        <f>D25*E25</f>
-        <v>285.59999999999997</v>
-      </c>
-      <c r="G25" s="4"/>
-      <c r="H25" s="4"/>
-      <c r="I25" s="3"/>
-      <c r="J25" s="2"/>
-      <c r="K25" s="2"/>
-      <c r="L25" s="2"/>
-      <c r="M25" s="2"/>
-      <c r="N25" s="2"/>
-      <c r="O25" s="2"/>
-      <c r="P25" s="2"/>
-      <c r="Q25" s="2"/>
-      <c r="R25" s="2"/>
-      <c r="S25" s="2"/>
-      <c r="T25" s="2"/>
-      <c r="U25" s="2"/>
-      <c r="V25" s="2"/>
-      <c r="W25" s="2"/>
-      <c r="X25" s="2"/>
-      <c r="Y25" s="2"/>
-      <c r="Z25" s="2"/>
-      <c r="AA25" s="2"/>
-      <c r="AB25" s="2"/>
-      <c r="AC25" s="2"/>
-      <c r="AD25" s="2"/>
-      <c r="AE25" s="2"/>
+      <c r="D25" s="22">
+        <v>180</v>
+      </c>
+      <c r="E25" s="19">
+        <v>1</v>
+      </c>
+      <c r="F25" s="20">
+        <f t="shared" si="0"/>
+        <v>180</v>
+      </c>
+      <c r="G25" s="19"/>
+      <c r="H25" s="19"/>
+      <c r="I25" s="21"/>
+      <c r="J25" s="17"/>
+      <c r="K25" s="17"/>
+      <c r="L25" s="17"/>
+      <c r="M25" s="17"/>
+      <c r="N25" s="17"/>
+      <c r="O25" s="17"/>
+      <c r="P25" s="17"/>
+      <c r="Q25" s="17"/>
+      <c r="R25" s="17"/>
+      <c r="S25" s="17"/>
+      <c r="T25" s="17"/>
+      <c r="U25" s="17"/>
+      <c r="V25" s="17"/>
+      <c r="W25" s="17"/>
+      <c r="X25" s="17"/>
+      <c r="Y25" s="17"/>
+      <c r="Z25" s="17"/>
+      <c r="AA25" s="17"/>
+      <c r="AB25" s="17"/>
+      <c r="AC25" s="17"/>
+      <c r="AD25" s="17"/>
+      <c r="AE25" s="17"/>
     </row>
     <row r="26" spans="1:31">
       <c r="A26" s="4" t="s">
-        <v>67</v>
+        <v>33</v>
       </c>
       <c r="B26" s="4" t="s">
         <v>19</v>
@@ -14600,19 +14814,16 @@
         <v>15</v>
       </c>
       <c r="D26" s="4">
-        <f>5.98*0.68</f>
-        <v>4.0664000000000007</v>
+        <v>6.8</v>
       </c>
       <c r="E26" s="4">
-        <v>3</v>
+        <v>42</v>
       </c>
       <c r="F26" s="1">
         <f>D26*E26</f>
-        <v>12.199200000000001</v>
-      </c>
-      <c r="G26" s="4" t="s">
-        <v>74</v>
-      </c>
+        <v>285.59999999999997</v>
+      </c>
+      <c r="G26" s="4"/>
       <c r="H26" s="4"/>
       <c r="I26" s="3"/>
       <c r="J26" s="2"/>
@@ -14649,18 +14860,18 @@
         <v>15</v>
       </c>
       <c r="D27" s="4">
-        <f>8.25*0.68</f>
-        <v>5.61</v>
+        <f>5.98*0.68</f>
+        <v>4.0664000000000007</v>
       </c>
       <c r="E27" s="4">
-        <v>30</v>
+        <v>3</v>
       </c>
       <c r="F27" s="1">
-        <f t="shared" ref="F27:F36" si="3">D27*E27</f>
-        <v>168.3</v>
+        <f>D27*E27</f>
+        <v>12.199200000000001</v>
       </c>
       <c r="G27" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H27" s="4"/>
       <c r="I27" s="3"/>
@@ -14698,18 +14909,18 @@
         <v>15</v>
       </c>
       <c r="D28" s="4">
-        <f>7.62*0.68</f>
-        <v>5.1816000000000004</v>
+        <f>8.25*0.68</f>
+        <v>5.61</v>
       </c>
       <c r="E28" s="4">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="F28" s="1">
-        <f t="shared" si="3"/>
-        <v>51.816000000000003</v>
+        <f t="shared" ref="F28:F37" si="3">D28*E28</f>
+        <v>168.3</v>
       </c>
       <c r="G28" s="4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="H28" s="4"/>
       <c r="I28" s="3"/>
@@ -14747,18 +14958,18 @@
         <v>15</v>
       </c>
       <c r="D29" s="4">
-        <f>10.87*0.68</f>
-        <v>7.3916000000000004</v>
+        <f>7.62*0.68</f>
+        <v>5.1816000000000004</v>
       </c>
       <c r="E29" s="4">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="F29" s="1">
         <f t="shared" si="3"/>
-        <v>51.741200000000006</v>
+        <v>51.816000000000003</v>
       </c>
       <c r="G29" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H29" s="4"/>
       <c r="I29" s="3"/>
@@ -14796,18 +15007,18 @@
         <v>15</v>
       </c>
       <c r="D30" s="4">
-        <f>40.97*0.68</f>
-        <v>27.8596</v>
+        <f>10.87*0.68</f>
+        <v>7.3916000000000004</v>
       </c>
       <c r="E30" s="4">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F30" s="1">
         <f t="shared" si="3"/>
-        <v>222.8768</v>
+        <v>51.741200000000006</v>
       </c>
       <c r="G30" s="4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="H30" s="4"/>
       <c r="I30" s="3"/>
@@ -14845,18 +15056,18 @@
         <v>15</v>
       </c>
       <c r="D31" s="4">
-        <f>33.8*0.68</f>
-        <v>22.983999999999998</v>
+        <f>40.97*0.68</f>
+        <v>27.8596</v>
       </c>
       <c r="E31" s="4">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="F31" s="1">
         <f t="shared" si="3"/>
-        <v>45.967999999999996</v>
+        <v>222.8768</v>
       </c>
       <c r="G31" s="4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H31" s="4"/>
       <c r="I31" s="3"/>
@@ -14894,18 +15105,18 @@
         <v>15</v>
       </c>
       <c r="D32" s="4">
-        <f>38.95*0.68</f>
-        <v>26.486000000000004</v>
+        <f>33.8*0.68</f>
+        <v>22.983999999999998</v>
       </c>
       <c r="E32" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F32" s="1">
         <f t="shared" si="3"/>
-        <v>26.486000000000004</v>
+        <v>45.967999999999996</v>
       </c>
       <c r="G32" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="H32" s="4"/>
       <c r="I32" s="3"/>
@@ -14932,7 +15143,7 @@
       <c r="AD32" s="2"/>
       <c r="AE32" s="2"/>
     </row>
-    <row r="33" spans="1:31" ht="15" customHeight="1">
+    <row r="33" spans="1:31">
       <c r="A33" s="4" t="s">
         <v>67</v>
       </c>
@@ -14943,18 +15154,18 @@
         <v>15</v>
       </c>
       <c r="D33" s="4">
-        <f>44.71*0.68</f>
-        <v>30.402800000000003</v>
+        <f>38.95*0.68</f>
+        <v>26.486000000000004</v>
       </c>
       <c r="E33" s="4">
         <v>1</v>
       </c>
       <c r="F33" s="1">
         <f t="shared" si="3"/>
-        <v>30.402800000000003</v>
+        <v>26.486000000000004</v>
       </c>
       <c r="G33" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H33" s="4"/>
       <c r="I33" s="3"/>
@@ -14981,7 +15192,7 @@
       <c r="AD33" s="2"/>
       <c r="AE33" s="2"/>
     </row>
-    <row r="34" spans="1:31">
+    <row r="34" spans="1:31" ht="15" customHeight="1">
       <c r="A34" s="4" t="s">
         <v>67</v>
       </c>
@@ -14992,18 +15203,18 @@
         <v>15</v>
       </c>
       <c r="D34" s="4">
-        <f>2.93*0.68</f>
-        <v>1.9924000000000002</v>
+        <f>44.71*0.68</f>
+        <v>30.402800000000003</v>
       </c>
       <c r="E34" s="4">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="F34" s="1">
         <f t="shared" si="3"/>
-        <v>19.924000000000003</v>
+        <v>30.402800000000003</v>
       </c>
       <c r="G34" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H34" s="4"/>
       <c r="I34" s="3"/>
@@ -15041,18 +15252,18 @@
         <v>15</v>
       </c>
       <c r="D35" s="4">
-        <f>8.7*0.68</f>
-        <v>5.9160000000000004</v>
+        <f>2.93*0.68</f>
+        <v>1.9924000000000002</v>
       </c>
       <c r="E35" s="4">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="F35" s="1">
         <f t="shared" si="3"/>
-        <v>236.64000000000001</v>
+        <v>19.924000000000003</v>
       </c>
       <c r="G35" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H35" s="4"/>
       <c r="I35" s="3"/>
@@ -15090,18 +15301,18 @@
         <v>15</v>
       </c>
       <c r="D36" s="4">
-        <f>0*0.68</f>
-        <v>0</v>
+        <f>8.7*0.68</f>
+        <v>5.9160000000000004</v>
       </c>
       <c r="E36" s="4">
-        <v>3</v>
+        <v>40</v>
       </c>
       <c r="F36" s="1">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>236.64000000000001</v>
       </c>
       <c r="G36" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H36" s="4"/>
       <c r="I36" s="3"/>
@@ -15128,27 +15339,30 @@
       <c r="AD36" s="2"/>
       <c r="AE36" s="2"/>
     </row>
-    <row r="37" spans="1:31" ht="27">
+    <row r="37" spans="1:31">
       <c r="A37" s="4" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>64</v>
+        <v>19</v>
       </c>
       <c r="C37" s="4" t="s">
         <v>15</v>
       </c>
       <c r="D37" s="4">
-        <v>1.1000000000000001</v>
+        <f>0*0.68</f>
+        <v>0</v>
       </c>
       <c r="E37" s="4">
-        <v>200</v>
+        <v>3</v>
       </c>
       <c r="F37" s="1">
-        <f t="shared" si="0"/>
-        <v>220.00000000000003</v>
-      </c>
-      <c r="G37" s="4"/>
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G37" s="4" t="s">
+        <v>84</v>
+      </c>
       <c r="H37" s="4"/>
       <c r="I37" s="3"/>
       <c r="J37" s="2"/>
@@ -15174,22 +15388,29 @@
       <c r="AD37" s="2"/>
       <c r="AE37" s="2"/>
     </row>
-    <row r="38" spans="1:31">
-      <c r="A38" s="4"/>
-      <c r="B38" s="4"/>
-      <c r="C38" s="4"/>
-      <c r="D38" s="23"/>
-      <c r="E38" s="4"/>
+    <row r="38" spans="1:31" ht="27">
+      <c r="A38" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="B38" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="C38" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D38" s="4">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="E38" s="4">
+        <v>200</v>
+      </c>
       <c r="F38" s="1">
-        <v>-151.95400000000001</v>
-      </c>
-      <c r="G38" s="4" t="s">
-        <v>88</v>
-      </c>
+        <f t="shared" si="0"/>
+        <v>220.00000000000003</v>
+      </c>
+      <c r="G38" s="4"/>
       <c r="H38" s="4"/>
-      <c r="I38" s="3">
-        <v>41191</v>
-      </c>
+      <c r="I38" s="3"/>
       <c r="J38" s="2"/>
       <c r="K38" s="2"/>
       <c r="L38" s="2"/>
@@ -15214,29 +15435,20 @@
       <c r="AE38" s="2"/>
     </row>
     <row r="39" spans="1:31">
-      <c r="A39" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="B39" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="C39" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D39">
-        <v>5400</v>
-      </c>
-      <c r="E39" s="4">
-        <v>1</v>
-      </c>
+      <c r="A39" s="4"/>
+      <c r="B39" s="4"/>
+      <c r="C39" s="4"/>
+      <c r="D39" s="23"/>
+      <c r="E39" s="4"/>
       <c r="F39" s="1">
-        <f>D39*E39</f>
-        <v>5400</v>
-      </c>
-      <c r="G39" s="4"/>
+        <v>-151.95400000000001</v>
+      </c>
+      <c r="G39" s="4" t="s">
+        <v>88</v>
+      </c>
       <c r="H39" s="4"/>
       <c r="I39" s="3">
-        <v>41276</v>
+        <v>41191</v>
       </c>
       <c r="J39" s="2"/>
       <c r="K39" s="2"/>
@@ -15261,32 +15473,30 @@
       <c r="AD39" s="2"/>
       <c r="AE39" s="2"/>
     </row>
-    <row r="40" spans="1:31" ht="27">
+    <row r="40" spans="1:31">
       <c r="A40" s="4" t="s">
-        <v>34</v>
+        <v>91</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>19</v>
+        <v>87</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="D40" s="1">
-        <v>930</v>
-      </c>
-      <c r="E40" s="1">
+        <v>15</v>
+      </c>
+      <c r="D40">
+        <v>5400</v>
+      </c>
+      <c r="E40" s="4">
         <v>1</v>
       </c>
       <c r="F40" s="1">
-        <f t="shared" si="0"/>
-        <v>930</v>
-      </c>
-      <c r="G40" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="H40" s="1"/>
+        <f>D40*E40</f>
+        <v>5400</v>
+      </c>
+      <c r="G40" s="4"/>
+      <c r="H40" s="4"/>
       <c r="I40" s="3">
-        <v>41287</v>
+        <v>41276</v>
       </c>
       <c r="J40" s="2"/>
       <c r="K40" s="2"/>
@@ -15311,31 +15521,33 @@
       <c r="AD40" s="2"/>
       <c r="AE40" s="2"/>
     </row>
-    <row r="41" spans="1:31">
+    <row r="41" spans="1:31" ht="27">
       <c r="A41" s="4" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>42</v>
+        <v>19</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="D41" s="1">
-        <v>509</v>
+        <v>930</v>
       </c>
       <c r="E41" s="1">
         <v>1</v>
       </c>
       <c r="F41" s="1">
-        <f>D41*E41</f>
-        <v>509</v>
+        <f t="shared" si="0"/>
+        <v>930</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>92</v>
+        <v>134</v>
       </c>
       <c r="H41" s="1"/>
-      <c r="I41" s="3"/>
+      <c r="I41" s="3">
+        <v>41287</v>
+      </c>
       <c r="J41" s="2"/>
       <c r="K41" s="2"/>
       <c r="L41" s="2"/>
@@ -15359,24 +15571,28 @@
       <c r="AD41" s="2"/>
       <c r="AE41" s="2"/>
     </row>
-    <row r="42" spans="1:31" ht="27">
+    <row r="42" spans="1:31">
       <c r="A42" s="4" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="D42" s="1"/>
-      <c r="E42" s="1"/>
+        <v>94</v>
+      </c>
+      <c r="D42" s="1">
+        <v>509</v>
+      </c>
+      <c r="E42" s="1">
+        <v>1</v>
+      </c>
       <c r="F42" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G42" s="3" t="s">
-        <v>136</v>
+        <f>D42*E42</f>
+        <v>509</v>
+      </c>
+      <c r="G42" s="1" t="s">
+        <v>92</v>
       </c>
       <c r="H42" s="1"/>
       <c r="I42" s="3"/>
@@ -15405,7 +15621,7 @@
     </row>
     <row r="43" spans="1:31" ht="27">
       <c r="A43" s="4" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="B43" s="4" t="s">
         <v>39</v>
@@ -15413,20 +15629,18 @@
       <c r="C43" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="D43" s="1">
-        <v>240</v>
-      </c>
-      <c r="E43" s="1">
-        <v>1</v>
-      </c>
+      <c r="D43" s="1"/>
+      <c r="E43" s="1"/>
       <c r="F43" s="1">
-        <f>D43*E43</f>
-        <v>240</v>
-      </c>
-      <c r="G43" s="1"/>
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G43" s="3" t="s">
+        <v>136</v>
+      </c>
       <c r="H43" s="1"/>
       <c r="I43" s="3">
-        <v>41287</v>
+        <v>41300</v>
       </c>
       <c r="J43" s="2"/>
       <c r="K43" s="2"/>
@@ -15456,20 +15670,20 @@
         <v>43</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>17</v>
+        <v>39</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>135</v>
+        <v>93</v>
       </c>
       <c r="D44" s="1">
-        <v>600</v>
+        <v>240</v>
       </c>
       <c r="E44" s="1">
         <v>1</v>
       </c>
       <c r="F44" s="1">
-        <f t="shared" ref="F44:F51" si="4">D44*E44</f>
-        <v>600</v>
+        <f>D44*E44</f>
+        <v>240</v>
       </c>
       <c r="G44" s="1"/>
       <c r="H44" s="1"/>
@@ -15504,20 +15718,20 @@
         <v>43</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>112</v>
+        <v>17</v>
       </c>
       <c r="C45" s="4" t="s">
         <v>135</v>
       </c>
       <c r="D45" s="1">
-        <v>260</v>
+        <v>600</v>
       </c>
       <c r="E45" s="1">
         <v>1</v>
       </c>
       <c r="F45" s="1">
-        <f t="shared" si="4"/>
-        <v>260</v>
+        <f t="shared" ref="F45:F52" si="4">D45*E45</f>
+        <v>600</v>
       </c>
       <c r="G45" s="1"/>
       <c r="H45" s="1"/>
@@ -15547,29 +15761,31 @@
       <c r="AD45" s="2"/>
       <c r="AE45" s="2"/>
     </row>
-    <row r="46" spans="1:31">
+    <row r="46" spans="1:31" ht="27">
       <c r="A46" s="4" t="s">
-        <v>130</v>
+        <v>43</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>131</v>
+        <v>112</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>94</v>
+        <v>135</v>
       </c>
       <c r="D46" s="1">
-        <v>145</v>
+        <v>260</v>
       </c>
       <c r="E46" s="1">
         <v>1</v>
       </c>
       <c r="F46" s="1">
         <f t="shared" si="4"/>
-        <v>145</v>
+        <v>260</v>
       </c>
       <c r="G46" s="1"/>
       <c r="H46" s="1"/>
-      <c r="I46" s="3"/>
+      <c r="I46" s="3">
+        <v>41287</v>
+      </c>
       <c r="J46" s="2"/>
       <c r="K46" s="2"/>
       <c r="L46" s="2"/>
@@ -15593,31 +15809,29 @@
       <c r="AD46" s="2"/>
       <c r="AE46" s="2"/>
     </row>
-    <row r="47" spans="1:31" ht="27">
+    <row r="47" spans="1:31">
       <c r="A47" s="4" t="s">
-        <v>43</v>
+        <v>130</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>44</v>
+        <v>131</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>113</v>
+        <v>94</v>
       </c>
       <c r="D47" s="1">
-        <v>300</v>
+        <v>145</v>
       </c>
       <c r="E47" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F47" s="1">
         <f t="shared" si="4"/>
-        <v>600</v>
+        <v>145</v>
       </c>
       <c r="G47" s="1"/>
       <c r="H47" s="1"/>
-      <c r="I47" s="3">
-        <v>41287</v>
-      </c>
+      <c r="I47" s="3"/>
       <c r="J47" s="2"/>
       <c r="K47" s="2"/>
       <c r="L47" s="2"/>
@@ -15643,25 +15857,29 @@
     </row>
     <row r="48" spans="1:31" ht="27">
       <c r="A48" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="B48" s="1"/>
+        <v>43</v>
+      </c>
+      <c r="B48" s="4" t="s">
+        <v>44</v>
+      </c>
       <c r="C48" s="4" t="s">
         <v>113</v>
       </c>
       <c r="D48" s="1">
-        <v>750</v>
+        <v>300</v>
       </c>
       <c r="E48" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F48" s="1">
-        <f>D48*E48</f>
-        <v>750</v>
+        <f t="shared" si="4"/>
+        <v>600</v>
       </c>
       <c r="G48" s="1"/>
       <c r="H48" s="1"/>
-      <c r="I48" s="5"/>
+      <c r="I48" s="3">
+        <v>41287</v>
+      </c>
       <c r="J48" s="2"/>
       <c r="K48" s="2"/>
       <c r="L48" s="2"/>
@@ -15685,29 +15903,27 @@
       <c r="AD48" s="2"/>
       <c r="AE48" s="2"/>
     </row>
-    <row r="49" spans="1:31" ht="27.75">
+    <row r="49" spans="1:31" ht="27">
       <c r="A49" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="B49" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="C49" s="1" t="s">
-        <v>96</v>
+        <v>90</v>
+      </c>
+      <c r="B49" s="1"/>
+      <c r="C49" s="4" t="s">
+        <v>113</v>
       </c>
       <c r="D49" s="1">
-        <v>13</v>
+        <v>750</v>
       </c>
       <c r="E49" s="1">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="F49" s="1">
-        <f t="shared" si="4"/>
-        <v>182</v>
+        <f>D49*E49</f>
+        <v>750</v>
       </c>
       <c r="G49" s="1"/>
       <c r="H49" s="1"/>
-      <c r="I49" s="3"/>
+      <c r="I49" s="5"/>
       <c r="J49" s="2"/>
       <c r="K49" s="2"/>
       <c r="L49" s="2"/>
@@ -15733,23 +15949,23 @@
     </row>
     <row r="50" spans="1:31" ht="27.75">
       <c r="A50" s="4" t="s">
-        <v>97</v>
+        <v>45</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="C50" s="1" t="s">
         <v>96</v>
       </c>
       <c r="D50" s="1">
-        <v>75</v>
+        <v>13</v>
       </c>
       <c r="E50" s="1">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="F50" s="1">
         <f t="shared" si="4"/>
-        <v>150</v>
+        <v>182</v>
       </c>
       <c r="G50" s="1"/>
       <c r="H50" s="1"/>
@@ -15779,23 +15995,23 @@
     </row>
     <row r="51" spans="1:31" ht="27.75">
       <c r="A51" s="4" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="D51" s="1">
-        <v>140</v>
+        <v>75</v>
       </c>
       <c r="E51" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F51" s="1">
         <f t="shared" si="4"/>
-        <v>420</v>
+        <v>150</v>
       </c>
       <c r="G51" s="1"/>
       <c r="H51" s="1"/>
@@ -15823,25 +16039,25 @@
       <c r="AD51" s="2"/>
       <c r="AE51" s="2"/>
     </row>
-    <row r="52" spans="1:31" ht="27">
+    <row r="52" spans="1:31" ht="27.75">
       <c r="A52" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="B52" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="C52" s="4" t="s">
-        <v>114</v>
+        <v>100</v>
+      </c>
+      <c r="B52" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>102</v>
       </c>
       <c r="D52" s="1">
-        <v>240</v>
+        <v>140</v>
       </c>
       <c r="E52" s="1">
-        <v>55</v>
+        <v>3</v>
       </c>
       <c r="F52" s="1">
-        <f>D52*E52</f>
-        <v>13200</v>
+        <f t="shared" si="4"/>
+        <v>420</v>
       </c>
       <c r="G52" s="1"/>
       <c r="H52" s="1"/>
@@ -15871,7 +16087,7 @@
     </row>
     <row r="53" spans="1:31" ht="27">
       <c r="A53" s="4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B53" s="1" t="s">
         <v>60</v>
@@ -15880,18 +16096,16 @@
         <v>114</v>
       </c>
       <c r="D53" s="1">
-        <v>40</v>
+        <v>240</v>
       </c>
       <c r="E53" s="1">
         <v>55</v>
       </c>
       <c r="F53" s="1">
         <f>D53*E53</f>
-        <v>2200</v>
-      </c>
-      <c r="G53" s="1" t="s">
-        <v>118</v>
-      </c>
+        <v>13200</v>
+      </c>
+      <c r="G53" s="1"/>
       <c r="H53" s="1"/>
       <c r="I53" s="3"/>
       <c r="J53" s="2"/>
@@ -15917,9 +16131,9 @@
       <c r="AD53" s="2"/>
       <c r="AE53" s="2"/>
     </row>
-    <row r="54" spans="1:31" ht="40.5">
+    <row r="54" spans="1:31" ht="27">
       <c r="A54" s="4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B54" s="1" t="s">
         <v>60</v>
@@ -15928,20 +16142,20 @@
         <v>114</v>
       </c>
       <c r="D54" s="1">
-        <v>3</v>
+        <v>40</v>
       </c>
       <c r="E54" s="1">
         <v>55</v>
       </c>
       <c r="F54" s="1">
-        <f t="shared" si="0"/>
-        <v>165</v>
-      </c>
-      <c r="G54" s="4" t="s">
-        <v>119</v>
+        <f>D54*E54</f>
+        <v>2200</v>
+      </c>
+      <c r="G54" s="1" t="s">
+        <v>118</v>
       </c>
       <c r="H54" s="1"/>
-      <c r="I54" s="5"/>
+      <c r="I54" s="3"/>
       <c r="J54" s="2"/>
       <c r="K54" s="2"/>
       <c r="L54" s="2"/>
@@ -15965,9 +16179,9 @@
       <c r="AD54" s="2"/>
       <c r="AE54" s="2"/>
     </row>
-    <row r="55" spans="1:31" ht="27">
+    <row r="55" spans="1:31" ht="40.5">
       <c r="A55" s="4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B55" s="1" t="s">
         <v>60</v>
@@ -15976,17 +16190,17 @@
         <v>114</v>
       </c>
       <c r="D55" s="1">
-        <v>100</v>
+        <v>3</v>
       </c>
       <c r="E55" s="1">
-        <v>1</v>
+        <v>55</v>
       </c>
       <c r="F55" s="1">
         <f t="shared" si="0"/>
-        <v>100</v>
+        <v>165</v>
       </c>
       <c r="G55" s="4" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="H55" s="1"/>
       <c r="I55" s="5"/>
@@ -16013,28 +16227,28 @@
       <c r="AD55" s="2"/>
       <c r="AE55" s="2"/>
     </row>
-    <row r="56" spans="1:31" ht="55.5">
+    <row r="56" spans="1:31" ht="27">
       <c r="A56" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="B56" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="C56" s="1" t="s">
-        <v>117</v>
+        <v>123</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C56" s="4" t="s">
+        <v>114</v>
       </c>
       <c r="D56" s="1">
-        <v>3000</v>
+        <v>100</v>
       </c>
       <c r="E56" s="1">
         <v>1</v>
       </c>
       <c r="F56" s="1">
         <f t="shared" si="0"/>
-        <v>3000</v>
-      </c>
-      <c r="G56" s="1" t="s">
-        <v>125</v>
+        <v>100</v>
+      </c>
+      <c r="G56" s="4" t="s">
+        <v>124</v>
       </c>
       <c r="H56" s="1"/>
       <c r="I56" s="5"/>
@@ -16061,23 +16275,33 @@
       <c r="AD56" s="2"/>
       <c r="AE56" s="2"/>
     </row>
-    <row r="57" spans="1:31">
+    <row r="57" spans="1:31" ht="55.5">
       <c r="A57" s="4" t="s">
-        <v>126</v>
+        <v>115</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="C57" s="1"/>
-      <c r="D57" s="1"/>
-      <c r="E57" s="1"/>
+        <v>116</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="D57" s="1">
+        <v>3000</v>
+      </c>
+      <c r="E57" s="1">
+        <v>1</v>
+      </c>
       <c r="F57" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G57" s="1"/>
+        <v>3000</v>
+      </c>
+      <c r="G57" s="1" t="s">
+        <v>125</v>
+      </c>
       <c r="H57" s="1"/>
-      <c r="I57" s="5"/>
+      <c r="I57" s="5">
+        <v>41287</v>
+      </c>
       <c r="J57" s="2"/>
       <c r="K57" s="2"/>
       <c r="L57" s="2"/>
@@ -16103,10 +16327,10 @@
     </row>
     <row r="58" spans="1:31">
       <c r="A58" s="4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C58" s="1"/>
       <c r="D58" s="1"/>
@@ -16142,8 +16366,12 @@
       <c r="AE58" s="2"/>
     </row>
     <row r="59" spans="1:31">
-      <c r="A59" s="1"/>
-      <c r="B59" s="1"/>
+      <c r="A59" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="B59" s="4" t="s">
+        <v>129</v>
+      </c>
       <c r="C59" s="1"/>
       <c r="D59" s="1"/>
       <c r="E59" s="1"/>
@@ -16399,13 +16627,13 @@
       <c r="C66" s="1"/>
       <c r="D66" s="1"/>
       <c r="E66" s="1"/>
-      <c r="F66" s="25">
-        <f>SUM(F2:F65)</f>
-        <v>45932.2</v>
+      <c r="F66" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="G66" s="1"/>
       <c r="H66" s="1"/>
-      <c r="I66" s="1"/>
+      <c r="I66" s="5"/>
       <c r="J66" s="2"/>
       <c r="K66" s="2"/>
       <c r="L66" s="2"/>
@@ -16430,15 +16658,18 @@
       <c r="AE66" s="2"/>
     </row>
     <row r="67" spans="1:31">
-      <c r="A67" s="2"/>
-      <c r="B67" s="2"/>
-      <c r="C67" s="2"/>
-      <c r="D67" s="2"/>
-      <c r="E67" s="2"/>
-      <c r="F67" s="2"/>
-      <c r="G67" s="2"/>
-      <c r="H67" s="2"/>
-      <c r="I67" s="2"/>
+      <c r="A67" s="1"/>
+      <c r="B67" s="1"/>
+      <c r="C67" s="1"/>
+      <c r="D67" s="1"/>
+      <c r="E67" s="1"/>
+      <c r="F67" s="24">
+        <f>SUM(F2:F66)</f>
+        <v>51932.2</v>
+      </c>
+      <c r="G67" s="1"/>
+      <c r="H67" s="1"/>
+      <c r="I67" s="1"/>
       <c r="J67" s="2"/>
       <c r="K67" s="2"/>
       <c r="L67" s="2"/>
@@ -21511,6 +21742,39 @@
       <c r="AD220" s="2"/>
       <c r="AE220" s="2"/>
     </row>
+    <row r="221" spans="1:31">
+      <c r="A221" s="2"/>
+      <c r="B221" s="2"/>
+      <c r="C221" s="2"/>
+      <c r="D221" s="2"/>
+      <c r="E221" s="2"/>
+      <c r="F221" s="2"/>
+      <c r="G221" s="2"/>
+      <c r="H221" s="2"/>
+      <c r="I221" s="2"/>
+      <c r="J221" s="2"/>
+      <c r="K221" s="2"/>
+      <c r="L221" s="2"/>
+      <c r="M221" s="2"/>
+      <c r="N221" s="2"/>
+      <c r="O221" s="2"/>
+      <c r="P221" s="2"/>
+      <c r="Q221" s="2"/>
+      <c r="R221" s="2"/>
+      <c r="S221" s="2"/>
+      <c r="T221" s="2"/>
+      <c r="U221" s="2"/>
+      <c r="V221" s="2"/>
+      <c r="W221" s="2"/>
+      <c r="X221" s="2"/>
+      <c r="Y221" s="2"/>
+      <c r="Z221" s="2"/>
+      <c r="AA221" s="2"/>
+      <c r="AB221" s="2"/>
+      <c r="AC221" s="2"/>
+      <c r="AD221" s="2"/>
+      <c r="AE221" s="2"/>
+    </row>
   </sheetData>
   <autoFilter ref="A1:G1">
     <filterColumn colId="3"/>

--- a/.private/房子.xlsx
+++ b/.private/房子.xlsx
@@ -7443,7 +7443,7 @@
   <dimension ref="A1:AE176"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H24" sqref="H24"/>
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -8619,7 +8619,7 @@
       </c>
       <c r="G27" s="16">
         <f>SUM(G25+'装修-自购'!F67)</f>
-        <v>77392.2</v>
+        <v>78787.199999999997</v>
       </c>
       <c r="H27" s="2"/>
       <c r="I27" s="2"/>
@@ -13579,10 +13579,10 @@
   <dimension ref="A1:AE221"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B59" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B56" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="J8" sqref="J8"/>
+      <selection pane="bottomRight" activeCell="F49" sqref="F49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -13666,7 +13666,7 @@
         <v>1</v>
       </c>
       <c r="F2" s="1">
-        <f>D2*E2</f>
+        <f t="shared" ref="F2:F7" si="0">D2*E2</f>
         <v>8350</v>
       </c>
       <c r="G2" s="1" t="s">
@@ -13716,7 +13716,7 @@
         <v>1</v>
       </c>
       <c r="F3" s="1">
-        <f>D3*E3</f>
+        <f t="shared" si="0"/>
         <v>128</v>
       </c>
       <c r="G3" s="1" t="s">
@@ -13766,7 +13766,7 @@
         <v>1</v>
       </c>
       <c r="F4" s="1">
-        <f>D4*E4</f>
+        <f t="shared" si="0"/>
         <v>4979</v>
       </c>
       <c r="G4" s="4" t="s">
@@ -13816,7 +13816,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="F5" s="1">
-        <f>D5*E5</f>
+        <f t="shared" si="0"/>
         <v>825.00000000000011</v>
       </c>
       <c r="G5" s="1" t="s">
@@ -13866,7 +13866,7 @@
         <v>1</v>
       </c>
       <c r="F6" s="1">
-        <f>D6*E6</f>
+        <f t="shared" si="0"/>
         <v>450</v>
       </c>
       <c r="G6" s="1" t="s">
@@ -13916,7 +13916,7 @@
         <v>3.48</v>
       </c>
       <c r="F7" s="1">
-        <f>D7*E7</f>
+        <f t="shared" si="0"/>
         <v>1218</v>
       </c>
       <c r="G7" s="1" t="s">
@@ -14003,7 +14003,7 @@
         <v>1</v>
       </c>
       <c r="F9" s="1">
-        <f t="shared" ref="F9:F66" si="0">D9*E9</f>
+        <f t="shared" ref="F9:F66" si="1">D9*E9</f>
         <v>100</v>
       </c>
       <c r="G9" s="4" t="s">
@@ -14151,7 +14151,7 @@
         <v>30</v>
       </c>
       <c r="F12" s="1">
-        <f t="shared" ref="F12:F13" si="1">D12*E12</f>
+        <f t="shared" ref="F12:F13" si="2">D12*E12</f>
         <v>30</v>
       </c>
       <c r="G12" s="4" t="s">
@@ -14199,7 +14199,7 @@
         <v>50</v>
       </c>
       <c r="F13" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>150</v>
       </c>
       <c r="G13" s="4" t="s">
@@ -14397,7 +14397,7 @@
         <v>1</v>
       </c>
       <c r="F17" s="1">
-        <f t="shared" ref="F17:F18" si="2">D17*E17</f>
+        <f t="shared" ref="F17:F18" si="3">D17*E17</f>
         <v>50</v>
       </c>
       <c r="G17" s="4"/>
@@ -14443,7 +14443,7 @@
         <v>1</v>
       </c>
       <c r="F18" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>116</v>
       </c>
       <c r="G18" s="4" t="s">
@@ -14493,7 +14493,7 @@
         <v>4</v>
       </c>
       <c r="F19" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>340</v>
       </c>
       <c r="G19" s="4" t="s">
@@ -14543,7 +14543,7 @@
         <v>6</v>
       </c>
       <c r="F20" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>840</v>
       </c>
       <c r="G20" s="4"/>
@@ -14591,7 +14591,7 @@
         <v>50</v>
       </c>
       <c r="F21" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>125</v>
       </c>
       <c r="G21" s="4"/>
@@ -14639,7 +14639,7 @@
         <v>100</v>
       </c>
       <c r="F22" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>250</v>
       </c>
       <c r="G22" s="4"/>
@@ -14726,7 +14726,7 @@
         <v>1</v>
       </c>
       <c r="F24" s="20">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>226</v>
       </c>
       <c r="G24" s="19"/>
@@ -14774,7 +14774,7 @@
         <v>1</v>
       </c>
       <c r="F25" s="20">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>180</v>
       </c>
       <c r="G25" s="19"/>
@@ -14916,7 +14916,7 @@
         <v>30</v>
       </c>
       <c r="F28" s="1">
-        <f t="shared" ref="F28:F37" si="3">D28*E28</f>
+        <f t="shared" ref="F28:F37" si="4">D28*E28</f>
         <v>168.3</v>
       </c>
       <c r="G28" s="4" t="s">
@@ -14965,7 +14965,7 @@
         <v>10</v>
       </c>
       <c r="F29" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>51.816000000000003</v>
       </c>
       <c r="G29" s="4" t="s">
@@ -15014,7 +15014,7 @@
         <v>7</v>
       </c>
       <c r="F30" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>51.741200000000006</v>
       </c>
       <c r="G30" s="4" t="s">
@@ -15063,7 +15063,7 @@
         <v>8</v>
       </c>
       <c r="F31" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>222.8768</v>
       </c>
       <c r="G31" s="4" t="s">
@@ -15112,7 +15112,7 @@
         <v>2</v>
       </c>
       <c r="F32" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>45.967999999999996</v>
       </c>
       <c r="G32" s="4" t="s">
@@ -15161,7 +15161,7 @@
         <v>1</v>
       </c>
       <c r="F33" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>26.486000000000004</v>
       </c>
       <c r="G33" s="4" t="s">
@@ -15210,7 +15210,7 @@
         <v>1</v>
       </c>
       <c r="F34" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>30.402800000000003</v>
       </c>
       <c r="G34" s="4" t="s">
@@ -15259,7 +15259,7 @@
         <v>10</v>
       </c>
       <c r="F35" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>19.924000000000003</v>
       </c>
       <c r="G35" s="4" t="s">
@@ -15308,7 +15308,7 @@
         <v>40</v>
       </c>
       <c r="F36" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>236.64000000000001</v>
       </c>
       <c r="G36" s="4" t="s">
@@ -15357,7 +15357,7 @@
         <v>3</v>
       </c>
       <c r="F37" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="G37" s="4" t="s">
@@ -15405,7 +15405,7 @@
         <v>200</v>
       </c>
       <c r="F38" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>220.00000000000003</v>
       </c>
       <c r="G38" s="4"/>
@@ -15538,7 +15538,7 @@
         <v>1</v>
       </c>
       <c r="F41" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>930</v>
       </c>
       <c r="G41" s="1" t="s">
@@ -15629,11 +15629,15 @@
       <c r="C43" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="D43" s="1"/>
-      <c r="E43" s="1"/>
+      <c r="D43" s="1">
+        <v>1400</v>
+      </c>
+      <c r="E43" s="1">
+        <v>1</v>
+      </c>
       <c r="F43" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>1400</v>
       </c>
       <c r="G43" s="3" t="s">
         <v>136</v>
@@ -15730,7 +15734,7 @@
         <v>1</v>
       </c>
       <c r="F45" s="1">
-        <f t="shared" ref="F45:F52" si="4">D45*E45</f>
+        <f t="shared" ref="F45:F52" si="5">D45*E45</f>
         <v>600</v>
       </c>
       <c r="G45" s="1"/>
@@ -15778,7 +15782,7 @@
         <v>1</v>
       </c>
       <c r="F46" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>260</v>
       </c>
       <c r="G46" s="1"/>
@@ -15826,7 +15830,7 @@
         <v>1</v>
       </c>
       <c r="F47" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>145</v>
       </c>
       <c r="G47" s="1"/>
@@ -15872,7 +15876,7 @@
         <v>2</v>
       </c>
       <c r="F48" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>600</v>
       </c>
       <c r="G48" s="1"/>
@@ -15912,14 +15916,14 @@
         <v>113</v>
       </c>
       <c r="D49" s="1">
-        <v>750</v>
+        <v>745</v>
       </c>
       <c r="E49" s="1">
         <v>1</v>
       </c>
       <c r="F49" s="1">
         <f>D49*E49</f>
-        <v>750</v>
+        <v>745</v>
       </c>
       <c r="G49" s="1"/>
       <c r="H49" s="1"/>
@@ -15964,7 +15968,7 @@
         <v>14</v>
       </c>
       <c r="F50" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>182</v>
       </c>
       <c r="G50" s="1"/>
@@ -16010,7 +16014,7 @@
         <v>2</v>
       </c>
       <c r="F51" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>150</v>
       </c>
       <c r="G51" s="1"/>
@@ -16056,7 +16060,7 @@
         <v>3</v>
       </c>
       <c r="F52" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>420</v>
       </c>
       <c r="G52" s="1"/>
@@ -16196,7 +16200,7 @@
         <v>55</v>
       </c>
       <c r="F55" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>165</v>
       </c>
       <c r="G55" s="4" t="s">
@@ -16244,7 +16248,7 @@
         <v>1</v>
       </c>
       <c r="F56" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>100</v>
       </c>
       <c r="G56" s="4" t="s">
@@ -16292,7 +16296,7 @@
         <v>1</v>
       </c>
       <c r="F57" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3000</v>
       </c>
       <c r="G57" s="1" t="s">
@@ -16336,7 +16340,7 @@
       <c r="D58" s="1"/>
       <c r="E58" s="1"/>
       <c r="F58" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G58" s="1"/>
@@ -16376,7 +16380,7 @@
       <c r="D59" s="1"/>
       <c r="E59" s="1"/>
       <c r="F59" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G59" s="1"/>
@@ -16412,7 +16416,7 @@
       <c r="D60" s="1"/>
       <c r="E60" s="1"/>
       <c r="F60" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G60" s="1"/>
@@ -16448,7 +16452,7 @@
       <c r="D61" s="1"/>
       <c r="E61" s="1"/>
       <c r="F61" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G61" s="1"/>
@@ -16484,7 +16488,7 @@
       <c r="D62" s="1"/>
       <c r="E62" s="1"/>
       <c r="F62" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G62" s="1"/>
@@ -16520,7 +16524,7 @@
       <c r="D63" s="1"/>
       <c r="E63" s="1"/>
       <c r="F63" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G63" s="1"/>
@@ -16556,7 +16560,7 @@
       <c r="D64" s="1"/>
       <c r="E64" s="1"/>
       <c r="F64" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G64" s="1"/>
@@ -16592,7 +16596,7 @@
       <c r="D65" s="1"/>
       <c r="E65" s="1"/>
       <c r="F65" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G65" s="1"/>
@@ -16628,7 +16632,7 @@
       <c r="D66" s="1"/>
       <c r="E66" s="1"/>
       <c r="F66" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G66" s="1"/>
@@ -16665,7 +16669,7 @@
       <c r="E67" s="1"/>
       <c r="F67" s="24">
         <f>SUM(F2:F66)</f>
-        <v>51932.2</v>
+        <v>53327.199999999997</v>
       </c>
       <c r="G67" s="1"/>
       <c r="H67" s="1"/>

--- a/.private/房子.xlsx
+++ b/.private/房子.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="30" windowWidth="18180" windowHeight="11730" activeTab="1"/>
+    <workbookView xWindow="480" yWindow="30" windowWidth="18180" windowHeight="11730" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="买房" sheetId="1" r:id="rId1"/>
@@ -1301,32 +1301,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t>4500-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>合同定金</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>100</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>安装阶段</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -1356,6 +1330,52 @@
   </si>
   <si>
     <t>优惠94</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>2013-01-31</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>4500-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>合同定金</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>100</t>
+    </r>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -7442,8 +7462,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AE176"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -7821,7 +7841,7 @@
         <v>4400</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>150</v>
+        <v>158</v>
       </c>
       <c r="I8" s="2"/>
       <c r="J8" s="2"/>
@@ -7933,10 +7953,10 @@
         <v>41293</v>
       </c>
       <c r="B11" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="C11" s="4" t="s">
         <v>154</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>155</v>
       </c>
       <c r="D11" s="1"/>
       <c r="E11" s="1">
@@ -7950,7 +7970,7 @@
         <v>100</v>
       </c>
       <c r="H11" s="4" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="I11" s="2"/>
       <c r="J11" s="2"/>
@@ -7981,10 +8001,10 @@
         <v>41293</v>
       </c>
       <c r="B12" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="C12" s="4" t="s">
         <v>154</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>155</v>
       </c>
       <c r="D12" s="1"/>
       <c r="E12" s="1">
@@ -7998,7 +8018,7 @@
         <v>100</v>
       </c>
       <c r="H12" s="4" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="I12" s="2"/>
       <c r="J12" s="2"/>
@@ -8277,7 +8297,7 @@
         <v>18</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D18" s="1"/>
       <c r="E18" s="1">
@@ -8291,7 +8311,7 @@
         <v>-90</v>
       </c>
       <c r="H18" s="4" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="I18" s="2"/>
       <c r="J18" s="2"/>
@@ -8333,7 +8353,7 @@
         <v>-20</v>
       </c>
       <c r="H19" s="4" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="I19" s="2"/>
       <c r="J19" s="2"/>
@@ -8375,7 +8395,7 @@
         <v>-94</v>
       </c>
       <c r="H20" s="4" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="I20" s="2"/>
       <c r="J20" s="2"/>
@@ -8619,7 +8639,7 @@
       </c>
       <c r="G27" s="16">
         <f>SUM(G25+'装修-自购'!F67)</f>
-        <v>78787.199999999997</v>
+        <v>78784.2</v>
       </c>
       <c r="H27" s="2"/>
       <c r="I27" s="2"/>
@@ -13578,11 +13598,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AE221"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B56" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B44" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F49" sqref="F49"/>
+      <selection pane="bottomRight" activeCell="G48" sqref="G48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -15824,14 +15844,14 @@
         <v>94</v>
       </c>
       <c r="D47" s="1">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="E47" s="1">
         <v>1</v>
       </c>
       <c r="F47" s="1">
-        <f t="shared" si="5"/>
-        <v>145</v>
+        <f>D47*E47</f>
+        <v>142</v>
       </c>
       <c r="G47" s="1"/>
       <c r="H47" s="1"/>
@@ -16669,7 +16689,7 @@
       <c r="E67" s="1"/>
       <c r="F67" s="24">
         <f>SUM(F2:F66)</f>
-        <v>53327.199999999997</v>
+        <v>53324.2</v>
       </c>
       <c r="G67" s="1"/>
       <c r="H67" s="1"/>

--- a/.private/房子.xlsx
+++ b/.private/房子.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="30" windowWidth="18180" windowHeight="11730" activeTab="2"/>
+    <workbookView xWindow="480" yWindow="30" windowWidth="18180" windowHeight="11730" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="买房" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291" uniqueCount="159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="170">
   <si>
     <t>付定金４万，张浦发银行转帐。</t>
   </si>
@@ -1329,10 +1329,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>优惠94</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <r>
       <t>2013-01-31</t>
     </r>
@@ -1376,6 +1372,103 @@
       </rPr>
       <t>100</t>
     </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>窗帘</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>晾衣架</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>纱窗</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>入户插座板</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>优惠64</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>沙发</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>餐桌椅</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>衣柜</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>床</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>鞋柜</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>冰箱</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>洗衣机</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>电视46</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>电视32</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -1599,74 +1692,6 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
 </styleSheet>
 </file>
 
@@ -1678,7 +1703,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="F4F4F4"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -7460,10 +7485,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AE176"/>
+  <dimension ref="A1:AE177"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G26" sqref="G26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -7745,7 +7770,7 @@
         <v>1</v>
       </c>
       <c r="G6" s="1">
-        <f t="shared" ref="G6:G22" si="1">E6*F6</f>
+        <f t="shared" ref="G6:G23" si="1">E6*F6</f>
         <v>5240</v>
       </c>
       <c r="H6" s="4"/>
@@ -7841,7 +7866,7 @@
         <v>4400</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="I8" s="2"/>
       <c r="J8" s="2"/>
@@ -8385,17 +8410,17 @@
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
       <c r="E20" s="1">
-        <v>-94</v>
+        <v>-30</v>
       </c>
       <c r="F20" s="1">
         <v>1</v>
       </c>
       <c r="G20" s="1">
         <f t="shared" si="1"/>
-        <v>-94</v>
+        <v>-30</v>
       </c>
       <c r="H20" s="4" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="I20" s="2"/>
       <c r="J20" s="2"/>
@@ -8426,13 +8451,19 @@
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
-      <c r="E21" s="1"/>
-      <c r="F21" s="1"/>
+      <c r="E21" s="1">
+        <v>-64</v>
+      </c>
+      <c r="F21" s="1">
+        <v>1</v>
+      </c>
       <c r="G21" s="1">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H21" s="1"/>
+        <v>-64</v>
+      </c>
+      <c r="H21" s="4" t="s">
+        <v>162</v>
+      </c>
       <c r="I21" s="2"/>
       <c r="J21" s="2"/>
       <c r="K21" s="2"/>
@@ -8500,7 +8531,10 @@
       <c r="D23" s="1"/>
       <c r="E23" s="1"/>
       <c r="F23" s="1"/>
-      <c r="G23" s="1"/>
+      <c r="G23" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="H23" s="1"/>
       <c r="I23" s="2"/>
       <c r="J23" s="2"/>
@@ -8560,16 +8594,13 @@
       <c r="AE24" s="2"/>
     </row>
     <row r="25" spans="1:31">
-      <c r="A25" s="1"/>
+      <c r="A25" s="5"/>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
       <c r="E25" s="1"/>
       <c r="F25" s="1"/>
-      <c r="G25" s="1">
-        <f>SUM(G4:G8)</f>
-        <v>25460</v>
-      </c>
+      <c r="G25" s="1"/>
       <c r="H25" s="1"/>
       <c r="I25" s="2"/>
       <c r="J25" s="2"/>
@@ -8596,14 +8627,17 @@
       <c r="AE25" s="2"/>
     </row>
     <row r="26" spans="1:31">
-      <c r="A26" s="2"/>
-      <c r="B26" s="2"/>
-      <c r="C26" s="2"/>
-      <c r="D26" s="2"/>
-      <c r="E26" s="2"/>
-      <c r="F26" s="15"/>
-      <c r="G26" s="16"/>
-      <c r="H26" s="2"/>
+      <c r="A26" s="1"/>
+      <c r="B26" s="1"/>
+      <c r="C26" s="1"/>
+      <c r="D26" s="1"/>
+      <c r="E26" s="1"/>
+      <c r="F26" s="1"/>
+      <c r="G26" s="1">
+        <f>SUM(G4:G8)</f>
+        <v>25460</v>
+      </c>
+      <c r="H26" s="1"/>
       <c r="I26" s="2"/>
       <c r="J26" s="2"/>
       <c r="K26" s="2"/>
@@ -8634,13 +8668,8 @@
       <c r="C27" s="2"/>
       <c r="D27" s="2"/>
       <c r="E27" s="2"/>
-      <c r="F27" s="15" t="s">
-        <v>61</v>
-      </c>
-      <c r="G27" s="16">
-        <f>SUM(G25+'装修-自购'!F67)</f>
-        <v>78784.2</v>
-      </c>
+      <c r="F27" s="15"/>
+      <c r="G27" s="16"/>
       <c r="H27" s="2"/>
       <c r="I27" s="2"/>
       <c r="J27" s="2"/>
@@ -8672,8 +8701,13 @@
       <c r="C28" s="2"/>
       <c r="D28" s="2"/>
       <c r="E28" s="2"/>
-      <c r="F28" s="2"/>
-      <c r="G28" s="2"/>
+      <c r="F28" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="G28" s="16">
+        <f>SUM(G26+'装修-自购'!F72)</f>
+        <v>118244.2</v>
+      </c>
       <c r="H28" s="2"/>
       <c r="I28" s="2"/>
       <c r="J28" s="2"/>
@@ -13583,6 +13617,39 @@
       <c r="AD176" s="2"/>
       <c r="AE176" s="2"/>
     </row>
+    <row r="177" spans="1:31">
+      <c r="A177" s="2"/>
+      <c r="B177" s="2"/>
+      <c r="C177" s="2"/>
+      <c r="D177" s="2"/>
+      <c r="E177" s="2"/>
+      <c r="F177" s="2"/>
+      <c r="G177" s="2"/>
+      <c r="H177" s="2"/>
+      <c r="I177" s="2"/>
+      <c r="J177" s="2"/>
+      <c r="K177" s="2"/>
+      <c r="L177" s="2"/>
+      <c r="M177" s="2"/>
+      <c r="N177" s="2"/>
+      <c r="O177" s="2"/>
+      <c r="P177" s="2"/>
+      <c r="Q177" s="2"/>
+      <c r="R177" s="2"/>
+      <c r="S177" s="2"/>
+      <c r="T177" s="2"/>
+      <c r="U177" s="2"/>
+      <c r="V177" s="2"/>
+      <c r="W177" s="2"/>
+      <c r="X177" s="2"/>
+      <c r="Y177" s="2"/>
+      <c r="Z177" s="2"/>
+      <c r="AA177" s="2"/>
+      <c r="AB177" s="2"/>
+      <c r="AC177" s="2"/>
+      <c r="AD177" s="2"/>
+      <c r="AE177" s="2"/>
+    </row>
   </sheetData>
   <autoFilter ref="A1:H1">
     <filterColumn colId="4"/>
@@ -13596,13 +13663,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AE221"/>
+  <dimension ref="A1:AE226"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B44" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B56" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G48" sqref="G48"/>
+      <selection pane="bottomRight" activeCell="D61" sqref="D61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -14023,7 +14090,7 @@
         <v>1</v>
       </c>
       <c r="F9" s="1">
-        <f t="shared" ref="F9:F66" si="1">D9*E9</f>
+        <f t="shared" ref="F9:F71" si="1">D9*E9</f>
         <v>100</v>
       </c>
       <c r="G9" s="4" t="s">
@@ -16357,11 +16424,15 @@
         <v>128</v>
       </c>
       <c r="C58" s="1"/>
-      <c r="D58" s="1"/>
-      <c r="E58" s="1"/>
+      <c r="D58" s="1">
+        <v>2500</v>
+      </c>
+      <c r="E58" s="1">
+        <v>1</v>
+      </c>
       <c r="F58" s="1">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2500</v>
       </c>
       <c r="G58" s="1"/>
       <c r="H58" s="1"/>
@@ -16397,11 +16468,15 @@
         <v>129</v>
       </c>
       <c r="C59" s="1"/>
-      <c r="D59" s="1"/>
-      <c r="E59" s="1"/>
+      <c r="D59" s="1">
+        <v>1400</v>
+      </c>
+      <c r="E59" s="1">
+        <v>1</v>
+      </c>
       <c r="F59" s="1">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1400</v>
       </c>
       <c r="G59" s="1"/>
       <c r="H59" s="1"/>
@@ -16430,14 +16505,20 @@
       <c r="AE59" s="2"/>
     </row>
     <row r="60" spans="1:31">
-      <c r="A60" s="1"/>
+      <c r="A60" s="4" t="s">
+        <v>158</v>
+      </c>
       <c r="B60" s="1"/>
       <c r="C60" s="1"/>
-      <c r="D60" s="1"/>
-      <c r="E60" s="1"/>
+      <c r="D60" s="1">
+        <v>2500</v>
+      </c>
+      <c r="E60" s="1">
+        <v>1</v>
+      </c>
       <c r="F60" s="1">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2500</v>
       </c>
       <c r="G60" s="1"/>
       <c r="H60" s="1"/>
@@ -16466,14 +16547,20 @@
       <c r="AE60" s="2"/>
     </row>
     <row r="61" spans="1:31">
-      <c r="A61" s="1"/>
+      <c r="A61" s="4" t="s">
+        <v>159</v>
+      </c>
       <c r="B61" s="1"/>
       <c r="C61" s="1"/>
-      <c r="D61" s="1"/>
-      <c r="E61" s="1"/>
+      <c r="D61" s="1">
+        <v>1000</v>
+      </c>
+      <c r="E61" s="1">
+        <v>1</v>
+      </c>
       <c r="F61" s="1">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="G61" s="1"/>
       <c r="H61" s="1"/>
@@ -16502,14 +16589,20 @@
       <c r="AE61" s="2"/>
     </row>
     <row r="62" spans="1:31">
-      <c r="A62" s="1"/>
+      <c r="A62" s="4" t="s">
+        <v>160</v>
+      </c>
       <c r="B62" s="1"/>
       <c r="C62" s="1"/>
-      <c r="D62" s="1"/>
-      <c r="E62" s="1"/>
+      <c r="D62" s="1">
+        <v>80</v>
+      </c>
+      <c r="E62" s="1">
+        <v>7</v>
+      </c>
       <c r="F62" s="1">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>560</v>
       </c>
       <c r="G62" s="1"/>
       <c r="H62" s="1"/>
@@ -16538,14 +16631,20 @@
       <c r="AE62" s="2"/>
     </row>
     <row r="63" spans="1:31">
-      <c r="A63" s="1"/>
+      <c r="A63" s="4" t="s">
+        <v>163</v>
+      </c>
       <c r="B63" s="1"/>
       <c r="C63" s="1"/>
-      <c r="D63" s="1"/>
-      <c r="E63" s="1"/>
+      <c r="D63" s="1">
+        <v>4000</v>
+      </c>
+      <c r="E63" s="1">
+        <v>1</v>
+      </c>
       <c r="F63" s="1">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>4000</v>
       </c>
       <c r="G63" s="1"/>
       <c r="H63" s="1"/>
@@ -16574,14 +16673,20 @@
       <c r="AE63" s="2"/>
     </row>
     <row r="64" spans="1:31">
-      <c r="A64" s="1"/>
+      <c r="A64" s="4" t="s">
+        <v>164</v>
+      </c>
       <c r="B64" s="1"/>
       <c r="C64" s="1"/>
-      <c r="D64" s="1"/>
-      <c r="E64" s="1"/>
+      <c r="D64" s="1">
+        <v>2000</v>
+      </c>
+      <c r="E64" s="1">
+        <v>1</v>
+      </c>
       <c r="F64" s="1">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2000</v>
       </c>
       <c r="G64" s="1"/>
       <c r="H64" s="1"/>
@@ -16609,15 +16714,21 @@
       <c r="AD64" s="2"/>
       <c r="AE64" s="2"/>
     </row>
-    <row r="65" spans="1:31">
-      <c r="A65" s="1"/>
+    <row r="65" spans="1:31" ht="28.5">
+      <c r="A65" s="1" t="s">
+        <v>165</v>
+      </c>
       <c r="B65" s="1"/>
       <c r="C65" s="1"/>
-      <c r="D65" s="1"/>
-      <c r="E65" s="1"/>
+      <c r="D65" s="1">
+        <v>13000</v>
+      </c>
+      <c r="E65" s="1">
+        <v>1</v>
+      </c>
       <c r="F65" s="1">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>13000</v>
       </c>
       <c r="G65" s="1"/>
       <c r="H65" s="1"/>
@@ -16646,14 +16757,20 @@
       <c r="AE65" s="2"/>
     </row>
     <row r="66" spans="1:31">
-      <c r="A66" s="1"/>
+      <c r="A66" s="4" t="s">
+        <v>168</v>
+      </c>
       <c r="B66" s="1"/>
       <c r="C66" s="1"/>
-      <c r="D66" s="1"/>
-      <c r="E66" s="1"/>
+      <c r="D66" s="1">
+        <v>4500</v>
+      </c>
+      <c r="E66" s="1">
+        <v>1</v>
+      </c>
       <c r="F66" s="1">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>4500</v>
       </c>
       <c r="G66" s="1"/>
       <c r="H66" s="1"/>
@@ -16682,18 +16799,24 @@
       <c r="AE66" s="2"/>
     </row>
     <row r="67" spans="1:31">
-      <c r="A67" s="1"/>
+      <c r="A67" s="4" t="s">
+        <v>169</v>
+      </c>
       <c r="B67" s="1"/>
       <c r="C67" s="1"/>
-      <c r="D67" s="1"/>
-      <c r="E67" s="1"/>
-      <c r="F67" s="24">
-        <f>SUM(F2:F66)</f>
-        <v>53324.2</v>
+      <c r="D67" s="1">
+        <v>2000</v>
+      </c>
+      <c r="E67" s="1">
+        <v>1</v>
+      </c>
+      <c r="F67" s="1">
+        <f t="shared" si="1"/>
+        <v>2000</v>
       </c>
       <c r="G67" s="1"/>
       <c r="H67" s="1"/>
-      <c r="I67" s="1"/>
+      <c r="I67" s="5"/>
       <c r="J67" s="2"/>
       <c r="K67" s="2"/>
       <c r="L67" s="2"/>
@@ -16718,15 +16841,24 @@
       <c r="AE67" s="2"/>
     </row>
     <row r="68" spans="1:31">
-      <c r="A68" s="2"/>
-      <c r="B68" s="2"/>
-      <c r="C68" s="2"/>
-      <c r="D68" s="2"/>
-      <c r="E68" s="2"/>
-      <c r="F68" s="2"/>
-      <c r="G68" s="2"/>
-      <c r="H68" s="2"/>
-      <c r="I68" s="2"/>
+      <c r="A68" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="B68" s="1"/>
+      <c r="C68" s="1"/>
+      <c r="D68" s="1">
+        <v>3000</v>
+      </c>
+      <c r="E68" s="1">
+        <v>1</v>
+      </c>
+      <c r="F68" s="1">
+        <f t="shared" si="1"/>
+        <v>3000</v>
+      </c>
+      <c r="G68" s="1"/>
+      <c r="H68" s="1"/>
+      <c r="I68" s="5"/>
       <c r="J68" s="2"/>
       <c r="K68" s="2"/>
       <c r="L68" s="2"/>
@@ -16751,15 +16883,24 @@
       <c r="AE68" s="2"/>
     </row>
     <row r="69" spans="1:31">
-      <c r="A69" s="2"/>
-      <c r="B69" s="2"/>
-      <c r="C69" s="2"/>
-      <c r="D69" s="2"/>
-      <c r="E69" s="2"/>
-      <c r="F69" s="2"/>
-      <c r="G69" s="2"/>
-      <c r="H69" s="2"/>
-      <c r="I69" s="2"/>
+      <c r="A69" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="B69" s="1"/>
+      <c r="C69" s="1"/>
+      <c r="D69" s="1">
+        <v>3000</v>
+      </c>
+      <c r="E69" s="1">
+        <v>1</v>
+      </c>
+      <c r="F69" s="1">
+        <f t="shared" si="1"/>
+        <v>3000</v>
+      </c>
+      <c r="G69" s="1"/>
+      <c r="H69" s="1"/>
+      <c r="I69" s="5"/>
       <c r="J69" s="2"/>
       <c r="K69" s="2"/>
       <c r="L69" s="2"/>
@@ -16784,15 +16925,15 @@
       <c r="AE69" s="2"/>
     </row>
     <row r="70" spans="1:31">
-      <c r="A70" s="2"/>
-      <c r="B70" s="2"/>
-      <c r="C70" s="2"/>
-      <c r="D70" s="2"/>
-      <c r="E70" s="2"/>
-      <c r="F70" s="2"/>
-      <c r="G70" s="2"/>
-      <c r="H70" s="2"/>
-      <c r="I70" s="2"/>
+      <c r="A70" s="1"/>
+      <c r="B70" s="1"/>
+      <c r="C70" s="1"/>
+      <c r="D70" s="1"/>
+      <c r="E70" s="1"/>
+      <c r="F70" s="1"/>
+      <c r="G70" s="1"/>
+      <c r="H70" s="1"/>
+      <c r="I70" s="5"/>
       <c r="J70" s="2"/>
       <c r="K70" s="2"/>
       <c r="L70" s="2"/>
@@ -16817,15 +16958,18 @@
       <c r="AE70" s="2"/>
     </row>
     <row r="71" spans="1:31">
-      <c r="A71" s="2"/>
-      <c r="B71" s="2"/>
-      <c r="C71" s="2"/>
-      <c r="D71" s="2"/>
-      <c r="E71" s="2"/>
-      <c r="F71" s="2"/>
-      <c r="G71" s="2"/>
-      <c r="H71" s="2"/>
-      <c r="I71" s="2"/>
+      <c r="A71" s="1"/>
+      <c r="B71" s="1"/>
+      <c r="C71" s="1"/>
+      <c r="D71" s="1"/>
+      <c r="E71" s="1"/>
+      <c r="F71" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G71" s="1"/>
+      <c r="H71" s="1"/>
+      <c r="I71" s="5"/>
       <c r="J71" s="2"/>
       <c r="K71" s="2"/>
       <c r="L71" s="2"/>
@@ -16850,15 +16994,18 @@
       <c r="AE71" s="2"/>
     </row>
     <row r="72" spans="1:31">
-      <c r="A72" s="2"/>
-      <c r="B72" s="2"/>
-      <c r="C72" s="2"/>
-      <c r="D72" s="2"/>
-      <c r="E72" s="2"/>
-      <c r="F72" s="2"/>
-      <c r="G72" s="2"/>
-      <c r="H72" s="2"/>
-      <c r="I72" s="2"/>
+      <c r="A72" s="1"/>
+      <c r="B72" s="1"/>
+      <c r="C72" s="1"/>
+      <c r="D72" s="1"/>
+      <c r="E72" s="1"/>
+      <c r="F72" s="24">
+        <f>SUM(F2:F71)</f>
+        <v>92784.2</v>
+      </c>
+      <c r="G72" s="1"/>
+      <c r="H72" s="1"/>
+      <c r="I72" s="1"/>
       <c r="J72" s="2"/>
       <c r="K72" s="2"/>
       <c r="L72" s="2"/>
@@ -21799,6 +21946,171 @@
       <c r="AD221" s="2"/>
       <c r="AE221" s="2"/>
     </row>
+    <row r="222" spans="1:31">
+      <c r="A222" s="2"/>
+      <c r="B222" s="2"/>
+      <c r="C222" s="2"/>
+      <c r="D222" s="2"/>
+      <c r="E222" s="2"/>
+      <c r="F222" s="2"/>
+      <c r="G222" s="2"/>
+      <c r="H222" s="2"/>
+      <c r="I222" s="2"/>
+      <c r="J222" s="2"/>
+      <c r="K222" s="2"/>
+      <c r="L222" s="2"/>
+      <c r="M222" s="2"/>
+      <c r="N222" s="2"/>
+      <c r="O222" s="2"/>
+      <c r="P222" s="2"/>
+      <c r="Q222" s="2"/>
+      <c r="R222" s="2"/>
+      <c r="S222" s="2"/>
+      <c r="T222" s="2"/>
+      <c r="U222" s="2"/>
+      <c r="V222" s="2"/>
+      <c r="W222" s="2"/>
+      <c r="X222" s="2"/>
+      <c r="Y222" s="2"/>
+      <c r="Z222" s="2"/>
+      <c r="AA222" s="2"/>
+      <c r="AB222" s="2"/>
+      <c r="AC222" s="2"/>
+      <c r="AD222" s="2"/>
+      <c r="AE222" s="2"/>
+    </row>
+    <row r="223" spans="1:31">
+      <c r="A223" s="2"/>
+      <c r="B223" s="2"/>
+      <c r="C223" s="2"/>
+      <c r="D223" s="2"/>
+      <c r="E223" s="2"/>
+      <c r="F223" s="2"/>
+      <c r="G223" s="2"/>
+      <c r="H223" s="2"/>
+      <c r="I223" s="2"/>
+      <c r="J223" s="2"/>
+      <c r="K223" s="2"/>
+      <c r="L223" s="2"/>
+      <c r="M223" s="2"/>
+      <c r="N223" s="2"/>
+      <c r="O223" s="2"/>
+      <c r="P223" s="2"/>
+      <c r="Q223" s="2"/>
+      <c r="R223" s="2"/>
+      <c r="S223" s="2"/>
+      <c r="T223" s="2"/>
+      <c r="U223" s="2"/>
+      <c r="V223" s="2"/>
+      <c r="W223" s="2"/>
+      <c r="X223" s="2"/>
+      <c r="Y223" s="2"/>
+      <c r="Z223" s="2"/>
+      <c r="AA223" s="2"/>
+      <c r="AB223" s="2"/>
+      <c r="AC223" s="2"/>
+      <c r="AD223" s="2"/>
+      <c r="AE223" s="2"/>
+    </row>
+    <row r="224" spans="1:31">
+      <c r="A224" s="2"/>
+      <c r="B224" s="2"/>
+      <c r="C224" s="2"/>
+      <c r="D224" s="2"/>
+      <c r="E224" s="2"/>
+      <c r="F224" s="2"/>
+      <c r="G224" s="2"/>
+      <c r="H224" s="2"/>
+      <c r="I224" s="2"/>
+      <c r="J224" s="2"/>
+      <c r="K224" s="2"/>
+      <c r="L224" s="2"/>
+      <c r="M224" s="2"/>
+      <c r="N224" s="2"/>
+      <c r="O224" s="2"/>
+      <c r="P224" s="2"/>
+      <c r="Q224" s="2"/>
+      <c r="R224" s="2"/>
+      <c r="S224" s="2"/>
+      <c r="T224" s="2"/>
+      <c r="U224" s="2"/>
+      <c r="V224" s="2"/>
+      <c r="W224" s="2"/>
+      <c r="X224" s="2"/>
+      <c r="Y224" s="2"/>
+      <c r="Z224" s="2"/>
+      <c r="AA224" s="2"/>
+      <c r="AB224" s="2"/>
+      <c r="AC224" s="2"/>
+      <c r="AD224" s="2"/>
+      <c r="AE224" s="2"/>
+    </row>
+    <row r="225" spans="1:31">
+      <c r="A225" s="2"/>
+      <c r="B225" s="2"/>
+      <c r="C225" s="2"/>
+      <c r="D225" s="2"/>
+      <c r="E225" s="2"/>
+      <c r="F225" s="2"/>
+      <c r="G225" s="2"/>
+      <c r="H225" s="2"/>
+      <c r="I225" s="2"/>
+      <c r="J225" s="2"/>
+      <c r="K225" s="2"/>
+      <c r="L225" s="2"/>
+      <c r="M225" s="2"/>
+      <c r="N225" s="2"/>
+      <c r="O225" s="2"/>
+      <c r="P225" s="2"/>
+      <c r="Q225" s="2"/>
+      <c r="R225" s="2"/>
+      <c r="S225" s="2"/>
+      <c r="T225" s="2"/>
+      <c r="U225" s="2"/>
+      <c r="V225" s="2"/>
+      <c r="W225" s="2"/>
+      <c r="X225" s="2"/>
+      <c r="Y225" s="2"/>
+      <c r="Z225" s="2"/>
+      <c r="AA225" s="2"/>
+      <c r="AB225" s="2"/>
+      <c r="AC225" s="2"/>
+      <c r="AD225" s="2"/>
+      <c r="AE225" s="2"/>
+    </row>
+    <row r="226" spans="1:31">
+      <c r="A226" s="2"/>
+      <c r="B226" s="2"/>
+      <c r="C226" s="2"/>
+      <c r="D226" s="2"/>
+      <c r="E226" s="2"/>
+      <c r="F226" s="2"/>
+      <c r="G226" s="2"/>
+      <c r="H226" s="2"/>
+      <c r="I226" s="2"/>
+      <c r="J226" s="2"/>
+      <c r="K226" s="2"/>
+      <c r="L226" s="2"/>
+      <c r="M226" s="2"/>
+      <c r="N226" s="2"/>
+      <c r="O226" s="2"/>
+      <c r="P226" s="2"/>
+      <c r="Q226" s="2"/>
+      <c r="R226" s="2"/>
+      <c r="S226" s="2"/>
+      <c r="T226" s="2"/>
+      <c r="U226" s="2"/>
+      <c r="V226" s="2"/>
+      <c r="W226" s="2"/>
+      <c r="X226" s="2"/>
+      <c r="Y226" s="2"/>
+      <c r="Z226" s="2"/>
+      <c r="AA226" s="2"/>
+      <c r="AB226" s="2"/>
+      <c r="AC226" s="2"/>
+      <c r="AD226" s="2"/>
+      <c r="AE226" s="2"/>
+    </row>
   </sheetData>
   <autoFilter ref="A1:G1">
     <filterColumn colId="3"/>

--- a/.private/房子.xlsx
+++ b/.private/房子.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="30" windowWidth="18180" windowHeight="11730" activeTab="1"/>
+    <workbookView xWindow="480" yWindow="30" windowWidth="18180" windowHeight="11730" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="买房" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="170">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="312" uniqueCount="175">
   <si>
     <t>付定金４万，张浦发银行转帐。</t>
   </si>
@@ -1403,6 +1403,69 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
+    <t>冰箱</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>洗衣机</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>电视46</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>电视32</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>镜子</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>鞋柜</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>2013-02-23</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>定</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>丽居园建材市场</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -1451,24 +1514,92 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>鞋柜</t>
+      <t>床头柜</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>电视柜（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>五斗柜</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>化妆台）</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>书桌</t>
     </r>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>冰箱</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>洗衣机</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>电视46</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>电视32</t>
+    <t>苏宁电器川沙店-先锋</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -7487,8 +7618,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AE177"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G26" sqref="G26"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="G28" sqref="G28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -8705,8 +8836,8 @@
         <v>61</v>
       </c>
       <c r="G28" s="16">
-        <f>SUM(G26+'装修-自购'!F72)</f>
-        <v>118244.2</v>
+        <f>SUM(G26+'装修-自购'!F73)</f>
+        <v>115409.2</v>
       </c>
       <c r="H28" s="2"/>
       <c r="I28" s="2"/>
@@ -13663,13 +13794,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AE226"/>
+  <dimension ref="A1:AE227"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B56" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B58" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D61" sqref="D61"/>
+      <selection pane="bottomRight" activeCell="A66" sqref="A66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -14090,7 +14221,7 @@
         <v>1</v>
       </c>
       <c r="F9" s="1">
-        <f t="shared" ref="F9:F71" si="1">D9*E9</f>
+        <f t="shared" ref="F9:F72" si="1">D9*E9</f>
         <v>100</v>
       </c>
       <c r="G9" s="4" t="s">
@@ -16187,14 +16318,14 @@
         <v>114</v>
       </c>
       <c r="D53" s="1">
-        <v>240</v>
+        <v>258</v>
       </c>
       <c r="E53" s="1">
         <v>55</v>
       </c>
       <c r="F53" s="1">
         <f>D53*E53</f>
-        <v>13200</v>
+        <v>14190</v>
       </c>
       <c r="G53" s="1"/>
       <c r="H53" s="1"/>
@@ -16284,11 +16415,11 @@
         <v>3</v>
       </c>
       <c r="E55" s="1">
-        <v>55</v>
+        <v>0</v>
       </c>
       <c r="F55" s="1">
         <f t="shared" si="1"/>
-        <v>165</v>
+        <v>0</v>
       </c>
       <c r="G55" s="4" t="s">
         <v>119</v>
@@ -16416,25 +16547,27 @@
       <c r="AD57" s="2"/>
       <c r="AE57" s="2"/>
     </row>
-    <row r="58" spans="1:31">
+    <row r="58" spans="1:31" ht="27.75">
       <c r="A58" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="B58" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="C58" s="1"/>
+        <v>159</v>
+      </c>
+      <c r="B58" s="1"/>
+      <c r="C58" s="1" t="s">
+        <v>172</v>
+      </c>
       <c r="D58" s="1">
-        <v>2500</v>
+        <v>400</v>
       </c>
       <c r="E58" s="1">
         <v>1</v>
       </c>
       <c r="F58" s="1">
-        <f t="shared" si="1"/>
-        <v>2500</v>
-      </c>
-      <c r="G58" s="1"/>
+        <f>D58*E58</f>
+        <v>400</v>
+      </c>
+      <c r="G58" s="1" t="s">
+        <v>171</v>
+      </c>
       <c r="H58" s="1"/>
       <c r="I58" s="5"/>
       <c r="J58" s="2"/>
@@ -16460,25 +16593,27 @@
       <c r="AD58" s="2"/>
       <c r="AE58" s="2"/>
     </row>
-    <row r="59" spans="1:31">
+    <row r="59" spans="1:31" ht="27.75">
       <c r="A59" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="B59" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="C59" s="1"/>
+        <v>169</v>
+      </c>
+      <c r="B59" s="1"/>
+      <c r="C59" s="1" t="s">
+        <v>172</v>
+      </c>
       <c r="D59" s="1">
-        <v>1400</v>
+        <v>40</v>
       </c>
       <c r="E59" s="1">
         <v>1</v>
       </c>
       <c r="F59" s="1">
-        <f t="shared" si="1"/>
-        <v>1400</v>
-      </c>
-      <c r="G59" s="1"/>
+        <f>D59*E59</f>
+        <v>40</v>
+      </c>
+      <c r="G59" s="1" t="s">
+        <v>171</v>
+      </c>
       <c r="H59" s="1"/>
       <c r="I59" s="5"/>
       <c r="J59" s="2"/>
@@ -16506,21 +16641,26 @@
     </row>
     <row r="60" spans="1:31">
       <c r="A60" s="4" t="s">
-        <v>158</v>
-      </c>
-      <c r="B60" s="1"/>
+        <v>126</v>
+      </c>
+      <c r="B60" s="4" t="s">
+        <v>128</v>
+      </c>
       <c r="C60" s="1"/>
       <c r="D60" s="1">
-        <v>2500</v>
+        <v>1500</v>
       </c>
       <c r="E60" s="1">
         <v>1</v>
       </c>
       <c r="F60" s="1">
-        <f t="shared" si="1"/>
-        <v>2500</v>
-      </c>
-      <c r="G60" s="1"/>
+        <f>D60*E60</f>
+        <v>1500</v>
+      </c>
+      <c r="G60" s="1">
+        <f>1.65*1.8*500</f>
+        <v>1484.9999999999998</v>
+      </c>
       <c r="H60" s="1"/>
       <c r="I60" s="5"/>
       <c r="J60" s="2"/>
@@ -16548,21 +16688,26 @@
     </row>
     <row r="61" spans="1:31">
       <c r="A61" s="4" t="s">
-        <v>159</v>
-      </c>
-      <c r="B61" s="1"/>
+        <v>127</v>
+      </c>
+      <c r="B61" s="4" t="s">
+        <v>129</v>
+      </c>
       <c r="C61" s="1"/>
       <c r="D61" s="1">
-        <v>1000</v>
+        <v>1300</v>
       </c>
       <c r="E61" s="1">
         <v>1</v>
       </c>
       <c r="F61" s="1">
-        <f t="shared" si="1"/>
-        <v>1000</v>
-      </c>
-      <c r="G61" s="1"/>
+        <f>D61*E61</f>
+        <v>1300</v>
+      </c>
+      <c r="G61" s="1">
+        <f>1.95*2.2*300</f>
+        <v>1287</v>
+      </c>
       <c r="H61" s="1"/>
       <c r="I61" s="5"/>
       <c r="J61" s="2"/>
@@ -16590,19 +16735,19 @@
     </row>
     <row r="62" spans="1:31">
       <c r="A62" s="4" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B62" s="1"/>
       <c r="C62" s="1"/>
       <c r="D62" s="1">
-        <v>80</v>
+        <v>1500</v>
       </c>
       <c r="E62" s="1">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="F62" s="1">
-        <f t="shared" si="1"/>
-        <v>560</v>
+        <f>D62*E62</f>
+        <v>1500</v>
       </c>
       <c r="G62" s="1"/>
       <c r="H62" s="1"/>
@@ -16632,19 +16777,19 @@
     </row>
     <row r="63" spans="1:31">
       <c r="A63" s="4" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="B63" s="1"/>
       <c r="C63" s="1"/>
       <c r="D63" s="1">
-        <v>4000</v>
+        <v>80</v>
       </c>
       <c r="E63" s="1">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="F63" s="1">
         <f t="shared" si="1"/>
-        <v>4000</v>
+        <v>560</v>
       </c>
       <c r="G63" s="1"/>
       <c r="H63" s="1"/>
@@ -16674,19 +16819,19 @@
     </row>
     <row r="64" spans="1:31">
       <c r="A64" s="4" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B64" s="1"/>
       <c r="C64" s="1"/>
       <c r="D64" s="1">
-        <v>2000</v>
+        <v>3000</v>
       </c>
       <c r="E64" s="1">
         <v>1</v>
       </c>
       <c r="F64" s="1">
         <f t="shared" si="1"/>
-        <v>2000</v>
+        <v>3000</v>
       </c>
       <c r="G64" s="1"/>
       <c r="H64" s="1"/>
@@ -16714,21 +16859,21 @@
       <c r="AD64" s="2"/>
       <c r="AE64" s="2"/>
     </row>
-    <row r="65" spans="1:31" ht="28.5">
-      <c r="A65" s="1" t="s">
-        <v>165</v>
+    <row r="65" spans="1:31">
+      <c r="A65" s="4" t="s">
+        <v>164</v>
       </c>
       <c r="B65" s="1"/>
       <c r="C65" s="1"/>
       <c r="D65" s="1">
-        <v>13000</v>
+        <v>2500</v>
       </c>
       <c r="E65" s="1">
         <v>1</v>
       </c>
       <c r="F65" s="1">
         <f t="shared" si="1"/>
-        <v>13000</v>
+        <v>2500</v>
       </c>
       <c r="G65" s="1"/>
       <c r="H65" s="1"/>
@@ -16756,21 +16901,21 @@
       <c r="AD65" s="2"/>
       <c r="AE65" s="2"/>
     </row>
-    <row r="66" spans="1:31">
-      <c r="A66" s="4" t="s">
-        <v>168</v>
+    <row r="66" spans="1:31" ht="99">
+      <c r="A66" s="1" t="s">
+        <v>173</v>
       </c>
       <c r="B66" s="1"/>
       <c r="C66" s="1"/>
       <c r="D66" s="1">
-        <v>4500</v>
+        <v>12000</v>
       </c>
       <c r="E66" s="1">
         <v>1</v>
       </c>
       <c r="F66" s="1">
         <f t="shared" si="1"/>
-        <v>4500</v>
+        <v>12000</v>
       </c>
       <c r="G66" s="1"/>
       <c r="H66" s="1"/>
@@ -16800,19 +16945,19 @@
     </row>
     <row r="67" spans="1:31">
       <c r="A67" s="4" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B67" s="1"/>
       <c r="C67" s="1"/>
       <c r="D67" s="1">
-        <v>2000</v>
+        <v>500</v>
       </c>
       <c r="E67" s="1">
         <v>1</v>
       </c>
       <c r="F67" s="1">
         <f t="shared" si="1"/>
-        <v>2000</v>
+        <v>500</v>
       </c>
       <c r="G67" s="1"/>
       <c r="H67" s="1"/>
@@ -16840,21 +16985,23 @@
       <c r="AD67" s="2"/>
       <c r="AE67" s="2"/>
     </row>
-    <row r="68" spans="1:31">
+    <row r="68" spans="1:31" ht="27">
       <c r="A68" s="4" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B68" s="1"/>
-      <c r="C68" s="1"/>
+      <c r="C68" s="4" t="s">
+        <v>174</v>
+      </c>
       <c r="D68" s="1">
-        <v>3000</v>
+        <v>4500</v>
       </c>
       <c r="E68" s="1">
         <v>1</v>
       </c>
       <c r="F68" s="1">
         <f t="shared" si="1"/>
-        <v>3000</v>
+        <v>4500</v>
       </c>
       <c r="G68" s="1"/>
       <c r="H68" s="1"/>
@@ -16882,21 +17029,23 @@
       <c r="AD68" s="2"/>
       <c r="AE68" s="2"/>
     </row>
-    <row r="69" spans="1:31">
+    <row r="69" spans="1:31" ht="27">
       <c r="A69" s="4" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B69" s="1"/>
-      <c r="C69" s="1"/>
+      <c r="C69" s="4" t="s">
+        <v>174</v>
+      </c>
       <c r="D69" s="1">
-        <v>3000</v>
+        <v>2000</v>
       </c>
       <c r="E69" s="1">
         <v>1</v>
       </c>
       <c r="F69" s="1">
         <f t="shared" si="1"/>
-        <v>3000</v>
+        <v>2000</v>
       </c>
       <c r="G69" s="1"/>
       <c r="H69" s="1"/>
@@ -16924,13 +17073,24 @@
       <c r="AD69" s="2"/>
       <c r="AE69" s="2"/>
     </row>
-    <row r="70" spans="1:31">
-      <c r="A70" s="1"/>
+    <row r="70" spans="1:31" ht="27">
+      <c r="A70" s="4" t="s">
+        <v>165</v>
+      </c>
       <c r="B70" s="1"/>
-      <c r="C70" s="1"/>
-      <c r="D70" s="1"/>
-      <c r="E70" s="1"/>
-      <c r="F70" s="1"/>
+      <c r="C70" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="D70" s="1">
+        <v>3000</v>
+      </c>
+      <c r="E70" s="1">
+        <v>1</v>
+      </c>
+      <c r="F70" s="1">
+        <f t="shared" si="1"/>
+        <v>3000</v>
+      </c>
       <c r="G70" s="1"/>
       <c r="H70" s="1"/>
       <c r="I70" s="5"/>
@@ -16957,15 +17117,23 @@
       <c r="AD70" s="2"/>
       <c r="AE70" s="2"/>
     </row>
-    <row r="71" spans="1:31">
-      <c r="A71" s="1"/>
+    <row r="71" spans="1:31" ht="27">
+      <c r="A71" s="4" t="s">
+        <v>166</v>
+      </c>
       <c r="B71" s="1"/>
-      <c r="C71" s="1"/>
-      <c r="D71" s="1"/>
-      <c r="E71" s="1"/>
+      <c r="C71" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="D71" s="1">
+        <v>3000</v>
+      </c>
+      <c r="E71" s="1">
+        <v>1</v>
+      </c>
       <c r="F71" s="1">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>3000</v>
       </c>
       <c r="G71" s="1"/>
       <c r="H71" s="1"/>
@@ -16999,13 +17167,13 @@
       <c r="C72" s="1"/>
       <c r="D72" s="1"/>
       <c r="E72" s="1"/>
-      <c r="F72" s="24">
-        <f>SUM(F2:F71)</f>
-        <v>92784.2</v>
+      <c r="F72" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="G72" s="1"/>
       <c r="H72" s="1"/>
-      <c r="I72" s="1"/>
+      <c r="I72" s="5"/>
       <c r="J72" s="2"/>
       <c r="K72" s="2"/>
       <c r="L72" s="2"/>
@@ -17030,15 +17198,18 @@
       <c r="AE72" s="2"/>
     </row>
     <row r="73" spans="1:31">
-      <c r="A73" s="2"/>
-      <c r="B73" s="2"/>
-      <c r="C73" s="2"/>
-      <c r="D73" s="2"/>
-      <c r="E73" s="2"/>
-      <c r="F73" s="2"/>
-      <c r="G73" s="2"/>
-      <c r="H73" s="2"/>
-      <c r="I73" s="2"/>
+      <c r="A73" s="1"/>
+      <c r="B73" s="1"/>
+      <c r="C73" s="1"/>
+      <c r="D73" s="1"/>
+      <c r="E73" s="1"/>
+      <c r="F73" s="24">
+        <f>SUM(F2:F72)</f>
+        <v>89949.2</v>
+      </c>
+      <c r="G73" s="1"/>
+      <c r="H73" s="1"/>
+      <c r="I73" s="1"/>
       <c r="J73" s="2"/>
       <c r="K73" s="2"/>
       <c r="L73" s="2"/>
@@ -22111,6 +22282,39 @@
       <c r="AD226" s="2"/>
       <c r="AE226" s="2"/>
     </row>
+    <row r="227" spans="1:31">
+      <c r="A227" s="2"/>
+      <c r="B227" s="2"/>
+      <c r="C227" s="2"/>
+      <c r="D227" s="2"/>
+      <c r="E227" s="2"/>
+      <c r="F227" s="2"/>
+      <c r="G227" s="2"/>
+      <c r="H227" s="2"/>
+      <c r="I227" s="2"/>
+      <c r="J227" s="2"/>
+      <c r="K227" s="2"/>
+      <c r="L227" s="2"/>
+      <c r="M227" s="2"/>
+      <c r="N227" s="2"/>
+      <c r="O227" s="2"/>
+      <c r="P227" s="2"/>
+      <c r="Q227" s="2"/>
+      <c r="R227" s="2"/>
+      <c r="S227" s="2"/>
+      <c r="T227" s="2"/>
+      <c r="U227" s="2"/>
+      <c r="V227" s="2"/>
+      <c r="W227" s="2"/>
+      <c r="X227" s="2"/>
+      <c r="Y227" s="2"/>
+      <c r="Z227" s="2"/>
+      <c r="AA227" s="2"/>
+      <c r="AB227" s="2"/>
+      <c r="AC227" s="2"/>
+      <c r="AD227" s="2"/>
+      <c r="AE227" s="2"/>
+    </row>
   </sheetData>
   <autoFilter ref="A1:G1">
     <filterColumn colId="3"/>

--- a/.private/房子.xlsx
+++ b/.private/房子.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="312" uniqueCount="175">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="314" uniqueCount="177">
   <si>
     <t>付定金４万，张浦发银行转帐。</t>
   </si>
@@ -1395,10 +1395,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>沙发</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>餐桌椅</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -1600,6 +1596,18 @@
   </si>
   <si>
     <t>苏宁电器川沙店-先锋</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>客厅电视柜</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>客厅沙发</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>客厅条几</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -7619,7 +7627,7 @@
   <dimension ref="A1:AE177"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="G28" sqref="G28"/>
+      <selection activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -8836,8 +8844,8 @@
         <v>61</v>
       </c>
       <c r="G28" s="16">
-        <f>SUM(G26+'装修-自购'!F73)</f>
-        <v>115409.2</v>
+        <f>SUM(G26+'装修-自购'!F75)</f>
+        <v>117749.2</v>
       </c>
       <c r="H28" s="2"/>
       <c r="I28" s="2"/>
@@ -13794,13 +13802,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AE227"/>
+  <dimension ref="A1:AE229"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B58" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B61" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A66" sqref="A66"/>
+      <selection pane="bottomRight" activeCell="C65" sqref="C65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -14221,7 +14229,7 @@
         <v>1</v>
       </c>
       <c r="F9" s="1">
-        <f t="shared" ref="F9:F72" si="1">D9*E9</f>
+        <f t="shared" ref="F9:F74" si="1">D9*E9</f>
         <v>100</v>
       </c>
       <c r="G9" s="4" t="s">
@@ -16553,7 +16561,7 @@
       </c>
       <c r="B58" s="1"/>
       <c r="C58" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D58" s="1">
         <v>400</v>
@@ -16566,7 +16574,7 @@
         <v>400</v>
       </c>
       <c r="G58" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="H58" s="1"/>
       <c r="I58" s="5"/>
@@ -16595,11 +16603,11 @@
     </row>
     <row r="59" spans="1:31" ht="27.75">
       <c r="A59" s="4" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B59" s="1"/>
       <c r="C59" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D59" s="1">
         <v>40</v>
@@ -16612,7 +16620,7 @@
         <v>40</v>
       </c>
       <c r="G59" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="H59" s="1"/>
       <c r="I59" s="5"/>
@@ -16782,14 +16790,14 @@
       <c r="B63" s="1"/>
       <c r="C63" s="1"/>
       <c r="D63" s="1">
-        <v>80</v>
+        <v>400</v>
       </c>
       <c r="E63" s="1">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="F63" s="1">
         <f t="shared" si="1"/>
-        <v>560</v>
+        <v>400</v>
       </c>
       <c r="G63" s="1"/>
       <c r="H63" s="1"/>
@@ -16824,14 +16832,14 @@
       <c r="B64" s="1"/>
       <c r="C64" s="1"/>
       <c r="D64" s="1">
-        <v>3000</v>
+        <v>2500</v>
       </c>
       <c r="E64" s="1">
         <v>1</v>
       </c>
       <c r="F64" s="1">
         <f t="shared" si="1"/>
-        <v>3000</v>
+        <v>2500</v>
       </c>
       <c r="G64" s="1"/>
       <c r="H64" s="1"/>
@@ -16859,21 +16867,21 @@
       <c r="AD64" s="2"/>
       <c r="AE64" s="2"/>
     </row>
-    <row r="65" spans="1:31">
-      <c r="A65" s="4" t="s">
-        <v>164</v>
+    <row r="65" spans="1:31" ht="99">
+      <c r="A65" s="1" t="s">
+        <v>172</v>
       </c>
       <c r="B65" s="1"/>
       <c r="C65" s="1"/>
       <c r="D65" s="1">
-        <v>2500</v>
+        <v>12000</v>
       </c>
       <c r="E65" s="1">
         <v>1</v>
       </c>
       <c r="F65" s="1">
         <f t="shared" si="1"/>
-        <v>2500</v>
+        <v>12000</v>
       </c>
       <c r="G65" s="1"/>
       <c r="H65" s="1"/>
@@ -16901,21 +16909,21 @@
       <c r="AD65" s="2"/>
       <c r="AE65" s="2"/>
     </row>
-    <row r="66" spans="1:31" ht="99">
-      <c r="A66" s="1" t="s">
-        <v>173</v>
+    <row r="66" spans="1:31" ht="27">
+      <c r="A66" s="4" t="s">
+        <v>174</v>
       </c>
       <c r="B66" s="1"/>
       <c r="C66" s="1"/>
       <c r="D66" s="1">
-        <v>12000</v>
+        <v>2000</v>
       </c>
       <c r="E66" s="1">
         <v>1</v>
       </c>
       <c r="F66" s="1">
         <f t="shared" si="1"/>
-        <v>12000</v>
+        <v>2000</v>
       </c>
       <c r="G66" s="1"/>
       <c r="H66" s="1"/>
@@ -16945,19 +16953,19 @@
     </row>
     <row r="67" spans="1:31">
       <c r="A67" s="4" t="s">
-        <v>170</v>
+        <v>176</v>
       </c>
       <c r="B67" s="1"/>
       <c r="C67" s="1"/>
       <c r="D67" s="1">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="E67" s="1">
         <v>1</v>
       </c>
       <c r="F67" s="1">
         <f t="shared" si="1"/>
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="G67" s="1"/>
       <c r="H67" s="1"/>
@@ -16985,23 +16993,21 @@
       <c r="AD67" s="2"/>
       <c r="AE67" s="2"/>
     </row>
-    <row r="68" spans="1:31" ht="27">
+    <row r="68" spans="1:31">
       <c r="A68" s="4" t="s">
-        <v>167</v>
+        <v>175</v>
       </c>
       <c r="B68" s="1"/>
-      <c r="C68" s="4" t="s">
-        <v>174</v>
-      </c>
+      <c r="C68" s="1"/>
       <c r="D68" s="1">
-        <v>4500</v>
+        <v>2500</v>
       </c>
       <c r="E68" s="1">
         <v>1</v>
       </c>
       <c r="F68" s="1">
         <f t="shared" si="1"/>
-        <v>4500</v>
+        <v>2500</v>
       </c>
       <c r="G68" s="1"/>
       <c r="H68" s="1"/>
@@ -17029,23 +17035,21 @@
       <c r="AD68" s="2"/>
       <c r="AE68" s="2"/>
     </row>
-    <row r="69" spans="1:31" ht="27">
+    <row r="69" spans="1:31">
       <c r="A69" s="4" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B69" s="1"/>
-      <c r="C69" s="4" t="s">
-        <v>174</v>
-      </c>
+      <c r="C69" s="1"/>
       <c r="D69" s="1">
-        <v>2000</v>
+        <v>500</v>
       </c>
       <c r="E69" s="1">
         <v>1</v>
       </c>
       <c r="F69" s="1">
         <f t="shared" si="1"/>
-        <v>2000</v>
+        <v>500</v>
       </c>
       <c r="G69" s="1"/>
       <c r="H69" s="1"/>
@@ -17075,21 +17079,21 @@
     </row>
     <row r="70" spans="1:31" ht="27">
       <c r="A70" s="4" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B70" s="1"/>
       <c r="C70" s="4" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D70" s="1">
-        <v>3000</v>
+        <v>4500</v>
       </c>
       <c r="E70" s="1">
         <v>1</v>
       </c>
       <c r="F70" s="1">
         <f t="shared" si="1"/>
-        <v>3000</v>
+        <v>4500</v>
       </c>
       <c r="G70" s="1"/>
       <c r="H70" s="1"/>
@@ -17119,21 +17123,21 @@
     </row>
     <row r="71" spans="1:31" ht="27">
       <c r="A71" s="4" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B71" s="1"/>
       <c r="C71" s="4" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D71" s="1">
-        <v>3000</v>
+        <v>2000</v>
       </c>
       <c r="E71" s="1">
         <v>1</v>
       </c>
       <c r="F71" s="1">
         <f t="shared" si="1"/>
-        <v>3000</v>
+        <v>2000</v>
       </c>
       <c r="G71" s="1"/>
       <c r="H71" s="1"/>
@@ -17161,15 +17165,23 @@
       <c r="AD71" s="2"/>
       <c r="AE71" s="2"/>
     </row>
-    <row r="72" spans="1:31">
-      <c r="A72" s="1"/>
+    <row r="72" spans="1:31" ht="27">
+      <c r="A72" s="4" t="s">
+        <v>164</v>
+      </c>
       <c r="B72" s="1"/>
-      <c r="C72" s="1"/>
-      <c r="D72" s="1"/>
-      <c r="E72" s="1"/>
+      <c r="C72" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="D72" s="1">
+        <v>3000</v>
+      </c>
+      <c r="E72" s="1">
+        <v>1</v>
+      </c>
       <c r="F72" s="1">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>3000</v>
       </c>
       <c r="G72" s="1"/>
       <c r="H72" s="1"/>
@@ -17197,19 +17209,27 @@
       <c r="AD72" s="2"/>
       <c r="AE72" s="2"/>
     </row>
-    <row r="73" spans="1:31">
-      <c r="A73" s="1"/>
+    <row r="73" spans="1:31" ht="27">
+      <c r="A73" s="4" t="s">
+        <v>165</v>
+      </c>
       <c r="B73" s="1"/>
-      <c r="C73" s="1"/>
-      <c r="D73" s="1"/>
-      <c r="E73" s="1"/>
-      <c r="F73" s="24">
-        <f>SUM(F2:F72)</f>
-        <v>89949.2</v>
+      <c r="C73" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="D73" s="1">
+        <v>3000</v>
+      </c>
+      <c r="E73" s="1">
+        <v>1</v>
+      </c>
+      <c r="F73" s="1">
+        <f t="shared" si="1"/>
+        <v>3000</v>
       </c>
       <c r="G73" s="1"/>
       <c r="H73" s="1"/>
-      <c r="I73" s="1"/>
+      <c r="I73" s="5"/>
       <c r="J73" s="2"/>
       <c r="K73" s="2"/>
       <c r="L73" s="2"/>
@@ -17234,15 +17254,18 @@
       <c r="AE73" s="2"/>
     </row>
     <row r="74" spans="1:31">
-      <c r="A74" s="2"/>
-      <c r="B74" s="2"/>
-      <c r="C74" s="2"/>
-      <c r="D74" s="2"/>
-      <c r="E74" s="2"/>
-      <c r="F74" s="2"/>
-      <c r="G74" s="2"/>
-      <c r="H74" s="2"/>
-      <c r="I74" s="2"/>
+      <c r="A74" s="1"/>
+      <c r="B74" s="1"/>
+      <c r="C74" s="1"/>
+      <c r="D74" s="1"/>
+      <c r="E74" s="1"/>
+      <c r="F74" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G74" s="1"/>
+      <c r="H74" s="1"/>
+      <c r="I74" s="5"/>
       <c r="J74" s="2"/>
       <c r="K74" s="2"/>
       <c r="L74" s="2"/>
@@ -17267,15 +17290,18 @@
       <c r="AE74" s="2"/>
     </row>
     <row r="75" spans="1:31">
-      <c r="A75" s="2"/>
-      <c r="B75" s="2"/>
-      <c r="C75" s="2"/>
-      <c r="D75" s="2"/>
-      <c r="E75" s="2"/>
-      <c r="F75" s="2"/>
-      <c r="G75" s="2"/>
-      <c r="H75" s="2"/>
-      <c r="I75" s="2"/>
+      <c r="A75" s="1"/>
+      <c r="B75" s="1"/>
+      <c r="C75" s="1"/>
+      <c r="D75" s="1"/>
+      <c r="E75" s="1"/>
+      <c r="F75" s="24">
+        <f>SUM(F2:F74)</f>
+        <v>92289.2</v>
+      </c>
+      <c r="G75" s="1"/>
+      <c r="H75" s="1"/>
+      <c r="I75" s="1"/>
       <c r="J75" s="2"/>
       <c r="K75" s="2"/>
       <c r="L75" s="2"/>
@@ -22315,6 +22341,72 @@
       <c r="AD227" s="2"/>
       <c r="AE227" s="2"/>
     </row>
+    <row r="228" spans="1:31">
+      <c r="A228" s="2"/>
+      <c r="B228" s="2"/>
+      <c r="C228" s="2"/>
+      <c r="D228" s="2"/>
+      <c r="E228" s="2"/>
+      <c r="F228" s="2"/>
+      <c r="G228" s="2"/>
+      <c r="H228" s="2"/>
+      <c r="I228" s="2"/>
+      <c r="J228" s="2"/>
+      <c r="K228" s="2"/>
+      <c r="L228" s="2"/>
+      <c r="M228" s="2"/>
+      <c r="N228" s="2"/>
+      <c r="O228" s="2"/>
+      <c r="P228" s="2"/>
+      <c r="Q228" s="2"/>
+      <c r="R228" s="2"/>
+      <c r="S228" s="2"/>
+      <c r="T228" s="2"/>
+      <c r="U228" s="2"/>
+      <c r="V228" s="2"/>
+      <c r="W228" s="2"/>
+      <c r="X228" s="2"/>
+      <c r="Y228" s="2"/>
+      <c r="Z228" s="2"/>
+      <c r="AA228" s="2"/>
+      <c r="AB228" s="2"/>
+      <c r="AC228" s="2"/>
+      <c r="AD228" s="2"/>
+      <c r="AE228" s="2"/>
+    </row>
+    <row r="229" spans="1:31">
+      <c r="A229" s="2"/>
+      <c r="B229" s="2"/>
+      <c r="C229" s="2"/>
+      <c r="D229" s="2"/>
+      <c r="E229" s="2"/>
+      <c r="F229" s="2"/>
+      <c r="G229" s="2"/>
+      <c r="H229" s="2"/>
+      <c r="I229" s="2"/>
+      <c r="J229" s="2"/>
+      <c r="K229" s="2"/>
+      <c r="L229" s="2"/>
+      <c r="M229" s="2"/>
+      <c r="N229" s="2"/>
+      <c r="O229" s="2"/>
+      <c r="P229" s="2"/>
+      <c r="Q229" s="2"/>
+      <c r="R229" s="2"/>
+      <c r="S229" s="2"/>
+      <c r="T229" s="2"/>
+      <c r="U229" s="2"/>
+      <c r="V229" s="2"/>
+      <c r="W229" s="2"/>
+      <c r="X229" s="2"/>
+      <c r="Y229" s="2"/>
+      <c r="Z229" s="2"/>
+      <c r="AA229" s="2"/>
+      <c r="AB229" s="2"/>
+      <c r="AC229" s="2"/>
+      <c r="AD229" s="2"/>
+      <c r="AE229" s="2"/>
+    </row>
   </sheetData>
   <autoFilter ref="A1:G1">
     <filterColumn colId="3"/>

--- a/.private/房子.xlsx
+++ b/.private/房子.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="314" uniqueCount="177">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="316" uniqueCount="179">
   <si>
     <t>付定金４万，张浦发银行转帐。</t>
   </si>
@@ -993,10 +993,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>地板-樱桃木踢脚线</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>地板-压条</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -1329,52 +1325,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t>2013-01-31</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>：</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>4500-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>合同定金</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>100</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>窗帘</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -1459,6 +1409,10 @@
       </rPr>
       <t>-</t>
     </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>苏宁电器川沙店-先锋</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -1590,24 +1544,70 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>书桌</t>
+      <t>书桌，客厅电视柜</t>
     </r>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>苏宁电器川沙店-先锋</t>
+    <t>客厅沙发、条几</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>客厅电视柜</t>
+    <r>
+      <t>2013-01-16</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>定金</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>200</t>
+    </r>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>客厅沙发</t>
+    <r>
+      <t>2013-1-31</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>：合同定金</t>
+    </r>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>客厅条几</t>
+    <t>减少合页、门吸105*3 + 台盆柜54 = 369</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>地板-退货</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>减去1单人沙发</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>增加</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -1749,7 +1749,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1824,6 +1824,9 @@
     </xf>
     <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -7626,8 +7629,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AE177"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="E31" sqref="E31"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H30" sqref="H30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -7991,7 +7994,7 @@
         <v>18</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D8" s="1"/>
       <c r="E8" s="1">
@@ -8004,8 +8007,8 @@
         <f t="shared" si="1"/>
         <v>4400</v>
       </c>
-      <c r="H8" s="1" t="s">
-        <v>157</v>
+      <c r="H8" s="25" t="s">
+        <v>174</v>
       </c>
       <c r="I8" s="2"/>
       <c r="J8" s="2"/>
@@ -8036,10 +8039,19 @@
       <c r="B9" s="4"/>
       <c r="C9" s="4"/>
       <c r="D9" s="4"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
-      <c r="G9" s="1"/>
-      <c r="H9" s="4"/>
+      <c r="E9" s="4">
+        <v>-300</v>
+      </c>
+      <c r="F9" s="4">
+        <v>1</v>
+      </c>
+      <c r="G9" s="1">
+        <f t="shared" si="1"/>
+        <v>-300</v>
+      </c>
+      <c r="H9" s="4" t="s">
+        <v>175</v>
+      </c>
       <c r="I9" s="2"/>
       <c r="J9" s="2"/>
       <c r="K9" s="2"/>
@@ -8117,10 +8129,10 @@
         <v>41293</v>
       </c>
       <c r="B11" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="C11" s="4" t="s">
         <v>153</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>154</v>
       </c>
       <c r="D11" s="1"/>
       <c r="E11" s="1">
@@ -8134,7 +8146,7 @@
         <v>100</v>
       </c>
       <c r="H11" s="4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="I11" s="2"/>
       <c r="J11" s="2"/>
@@ -8165,10 +8177,10 @@
         <v>41293</v>
       </c>
       <c r="B12" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="C12" s="4" t="s">
         <v>153</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>154</v>
       </c>
       <c r="D12" s="1"/>
       <c r="E12" s="1">
@@ -8182,7 +8194,7 @@
         <v>100</v>
       </c>
       <c r="H12" s="4" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="I12" s="2"/>
       <c r="J12" s="2"/>
@@ -8314,7 +8326,7 @@
         <v>18</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D15" s="1"/>
       <c r="E15" s="1">
@@ -8363,7 +8375,7 @@
         <v>18</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D16" s="1"/>
       <c r="E16" s="1">
@@ -8412,7 +8424,7 @@
         <v>18</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D17" s="1"/>
       <c r="E17" s="1">
@@ -8461,7 +8473,7 @@
         <v>18</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D18" s="1"/>
       <c r="E18" s="1">
@@ -8475,7 +8487,7 @@
         <v>-90</v>
       </c>
       <c r="H18" s="4" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="I18" s="2"/>
       <c r="J18" s="2"/>
@@ -8517,7 +8529,7 @@
         <v>-20</v>
       </c>
       <c r="H19" s="4" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="I19" s="2"/>
       <c r="J19" s="2"/>
@@ -8559,7 +8571,7 @@
         <v>-30</v>
       </c>
       <c r="H20" s="4" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="I20" s="2"/>
       <c r="J20" s="2"/>
@@ -8601,7 +8613,7 @@
         <v>-64</v>
       </c>
       <c r="H21" s="4" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="I21" s="2"/>
       <c r="J21" s="2"/>
@@ -8773,8 +8785,8 @@
       <c r="E26" s="1"/>
       <c r="F26" s="1"/>
       <c r="G26" s="1">
-        <f>SUM(G4:G8)</f>
-        <v>25460</v>
+        <f>SUM(G4:G9)</f>
+        <v>25160</v>
       </c>
       <c r="H26" s="1"/>
       <c r="I26" s="2"/>
@@ -8844,8 +8856,8 @@
         <v>61</v>
       </c>
       <c r="G28" s="16">
-        <f>SUM(G26+'装修-自购'!F75)</f>
-        <v>117749.2</v>
+        <f>SUM(G26+'装修-自购'!F76)</f>
+        <v>122717.47500000001</v>
       </c>
       <c r="H28" s="2"/>
       <c r="I28" s="2"/>
@@ -13802,13 +13814,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AE229"/>
+  <dimension ref="A1:AE230"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B61" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B58" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C65" sqref="C65"/>
+      <selection pane="bottomRight" activeCell="G66" sqref="G66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -13817,7 +13829,7 @@
     <col min="2" max="2" width="11.625" customWidth="1"/>
     <col min="3" max="3" width="14.25" customWidth="1"/>
     <col min="4" max="4" width="8.625" customWidth="1"/>
-    <col min="5" max="5" width="7" customWidth="1"/>
+    <col min="5" max="5" width="8.5" customWidth="1"/>
     <col min="6" max="6" width="11.625" customWidth="1"/>
     <col min="7" max="7" width="22.375" customWidth="1"/>
     <col min="8" max="8" width="14.5" customWidth="1"/>
@@ -13933,7 +13945,7 @@
         <v>11</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D3" s="4">
         <v>128</v>
@@ -13946,7 +13958,7 @@
         <v>128</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="H3" s="1"/>
       <c r="I3" s="3">
@@ -13996,11 +14008,11 @@
         <v>4979</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="H4" s="4"/>
       <c r="I4" s="3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="J4" s="2"/>
       <c r="K4" s="2"/>
@@ -14027,13 +14039,13 @@
     </row>
     <row r="5" spans="1:31" ht="27.75">
       <c r="A5" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>140</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>139</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>141</v>
       </c>
       <c r="D5" s="1">
         <v>750</v>
@@ -14046,11 +14058,11 @@
         <v>825.00000000000011</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="H5" s="1"/>
       <c r="I5" s="3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="J5" s="2"/>
       <c r="K5" s="2"/>
@@ -14077,13 +14089,13 @@
     </row>
     <row r="6" spans="1:31" ht="27.75">
       <c r="A6" s="4" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D6" s="1">
         <v>450</v>
@@ -14096,11 +14108,11 @@
         <v>450</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="H6" s="1"/>
       <c r="I6" s="3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="J6" s="2"/>
       <c r="K6" s="2"/>
@@ -14127,13 +14139,13 @@
     </row>
     <row r="7" spans="1:31" ht="28.5">
       <c r="A7" s="4" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D7" s="1">
         <v>350</v>
@@ -14146,11 +14158,11 @@
         <v>1218</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="H7" s="1"/>
       <c r="I7" s="3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="J7" s="2"/>
       <c r="K7" s="2"/>
@@ -14185,7 +14197,7 @@
         <v>-72</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="H8" s="1"/>
       <c r="I8" s="3"/>
@@ -14229,7 +14241,7 @@
         <v>1</v>
       </c>
       <c r="F9" s="1">
-        <f t="shared" ref="F9:F74" si="1">D9*E9</f>
+        <f t="shared" ref="F9:F75" si="1">D9*E9</f>
         <v>100</v>
       </c>
       <c r="G9" s="4" t="s">
@@ -15768,7 +15780,7 @@
         <v>930</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H41" s="1"/>
       <c r="I41" s="3">
@@ -15866,7 +15878,7 @@
         <v>1400</v>
       </c>
       <c r="G43" s="3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="H43" s="1"/>
       <c r="I43" s="3">
@@ -15951,7 +15963,7 @@
         <v>17</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D45" s="1">
         <v>600</v>
@@ -15999,7 +16011,7 @@
         <v>112</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D46" s="1">
         <v>260</v>
@@ -16041,10 +16053,10 @@
     </row>
     <row r="47" spans="1:31">
       <c r="A47" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="B47" s="4" t="s">
         <v>130</v>
-      </c>
-      <c r="B47" s="4" t="s">
-        <v>131</v>
       </c>
       <c r="C47" s="4" t="s">
         <v>94</v>
@@ -16409,7 +16421,7 @@
       <c r="AD54" s="2"/>
       <c r="AE54" s="2"/>
     </row>
-    <row r="55" spans="1:31" ht="40.5">
+    <row r="55" spans="1:31" ht="27">
       <c r="A55" s="4" t="s">
         <v>122</v>
       </c>
@@ -16420,17 +16432,17 @@
         <v>114</v>
       </c>
       <c r="D55" s="1">
-        <v>3</v>
+        <v>100</v>
       </c>
       <c r="E55" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F55" s="1">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G55" s="4" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="H55" s="1"/>
       <c r="I55" s="5"/>
@@ -16459,7 +16471,7 @@
     </row>
     <row r="56" spans="1:31" ht="27">
       <c r="A56" s="4" t="s">
-        <v>123</v>
+        <v>176</v>
       </c>
       <c r="B56" s="1" t="s">
         <v>60</v>
@@ -16468,17 +16480,18 @@
         <v>114</v>
       </c>
       <c r="D56" s="1">
-        <v>100</v>
+        <v>298</v>
       </c>
       <c r="E56" s="1">
-        <v>1</v>
+        <f>-1.25*0.81</f>
+        <v>-1.0125000000000002</v>
       </c>
       <c r="F56" s="1">
-        <f t="shared" si="1"/>
-        <v>100</v>
+        <f>D56*E56</f>
+        <v>-301.72500000000008</v>
       </c>
       <c r="G56" s="4" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="H56" s="1"/>
       <c r="I56" s="5"/>
@@ -16526,7 +16539,7 @@
         <v>3000</v>
       </c>
       <c r="G57" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="H57" s="1"/>
       <c r="I57" s="5">
@@ -16557,11 +16570,11 @@
     </row>
     <row r="58" spans="1:31" ht="27.75">
       <c r="A58" s="4" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B58" s="1"/>
       <c r="C58" s="1" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="D58" s="1">
         <v>400</v>
@@ -16574,7 +16587,7 @@
         <v>400</v>
       </c>
       <c r="G58" s="1" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="H58" s="1"/>
       <c r="I58" s="5"/>
@@ -16603,11 +16616,11 @@
     </row>
     <row r="59" spans="1:31" ht="27.75">
       <c r="A59" s="4" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B59" s="1"/>
       <c r="C59" s="1" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="D59" s="1">
         <v>40</v>
@@ -16620,7 +16633,7 @@
         <v>40</v>
       </c>
       <c r="G59" s="1" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="H59" s="1"/>
       <c r="I59" s="5"/>
@@ -16649,26 +16662,21 @@
     </row>
     <row r="60" spans="1:31">
       <c r="A60" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="B60" s="4" t="s">
-        <v>128</v>
-      </c>
+        <v>156</v>
+      </c>
+      <c r="B60" s="1"/>
       <c r="C60" s="1"/>
       <c r="D60" s="1">
-        <v>1500</v>
+        <v>1900</v>
       </c>
       <c r="E60" s="1">
         <v>1</v>
       </c>
       <c r="F60" s="1">
         <f>D60*E60</f>
-        <v>1500</v>
-      </c>
-      <c r="G60" s="1">
-        <f>1.65*1.8*500</f>
-        <v>1484.9999999999998</v>
-      </c>
+        <v>1900</v>
+      </c>
+      <c r="G60" s="1"/>
       <c r="H60" s="1"/>
       <c r="I60" s="5"/>
       <c r="J60" s="2"/>
@@ -16696,26 +16704,21 @@
     </row>
     <row r="61" spans="1:31">
       <c r="A61" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="B61" s="4" t="s">
-        <v>129</v>
-      </c>
+        <v>158</v>
+      </c>
+      <c r="B61" s="1"/>
       <c r="C61" s="1"/>
       <c r="D61" s="1">
-        <v>1300</v>
+        <v>570</v>
       </c>
       <c r="E61" s="1">
         <v>1</v>
       </c>
       <c r="F61" s="1">
-        <f>D61*E61</f>
-        <v>1300</v>
-      </c>
-      <c r="G61" s="1">
-        <f>1.95*2.2*300</f>
-        <v>1287</v>
-      </c>
+        <f t="shared" si="1"/>
+        <v>570</v>
+      </c>
+      <c r="G61" s="1"/>
       <c r="H61" s="1"/>
       <c r="I61" s="5"/>
       <c r="J61" s="2"/>
@@ -16743,21 +16746,23 @@
     </row>
     <row r="62" spans="1:31">
       <c r="A62" s="4" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="B62" s="1"/>
       <c r="C62" s="1"/>
       <c r="D62" s="1">
-        <v>1500</v>
+        <v>2800</v>
       </c>
       <c r="E62" s="1">
         <v>1</v>
       </c>
       <c r="F62" s="1">
-        <f>D62*E62</f>
-        <v>1500</v>
-      </c>
-      <c r="G62" s="1"/>
+        <f t="shared" si="1"/>
+        <v>2800</v>
+      </c>
+      <c r="G62" s="1" t="s">
+        <v>173</v>
+      </c>
       <c r="H62" s="1"/>
       <c r="I62" s="5"/>
       <c r="J62" s="2"/>
@@ -16783,21 +16788,20 @@
       <c r="AD62" s="2"/>
       <c r="AE62" s="2"/>
     </row>
-    <row r="63" spans="1:31">
-      <c r="A63" s="4" t="s">
-        <v>160</v>
+    <row r="63" spans="1:31" ht="112.5">
+      <c r="A63" s="1" t="s">
+        <v>171</v>
       </c>
       <c r="B63" s="1"/>
       <c r="C63" s="1"/>
       <c r="D63" s="1">
-        <v>400</v>
+        <v>15</v>
       </c>
       <c r="E63" s="1">
         <v>1</v>
       </c>
       <c r="F63" s="1">
-        <f t="shared" si="1"/>
-        <v>400</v>
+        <v>11900</v>
       </c>
       <c r="G63" s="1"/>
       <c r="H63" s="1"/>
@@ -16825,21 +16829,21 @@
       <c r="AD63" s="2"/>
       <c r="AE63" s="2"/>
     </row>
-    <row r="64" spans="1:31">
+    <row r="64" spans="1:31" ht="27">
       <c r="A64" s="4" t="s">
-        <v>163</v>
+        <v>172</v>
       </c>
       <c r="B64" s="1"/>
       <c r="C64" s="1"/>
       <c r="D64" s="1">
-        <v>2500</v>
+        <v>11000</v>
       </c>
       <c r="E64" s="1">
         <v>1</v>
       </c>
       <c r="F64" s="1">
         <f t="shared" si="1"/>
-        <v>2500</v>
+        <v>11000</v>
       </c>
       <c r="G64" s="1"/>
       <c r="H64" s="1"/>
@@ -16867,21 +16871,21 @@
       <c r="AD64" s="2"/>
       <c r="AE64" s="2"/>
     </row>
-    <row r="65" spans="1:31" ht="99">
-      <c r="A65" s="1" t="s">
-        <v>172</v>
+    <row r="65" spans="1:31">
+      <c r="A65" s="4" t="s">
+        <v>167</v>
       </c>
       <c r="B65" s="1"/>
       <c r="C65" s="1"/>
       <c r="D65" s="1">
-        <v>12000</v>
+        <v>600</v>
       </c>
       <c r="E65" s="1">
         <v>1</v>
       </c>
       <c r="F65" s="1">
-        <f t="shared" si="1"/>
-        <v>12000</v>
+        <f>D65*E65</f>
+        <v>600</v>
       </c>
       <c r="G65" s="1"/>
       <c r="H65" s="1"/>
@@ -16911,19 +16915,19 @@
     </row>
     <row r="66" spans="1:31" ht="27">
       <c r="A66" s="4" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="B66" s="1"/>
       <c r="C66" s="1"/>
       <c r="D66" s="1">
-        <v>2000</v>
+        <v>-2300</v>
       </c>
       <c r="E66" s="1">
         <v>1</v>
       </c>
       <c r="F66" s="1">
         <f t="shared" si="1"/>
-        <v>2000</v>
+        <v>-2300</v>
       </c>
       <c r="G66" s="1"/>
       <c r="H66" s="1"/>
@@ -16953,7 +16957,7 @@
     </row>
     <row r="67" spans="1:31">
       <c r="A67" s="4" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="B67" s="1"/>
       <c r="C67" s="1"/>
@@ -16994,20 +16998,18 @@
       <c r="AE67" s="2"/>
     </row>
     <row r="68" spans="1:31">
-      <c r="A68" s="4" t="s">
-        <v>175</v>
-      </c>
+      <c r="A68" s="4"/>
       <c r="B68" s="1"/>
       <c r="C68" s="1"/>
       <c r="D68" s="1">
-        <v>2500</v>
+        <v>-7800</v>
       </c>
       <c r="E68" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F68" s="1">
         <f t="shared" si="1"/>
-        <v>2500</v>
+        <v>0</v>
       </c>
       <c r="G68" s="1"/>
       <c r="H68" s="1"/>
@@ -17037,21 +17039,26 @@
     </row>
     <row r="69" spans="1:31">
       <c r="A69" s="4" t="s">
-        <v>169</v>
-      </c>
-      <c r="B69" s="1"/>
+        <v>125</v>
+      </c>
+      <c r="B69" s="4" t="s">
+        <v>127</v>
+      </c>
       <c r="C69" s="1"/>
       <c r="D69" s="1">
-        <v>500</v>
+        <v>1500</v>
       </c>
       <c r="E69" s="1">
         <v>1</v>
       </c>
       <c r="F69" s="1">
-        <f t="shared" si="1"/>
-        <v>500</v>
-      </c>
-      <c r="G69" s="1"/>
+        <f>D69*E69</f>
+        <v>1500</v>
+      </c>
+      <c r="G69" s="1">
+        <f>1.65*1.8*500</f>
+        <v>1484.9999999999998</v>
+      </c>
       <c r="H69" s="1"/>
       <c r="I69" s="5"/>
       <c r="J69" s="2"/>
@@ -17077,25 +17084,28 @@
       <c r="AD69" s="2"/>
       <c r="AE69" s="2"/>
     </row>
-    <row r="70" spans="1:31" ht="27">
+    <row r="70" spans="1:31">
       <c r="A70" s="4" t="s">
-        <v>166</v>
-      </c>
-      <c r="B70" s="1"/>
-      <c r="C70" s="4" t="s">
-        <v>173</v>
-      </c>
+        <v>126</v>
+      </c>
+      <c r="B70" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="C70" s="1"/>
       <c r="D70" s="1">
-        <v>4500</v>
+        <v>1300</v>
       </c>
       <c r="E70" s="1">
         <v>1</v>
       </c>
       <c r="F70" s="1">
-        <f t="shared" si="1"/>
-        <v>4500</v>
-      </c>
-      <c r="G70" s="1"/>
+        <f>D70*E70</f>
+        <v>1300</v>
+      </c>
+      <c r="G70" s="1">
+        <f>1.95*2.2*300</f>
+        <v>1287</v>
+      </c>
       <c r="H70" s="1"/>
       <c r="I70" s="5"/>
       <c r="J70" s="2"/>
@@ -17123,21 +17133,21 @@
     </row>
     <row r="71" spans="1:31" ht="27">
       <c r="A71" s="4" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="B71" s="1"/>
       <c r="C71" s="4" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="D71" s="1">
-        <v>2000</v>
+        <v>4500</v>
       </c>
       <c r="E71" s="1">
         <v>1</v>
       </c>
       <c r="F71" s="1">
         <f t="shared" si="1"/>
-        <v>2000</v>
+        <v>4500</v>
       </c>
       <c r="G71" s="1"/>
       <c r="H71" s="1"/>
@@ -17167,21 +17177,21 @@
     </row>
     <row r="72" spans="1:31" ht="27">
       <c r="A72" s="4" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B72" s="1"/>
       <c r="C72" s="4" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="D72" s="1">
-        <v>3000</v>
+        <v>2500</v>
       </c>
       <c r="E72" s="1">
         <v>1</v>
       </c>
       <c r="F72" s="1">
         <f t="shared" si="1"/>
-        <v>3000</v>
+        <v>2500</v>
       </c>
       <c r="G72" s="1"/>
       <c r="H72" s="1"/>
@@ -17211,11 +17221,11 @@
     </row>
     <row r="73" spans="1:31" ht="27">
       <c r="A73" s="4" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="B73" s="1"/>
       <c r="C73" s="4" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="D73" s="1">
         <v>3000</v>
@@ -17253,15 +17263,23 @@
       <c r="AD73" s="2"/>
       <c r="AE73" s="2"/>
     </row>
-    <row r="74" spans="1:31">
-      <c r="A74" s="1"/>
+    <row r="74" spans="1:31" ht="27">
+      <c r="A74" s="4" t="s">
+        <v>163</v>
+      </c>
       <c r="B74" s="1"/>
-      <c r="C74" s="1"/>
-      <c r="D74" s="1"/>
-      <c r="E74" s="1"/>
+      <c r="C74" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="D74" s="1">
+        <v>3000</v>
+      </c>
+      <c r="E74" s="1">
+        <v>1</v>
+      </c>
       <c r="F74" s="1">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>3000</v>
       </c>
       <c r="G74" s="1"/>
       <c r="H74" s="1"/>
@@ -17295,13 +17313,13 @@
       <c r="C75" s="1"/>
       <c r="D75" s="1"/>
       <c r="E75" s="1"/>
-      <c r="F75" s="24">
-        <f>SUM(F2:F74)</f>
-        <v>92289.2</v>
+      <c r="F75" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="G75" s="1"/>
       <c r="H75" s="1"/>
-      <c r="I75" s="1"/>
+      <c r="I75" s="5"/>
       <c r="J75" s="2"/>
       <c r="K75" s="2"/>
       <c r="L75" s="2"/>
@@ -17326,15 +17344,18 @@
       <c r="AE75" s="2"/>
     </row>
     <row r="76" spans="1:31">
-      <c r="A76" s="2"/>
-      <c r="B76" s="2"/>
-      <c r="C76" s="2"/>
-      <c r="D76" s="2"/>
-      <c r="E76" s="2"/>
-      <c r="F76" s="2"/>
-      <c r="G76" s="2"/>
-      <c r="H76" s="2"/>
-      <c r="I76" s="2"/>
+      <c r="A76" s="1"/>
+      <c r="B76" s="1"/>
+      <c r="C76" s="1"/>
+      <c r="D76" s="1"/>
+      <c r="E76" s="1"/>
+      <c r="F76" s="24">
+        <f>SUM(F2:F75)</f>
+        <v>97557.475000000006</v>
+      </c>
+      <c r="G76" s="1"/>
+      <c r="H76" s="1"/>
+      <c r="I76" s="1"/>
       <c r="J76" s="2"/>
       <c r="K76" s="2"/>
       <c r="L76" s="2"/>
@@ -22407,6 +22428,39 @@
       <c r="AD229" s="2"/>
       <c r="AE229" s="2"/>
     </row>
+    <row r="230" spans="1:31">
+      <c r="A230" s="2"/>
+      <c r="B230" s="2"/>
+      <c r="C230" s="2"/>
+      <c r="D230" s="2"/>
+      <c r="E230" s="2"/>
+      <c r="F230" s="2"/>
+      <c r="G230" s="2"/>
+      <c r="H230" s="2"/>
+      <c r="I230" s="2"/>
+      <c r="J230" s="2"/>
+      <c r="K230" s="2"/>
+      <c r="L230" s="2"/>
+      <c r="M230" s="2"/>
+      <c r="N230" s="2"/>
+      <c r="O230" s="2"/>
+      <c r="P230" s="2"/>
+      <c r="Q230" s="2"/>
+      <c r="R230" s="2"/>
+      <c r="S230" s="2"/>
+      <c r="T230" s="2"/>
+      <c r="U230" s="2"/>
+      <c r="V230" s="2"/>
+      <c r="W230" s="2"/>
+      <c r="X230" s="2"/>
+      <c r="Y230" s="2"/>
+      <c r="Z230" s="2"/>
+      <c r="AA230" s="2"/>
+      <c r="AB230" s="2"/>
+      <c r="AC230" s="2"/>
+      <c r="AD230" s="2"/>
+      <c r="AE230" s="2"/>
+    </row>
   </sheetData>
   <autoFilter ref="A1:G1">
     <filterColumn colId="3"/>

--- a/.private/房子.xlsx
+++ b/.private/房子.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="316" uniqueCount="179">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="321" uniqueCount="182">
   <si>
     <t>付定金４万，张浦发银行转帐。</t>
   </si>
@@ -1610,6 +1610,18 @@
     <t>增加</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
+  <si>
+    <t>节能补贴</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>券</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>扣除一个单人位沙发</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -7630,7 +7642,7 @@
   <dimension ref="A1:AE177"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H30" sqref="H30"/>
+      <selection activeCell="G26" sqref="G26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -8856,8 +8868,8 @@
         <v>61</v>
       </c>
       <c r="G28" s="16">
-        <f>SUM(G26+'装修-自购'!F76)</f>
-        <v>122717.47500000001</v>
+        <f>SUM(G26+'装修-自购'!F80)</f>
+        <v>119367.47500000001</v>
       </c>
       <c r="H28" s="2"/>
       <c r="I28" s="2"/>
@@ -13814,13 +13826,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AE230"/>
+  <dimension ref="A1:AE234"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B58" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G66" sqref="G66"/>
+      <selection pane="bottomRight" activeCell="G67" sqref="G67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -14241,7 +14253,7 @@
         <v>1</v>
       </c>
       <c r="F9" s="1">
-        <f t="shared" ref="F9:F75" si="1">D9*E9</f>
+        <f t="shared" ref="F9:F79" si="1">D9*E9</f>
         <v>100</v>
       </c>
       <c r="G9" s="4" t="s">
@@ -16764,7 +16776,9 @@
         <v>173</v>
       </c>
       <c r="H62" s="1"/>
-      <c r="I62" s="5"/>
+      <c r="I62" s="5">
+        <v>41394</v>
+      </c>
       <c r="J62" s="2"/>
       <c r="K62" s="2"/>
       <c r="L62" s="2"/>
@@ -16805,7 +16819,9 @@
       </c>
       <c r="G63" s="1"/>
       <c r="H63" s="1"/>
-      <c r="I63" s="5"/>
+      <c r="I63" s="5">
+        <v>41394</v>
+      </c>
       <c r="J63" s="2"/>
       <c r="K63" s="2"/>
       <c r="L63" s="2"/>
@@ -16847,7 +16863,9 @@
       </c>
       <c r="G64" s="1"/>
       <c r="H64" s="1"/>
-      <c r="I64" s="5"/>
+      <c r="I64" s="5">
+        <v>41394</v>
+      </c>
       <c r="J64" s="2"/>
       <c r="K64" s="2"/>
       <c r="L64" s="2"/>
@@ -16889,7 +16907,9 @@
       </c>
       <c r="G65" s="1"/>
       <c r="H65" s="1"/>
-      <c r="I65" s="5"/>
+      <c r="I65" s="5">
+        <v>41394</v>
+      </c>
       <c r="J65" s="2"/>
       <c r="K65" s="2"/>
       <c r="L65" s="2"/>
@@ -16920,18 +16940,22 @@
       <c r="B66" s="1"/>
       <c r="C66" s="1"/>
       <c r="D66" s="1">
-        <v>-2300</v>
+        <v>-2500</v>
       </c>
       <c r="E66" s="1">
         <v>1</v>
       </c>
       <c r="F66" s="1">
         <f t="shared" si="1"/>
-        <v>-2300</v>
-      </c>
-      <c r="G66" s="1"/>
+        <v>-2500</v>
+      </c>
+      <c r="G66" s="4" t="s">
+        <v>181</v>
+      </c>
       <c r="H66" s="1"/>
-      <c r="I66" s="5"/>
+      <c r="I66" s="5">
+        <v>41394</v>
+      </c>
       <c r="J66" s="2"/>
       <c r="K66" s="2"/>
       <c r="L66" s="2"/>
@@ -16973,7 +16997,9 @@
       </c>
       <c r="G67" s="1"/>
       <c r="H67" s="1"/>
-      <c r="I67" s="5"/>
+      <c r="I67" s="5">
+        <v>41394</v>
+      </c>
       <c r="J67" s="2"/>
       <c r="K67" s="2"/>
       <c r="L67" s="2"/>
@@ -16998,20 +17024,27 @@
       <c r="AE67" s="2"/>
     </row>
     <row r="68" spans="1:31">
-      <c r="A68" s="4"/>
-      <c r="B68" s="1"/>
+      <c r="A68" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="B68" s="4" t="s">
+        <v>127</v>
+      </c>
       <c r="C68" s="1"/>
       <c r="D68" s="1">
-        <v>-7800</v>
+        <v>1300</v>
       </c>
       <c r="E68" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F68" s="1">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G68" s="1"/>
+        <f>D68*E68</f>
+        <v>1300</v>
+      </c>
+      <c r="G68" s="1">
+        <f>1.65*1.8*500</f>
+        <v>1484.9999999999998</v>
+      </c>
       <c r="H68" s="1"/>
       <c r="I68" s="5"/>
       <c r="J68" s="2"/>
@@ -17039,25 +17072,25 @@
     </row>
     <row r="69" spans="1:31">
       <c r="A69" s="4" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C69" s="1"/>
       <c r="D69" s="1">
-        <v>1500</v>
+        <v>1200</v>
       </c>
       <c r="E69" s="1">
         <v>1</v>
       </c>
       <c r="F69" s="1">
         <f>D69*E69</f>
-        <v>1500</v>
+        <v>1200</v>
       </c>
       <c r="G69" s="1">
-        <f>1.65*1.8*500</f>
-        <v>1484.9999999999998</v>
+        <f>1.95*2.2*300</f>
+        <v>1287</v>
       </c>
       <c r="H69" s="1"/>
       <c r="I69" s="5"/>
@@ -17084,28 +17117,25 @@
       <c r="AD69" s="2"/>
       <c r="AE69" s="2"/>
     </row>
-    <row r="70" spans="1:31">
+    <row r="70" spans="1:31" ht="27">
       <c r="A70" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="B70" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="C70" s="1"/>
+        <v>164</v>
+      </c>
+      <c r="B70" s="1"/>
+      <c r="C70" s="4" t="s">
+        <v>170</v>
+      </c>
       <c r="D70" s="1">
-        <v>1300</v>
+        <v>4500</v>
       </c>
       <c r="E70" s="1">
         <v>1</v>
       </c>
       <c r="F70" s="1">
-        <f>D70*E70</f>
-        <v>1300</v>
-      </c>
-      <c r="G70" s="1">
-        <f>1.95*2.2*300</f>
-        <v>1287</v>
-      </c>
+        <f t="shared" si="1"/>
+        <v>4500</v>
+      </c>
+      <c r="G70" s="1"/>
       <c r="H70" s="1"/>
       <c r="I70" s="5"/>
       <c r="J70" s="2"/>
@@ -17133,25 +17163,27 @@
     </row>
     <row r="71" spans="1:31" ht="27">
       <c r="A71" s="4" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B71" s="1"/>
       <c r="C71" s="4" t="s">
         <v>170</v>
       </c>
       <c r="D71" s="1">
-        <v>4500</v>
+        <v>2150</v>
       </c>
       <c r="E71" s="1">
         <v>1</v>
       </c>
       <c r="F71" s="1">
         <f t="shared" si="1"/>
-        <v>4500</v>
+        <v>2150</v>
       </c>
       <c r="G71" s="1"/>
       <c r="H71" s="1"/>
-      <c r="I71" s="5"/>
+      <c r="I71" s="5">
+        <v>41395</v>
+      </c>
       <c r="J71" s="2"/>
       <c r="K71" s="2"/>
       <c r="L71" s="2"/>
@@ -17175,27 +17207,27 @@
       <c r="AD71" s="2"/>
       <c r="AE71" s="2"/>
     </row>
-    <row r="72" spans="1:31" ht="27">
-      <c r="A72" s="4" t="s">
-        <v>165</v>
-      </c>
+    <row r="72" spans="1:31">
+      <c r="A72" s="4"/>
       <c r="B72" s="1"/>
-      <c r="C72" s="4" t="s">
-        <v>170</v>
-      </c>
+      <c r="C72" s="4"/>
       <c r="D72" s="1">
-        <v>2500</v>
+        <v>-300</v>
       </c>
       <c r="E72" s="1">
         <v>1</v>
       </c>
       <c r="F72" s="1">
         <f t="shared" si="1"/>
-        <v>2500</v>
-      </c>
-      <c r="G72" s="1"/>
+        <v>-300</v>
+      </c>
+      <c r="G72" s="4" t="s">
+        <v>179</v>
+      </c>
       <c r="H72" s="1"/>
-      <c r="I72" s="5"/>
+      <c r="I72" s="5">
+        <v>41395</v>
+      </c>
       <c r="J72" s="2"/>
       <c r="K72" s="2"/>
       <c r="L72" s="2"/>
@@ -17219,27 +17251,27 @@
       <c r="AD72" s="2"/>
       <c r="AE72" s="2"/>
     </row>
-    <row r="73" spans="1:31" ht="27">
-      <c r="A73" s="4" t="s">
-        <v>162</v>
-      </c>
+    <row r="73" spans="1:31">
+      <c r="A73" s="4"/>
       <c r="B73" s="1"/>
-      <c r="C73" s="4" t="s">
-        <v>170</v>
-      </c>
+      <c r="C73" s="4"/>
       <c r="D73" s="1">
-        <v>3000</v>
+        <v>-200</v>
       </c>
       <c r="E73" s="1">
         <v>1</v>
       </c>
       <c r="F73" s="1">
         <f t="shared" si="1"/>
-        <v>3000</v>
-      </c>
-      <c r="G73" s="1"/>
+        <v>-200</v>
+      </c>
+      <c r="G73" s="4" t="s">
+        <v>180</v>
+      </c>
       <c r="H73" s="1"/>
-      <c r="I73" s="5"/>
+      <c r="I73" s="5">
+        <v>41395</v>
+      </c>
       <c r="J73" s="2"/>
       <c r="K73" s="2"/>
       <c r="L73" s="2"/>
@@ -17265,25 +17297,27 @@
     </row>
     <row r="74" spans="1:31" ht="27">
       <c r="A74" s="4" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B74" s="1"/>
       <c r="C74" s="4" t="s">
         <v>170</v>
       </c>
       <c r="D74" s="1">
-        <v>3000</v>
+        <v>2260</v>
       </c>
       <c r="E74" s="1">
         <v>1</v>
       </c>
       <c r="F74" s="1">
-        <f t="shared" si="1"/>
-        <v>3000</v>
+        <f>D74*E74</f>
+        <v>2260</v>
       </c>
       <c r="G74" s="1"/>
       <c r="H74" s="1"/>
-      <c r="I74" s="5"/>
+      <c r="I74" s="5">
+        <v>41395</v>
+      </c>
       <c r="J74" s="2"/>
       <c r="K74" s="2"/>
       <c r="L74" s="2"/>
@@ -17308,18 +17342,26 @@
       <c r="AE74" s="2"/>
     </row>
     <row r="75" spans="1:31">
-      <c r="A75" s="1"/>
+      <c r="A75" s="4"/>
       <c r="B75" s="1"/>
-      <c r="C75" s="1"/>
-      <c r="D75" s="1"/>
-      <c r="E75" s="1"/>
+      <c r="C75" s="4"/>
+      <c r="D75" s="1">
+        <v>-260</v>
+      </c>
+      <c r="E75" s="1">
+        <v>1</v>
+      </c>
       <c r="F75" s="1">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G75" s="1"/>
+        <v>-260</v>
+      </c>
+      <c r="G75" s="4" t="s">
+        <v>179</v>
+      </c>
       <c r="H75" s="1"/>
-      <c r="I75" s="5"/>
+      <c r="I75" s="5">
+        <v>41395</v>
+      </c>
       <c r="J75" s="2"/>
       <c r="K75" s="2"/>
       <c r="L75" s="2"/>
@@ -17343,19 +17385,29 @@
       <c r="AD75" s="2"/>
       <c r="AE75" s="2"/>
     </row>
-    <row r="76" spans="1:31">
-      <c r="A76" s="1"/>
+    <row r="76" spans="1:31" ht="27">
+      <c r="A76" s="4" t="s">
+        <v>163</v>
+      </c>
       <c r="B76" s="1"/>
-      <c r="C76" s="1"/>
-      <c r="D76" s="1"/>
-      <c r="E76" s="1"/>
-      <c r="F76" s="24">
-        <f>SUM(F2:F75)</f>
-        <v>97557.475000000006</v>
+      <c r="C76" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="D76" s="1">
+        <v>2260</v>
+      </c>
+      <c r="E76" s="1">
+        <v>1</v>
+      </c>
+      <c r="F76" s="1">
+        <f t="shared" si="1"/>
+        <v>2260</v>
       </c>
       <c r="G76" s="1"/>
       <c r="H76" s="1"/>
-      <c r="I76" s="1"/>
+      <c r="I76" s="5">
+        <v>41395</v>
+      </c>
       <c r="J76" s="2"/>
       <c r="K76" s="2"/>
       <c r="L76" s="2"/>
@@ -17380,15 +17432,26 @@
       <c r="AE76" s="2"/>
     </row>
     <row r="77" spans="1:31">
-      <c r="A77" s="2"/>
-      <c r="B77" s="2"/>
-      <c r="C77" s="2"/>
-      <c r="D77" s="2"/>
-      <c r="E77" s="2"/>
-      <c r="F77" s="2"/>
-      <c r="G77" s="2"/>
-      <c r="H77" s="2"/>
-      <c r="I77" s="2"/>
+      <c r="A77" s="4"/>
+      <c r="B77" s="1"/>
+      <c r="C77" s="4"/>
+      <c r="D77" s="1">
+        <v>-260</v>
+      </c>
+      <c r="E77" s="1">
+        <v>1</v>
+      </c>
+      <c r="F77" s="1">
+        <f t="shared" ref="F77" si="6">D77*E77</f>
+        <v>-260</v>
+      </c>
+      <c r="G77" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="H77" s="1"/>
+      <c r="I77" s="5">
+        <v>41395</v>
+      </c>
       <c r="J77" s="2"/>
       <c r="K77" s="2"/>
       <c r="L77" s="2"/>
@@ -17413,15 +17476,15 @@
       <c r="AE77" s="2"/>
     </row>
     <row r="78" spans="1:31">
-      <c r="A78" s="2"/>
-      <c r="B78" s="2"/>
-      <c r="C78" s="2"/>
-      <c r="D78" s="2"/>
-      <c r="E78" s="2"/>
-      <c r="F78" s="2"/>
-      <c r="G78" s="2"/>
-      <c r="H78" s="2"/>
-      <c r="I78" s="2"/>
+      <c r="A78" s="4"/>
+      <c r="B78" s="1"/>
+      <c r="C78" s="4"/>
+      <c r="D78" s="1"/>
+      <c r="E78" s="1"/>
+      <c r="F78" s="1"/>
+      <c r="G78" s="1"/>
+      <c r="H78" s="1"/>
+      <c r="I78" s="5"/>
       <c r="J78" s="2"/>
       <c r="K78" s="2"/>
       <c r="L78" s="2"/>
@@ -17446,15 +17509,18 @@
       <c r="AE78" s="2"/>
     </row>
     <row r="79" spans="1:31">
-      <c r="A79" s="2"/>
-      <c r="B79" s="2"/>
-      <c r="C79" s="2"/>
-      <c r="D79" s="2"/>
-      <c r="E79" s="2"/>
-      <c r="F79" s="2"/>
-      <c r="G79" s="2"/>
-      <c r="H79" s="2"/>
-      <c r="I79" s="2"/>
+      <c r="A79" s="1"/>
+      <c r="B79" s="1"/>
+      <c r="C79" s="1"/>
+      <c r="D79" s="1"/>
+      <c r="E79" s="1"/>
+      <c r="F79" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G79" s="1"/>
+      <c r="H79" s="1"/>
+      <c r="I79" s="5"/>
       <c r="J79" s="2"/>
       <c r="K79" s="2"/>
       <c r="L79" s="2"/>
@@ -17479,15 +17545,18 @@
       <c r="AE79" s="2"/>
     </row>
     <row r="80" spans="1:31">
-      <c r="A80" s="2"/>
-      <c r="B80" s="2"/>
-      <c r="C80" s="2"/>
-      <c r="D80" s="2"/>
-      <c r="E80" s="2"/>
-      <c r="F80" s="2"/>
-      <c r="G80" s="2"/>
-      <c r="H80" s="2"/>
-      <c r="I80" s="2"/>
+      <c r="A80" s="1"/>
+      <c r="B80" s="1"/>
+      <c r="C80" s="1"/>
+      <c r="D80" s="1"/>
+      <c r="E80" s="1"/>
+      <c r="F80" s="24">
+        <f>SUM(F2:F79)</f>
+        <v>94207.475000000006</v>
+      </c>
+      <c r="G80" s="1"/>
+      <c r="H80" s="1"/>
+      <c r="I80" s="1"/>
       <c r="J80" s="2"/>
       <c r="K80" s="2"/>
       <c r="L80" s="2"/>
@@ -22461,6 +22530,138 @@
       <c r="AD230" s="2"/>
       <c r="AE230" s="2"/>
     </row>
+    <row r="231" spans="1:31">
+      <c r="A231" s="2"/>
+      <c r="B231" s="2"/>
+      <c r="C231" s="2"/>
+      <c r="D231" s="2"/>
+      <c r="E231" s="2"/>
+      <c r="F231" s="2"/>
+      <c r="G231" s="2"/>
+      <c r="H231" s="2"/>
+      <c r="I231" s="2"/>
+      <c r="J231" s="2"/>
+      <c r="K231" s="2"/>
+      <c r="L231" s="2"/>
+      <c r="M231" s="2"/>
+      <c r="N231" s="2"/>
+      <c r="O231" s="2"/>
+      <c r="P231" s="2"/>
+      <c r="Q231" s="2"/>
+      <c r="R231" s="2"/>
+      <c r="S231" s="2"/>
+      <c r="T231" s="2"/>
+      <c r="U231" s="2"/>
+      <c r="V231" s="2"/>
+      <c r="W231" s="2"/>
+      <c r="X231" s="2"/>
+      <c r="Y231" s="2"/>
+      <c r="Z231" s="2"/>
+      <c r="AA231" s="2"/>
+      <c r="AB231" s="2"/>
+      <c r="AC231" s="2"/>
+      <c r="AD231" s="2"/>
+      <c r="AE231" s="2"/>
+    </row>
+    <row r="232" spans="1:31">
+      <c r="A232" s="2"/>
+      <c r="B232" s="2"/>
+      <c r="C232" s="2"/>
+      <c r="D232" s="2"/>
+      <c r="E232" s="2"/>
+      <c r="F232" s="2"/>
+      <c r="G232" s="2"/>
+      <c r="H232" s="2"/>
+      <c r="I232" s="2"/>
+      <c r="J232" s="2"/>
+      <c r="K232" s="2"/>
+      <c r="L232" s="2"/>
+      <c r="M232" s="2"/>
+      <c r="N232" s="2"/>
+      <c r="O232" s="2"/>
+      <c r="P232" s="2"/>
+      <c r="Q232" s="2"/>
+      <c r="R232" s="2"/>
+      <c r="S232" s="2"/>
+      <c r="T232" s="2"/>
+      <c r="U232" s="2"/>
+      <c r="V232" s="2"/>
+      <c r="W232" s="2"/>
+      <c r="X232" s="2"/>
+      <c r="Y232" s="2"/>
+      <c r="Z232" s="2"/>
+      <c r="AA232" s="2"/>
+      <c r="AB232" s="2"/>
+      <c r="AC232" s="2"/>
+      <c r="AD232" s="2"/>
+      <c r="AE232" s="2"/>
+    </row>
+    <row r="233" spans="1:31">
+      <c r="A233" s="2"/>
+      <c r="B233" s="2"/>
+      <c r="C233" s="2"/>
+      <c r="D233" s="2"/>
+      <c r="E233" s="2"/>
+      <c r="F233" s="2"/>
+      <c r="G233" s="2"/>
+      <c r="H233" s="2"/>
+      <c r="I233" s="2"/>
+      <c r="J233" s="2"/>
+      <c r="K233" s="2"/>
+      <c r="L233" s="2"/>
+      <c r="M233" s="2"/>
+      <c r="N233" s="2"/>
+      <c r="O233" s="2"/>
+      <c r="P233" s="2"/>
+      <c r="Q233" s="2"/>
+      <c r="R233" s="2"/>
+      <c r="S233" s="2"/>
+      <c r="T233" s="2"/>
+      <c r="U233" s="2"/>
+      <c r="V233" s="2"/>
+      <c r="W233" s="2"/>
+      <c r="X233" s="2"/>
+      <c r="Y233" s="2"/>
+      <c r="Z233" s="2"/>
+      <c r="AA233" s="2"/>
+      <c r="AB233" s="2"/>
+      <c r="AC233" s="2"/>
+      <c r="AD233" s="2"/>
+      <c r="AE233" s="2"/>
+    </row>
+    <row r="234" spans="1:31">
+      <c r="A234" s="2"/>
+      <c r="B234" s="2"/>
+      <c r="C234" s="2"/>
+      <c r="D234" s="2"/>
+      <c r="E234" s="2"/>
+      <c r="F234" s="2"/>
+      <c r="G234" s="2"/>
+      <c r="H234" s="2"/>
+      <c r="I234" s="2"/>
+      <c r="J234" s="2"/>
+      <c r="K234" s="2"/>
+      <c r="L234" s="2"/>
+      <c r="M234" s="2"/>
+      <c r="N234" s="2"/>
+      <c r="O234" s="2"/>
+      <c r="P234" s="2"/>
+      <c r="Q234" s="2"/>
+      <c r="R234" s="2"/>
+      <c r="S234" s="2"/>
+      <c r="T234" s="2"/>
+      <c r="U234" s="2"/>
+      <c r="V234" s="2"/>
+      <c r="W234" s="2"/>
+      <c r="X234" s="2"/>
+      <c r="Y234" s="2"/>
+      <c r="Z234" s="2"/>
+      <c r="AA234" s="2"/>
+      <c r="AB234" s="2"/>
+      <c r="AC234" s="2"/>
+      <c r="AD234" s="2"/>
+      <c r="AE234" s="2"/>
+    </row>
   </sheetData>
   <autoFilter ref="A1:G1">
     <filterColumn colId="3"/>
